--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -25,6 +25,12 @@
     <t>AnoSelecionado</t>
   </si>
   <si>
+    <t>CodigoFipe</t>
+  </si>
+  <si>
+    <t>PrecoMedio</t>
+  </si>
+  <si>
     <t>Acura</t>
   </si>
   <si>
@@ -71,6 +77,51 @@
   </si>
   <si>
     <t>1999 Gasolina</t>
+  </si>
+  <si>
+    <t>038003-2</t>
+  </si>
+  <si>
+    <t>038002-4</t>
+  </si>
+  <si>
+    <t>060001-6</t>
+  </si>
+  <si>
+    <t>006009-7</t>
+  </si>
+  <si>
+    <t>006001-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11120.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10387.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14248.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48348.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44601.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43449.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27043.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21667.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21690.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17716.00</t>
   </si>
 </sst>
 </file>
@@ -428,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,137 +495,215 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -37,27 +37,18 @@
     <t>Agrale</t>
   </si>
   <si>
-    <t>Alfa Romeo</t>
-  </si>
-  <si>
     <t>Integra GS 1.8</t>
   </si>
   <si>
     <t>Legend 3.2/3.5</t>
   </si>
   <si>
+    <t>NSX 3.0</t>
+  </si>
+  <si>
     <t>MARRUÁ 2.8 12V 132cv TDI Diesel</t>
   </si>
   <si>
-    <t>MARRUÁ AM 100 2.8  CS TDI Diesel</t>
-  </si>
-  <si>
-    <t>145 Elegant 1.7/1.8 16V</t>
-  </si>
-  <si>
-    <t>145 Elegant 2.0 16V</t>
-  </si>
-  <si>
     <t>1992 Gasolina</t>
   </si>
   <si>
@@ -70,13 +61,28 @@
     <t>1997 Gasolina</t>
   </si>
   <si>
+    <t>1996 Gasolina</t>
+  </si>
+  <si>
+    <t>1995 Gasolina</t>
+  </si>
+  <si>
+    <t>1994 Gasolina</t>
+  </si>
+  <si>
+    <t>1993 Gasolina</t>
+  </si>
+  <si>
     <t>2007 Diesel</t>
   </si>
   <si>
     <t>2006 Diesel</t>
   </si>
   <si>
-    <t>1999 Gasolina</t>
+    <t>2005 Diesel</t>
+  </si>
+  <si>
+    <t>2004 Diesel</t>
   </si>
   <si>
     <t>038003-2</t>
@@ -85,15 +91,12 @@
     <t>038002-4</t>
   </si>
   <si>
+    <t>038001-6</t>
+  </si>
+  <si>
     <t>060001-6</t>
   </si>
   <si>
-    <t>006009-7</t>
-  </si>
-  <si>
-    <t>006001-1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 11120.00</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t xml:space="preserve"> 14248.00</t>
   </si>
   <si>
+    <t xml:space="preserve"> 33464.00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 48348.00</t>
   </si>
   <si>
@@ -112,16 +118,7 @@
     <t xml:space="preserve"> 43449.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> 27043.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21667.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21690.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17716.00</t>
+    <t xml:space="preserve"> 36830.00</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,16 +504,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -524,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -541,16 +538,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -558,30 +555,30 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -589,95 +586,95 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -686,15 +683,15 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -703,7 +700,126 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -34,21 +34,12 @@
     <t>Acura</t>
   </si>
   <si>
-    <t>Agrale</t>
-  </si>
-  <si>
     <t>Integra GS 1.8</t>
   </si>
   <si>
     <t>Legend 3.2/3.5</t>
   </si>
   <si>
-    <t>NSX 3.0</t>
-  </si>
-  <si>
-    <t>MARRUÁ 2.8 12V 132cv TDI Diesel</t>
-  </si>
-  <si>
     <t>1992 Gasolina</t>
   </si>
   <si>
@@ -59,66 +50,6 @@
   </si>
   <si>
     <t>1997 Gasolina</t>
-  </si>
-  <si>
-    <t>1996 Gasolina</t>
-  </si>
-  <si>
-    <t>1995 Gasolina</t>
-  </si>
-  <si>
-    <t>1994 Gasolina</t>
-  </si>
-  <si>
-    <t>1993 Gasolina</t>
-  </si>
-  <si>
-    <t>2007 Diesel</t>
-  </si>
-  <si>
-    <t>2006 Diesel</t>
-  </si>
-  <si>
-    <t>2005 Diesel</t>
-  </si>
-  <si>
-    <t>2004 Diesel</t>
-  </si>
-  <si>
-    <t>038003-2</t>
-  </si>
-  <si>
-    <t>038002-4</t>
-  </si>
-  <si>
-    <t>038001-6</t>
-  </si>
-  <si>
-    <t>060001-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11120.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10387.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14248.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33464.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48348.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 44601.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43449.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36830.00</t>
   </si>
 </sst>
 </file>
@@ -476,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,16 +435,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -521,16 +446,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -538,16 +457,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -555,271 +468,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
         <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Legend 3.2/3.5</t>
   </si>
   <si>
+    <t>NSX 3.0</t>
+  </si>
+  <si>
     <t>1992 Gasolina</t>
   </si>
   <si>
@@ -50,6 +53,60 @@
   </si>
   <si>
     <t>1997 Gasolina</t>
+  </si>
+  <si>
+    <t>1996 Gasolina</t>
+  </si>
+  <si>
+    <t>1995 Gasolina</t>
+  </si>
+  <si>
+    <t>1994 Gasolina</t>
+  </si>
+  <si>
+    <t>1993 Gasolina</t>
+  </si>
+  <si>
+    <t>038003-2</t>
+  </si>
+  <si>
+    <t>038002-4</t>
+  </si>
+  <si>
+    <t>038001-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11097.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10366.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25397.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22580.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19084.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14802.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14219.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40991.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39550.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36538.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33397.00</t>
   </si>
 </sst>
 </file>
@@ -407,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +495,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,7 +512,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -460,7 +529,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,7 +546,200 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.vinicius\Documents\Vscode\Fipe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4223288-A8EF-41CA-BF58-13681008D646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -112,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,13 +182,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +234,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -254,6 +268,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,9 +303,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,14 +479,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -504,7 +529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -521,7 +546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -538,7 +563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -555,7 +580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -572,7 +597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -589,7 +614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -606,7 +631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -623,7 +648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -640,7 +665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -657,7 +682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -674,7 +699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -691,7 +716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -708,7 +733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -725,7 +750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.vinicius\Documents\Vscode\Fipe\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4223288-A8EF-41CA-BF58-13681008D646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -40,6 +34,9 @@
     <t>Acura</t>
   </si>
   <si>
+    <t>Agrale</t>
+  </si>
+  <si>
     <t>Integra GS 1.8</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>NSX 3.0</t>
   </si>
   <si>
+    <t>MARRUÁ 2.8 12V 132cv TDI Diesel</t>
+  </si>
+  <si>
     <t>1992 Gasolina</t>
   </si>
   <si>
@@ -73,13 +73,31 @@
     <t>1993 Gasolina</t>
   </si>
   <si>
+    <t>2007 Diesel</t>
+  </si>
+  <si>
+    <t>2006 Diesel</t>
+  </si>
+  <si>
+    <t>2005 Diesel</t>
+  </si>
+  <si>
+    <t>2004 Diesel</t>
+  </si>
+  <si>
     <t>038003-2</t>
   </si>
   <si>
+    <t>038001-6</t>
+  </si>
+  <si>
     <t>038002-4</t>
   </si>
   <si>
-    <t>038001-6</t>
+    <t>006009-7</t>
+  </si>
+  <si>
+    <t>060001-6</t>
   </si>
   <si>
     <t xml:space="preserve"> 11097.00</t>
@@ -88,38 +106,59 @@
     <t xml:space="preserve"> 10366.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> 25397.00</t>
+    <t xml:space="preserve"> 40991.00</t>
   </si>
   <si>
     <t xml:space="preserve"> 22580.00</t>
   </si>
   <si>
+    <t xml:space="preserve"> 21233.00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 19084.00</t>
   </si>
   <si>
+    <t xml:space="preserve"> 18267.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16282.00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 14802.00</t>
   </si>
   <si>
     <t xml:space="preserve"> 14219.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> 40991.00</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 39550.00</t>
   </si>
   <si>
+    <t xml:space="preserve"> 38236.00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 36538.00</t>
   </si>
   <si>
     <t xml:space="preserve"> 33397.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27313.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44511.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43362.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36756.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,21 +221,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +265,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -268,7 +299,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,10 +333,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,23 +508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,259 +532,327 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
+      <c r="E20" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -88,15 +88,12 @@
     <t>038003-2</t>
   </si>
   <si>
+    <t>038002-4</t>
+  </si>
+  <si>
     <t>038001-6</t>
   </si>
   <si>
-    <t>038002-4</t>
-  </si>
-  <si>
-    <t>006009-7</t>
-  </si>
-  <si>
     <t>060001-6</t>
   </si>
   <si>
@@ -106,30 +103,33 @@
     <t xml:space="preserve"> 10366.00</t>
   </si>
   <si>
+    <t xml:space="preserve"> 25397.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22580.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21233.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19084.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18267.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16282.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14802.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14219.00</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 40991.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> 22580.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21233.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19084.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18267.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16282.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14802.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14219.00</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 39550.00</t>
   </si>
   <si>
@@ -142,7 +142,7 @@
     <t xml:space="preserve"> 33397.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> 27313.00</t>
+    <t xml:space="preserve"> 48251.00</t>
   </si>
   <si>
     <t xml:space="preserve"> 44511.00</t>
@@ -546,7 +546,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -563,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -580,7 +580,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -594,10 +594,10 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,10 +628,10 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -645,10 +645,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -679,10 +679,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -696,10 +696,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -713,10 +713,10 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -730,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -747,7 +747,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -764,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -781,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
@@ -815,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
@@ -832,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
@@ -849,7 +849,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -49,6 +49,9 @@
     <t>MARRUÁ 2.8 12V 132cv TDI Diesel</t>
   </si>
   <si>
+    <t>MARRUÁ AM 100 2.8  CS TDI Diesel</t>
+  </si>
+  <si>
     <t>1992 Gasolina</t>
   </si>
   <si>
@@ -85,6 +88,12 @@
     <t>2004 Diesel</t>
   </si>
   <si>
+    <t>2015 Diesel</t>
+  </si>
+  <si>
+    <t>2014 Diesel</t>
+  </si>
+  <si>
     <t>038003-2</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>060001-6</t>
   </si>
   <si>
+    <t>060003-2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 11097.00</t>
   </si>
   <si>
@@ -152,6 +164,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 36756.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 108542.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102457.00</t>
   </si>
 </sst>
 </file>
@@ -509,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,13 +558,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,13 +575,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,13 +592,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,13 +609,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -625,13 +643,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -642,13 +660,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -659,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -676,13 +694,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -693,13 +711,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -710,13 +728,13 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -727,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -744,13 +762,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -761,13 +779,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -778,13 +796,13 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -795,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -812,13 +830,13 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -829,13 +847,13 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -846,13 +864,47 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="239">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -37,6 +37,12 @@
     <t>Agrale</t>
   </si>
   <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>AM Gen</t>
+  </si>
+  <si>
     <t>Integra GS 1.8</t>
   </si>
   <si>
@@ -52,6 +58,84 @@
     <t>MARRUÁ AM 100 2.8  CS TDI Diesel</t>
   </si>
   <si>
+    <t>MARRUÁ AM 100 2.8 CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 150 2.8  CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 150 2.8 CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 2.8  CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 2.8 CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Esc. 3.8 TDI Die.Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 3.8 TDI Die. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Microbus 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Diesel (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CS TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CS TDI Diesel (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 50 2.8 140cv TDI Diesel</t>
+  </si>
+  <si>
+    <t>Hummer Hard-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Open-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Wagon 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>DB12 Coupe 4.0 V8 680cv</t>
+  </si>
+  <si>
+    <t>DB12 Volante 4.0 V8 680cv</t>
+  </si>
+  <si>
+    <t>DB9 Coupe 6.0 V12 510cv</t>
+  </si>
+  <si>
+    <t>DB9 Volante 6.0 V12 470cv</t>
+  </si>
+  <si>
+    <t>DBS Coupe 5.2 V12 725cv</t>
+  </si>
+  <si>
+    <t>DBX 4.0 V8 550cv</t>
+  </si>
+  <si>
+    <t>DBX707 4.0 V8 707cv</t>
+  </si>
+  <si>
+    <t>Rapide 6.0 V12 477cv</t>
+  </si>
+  <si>
+    <t>Rapide S 6.0 V12 550cv</t>
+  </si>
+  <si>
     <t>1992 Gasolina</t>
   </si>
   <si>
@@ -94,6 +178,78 @@
     <t>2014 Diesel</t>
   </si>
   <si>
+    <t>2013 Diesel</t>
+  </si>
+  <si>
+    <t>2012 Diesel</t>
+  </si>
+  <si>
+    <t>2011 Diesel</t>
+  </si>
+  <si>
+    <t>2010 Diesel</t>
+  </si>
+  <si>
+    <t>2009 Diesel</t>
+  </si>
+  <si>
+    <t>2008 Diesel</t>
+  </si>
+  <si>
+    <t>2022 Diesel</t>
+  </si>
+  <si>
+    <t>2021 Diesel</t>
+  </si>
+  <si>
+    <t>2020 Diesel</t>
+  </si>
+  <si>
+    <t>2019 Diesel</t>
+  </si>
+  <si>
+    <t>2018 Diesel</t>
+  </si>
+  <si>
+    <t>2017 Diesel</t>
+  </si>
+  <si>
+    <t>2016 Diesel</t>
+  </si>
+  <si>
+    <t>Zero KM Diesel</t>
+  </si>
+  <si>
+    <t>2025 Diesel</t>
+  </si>
+  <si>
+    <t>2024 Diesel</t>
+  </si>
+  <si>
+    <t>2023 Diesel</t>
+  </si>
+  <si>
+    <t>2000 Diesel</t>
+  </si>
+  <si>
+    <t>1999 Diesel</t>
+  </si>
+  <si>
+    <t>1998 Diesel</t>
+  </si>
+  <si>
+    <t>1999 Gasolina</t>
+  </si>
+  <si>
+    <t>Zero KM Gasolina</t>
+  </si>
+  <si>
+    <t>2025 Gasolina</t>
+  </si>
+  <si>
+    <t>2024 Gasolina</t>
+  </si>
+  <si>
     <t>038003-2</t>
   </si>
   <si>
@@ -109,6 +265,69 @@
     <t>060003-2</t>
   </si>
   <si>
+    <t>060004-0</t>
+  </si>
+  <si>
+    <t>060005-9</t>
+  </si>
+  <si>
+    <t>060006-7</t>
+  </si>
+  <si>
+    <t>060008-3</t>
+  </si>
+  <si>
+    <t>060007-5</t>
+  </si>
+  <si>
+    <t>060014-8</t>
+  </si>
+  <si>
+    <t>060010-5</t>
+  </si>
+  <si>
+    <t>060011-3</t>
+  </si>
+  <si>
+    <t>060009-1</t>
+  </si>
+  <si>
+    <t>060013-0</t>
+  </si>
+  <si>
+    <t>060012-1</t>
+  </si>
+  <si>
+    <t>060016-4</t>
+  </si>
+  <si>
+    <t>060015-6</t>
+  </si>
+  <si>
+    <t>060002-4</t>
+  </si>
+  <si>
+    <t>037001-0</t>
+  </si>
+  <si>
+    <t>006009-7</t>
+  </si>
+  <si>
+    <t>006001-1</t>
+  </si>
+  <si>
+    <t>006002-0</t>
+  </si>
+  <si>
+    <t>085018-7</t>
+  </si>
+  <si>
+    <t>037002-9</t>
+  </si>
+  <si>
+    <t>037003-7</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 11097.00</t>
   </si>
   <si>
@@ -170,6 +389,348 @@
   </si>
   <si>
     <t xml:space="preserve"> 102457.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94808.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92495.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77133.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64732.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50855.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45520.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 118402.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109313.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 105835.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98655.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79141.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67803.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56957.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52227.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49774.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109984.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102929.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95786.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90235.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76651.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61576.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52512.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47788.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123530.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 116892.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110141.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 107454.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87847.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69207.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60165.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57040.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 342477.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 323094.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 309449.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 232839.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 196563.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 151051.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 130818.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 127345.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 119707.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109489.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102295.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71438.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66077.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62211.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 319147.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 295759.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 272470.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 218838.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 182819.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 143191.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 128066.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 117176.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 107701.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99063.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92339.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85809.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65829.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57637.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54453.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49790.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 871250.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 720239.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 668533.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 625747.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 395995.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 370657.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 767261.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 673977.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 647026.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 593239.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 393070.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 367151.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 690496.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 568060.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 518150.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 484471.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 621203.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 516464.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 477859.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 446883.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 639491.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 531677.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 489059.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 456781.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 573663.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 462508.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 434991.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 406281.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72391.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65190.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55471.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51567.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 426859.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21558.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14581.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21581.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17680.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17248.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13550.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29872.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29143.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23404.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22833.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3600000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 384365.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 332825.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 396648.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 351603.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 294624.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 453297.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 401677.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 348246.00</t>
   </si>
 </sst>
 </file>
@@ -527,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,16 +1116,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -572,16 +1133,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -589,16 +1150,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -606,16 +1167,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -623,16 +1184,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -640,16 +1201,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -657,16 +1218,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -674,16 +1235,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,16 +1252,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -708,16 +1269,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -725,16 +1286,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -742,16 +1303,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -759,16 +1320,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -776,16 +1337,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -793,16 +1354,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -810,16 +1371,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -827,16 +1388,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -844,16 +1405,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -861,16 +1422,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -878,16 +1439,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -895,16 +1456,2243 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>70</v>
+      </c>
+      <c r="D94" t="s">
+        <v>90</v>
+      </c>
+      <c r="E94" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" t="s">
+        <v>92</v>
+      </c>
+      <c r="E97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103" t="s">
+        <v>93</v>
+      </c>
+      <c r="E103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" t="s">
+        <v>93</v>
+      </c>
+      <c r="E104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C105" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E105" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>94</v>
+      </c>
+      <c r="E106" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>69</v>
+      </c>
+      <c r="D107" t="s">
+        <v>94</v>
+      </c>
+      <c r="E107" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" t="s">
+        <v>70</v>
+      </c>
+      <c r="D108" t="s">
+        <v>94</v>
+      </c>
+      <c r="E108" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" t="s">
+        <v>95</v>
+      </c>
+      <c r="E109" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>95</v>
+      </c>
+      <c r="E110" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" t="s">
+        <v>95</v>
+      </c>
+      <c r="E111" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" t="s">
+        <v>57</v>
+      </c>
+      <c r="D114" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" t="s">
+        <v>96</v>
+      </c>
+      <c r="E115" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D117" t="s">
+        <v>97</v>
+      </c>
+      <c r="E117" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D118" t="s">
+        <v>98</v>
+      </c>
+      <c r="E118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>73</v>
+      </c>
+      <c r="D119" t="s">
+        <v>98</v>
+      </c>
+      <c r="E119" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" t="s">
+        <v>42</v>
+      </c>
+      <c r="D120" t="s">
+        <v>99</v>
+      </c>
+      <c r="E120" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D121" t="s">
+        <v>99</v>
+      </c>
+      <c r="E121" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" t="s">
+        <v>99</v>
+      </c>
+      <c r="E122" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" t="s">
+        <v>99</v>
+      </c>
+      <c r="E123" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
         <v>30</v>
       </c>
-      <c r="E22" t="s">
-        <v>51</v>
+      <c r="C124" t="s">
+        <v>74</v>
+      </c>
+      <c r="D124" t="s">
+        <v>100</v>
+      </c>
+      <c r="E124" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" t="s">
+        <v>100</v>
+      </c>
+      <c r="E126" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" t="s">
+        <v>100</v>
+      </c>
+      <c r="E127" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" t="s">
+        <v>75</v>
+      </c>
+      <c r="D128" t="s">
+        <v>101</v>
+      </c>
+      <c r="E128" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" t="s">
+        <v>76</v>
+      </c>
+      <c r="D129" t="s">
+        <v>97</v>
+      </c>
+      <c r="E129" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" t="s">
+        <v>77</v>
+      </c>
+      <c r="D130" t="s">
+        <v>97</v>
+      </c>
+      <c r="E130" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" t="s">
+        <v>102</v>
+      </c>
+      <c r="E131" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
+        <v>72</v>
+      </c>
+      <c r="D132" t="s">
+        <v>102</v>
+      </c>
+      <c r="E132" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" t="s">
+        <v>73</v>
+      </c>
+      <c r="D133" t="s">
+        <v>102</v>
+      </c>
+      <c r="E133" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" t="s">
+        <v>103</v>
+      </c>
+      <c r="E134" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" t="s">
+        <v>72</v>
+      </c>
+      <c r="D135" t="s">
+        <v>103</v>
+      </c>
+      <c r="E135" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" t="s">
+        <v>73</v>
+      </c>
+      <c r="D136" t="s">
+        <v>103</v>
+      </c>
+      <c r="E136" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" t="s">
+        <v>71</v>
+      </c>
+      <c r="D137" t="s">
+        <v>103</v>
+      </c>
+      <c r="E137" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" t="s">
+        <v>72</v>
+      </c>
+      <c r="D138" t="s">
+        <v>103</v>
+      </c>
+      <c r="E138" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" t="s">
+        <v>73</v>
+      </c>
+      <c r="D139" t="s">
+        <v>103</v>
+      </c>
+      <c r="E139" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" t="s">
+        <v>71</v>
+      </c>
+      <c r="D140" t="s">
+        <v>103</v>
+      </c>
+      <c r="E140" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" t="s">
+        <v>72</v>
+      </c>
+      <c r="D141" t="s">
+        <v>103</v>
+      </c>
+      <c r="E141" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" t="s">
+        <v>73</v>
+      </c>
+      <c r="D142" t="s">
+        <v>103</v>
+      </c>
+      <c r="E142" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" t="s">
+        <v>71</v>
+      </c>
+      <c r="D143" t="s">
+        <v>103</v>
+      </c>
+      <c r="E143" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" t="s">
+        <v>72</v>
+      </c>
+      <c r="D144" t="s">
+        <v>103</v>
+      </c>
+      <c r="E144" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>73</v>
+      </c>
+      <c r="D145" t="s">
+        <v>103</v>
+      </c>
+      <c r="E145" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>71</v>
+      </c>
+      <c r="D146" t="s">
+        <v>103</v>
+      </c>
+      <c r="E146" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" t="s">
+        <v>72</v>
+      </c>
+      <c r="D147" t="s">
+        <v>103</v>
+      </c>
+      <c r="E147" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" t="s">
+        <v>73</v>
+      </c>
+      <c r="D148" t="s">
+        <v>103</v>
+      </c>
+      <c r="E148" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>38</v>
+      </c>
+      <c r="C149" t="s">
+        <v>71</v>
+      </c>
+      <c r="D149" t="s">
+        <v>103</v>
+      </c>
+      <c r="E149" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" t="s">
+        <v>72</v>
+      </c>
+      <c r="D150" t="s">
+        <v>103</v>
+      </c>
+      <c r="E150" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>38</v>
+      </c>
+      <c r="C151" t="s">
+        <v>73</v>
+      </c>
+      <c r="D151" t="s">
+        <v>103</v>
+      </c>
+      <c r="E151" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" t="s">
+        <v>71</v>
+      </c>
+      <c r="D152" t="s">
+        <v>103</v>
+      </c>
+      <c r="E152" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>39</v>
+      </c>
+      <c r="C153" t="s">
+        <v>72</v>
+      </c>
+      <c r="D153" t="s">
+        <v>103</v>
+      </c>
+      <c r="E153" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="306">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -37,6 +37,12 @@
     <t>Agrale</t>
   </si>
   <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>AM Gen</t>
+  </si>
+  <si>
     <t>Integra GS 1.8</t>
   </si>
   <si>
@@ -61,6 +67,96 @@
     <t>MARRUÁ AM 150 2.8 CD TDI Diesel</t>
   </si>
   <si>
+    <t>MARRUÁ AM 200 2.8  CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 2.8 CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Esc. 3.8 TDI Die.Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 3.8 TDI Die. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Microbus 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Diesel (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CS TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CS TDI Diesel (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 50 2.8 140cv TDI Diesel</t>
+  </si>
+  <si>
+    <t>145 Elegant 1.7/1.8 16V</t>
+  </si>
+  <si>
+    <t>145 Elegant 2.0 16V</t>
+  </si>
+  <si>
+    <t>145 Quadrifoglio 2.0</t>
+  </si>
+  <si>
+    <t>145 QV</t>
+  </si>
+  <si>
+    <t>147 2.0 16V 148cv 4p Semi-Aut.</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>155 Super</t>
+  </si>
+  <si>
+    <t>156 2.5 V6 24V 190cv 4p Aut.</t>
+  </si>
+  <si>
+    <t>156 Sport Wagon 2.0 16V</t>
+  </si>
+  <si>
+    <t>156 Sport Wagon 2.5 V6 24V 4p Aut.</t>
+  </si>
+  <si>
+    <t>156 TS/Sport/Elegant 2.0 16V</t>
+  </si>
+  <si>
+    <t>164 3.0 V6</t>
+  </si>
+  <si>
+    <t>164 Super V6 24V</t>
+  </si>
+  <si>
+    <t>166 3.0 V6 24V</t>
+  </si>
+  <si>
+    <t>2300 TI/TI-4</t>
+  </si>
+  <si>
+    <t>Spider 2.0/3.0</t>
+  </si>
+  <si>
+    <t>Hummer Hard-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Open-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Wagon 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
     <t>1992 Gasolina</t>
   </si>
   <si>
@@ -121,6 +217,75 @@
     <t>2008 Diesel</t>
   </si>
   <si>
+    <t>2022 Diesel</t>
+  </si>
+  <si>
+    <t>2021 Diesel</t>
+  </si>
+  <si>
+    <t>2020 Diesel</t>
+  </si>
+  <si>
+    <t>2019 Diesel</t>
+  </si>
+  <si>
+    <t>2018 Diesel</t>
+  </si>
+  <si>
+    <t>2017 Diesel</t>
+  </si>
+  <si>
+    <t>2016 Diesel</t>
+  </si>
+  <si>
+    <t>Zero KM Diesel</t>
+  </si>
+  <si>
+    <t>2025 Diesel</t>
+  </si>
+  <si>
+    <t>2024 Diesel</t>
+  </si>
+  <si>
+    <t>2023 Diesel</t>
+  </si>
+  <si>
+    <t>1999 Gasolina</t>
+  </si>
+  <si>
+    <t>2005 Gasolina</t>
+  </si>
+  <si>
+    <t>2004 Gasolina</t>
+  </si>
+  <si>
+    <t>2003 Gasolina</t>
+  </si>
+  <si>
+    <t>2002 Gasolina</t>
+  </si>
+  <si>
+    <t>2001 Gasolina</t>
+  </si>
+  <si>
+    <t>2000 Gasolina</t>
+  </si>
+  <si>
+    <t>1986 Gasolina</t>
+  </si>
+  <si>
+    <t>1985 Gasolina</t>
+  </si>
+  <si>
+    <t>2000 Diesel</t>
+  </si>
+  <si>
+    <t>1999 Diesel</t>
+  </si>
+  <si>
+    <t>1998 Diesel</t>
+  </si>
+  <si>
     <t>038003-2</t>
   </si>
   <si>
@@ -145,6 +310,96 @@
     <t>060006-7</t>
   </si>
   <si>
+    <t>060008-3</t>
+  </si>
+  <si>
+    <t>060007-5</t>
+  </si>
+  <si>
+    <t>060014-8</t>
+  </si>
+  <si>
+    <t>060010-5</t>
+  </si>
+  <si>
+    <t>060011-3</t>
+  </si>
+  <si>
+    <t>060009-1</t>
+  </si>
+  <si>
+    <t>060013-0</t>
+  </si>
+  <si>
+    <t>060012-1</t>
+  </si>
+  <si>
+    <t>060016-4</t>
+  </si>
+  <si>
+    <t>060015-6</t>
+  </si>
+  <si>
+    <t>060002-4</t>
+  </si>
+  <si>
+    <t>006009-7</t>
+  </si>
+  <si>
+    <t>006001-1</t>
+  </si>
+  <si>
+    <t>006002-0</t>
+  </si>
+  <si>
+    <t>006008-9</t>
+  </si>
+  <si>
+    <t>006017-8</t>
+  </si>
+  <si>
+    <t>006003-8</t>
+  </si>
+  <si>
+    <t>006004-6</t>
+  </si>
+  <si>
+    <t>006015-1</t>
+  </si>
+  <si>
+    <t>006014-3</t>
+  </si>
+  <si>
+    <t>006016-0</t>
+  </si>
+  <si>
+    <t>006010-0</t>
+  </si>
+  <si>
+    <t>006005-4</t>
+  </si>
+  <si>
+    <t>006006-2</t>
+  </si>
+  <si>
+    <t>006011-9</t>
+  </si>
+  <si>
+    <t>006013-5</t>
+  </si>
+  <si>
+    <t>006007-0</t>
+  </si>
+  <si>
+    <t>037001-0</t>
+  </si>
+  <si>
+    <t>037002-9</t>
+  </si>
+  <si>
+    <t>037003-7</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 11097.00</t>
   </si>
   <si>
@@ -262,9 +517,6 @@
     <t xml:space="preserve"> 95786.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> 90235.00</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 76651.00</t>
   </si>
   <si>
@@ -290,6 +542,396 @@
   </si>
   <si>
     <t xml:space="preserve"> 87847.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69207.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60165.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57040.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 342477.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 323094.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 309449.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 232839.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 196563.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 151051.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 130818.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 127345.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 119707.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109489.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102295.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71438.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66077.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62211.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 319147.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 295759.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 272470.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 218838.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 182819.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 143191.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 128066.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 117176.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 107701.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99063.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92339.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85809.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65829.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57637.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54453.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49790.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 871250.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 720239.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 668533.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 625747.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 395995.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 370657.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 767261.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 673977.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 647026.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 593239.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 393070.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 367151.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 690496.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 568060.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 518150.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 484471.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 621203.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 516464.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 477859.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 446883.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 639491.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 531677.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 489059.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 456781.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 573663.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 462508.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 434991.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 406281.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72391.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65190.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55471.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51567.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27313.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21558.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14581.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13265.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21581.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17680.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17248.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13550.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29872.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29143.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23404.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22833.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22449.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18647.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18192.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92142.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89894.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87701.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19511.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18466.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15931.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24925.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24317.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19754.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 104853.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32424.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49978.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45101.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74355.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71998.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75561.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70007.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58514.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57086.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29151.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28440.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27102.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19575.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13455.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11701.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28869.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28164.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89797.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86004.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83906.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81859.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71424.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8070.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7072.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 133185.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 129936.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92099.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41220.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32289.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27713.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 426859.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 384365.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 332825.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 396648.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 351603.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 294624.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 453297.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 401677.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 348246.00</t>
   </si>
 </sst>
 </file>
@@ -647,7 +1289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,16 +1317,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -692,16 +1334,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -709,16 +1351,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -726,16 +1368,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -743,16 +1385,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -760,16 +1402,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -777,16 +1419,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -794,16 +1436,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -811,16 +1453,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -828,16 +1470,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -845,16 +1487,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -862,16 +1504,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -879,16 +1521,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -896,16 +1538,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -913,16 +1555,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -930,16 +1572,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -947,16 +1589,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -964,16 +1606,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -981,16 +1623,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -998,16 +1640,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1015,16 +1657,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1032,16 +1674,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1049,16 +1691,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1066,16 +1708,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1083,16 +1725,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1100,16 +1742,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1117,16 +1759,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1134,16 +1776,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1151,16 +1793,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1168,16 +1810,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1185,16 +1827,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1202,16 +1844,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1219,16 +1861,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1236,16 +1878,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1253,16 +1895,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1270,16 +1912,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1287,16 +1929,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1304,16 +1946,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1321,16 +1963,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1338,16 +1980,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1355,16 +1997,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1372,16 +2014,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1389,16 +2031,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1406,16 +2048,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1423,16 +2065,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1440,16 +2082,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1457,16 +2099,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1474,16 +2116,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1491,16 +2133,2226 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" t="s">
+        <v>104</v>
+      </c>
+      <c r="E98" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" t="s">
+        <v>104</v>
+      </c>
+      <c r="E99" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" t="s">
+        <v>74</v>
+      </c>
+      <c r="D105" t="s">
+        <v>106</v>
+      </c>
+      <c r="E105" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106" t="s">
+        <v>106</v>
+      </c>
+      <c r="E106" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" t="s">
+        <v>75</v>
+      </c>
+      <c r="D110" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" t="s">
+        <v>76</v>
+      </c>
+      <c r="D111" t="s">
+        <v>107</v>
+      </c>
+      <c r="E111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" t="s">
+        <v>77</v>
+      </c>
+      <c r="D112" t="s">
+        <v>107</v>
+      </c>
+      <c r="E112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" t="s">
+        <v>108</v>
+      </c>
+      <c r="E115" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" t="s">
+        <v>108</v>
+      </c>
+      <c r="E116" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117" t="s">
+        <v>109</v>
+      </c>
+      <c r="E117" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" t="s">
+        <v>109</v>
+      </c>
+      <c r="E118" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119" t="s">
+        <v>109</v>
+      </c>
+      <c r="E119" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" t="s">
+        <v>109</v>
+      </c>
+      <c r="E120" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" t="s">
+        <v>50</v>
+      </c>
+      <c r="D122" t="s">
+        <v>110</v>
+      </c>
+      <c r="E122" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123" t="s">
+        <v>110</v>
+      </c>
+      <c r="E123" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" t="s">
+        <v>110</v>
+      </c>
+      <c r="E124" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" t="s">
+        <v>78</v>
+      </c>
+      <c r="D125" t="s">
+        <v>111</v>
+      </c>
+      <c r="E125" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" t="s">
+        <v>111</v>
+      </c>
+      <c r="E127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" t="s">
+        <v>51</v>
+      </c>
+      <c r="D128" t="s">
+        <v>111</v>
+      </c>
+      <c r="E128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
         <v>31</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C129" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" t="s">
+        <v>112</v>
+      </c>
+      <c r="E129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131" t="s">
+        <v>112</v>
+      </c>
+      <c r="E131" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" t="s">
+        <v>79</v>
+      </c>
+      <c r="D132" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" t="s">
+        <v>80</v>
+      </c>
+      <c r="D133" t="s">
+        <v>113</v>
+      </c>
+      <c r="E133" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" t="s">
+        <v>81</v>
+      </c>
+      <c r="D134" t="s">
+        <v>113</v>
+      </c>
+      <c r="E134" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" t="s">
+        <v>51</v>
+      </c>
+      <c r="D136" t="s">
+        <v>114</v>
+      </c>
+      <c r="E136" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137" t="s">
+        <v>114</v>
+      </c>
+      <c r="E137" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" t="s">
+        <v>50</v>
+      </c>
+      <c r="D138" t="s">
+        <v>115</v>
+      </c>
+      <c r="E138" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" t="s">
+        <v>51</v>
+      </c>
+      <c r="D139" t="s">
+        <v>115</v>
+      </c>
+      <c r="E139" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" t="s">
+        <v>115</v>
+      </c>
+      <c r="E140" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" t="s">
+        <v>81</v>
+      </c>
+      <c r="D141" t="s">
+        <v>116</v>
+      </c>
+      <c r="E141" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" t="s">
+        <v>78</v>
+      </c>
+      <c r="D142" t="s">
+        <v>116</v>
+      </c>
+      <c r="E142" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>36</v>
+      </c>
+      <c r="C143" t="s">
+        <v>82</v>
+      </c>
+      <c r="D143" t="s">
+        <v>117</v>
+      </c>
+      <c r="E143" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" t="s">
+        <v>83</v>
+      </c>
+      <c r="D144" t="s">
+        <v>117</v>
+      </c>
+      <c r="E144" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" t="s">
+        <v>80</v>
+      </c>
+      <c r="D145" t="s">
+        <v>118</v>
+      </c>
+      <c r="E145" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>81</v>
+      </c>
+      <c r="D146" t="s">
+        <v>118</v>
+      </c>
+      <c r="E146" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>38</v>
+      </c>
+      <c r="C147" t="s">
+        <v>82</v>
+      </c>
+      <c r="D147" t="s">
+        <v>119</v>
+      </c>
+      <c r="E147" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" t="s">
+        <v>83</v>
+      </c>
+      <c r="D148" t="s">
+        <v>119</v>
+      </c>
+      <c r="E148" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>38</v>
+      </c>
+      <c r="C149" t="s">
+        <v>84</v>
+      </c>
+      <c r="D149" t="s">
+        <v>119</v>
+      </c>
+      <c r="E149" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" t="s">
+        <v>78</v>
+      </c>
+      <c r="D150" t="s">
+        <v>119</v>
+      </c>
+      <c r="E150" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" t="s">
+        <v>120</v>
+      </c>
+      <c r="E151" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" t="s">
+        <v>52</v>
+      </c>
+      <c r="D152" t="s">
+        <v>120</v>
+      </c>
+      <c r="E152" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>39</v>
+      </c>
+      <c r="C153" t="s">
+        <v>53</v>
+      </c>
+      <c r="D153" t="s">
+        <v>120</v>
+      </c>
+      <c r="E153" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>39</v>
+      </c>
+      <c r="C154" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" t="s">
+        <v>120</v>
+      </c>
+      <c r="E154" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>39</v>
+      </c>
+      <c r="C155" t="s">
+        <v>47</v>
+      </c>
+      <c r="D155" t="s">
+        <v>120</v>
+      </c>
+      <c r="E155" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" t="s">
+        <v>120</v>
+      </c>
+      <c r="E156" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>40</v>
+      </c>
+      <c r="C157" t="s">
+        <v>51</v>
+      </c>
+      <c r="D157" t="s">
+        <v>121</v>
+      </c>
+      <c r="E157" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" t="s">
+        <v>121</v>
+      </c>
+      <c r="E158" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>41</v>
+      </c>
+      <c r="C159" t="s">
+        <v>81</v>
+      </c>
+      <c r="D159" t="s">
+        <v>122</v>
+      </c>
+      <c r="E159" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>41</v>
+      </c>
+      <c r="C160" t="s">
+        <v>82</v>
+      </c>
+      <c r="D160" t="s">
+        <v>122</v>
+      </c>
+      <c r="E160" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161" t="s">
+        <v>83</v>
+      </c>
+      <c r="D161" t="s">
+        <v>122</v>
+      </c>
+      <c r="E161" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" t="s">
+        <v>84</v>
+      </c>
+      <c r="D162" t="s">
+        <v>122</v>
+      </c>
+      <c r="E162" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" t="s">
+        <v>78</v>
+      </c>
+      <c r="D163" t="s">
+        <v>122</v>
+      </c>
+      <c r="E163" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
         <v>42</v>
       </c>
-      <c r="E50" t="s">
-        <v>91</v>
+      <c r="C164" t="s">
+        <v>85</v>
+      </c>
+      <c r="D164" t="s">
+        <v>123</v>
+      </c>
+      <c r="E164" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" t="s">
+        <v>86</v>
+      </c>
+      <c r="D165" t="s">
+        <v>123</v>
+      </c>
+      <c r="E165" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>43</v>
+      </c>
+      <c r="C166" t="s">
+        <v>50</v>
+      </c>
+      <c r="D166" t="s">
+        <v>124</v>
+      </c>
+      <c r="E166" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>43</v>
+      </c>
+      <c r="C167" t="s">
+        <v>51</v>
+      </c>
+      <c r="D167" t="s">
+        <v>124</v>
+      </c>
+      <c r="E167" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>43</v>
+      </c>
+      <c r="C168" t="s">
+        <v>52</v>
+      </c>
+      <c r="D168" t="s">
+        <v>124</v>
+      </c>
+      <c r="E168" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>43</v>
+      </c>
+      <c r="C169" t="s">
+        <v>54</v>
+      </c>
+      <c r="D169" t="s">
+        <v>124</v>
+      </c>
+      <c r="E169" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170" t="s">
+        <v>47</v>
+      </c>
+      <c r="D170" t="s">
+        <v>124</v>
+      </c>
+      <c r="E170" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>43</v>
+      </c>
+      <c r="C171" t="s">
+        <v>48</v>
+      </c>
+      <c r="D171" t="s">
+        <v>124</v>
+      </c>
+      <c r="E171" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>44</v>
+      </c>
+      <c r="C172" t="s">
+        <v>87</v>
+      </c>
+      <c r="D172" t="s">
+        <v>125</v>
+      </c>
+      <c r="E172" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>44</v>
+      </c>
+      <c r="C173" t="s">
+        <v>88</v>
+      </c>
+      <c r="D173" t="s">
+        <v>125</v>
+      </c>
+      <c r="E173" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>44</v>
+      </c>
+      <c r="C174" t="s">
+        <v>89</v>
+      </c>
+      <c r="D174" t="s">
+        <v>125</v>
+      </c>
+      <c r="E174" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>45</v>
+      </c>
+      <c r="C175" t="s">
+        <v>87</v>
+      </c>
+      <c r="D175" t="s">
+        <v>126</v>
+      </c>
+      <c r="E175" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>45</v>
+      </c>
+      <c r="C176" t="s">
+        <v>88</v>
+      </c>
+      <c r="D176" t="s">
+        <v>126</v>
+      </c>
+      <c r="E176" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>45</v>
+      </c>
+      <c r="C177" t="s">
+        <v>89</v>
+      </c>
+      <c r="D177" t="s">
+        <v>126</v>
+      </c>
+      <c r="E177" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>46</v>
+      </c>
+      <c r="C178" t="s">
+        <v>87</v>
+      </c>
+      <c r="D178" t="s">
+        <v>127</v>
+      </c>
+      <c r="E178" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>46</v>
+      </c>
+      <c r="C179" t="s">
+        <v>88</v>
+      </c>
+      <c r="D179" t="s">
+        <v>127</v>
+      </c>
+      <c r="E179" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>46</v>
+      </c>
+      <c r="C180" t="s">
+        <v>89</v>
+      </c>
+      <c r="D180" t="s">
+        <v>127</v>
+      </c>
+      <c r="E180" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="160">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -31,43 +31,469 @@
     <t>PrecoMedio</t>
   </si>
   <si>
-    <t>Acura</t>
-  </si>
-  <si>
-    <t>Integra GS 1.8</t>
-  </si>
-  <si>
-    <t>Legend 3.2/3.5</t>
-  </si>
-  <si>
-    <t>1992 Gasolina</t>
-  </si>
-  <si>
-    <t>1991 Gasolina</t>
-  </si>
-  <si>
-    <t>1998 Gasolina</t>
-  </si>
-  <si>
-    <t>1997 Gasolina</t>
-  </si>
-  <si>
-    <t>038003-2</t>
-  </si>
-  <si>
-    <t>038002-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11097.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10366.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25397.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22580.00</t>
+    <t>Agrale</t>
+  </si>
+  <si>
+    <t>MARRUÁ 2.8 12V 132cv TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 100 2.8  CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 100 2.8 CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 150 2.8  CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 150 2.8 CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 2.8  CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 2.8 CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Esc. 3.8 TDI Die.Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 3.8 TDI Die. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Microbus 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Diesel (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CS TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CS TDI Diesel (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 50 2.8 140cv TDI Diesel</t>
+  </si>
+  <si>
+    <t>2007 Diesel</t>
+  </si>
+  <si>
+    <t>2006 Diesel</t>
+  </si>
+  <si>
+    <t>2005 Diesel</t>
+  </si>
+  <si>
+    <t>2004 Diesel</t>
+  </si>
+  <si>
+    <t>2015 Diesel</t>
+  </si>
+  <si>
+    <t>2014 Diesel</t>
+  </si>
+  <si>
+    <t>2013 Diesel</t>
+  </si>
+  <si>
+    <t>2012 Diesel</t>
+  </si>
+  <si>
+    <t>2011 Diesel</t>
+  </si>
+  <si>
+    <t>2010 Diesel</t>
+  </si>
+  <si>
+    <t>2009 Diesel</t>
+  </si>
+  <si>
+    <t>2008 Diesel</t>
+  </si>
+  <si>
+    <t>2022 Diesel</t>
+  </si>
+  <si>
+    <t>2021 Diesel</t>
+  </si>
+  <si>
+    <t>2020 Diesel</t>
+  </si>
+  <si>
+    <t>2019 Diesel</t>
+  </si>
+  <si>
+    <t>2018 Diesel</t>
+  </si>
+  <si>
+    <t>2017 Diesel</t>
+  </si>
+  <si>
+    <t>2016 Diesel</t>
+  </si>
+  <si>
+    <t>Zero KM Diesel</t>
+  </si>
+  <si>
+    <t>2025 Diesel</t>
+  </si>
+  <si>
+    <t>2024 Diesel</t>
+  </si>
+  <si>
+    <t>2023 Diesel</t>
+  </si>
+  <si>
+    <t>060001-6</t>
+  </si>
+  <si>
+    <t>060003-2</t>
+  </si>
+  <si>
+    <t>060004-0</t>
+  </si>
+  <si>
+    <t>060005-9</t>
+  </si>
+  <si>
+    <t>060006-7</t>
+  </si>
+  <si>
+    <t>060008-3</t>
+  </si>
+  <si>
+    <t>060007-5</t>
+  </si>
+  <si>
+    <t>060014-8</t>
+  </si>
+  <si>
+    <t>060010-5</t>
+  </si>
+  <si>
+    <t>060011-3</t>
+  </si>
+  <si>
+    <t>060009-1</t>
+  </si>
+  <si>
+    <t>060013-0</t>
+  </si>
+  <si>
+    <t>060012-1</t>
+  </si>
+  <si>
+    <t>060016-4</t>
+  </si>
+  <si>
+    <t>060015-6</t>
+  </si>
+  <si>
+    <t>060002-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48251.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44511.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43362.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36756.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 108542.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102457.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94808.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92495.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77133.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64732.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50855.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45520.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 118402.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109313.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 105835.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98655.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79141.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67803.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56957.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52227.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49774.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109984.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102929.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95786.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90235.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76651.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61576.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52512.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47788.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123530.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 116892.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110141.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 107454.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87847.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69207.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60165.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57040.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 342477.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 323094.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 309449.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 232839.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 196563.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 151051.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 130818.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 127345.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 119707.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109489.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102295.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71438.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66077.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62211.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 319147.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 295759.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 272470.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 218838.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 182819.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 143191.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 128066.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 117176.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 107701.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99063.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92339.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85809.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65829.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57637.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54453.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49790.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 871250.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 720239.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 668533.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 625747.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 395995.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 370657.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 767261.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 673977.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 647026.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 593239.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 393070.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 367151.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 690496.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 568060.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 518150.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 484471.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 621203.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 516464.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 477859.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 446883.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 639491.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 531677.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 489059.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 456781.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 573663.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 462508.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 434991.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 406281.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72391.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65190.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51567.00</t>
   </si>
 </sst>
 </file>
@@ -425,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,13 +882,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -473,13 +899,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -487,16 +913,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -504,16 +930,1631 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
         <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" t="s">
+        <v>56</v>
+      </c>
+      <c r="E82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" t="s">
+        <v>57</v>
+      </c>
+      <c r="E86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" t="s">
+        <v>57</v>
+      </c>
+      <c r="E87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" t="s">
+        <v>58</v>
+      </c>
+      <c r="E93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" t="s">
+        <v>59</v>
+      </c>
+      <c r="E97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" t="s">
+        <v>60</v>
+      </c>
+      <c r="E99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" t="s">
+        <v>60</v>
+      </c>
+      <c r="E100" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="87">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -34,19 +34,244 @@
     <t>Mes Referencia</t>
   </si>
   <si>
-    <t>AM Gen</t>
-  </si>
-  <si>
-    <t>Hummer Hard-Top 6.5 4x4 Diesel TB</t>
-  </si>
-  <si>
-    <t>2000 Diesel</t>
-  </si>
-  <si>
-    <t>037001-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 426859.00</t>
+    <t>Acura</t>
+  </si>
+  <si>
+    <t>Agrale</t>
+  </si>
+  <si>
+    <t>Integra GS 1.8</t>
+  </si>
+  <si>
+    <t>Legend 3.2/3.5</t>
+  </si>
+  <si>
+    <t>NSX 3.0</t>
+  </si>
+  <si>
+    <t>MARRUÁ 2.8 12V 132cv TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 100 2.8  CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 100 2.8 CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 150 2.8  CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>1992 Gasolina</t>
+  </si>
+  <si>
+    <t>1991 Gasolina</t>
+  </si>
+  <si>
+    <t>1998 Gasolina</t>
+  </si>
+  <si>
+    <t>1997 Gasolina</t>
+  </si>
+  <si>
+    <t>1996 Gasolina</t>
+  </si>
+  <si>
+    <t>1995 Gasolina</t>
+  </si>
+  <si>
+    <t>1994 Gasolina</t>
+  </si>
+  <si>
+    <t>1993 Gasolina</t>
+  </si>
+  <si>
+    <t>2007 Diesel</t>
+  </si>
+  <si>
+    <t>2006 Diesel</t>
+  </si>
+  <si>
+    <t>2005 Diesel</t>
+  </si>
+  <si>
+    <t>2004 Diesel</t>
+  </si>
+  <si>
+    <t>2015 Diesel</t>
+  </si>
+  <si>
+    <t>2014 Diesel</t>
+  </si>
+  <si>
+    <t>2013 Diesel</t>
+  </si>
+  <si>
+    <t>2012 Diesel</t>
+  </si>
+  <si>
+    <t>2011 Diesel</t>
+  </si>
+  <si>
+    <t>2010 Diesel</t>
+  </si>
+  <si>
+    <t>2009 Diesel</t>
+  </si>
+  <si>
+    <t>2008 Diesel</t>
+  </si>
+  <si>
+    <t>038003-2</t>
+  </si>
+  <si>
+    <t>038002-4</t>
+  </si>
+  <si>
+    <t>038001-6</t>
+  </si>
+  <si>
+    <t>060001-6</t>
+  </si>
+  <si>
+    <t>060003-2</t>
+  </si>
+  <si>
+    <t>060004-0</t>
+  </si>
+  <si>
+    <t>060005-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11097.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10366.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25397.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22580.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21233.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19084.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18267.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16282.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14802.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14219.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40991.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39550.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38236.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36538.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33397.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48251.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44511.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43362.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36756.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 108542.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102457.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94808.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92495.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77133.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64732.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50855.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45520.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 118402.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109313.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 105835.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98655.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79141.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67803.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56957.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52227.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49774.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109984.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102929.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95786.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90235.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76651.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61576.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52512.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47788.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -407,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,19 +663,879 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="296">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -34,31 +34,190 @@
     <t>Mes Referencia</t>
   </si>
   <si>
-    <t>Acura</t>
-  </si>
-  <si>
-    <t>Agrale</t>
-  </si>
-  <si>
-    <t>Integra GS 1.8</t>
-  </si>
-  <si>
-    <t>Legend 3.2/3.5</t>
-  </si>
-  <si>
-    <t>NSX 3.0</t>
-  </si>
-  <si>
-    <t>MARRUÁ 2.8 12V 132cv TDI Diesel</t>
-  </si>
-  <si>
-    <t>MARRUÁ AM 100 2.8  CS TDI Diesel</t>
-  </si>
-  <si>
-    <t>MARRUÁ AM 100 2.8 CD TDI Diesel</t>
-  </si>
-  <si>
-    <t>MARRUÁ AM 150 2.8  CS TDI Diesel</t>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>AM Gen</t>
+  </si>
+  <si>
+    <t>Asia Motors</t>
+  </si>
+  <si>
+    <t>ASTON MARTIN</t>
+  </si>
+  <si>
+    <t>145 Elegant 1.7/1.8 16V</t>
+  </si>
+  <si>
+    <t>145 Elegant 2.0 16V</t>
+  </si>
+  <si>
+    <t>145 Quadrifoglio 2.0</t>
+  </si>
+  <si>
+    <t>145 QV</t>
+  </si>
+  <si>
+    <t>147 2.0 16V 148cv 4p Semi-Aut.</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>155 Super</t>
+  </si>
+  <si>
+    <t>156 2.5 V6 24V 190cv 4p Aut.</t>
+  </si>
+  <si>
+    <t>156 Sport Wagon 2.0 16V</t>
+  </si>
+  <si>
+    <t>156 Sport Wagon 2.5 V6 24V 4p Aut.</t>
+  </si>
+  <si>
+    <t>156 TS/Sport/Elegant 2.0 16V</t>
+  </si>
+  <si>
+    <t>164 3.0 V6</t>
+  </si>
+  <si>
+    <t>164 Super V6 24V</t>
+  </si>
+  <si>
+    <t>166 3.0 V6 24V</t>
+  </si>
+  <si>
+    <t>2300 TI/TI-4</t>
+  </si>
+  <si>
+    <t>Spider 2.0/3.0</t>
+  </si>
+  <si>
+    <t>Hummer Hard-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Open-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Wagon 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>AM-825 Luxo 4.0 Diesel</t>
+  </si>
+  <si>
+    <t>AM-825 Super Luxo 4.0 Diesel</t>
+  </si>
+  <si>
+    <t>Hi-Topic SLX/SDX/DLX Full Diesel</t>
+  </si>
+  <si>
+    <t>Hi-Topic STD Diesel</t>
+  </si>
+  <si>
+    <t>Hi-Topic Van 2.7 Diesel (furgão)</t>
+  </si>
+  <si>
+    <t>Jipe Rocsta GT 4x4 2.2 Diesel</t>
+  </si>
+  <si>
+    <t>Topic Carga 2.7 Diesel (furgão)</t>
+  </si>
+  <si>
+    <t>Topic Luxo Diesel</t>
+  </si>
+  <si>
+    <t>Topic Super Luxo Diesel</t>
+  </si>
+  <si>
+    <t>Towner Coach Full</t>
+  </si>
+  <si>
+    <t>Towner Furgão</t>
+  </si>
+  <si>
+    <t>Towner Glass Van</t>
+  </si>
+  <si>
+    <t>Towner Luxo</t>
+  </si>
+  <si>
+    <t>Towner Multiuso 5p</t>
+  </si>
+  <si>
+    <t>Towner Panel Van</t>
+  </si>
+  <si>
+    <t>Towner Pick-Up</t>
+  </si>
+  <si>
+    <t>Towner SDX / DLX/ STD</t>
+  </si>
+  <si>
+    <t>Towner Super Luxo</t>
+  </si>
+  <si>
+    <t>Towner Truck</t>
+  </si>
+  <si>
+    <t>DB12 Coupe 4.0 V8 680cv</t>
+  </si>
+  <si>
+    <t>DB12 Volante 4.0 V8 680cv</t>
+  </si>
+  <si>
+    <t>DB9 Coupe 6.0 V12 510cv</t>
+  </si>
+  <si>
+    <t>DB9 Volante 6.0 V12 470cv</t>
+  </si>
+  <si>
+    <t>DBS Coupe 5.2 V12 725cv</t>
+  </si>
+  <si>
+    <t>DBX 4.0 V8 550cv</t>
+  </si>
+  <si>
+    <t>DBX707 4.0 V8 707cv</t>
+  </si>
+  <si>
+    <t>1999 Gasolina</t>
+  </si>
+  <si>
+    <t>1998 Gasolina</t>
+  </si>
+  <si>
+    <t>1997 Gasolina</t>
+  </si>
+  <si>
+    <t>1996 Gasolina</t>
+  </si>
+  <si>
+    <t>1995 Gasolina</t>
+  </si>
+  <si>
+    <t>2005 Gasolina</t>
+  </si>
+  <si>
+    <t>2004 Gasolina</t>
+  </si>
+  <si>
+    <t>2003 Gasolina</t>
+  </si>
+  <si>
+    <t>2002 Gasolina</t>
+  </si>
+  <si>
+    <t>2001 Gasolina</t>
+  </si>
+  <si>
+    <t>2000 Gasolina</t>
+  </si>
+  <si>
+    <t>1994 Gasolina</t>
+  </si>
+  <si>
+    <t>1993 Gasolina</t>
   </si>
   <si>
     <t>1992 Gasolina</t>
@@ -67,211 +226,679 @@
     <t>1991 Gasolina</t>
   </si>
   <si>
-    <t>1998 Gasolina</t>
-  </si>
-  <si>
-    <t>1997 Gasolina</t>
-  </si>
-  <si>
-    <t>1996 Gasolina</t>
-  </si>
-  <si>
-    <t>1995 Gasolina</t>
-  </si>
-  <si>
-    <t>1994 Gasolina</t>
-  </si>
-  <si>
-    <t>1993 Gasolina</t>
-  </si>
-  <si>
-    <t>2007 Diesel</t>
-  </si>
-  <si>
-    <t>2006 Diesel</t>
-  </si>
-  <si>
-    <t>2005 Diesel</t>
-  </si>
-  <si>
-    <t>2004 Diesel</t>
-  </si>
-  <si>
-    <t>2015 Diesel</t>
-  </si>
-  <si>
-    <t>2014 Diesel</t>
-  </si>
-  <si>
-    <t>2013 Diesel</t>
-  </si>
-  <si>
-    <t>2012 Diesel</t>
-  </si>
-  <si>
-    <t>2011 Diesel</t>
-  </si>
-  <si>
-    <t>2010 Diesel</t>
-  </si>
-  <si>
-    <t>2009 Diesel</t>
-  </si>
-  <si>
-    <t>2008 Diesel</t>
-  </si>
-  <si>
-    <t>038003-2</t>
-  </si>
-  <si>
-    <t>038002-4</t>
-  </si>
-  <si>
-    <t>038001-6</t>
-  </si>
-  <si>
-    <t>060001-6</t>
-  </si>
-  <si>
-    <t>060003-2</t>
-  </si>
-  <si>
-    <t>060004-0</t>
-  </si>
-  <si>
-    <t>060005-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11097.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10366.00</t>
+    <t>1986 Gasolina</t>
+  </si>
+  <si>
+    <t>1985 Gasolina</t>
+  </si>
+  <si>
+    <t>2000 Diesel</t>
+  </si>
+  <si>
+    <t>1999 Diesel</t>
+  </si>
+  <si>
+    <t>1998 Diesel</t>
+  </si>
+  <si>
+    <t>1997 Diesel</t>
+  </si>
+  <si>
+    <t>1996 Diesel</t>
+  </si>
+  <si>
+    <t>1995 Diesel</t>
+  </si>
+  <si>
+    <t>1994 Diesel</t>
+  </si>
+  <si>
+    <t>1993 Diesel</t>
+  </si>
+  <si>
+    <t>Zero KM a Gasolina</t>
+  </si>
+  <si>
+    <t>2025 Gasolina</t>
+  </si>
+  <si>
+    <t>2024 Gasolina</t>
+  </si>
+  <si>
+    <t>2016 Gasolina</t>
+  </si>
+  <si>
+    <t>2014 Gasolina</t>
+  </si>
+  <si>
+    <t>2011 Gasolina</t>
+  </si>
+  <si>
+    <t>2023 Gasolina</t>
+  </si>
+  <si>
+    <t>2022 Gasolina</t>
+  </si>
+  <si>
+    <t>006009-7</t>
+  </si>
+  <si>
+    <t>006001-1</t>
+  </si>
+  <si>
+    <t>006002-0</t>
+  </si>
+  <si>
+    <t>006008-9</t>
+  </si>
+  <si>
+    <t>006017-8</t>
+  </si>
+  <si>
+    <t>006003-8</t>
+  </si>
+  <si>
+    <t>006004-6</t>
+  </si>
+  <si>
+    <t>006015-1</t>
+  </si>
+  <si>
+    <t>006014-3</t>
+  </si>
+  <si>
+    <t>006016-0</t>
+  </si>
+  <si>
+    <t>006010-0</t>
+  </si>
+  <si>
+    <t>006005-4</t>
+  </si>
+  <si>
+    <t>006006-2</t>
+  </si>
+  <si>
+    <t>006011-9</t>
+  </si>
+  <si>
+    <t>006013-5</t>
+  </si>
+  <si>
+    <t>006007-0</t>
+  </si>
+  <si>
+    <t>037001-0</t>
+  </si>
+  <si>
+    <t>037002-9</t>
+  </si>
+  <si>
+    <t>037003-7</t>
+  </si>
+  <si>
+    <t>007018-1</t>
+  </si>
+  <si>
+    <t>007019-0</t>
+  </si>
+  <si>
+    <t>007001-7</t>
+  </si>
+  <si>
+    <t>007002-5</t>
+  </si>
+  <si>
+    <t>007017-3</t>
+  </si>
+  <si>
+    <t>007020-3</t>
+  </si>
+  <si>
+    <t>007016-5</t>
+  </si>
+  <si>
+    <t>007014-9</t>
+  </si>
+  <si>
+    <t>007015-7</t>
+  </si>
+  <si>
+    <t>007003-3</t>
+  </si>
+  <si>
+    <t>007009-2</t>
+  </si>
+  <si>
+    <t>007004-1</t>
+  </si>
+  <si>
+    <t>007012-2</t>
+  </si>
+  <si>
+    <t>007011-4</t>
+  </si>
+  <si>
+    <t>007005-0</t>
+  </si>
+  <si>
+    <t>007008-4</t>
+  </si>
+  <si>
+    <t>007006-8</t>
+  </si>
+  <si>
+    <t>007013-0</t>
+  </si>
+  <si>
+    <t>007007-6</t>
+  </si>
+  <si>
+    <t>085018-7</t>
+  </si>
+  <si>
+    <t>085019-5</t>
+  </si>
+  <si>
+    <t>085011-0</t>
+  </si>
+  <si>
+    <t>085006-3</t>
+  </si>
+  <si>
+    <t>085014-4</t>
+  </si>
+  <si>
+    <t>085015-2</t>
+  </si>
+  <si>
+    <t>085016-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27313.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21558.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14581.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13265.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21581.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17680.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17248.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13550.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29872.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29143.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23404.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22833.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22449.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18647.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18192.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92142.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89894.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87701.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19511.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18466.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15931.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24925.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24317.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19754.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 104853.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32424.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49978.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45101.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74355.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71998.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75561.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70007.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58514.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57086.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29151.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28440.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27102.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19575.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13455.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11701.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28869.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28164.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89797.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86004.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83906.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81859.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71424.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8070.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7072.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 133185.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 129936.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92099.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41220.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32289.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27713.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 426859.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 384365.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 332825.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 396648.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 351603.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 294624.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 453297.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 401677.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 348246.00</t>
   </si>
   <si>
     <t xml:space="preserve"> 25397.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> 22580.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21233.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19084.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18267.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16282.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14802.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14219.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40991.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39550.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38236.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36538.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33397.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48251.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 44511.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43362.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36756.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 108542.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 102457.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94808.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92495.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77133.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 64732.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50855.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 45520.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 118402.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 109313.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 105835.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 98655.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79141.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 67803.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56957.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52227.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49774.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 109984.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 102929.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95786.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90235.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 76651.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61576.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52512.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 47788.00</t>
+    <t xml:space="preserve"> 21995.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18798.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18158.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16980.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27427.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25605.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21492.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19903.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19231.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15514.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14842.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12659.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12058.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11358.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9903.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14608.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13421.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12439.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11373.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10192.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9297.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12164.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11236.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9800.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9324.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25330.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24712.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16727.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13972.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13585.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16655.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14777.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12873.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19837.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14311.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12443.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6442.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6095.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5884.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5680.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5955.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5298.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5168.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4546.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4415.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3607.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5607.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5281.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4945.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4532.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3838.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3291.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5858.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5699.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5481.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4160.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4058.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3746.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3569.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3442.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3284.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2840.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2401.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5876.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5732.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4374.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7989.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7146.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6889.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6037.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4876.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4281.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6241.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6088.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5939.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5967.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5821.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5569.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4635.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4206.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4005.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3600000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3228897.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3070680.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3900000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3625334.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1214247.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 946995.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 617791.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4493874.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4142252.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2346605.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2055673.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3800000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3226068.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2729902.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2502679.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -632,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,19 +1290,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -683,19 +1310,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -703,19 +1330,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -723,19 +1350,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -743,19 +1370,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -763,19 +1390,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -783,19 +1410,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -803,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -823,19 +1450,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -843,19 +1470,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -863,19 +1490,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -883,19 +1510,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -903,19 +1530,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -923,19 +1550,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -943,599 +1570,2979 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>188</v>
+      </c>
+      <c r="F57" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" t="s">
+        <v>194</v>
+      </c>
+      <c r="F63" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" t="s">
+        <v>197</v>
+      </c>
+      <c r="F66" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" t="s">
+        <v>199</v>
+      </c>
+      <c r="F68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" t="s">
+        <v>204</v>
+      </c>
+      <c r="F73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>205</v>
+      </c>
+      <c r="F74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" t="s">
+        <v>206</v>
+      </c>
+      <c r="F75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>109</v>
+      </c>
+      <c r="E76" t="s">
+        <v>207</v>
+      </c>
+      <c r="F76" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" t="s">
+        <v>208</v>
+      </c>
+      <c r="F77" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" t="s">
+        <v>209</v>
+      </c>
+      <c r="F78" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>109</v>
+      </c>
+      <c r="E79" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" t="s">
+        <v>211</v>
+      </c>
+      <c r="F80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" t="s">
+        <v>109</v>
+      </c>
+      <c r="E81" t="s">
+        <v>212</v>
+      </c>
+      <c r="F81" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F84" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" t="s">
+        <v>216</v>
+      </c>
+      <c r="F85" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" t="s">
+        <v>110</v>
+      </c>
+      <c r="E86" t="s">
+        <v>217</v>
+      </c>
+      <c r="F86" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E87" t="s">
+        <v>218</v>
+      </c>
+      <c r="F87" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>75</v>
+      </c>
+      <c r="D88" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" t="s">
+        <v>219</v>
+      </c>
+      <c r="F88" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" t="s">
+        <v>220</v>
+      </c>
+      <c r="F89" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" t="s">
+        <v>221</v>
+      </c>
+      <c r="F90" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" t="s">
+        <v>222</v>
+      </c>
+      <c r="F91" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
         <v>34</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" t="s">
+        <v>224</v>
+      </c>
+      <c r="F93" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" t="s">
+        <v>225</v>
+      </c>
+      <c r="F94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" t="s">
+        <v>228</v>
+      </c>
+      <c r="F97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E98" t="s">
+        <v>229</v>
+      </c>
+      <c r="F98" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" t="s">
+        <v>230</v>
+      </c>
+      <c r="F99" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" t="s">
+        <v>73</v>
+      </c>
+      <c r="D100" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" t="s">
+        <v>231</v>
+      </c>
+      <c r="F100" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" t="s">
+        <v>226</v>
+      </c>
+      <c r="F101" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" t="s">
+        <v>115</v>
+      </c>
+      <c r="E103" t="s">
+        <v>233</v>
+      </c>
+      <c r="F103" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" t="s">
+        <v>116</v>
+      </c>
+      <c r="E104" t="s">
+        <v>234</v>
+      </c>
+      <c r="F104" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" t="s">
+        <v>116</v>
+      </c>
+      <c r="E105" t="s">
+        <v>235</v>
+      </c>
+      <c r="F105" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" t="s">
+        <v>116</v>
+      </c>
+      <c r="E106" t="s">
+        <v>236</v>
+      </c>
+      <c r="F106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" t="s">
+        <v>116</v>
+      </c>
+      <c r="E107" t="s">
+        <v>237</v>
+      </c>
+      <c r="F107" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" t="s">
+        <v>117</v>
+      </c>
+      <c r="E108" t="s">
+        <v>238</v>
+      </c>
+      <c r="F108" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" t="s">
+        <v>117</v>
+      </c>
+      <c r="E109" t="s">
+        <v>239</v>
+      </c>
+      <c r="F109" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" t="s">
+        <v>240</v>
+      </c>
+      <c r="F110" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" t="s">
+        <v>117</v>
+      </c>
+      <c r="E111" t="s">
+        <v>241</v>
+      </c>
+      <c r="F111" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" t="s">
+        <v>117</v>
+      </c>
+      <c r="E112" t="s">
+        <v>242</v>
+      </c>
+      <c r="F112" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E113" t="s">
+        <v>243</v>
+      </c>
+      <c r="F113" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" t="s">
+        <v>118</v>
+      </c>
+      <c r="E114" t="s">
+        <v>244</v>
+      </c>
+      <c r="F114" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" t="s">
+        <v>57</v>
+      </c>
+      <c r="D115" t="s">
+        <v>118</v>
+      </c>
+      <c r="E115" t="s">
+        <v>245</v>
+      </c>
+      <c r="F115" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116" t="s">
+        <v>246</v>
+      </c>
+      <c r="F116" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E117" t="s">
+        <v>247</v>
+      </c>
+      <c r="F117" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" t="s">
+        <v>248</v>
+      </c>
+      <c r="F118" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>249</v>
+      </c>
+      <c r="F119" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
         <v>41</v>
       </c>
-      <c r="E45" t="s">
+      <c r="C120" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" t="s">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>250</v>
+      </c>
+      <c r="F120" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" t="s">
+        <v>119</v>
+      </c>
+      <c r="E121" t="s">
+        <v>251</v>
+      </c>
+      <c r="F121" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" t="s">
+        <v>57</v>
+      </c>
+      <c r="D122" t="s">
+        <v>119</v>
+      </c>
+      <c r="E122" t="s">
+        <v>252</v>
+      </c>
+      <c r="F122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" t="s">
+        <v>120</v>
+      </c>
+      <c r="E123" t="s">
+        <v>253</v>
+      </c>
+      <c r="F123" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" t="s">
+        <v>120</v>
+      </c>
+      <c r="E124" t="s">
+        <v>254</v>
+      </c>
+      <c r="F124" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>42</v>
+      </c>
+      <c r="C125" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" t="s">
+        <v>120</v>
+      </c>
+      <c r="E125" t="s">
+        <v>255</v>
+      </c>
+      <c r="F125" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" t="s">
+        <v>121</v>
+      </c>
+      <c r="E126" t="s">
+        <v>256</v>
+      </c>
+      <c r="F126" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" t="s">
+        <v>121</v>
+      </c>
+      <c r="E127" t="s">
+        <v>257</v>
+      </c>
+      <c r="F127" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" t="s">
+        <v>58</v>
+      </c>
+      <c r="D128" t="s">
+        <v>121</v>
+      </c>
+      <c r="E128" t="s">
+        <v>258</v>
+      </c>
+      <c r="F128" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" t="s">
+        <v>121</v>
+      </c>
+      <c r="E129" t="s">
+        <v>259</v>
+      </c>
+      <c r="F129" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" t="s">
+        <v>66</v>
+      </c>
+      <c r="D130" t="s">
+        <v>121</v>
+      </c>
+      <c r="E130" t="s">
+        <v>260</v>
+      </c>
+      <c r="F130" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" t="s">
+        <v>55</v>
+      </c>
+      <c r="D131" t="s">
+        <v>122</v>
+      </c>
+      <c r="E131" t="s">
+        <v>261</v>
+      </c>
+      <c r="F131" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133" t="s">
+        <v>122</v>
+      </c>
+      <c r="E133" t="s">
+        <v>263</v>
+      </c>
+      <c r="F133" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" t="s">
+        <v>56</v>
+      </c>
+      <c r="D134" t="s">
+        <v>123</v>
+      </c>
+      <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" t="s">
+        <v>123</v>
+      </c>
+      <c r="E135" t="s">
+        <v>265</v>
+      </c>
+      <c r="F135" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" t="s">
+        <v>58</v>
+      </c>
+      <c r="D136" t="s">
+        <v>123</v>
+      </c>
+      <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" t="s">
+        <v>59</v>
+      </c>
+      <c r="D137" t="s">
+        <v>123</v>
+      </c>
+      <c r="E137" t="s">
+        <v>267</v>
+      </c>
+      <c r="F137" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" t="s">
+        <v>66</v>
+      </c>
+      <c r="D138" t="s">
+        <v>123</v>
+      </c>
+      <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" t="s">
+        <v>67</v>
+      </c>
+      <c r="D139" t="s">
+        <v>123</v>
+      </c>
+      <c r="E139" t="s">
+        <v>269</v>
+      </c>
+      <c r="F139" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141" t="s">
+        <v>124</v>
+      </c>
+      <c r="E141" t="s">
+        <v>271</v>
+      </c>
+      <c r="F141" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" t="s">
+        <v>57</v>
+      </c>
+      <c r="D142" t="s">
+        <v>124</v>
+      </c>
+      <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" t="s">
+        <v>125</v>
+      </c>
+      <c r="E143" t="s">
+        <v>273</v>
+      </c>
+      <c r="F143" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>47</v>
+      </c>
+      <c r="C144" t="s">
+        <v>57</v>
+      </c>
+      <c r="D144" t="s">
+        <v>125</v>
+      </c>
+      <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" t="s">
+        <v>58</v>
+      </c>
+      <c r="D145" t="s">
+        <v>125</v>
+      </c>
+      <c r="E145" t="s">
+        <v>275</v>
+      </c>
+      <c r="F145" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>47</v>
+      </c>
+      <c r="C146" t="s">
+        <v>59</v>
+      </c>
+      <c r="D146" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" t="s">
+        <v>66</v>
+      </c>
+      <c r="D147" t="s">
+        <v>125</v>
+      </c>
+      <c r="E147" t="s">
+        <v>277</v>
+      </c>
+      <c r="F147" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" t="s">
+        <v>67</v>
+      </c>
+      <c r="D148" t="s">
+        <v>125</v>
+      </c>
+      <c r="E148" t="s">
+        <v>278</v>
+      </c>
+      <c r="F148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>48</v>
+      </c>
+      <c r="C149" t="s">
+        <v>80</v>
+      </c>
+      <c r="D149" t="s">
+        <v>126</v>
+      </c>
+      <c r="E149" t="s">
+        <v>279</v>
+      </c>
+      <c r="F149" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" t="s">
+        <v>81</v>
+      </c>
+      <c r="D150" t="s">
+        <v>126</v>
+      </c>
+      <c r="E150" t="s">
+        <v>280</v>
+      </c>
+      <c r="F150" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>48</v>
+      </c>
+      <c r="C151" t="s">
+        <v>82</v>
+      </c>
+      <c r="D151" t="s">
+        <v>126</v>
+      </c>
+      <c r="E151" t="s">
+        <v>281</v>
+      </c>
+      <c r="F151" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" t="s">
+        <v>80</v>
+      </c>
+      <c r="D152" t="s">
+        <v>127</v>
+      </c>
+      <c r="E152" t="s">
+        <v>282</v>
+      </c>
+      <c r="F152" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>49</v>
+      </c>
+      <c r="C153" t="s">
+        <v>81</v>
+      </c>
+      <c r="D153" t="s">
+        <v>127</v>
+      </c>
+      <c r="E153" t="s">
+        <v>283</v>
+      </c>
+      <c r="F153" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>50</v>
+      </c>
+      <c r="C154" t="s">
+        <v>83</v>
+      </c>
+      <c r="D154" t="s">
+        <v>128</v>
+      </c>
+      <c r="E154" t="s">
+        <v>284</v>
+      </c>
+      <c r="F154" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" t="s">
+        <v>84</v>
+      </c>
+      <c r="D155" t="s">
+        <v>128</v>
+      </c>
+      <c r="E155" t="s">
+        <v>285</v>
+      </c>
+      <c r="F155" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" t="s">
         <v>85</v>
       </c>
-      <c r="F45" t="s">
+      <c r="D156" t="s">
+        <v>129</v>
+      </c>
+      <c r="E156" t="s">
+        <v>286</v>
+      </c>
+      <c r="F156" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" t="s">
         <v>86</v>
+      </c>
+      <c r="D157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E157" t="s">
+        <v>287</v>
+      </c>
+      <c r="F157" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" t="s">
+        <v>87</v>
+      </c>
+      <c r="D158" t="s">
+        <v>130</v>
+      </c>
+      <c r="E158" t="s">
+        <v>288</v>
+      </c>
+      <c r="F158" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" t="s">
+        <v>53</v>
+      </c>
+      <c r="C159" t="s">
+        <v>86</v>
+      </c>
+      <c r="D159" t="s">
+        <v>131</v>
+      </c>
+      <c r="E159" t="s">
+        <v>289</v>
+      </c>
+      <c r="F159" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" t="s">
+        <v>53</v>
+      </c>
+      <c r="C160" t="s">
+        <v>87</v>
+      </c>
+      <c r="D160" t="s">
+        <v>131</v>
+      </c>
+      <c r="E160" t="s">
+        <v>290</v>
+      </c>
+      <c r="F160" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" t="s">
+        <v>54</v>
+      </c>
+      <c r="C161" t="s">
+        <v>80</v>
+      </c>
+      <c r="D161" t="s">
+        <v>132</v>
+      </c>
+      <c r="E161" t="s">
+        <v>291</v>
+      </c>
+      <c r="F161" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" t="s">
+        <v>81</v>
+      </c>
+      <c r="D162" t="s">
+        <v>132</v>
+      </c>
+      <c r="E162" t="s">
+        <v>292</v>
+      </c>
+      <c r="F162" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>54</v>
+      </c>
+      <c r="C163" t="s">
+        <v>82</v>
+      </c>
+      <c r="D163" t="s">
+        <v>132</v>
+      </c>
+      <c r="E163" t="s">
+        <v>293</v>
+      </c>
+      <c r="F163" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>54</v>
+      </c>
+      <c r="C164" t="s">
+        <v>86</v>
+      </c>
+      <c r="D164" t="s">
+        <v>132</v>
+      </c>
+      <c r="E164" t="s">
+        <v>294</v>
+      </c>
+      <c r="F164" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="333">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -181,6 +181,30 @@
     <t>DBX707 4.0 V8 707cv</t>
   </si>
   <si>
+    <t>Rapide 6.0 V12 477cv</t>
+  </si>
+  <si>
+    <t>Rapide S 6.0 V12 550cv</t>
+  </si>
+  <si>
+    <t>Vanquish V12 6.0 565cv</t>
+  </si>
+  <si>
+    <t>Vantage 6.0 V12 510cv</t>
+  </si>
+  <si>
+    <t>Vantage Coupe 4.7 V8 425cv</t>
+  </si>
+  <si>
+    <t>Vantage Cupê  4.0 V8 510cv</t>
+  </si>
+  <si>
+    <t>Vantage Cupê F1 Edition 4.0 V8 535cv</t>
+  </si>
+  <si>
+    <t>Vantage Roadster 4.7 V8 420cv</t>
+  </si>
+  <si>
     <t>1999 Gasolina</t>
   </si>
   <si>
@@ -280,6 +304,12 @@
     <t>2022 Gasolina</t>
   </si>
   <si>
+    <t>2012 Gasolina</t>
+  </si>
+  <si>
+    <t>2010 Gasolina</t>
+  </si>
+  <si>
     <t>006009-7</t>
   </si>
   <si>
@@ -415,6 +445,30 @@
     <t>085016-0</t>
   </si>
   <si>
+    <t>085007-1</t>
+  </si>
+  <si>
+    <t>085009-8</t>
+  </si>
+  <si>
+    <t>085010-1</t>
+  </si>
+  <si>
+    <t>085004-7</t>
+  </si>
+  <si>
+    <t>085002-0</t>
+  </si>
+  <si>
+    <t>085012-8</t>
+  </si>
+  <si>
+    <t>085013-6</t>
+  </si>
+  <si>
+    <t>085003-9</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 27313.00</t>
   </si>
   <si>
@@ -899,6 +953,63 @@
   </si>
   <si>
     <t xml:space="preserve"> 2502679.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 694217.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 607011.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1296696.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1032188.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1784133.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1616174.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 476063.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 638283.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 591028.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 528207.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 515323.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2800750.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2200329.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1739268.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1647750.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1770690.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1706250.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 588516.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 521625.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -1259,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1293,16 +1404,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1313,16 +1424,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1333,16 +1444,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1353,16 +1464,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1373,16 +1484,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1393,16 +1504,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1413,16 +1524,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1433,16 +1544,16 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1453,16 +1564,16 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1473,16 +1584,16 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1493,16 +1604,16 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1513,16 +1624,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F13" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1533,16 +1644,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1553,16 +1664,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1573,16 +1684,16 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1593,16 +1704,16 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1613,16 +1724,16 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1633,16 +1744,16 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1653,16 +1764,16 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1673,16 +1784,16 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1693,16 +1804,16 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1713,16 +1824,16 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F23" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1733,16 +1844,16 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1753,16 +1864,16 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1773,16 +1884,16 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1793,16 +1904,16 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F27" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1813,16 +1924,16 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1833,16 +1944,16 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F29" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1853,16 +1964,16 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1873,16 +1984,16 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1893,16 +2004,16 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1913,16 +2024,16 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1933,16 +2044,16 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1953,16 +2064,16 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1973,16 +2084,16 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1993,16 +2104,16 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="F37" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2013,16 +2124,16 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2033,16 +2144,16 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2053,16 +2164,16 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2073,16 +2184,16 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="F41" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2093,16 +2204,16 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2113,16 +2224,16 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2133,16 +2244,16 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2153,16 +2264,16 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2173,16 +2284,16 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="F46" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2193,16 +2304,16 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F47" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2213,16 +2324,16 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2233,16 +2344,16 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F49" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2253,16 +2364,16 @@
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F50" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2273,16 +2384,16 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2293,16 +2404,16 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F52" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2313,16 +2424,16 @@
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="F53" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2333,16 +2444,16 @@
         <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E54" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F54" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2353,16 +2464,16 @@
         <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E55" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F55" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2373,16 +2484,16 @@
         <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="F56" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2393,16 +2504,16 @@
         <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E57" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2413,16 +2524,16 @@
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2433,16 +2544,16 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F59" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2453,16 +2564,16 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E60" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F60" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2473,16 +2584,16 @@
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2493,16 +2604,16 @@
         <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="F62" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2513,16 +2624,16 @@
         <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F63" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2533,16 +2644,16 @@
         <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E64" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F64" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2553,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E65" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="F65" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2573,16 +2684,16 @@
         <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="F66" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2593,16 +2704,16 @@
         <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F67" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2613,16 +2724,16 @@
         <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E68" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2633,16 +2744,16 @@
         <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E69" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F69" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2653,16 +2764,16 @@
         <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E70" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F70" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2673,16 +2784,16 @@
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E71" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F71" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2693,16 +2804,16 @@
         <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="F72" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2713,16 +2824,16 @@
         <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E73" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F73" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2733,16 +2844,16 @@
         <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E74" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="F74" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2753,16 +2864,16 @@
         <v>30</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E75" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="F75" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2773,16 +2884,16 @@
         <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E76" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="F76" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2793,16 +2904,16 @@
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E77" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="F77" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2813,16 +2924,16 @@
         <v>31</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="F78" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2833,16 +2944,16 @@
         <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F79" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2853,16 +2964,16 @@
         <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E80" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F80" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2873,16 +2984,16 @@
         <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E81" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="F81" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2893,16 +3004,16 @@
         <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="F82" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2913,16 +3024,16 @@
         <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F83" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2933,16 +3044,16 @@
         <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E84" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F84" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2953,16 +3064,16 @@
         <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E85" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="F85" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2973,16 +3084,16 @@
         <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E86" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="F86" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2993,16 +3104,16 @@
         <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E87" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="F87" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3013,16 +3124,16 @@
         <v>33</v>
       </c>
       <c r="C88" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D88" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E88" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="F88" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3033,16 +3144,16 @@
         <v>33</v>
       </c>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E89" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="F89" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3053,16 +3164,16 @@
         <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E90" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="F90" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3073,16 +3184,16 @@
         <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D91" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E91" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="F91" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3093,16 +3204,16 @@
         <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E92" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="F92" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3113,16 +3224,16 @@
         <v>34</v>
       </c>
       <c r="C93" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D93" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E93" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="F93" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3133,16 +3244,16 @@
         <v>35</v>
       </c>
       <c r="C94" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D94" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="F94" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3153,16 +3264,16 @@
         <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D95" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E95" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F95" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3173,16 +3284,16 @@
         <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D96" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E96" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F96" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3193,16 +3304,16 @@
         <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E97" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F97" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3213,16 +3324,16 @@
         <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D98" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E98" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="F98" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3233,16 +3344,16 @@
         <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F99" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3253,16 +3364,16 @@
         <v>37</v>
       </c>
       <c r="C100" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E100" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F100" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3273,16 +3384,16 @@
         <v>35</v>
       </c>
       <c r="C101" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E101" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F101" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3293,16 +3404,16 @@
         <v>37</v>
       </c>
       <c r="C102" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D102" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E102" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="F102" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3313,16 +3424,16 @@
         <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D103" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E103" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="F103" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3333,16 +3444,16 @@
         <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D104" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E104" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="F104" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3353,16 +3464,16 @@
         <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D105" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E105" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="F105" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3373,16 +3484,16 @@
         <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D106" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F106" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3393,16 +3504,16 @@
         <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D107" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E107" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="F107" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3413,16 +3524,16 @@
         <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E108" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="F108" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3433,16 +3544,16 @@
         <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D109" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E109" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="F109" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3453,16 +3564,16 @@
         <v>39</v>
       </c>
       <c r="C110" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E110" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="F110" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3473,16 +3584,16 @@
         <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D111" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E111" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F111" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3493,16 +3604,16 @@
         <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E112" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="F112" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3513,16 +3624,16 @@
         <v>39</v>
       </c>
       <c r="C113" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D113" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E113" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="F113" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3533,16 +3644,16 @@
         <v>40</v>
       </c>
       <c r="C114" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E114" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="F114" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3553,16 +3664,16 @@
         <v>40</v>
       </c>
       <c r="C115" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D115" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E115" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="F115" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3573,16 +3684,16 @@
         <v>40</v>
       </c>
       <c r="C116" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D116" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E116" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="F116" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3593,16 +3704,16 @@
         <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D117" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E117" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="F117" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3613,16 +3724,16 @@
         <v>40</v>
       </c>
       <c r="C118" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D118" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E118" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="F118" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3633,16 +3744,16 @@
         <v>40</v>
       </c>
       <c r="C119" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D119" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E119" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="F119" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3653,16 +3764,16 @@
         <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D120" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E120" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="F120" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3673,16 +3784,16 @@
         <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D121" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E121" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="F121" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3693,16 +3804,16 @@
         <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D122" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E122" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="F122" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3713,16 +3824,16 @@
         <v>42</v>
       </c>
       <c r="C123" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D123" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E123" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="F123" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3733,16 +3844,16 @@
         <v>42</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D124" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E124" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F124" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3753,16 +3864,16 @@
         <v>42</v>
       </c>
       <c r="C125" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D125" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E125" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="F125" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3773,16 +3884,16 @@
         <v>43</v>
       </c>
       <c r="C126" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E126" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="F126" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3793,16 +3904,16 @@
         <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F127" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3813,16 +3924,16 @@
         <v>43</v>
       </c>
       <c r="C128" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D128" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="F128" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3833,16 +3944,16 @@
         <v>43</v>
       </c>
       <c r="C129" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D129" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E129" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="F129" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3853,16 +3964,16 @@
         <v>43</v>
       </c>
       <c r="C130" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D130" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="F130" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3873,16 +3984,16 @@
         <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D131" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F131" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3893,16 +4004,16 @@
         <v>44</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D132" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E132" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F132" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3913,16 +4024,16 @@
         <v>44</v>
       </c>
       <c r="C133" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F133" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3933,16 +4044,16 @@
         <v>45</v>
       </c>
       <c r="C134" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D134" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="F134" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3953,16 +4064,16 @@
         <v>45</v>
       </c>
       <c r="C135" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D135" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="F135" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3973,16 +4084,16 @@
         <v>45</v>
       </c>
       <c r="C136" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D136" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E136" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="F136" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3993,16 +4104,16 @@
         <v>45</v>
       </c>
       <c r="C137" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D137" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="F137" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4013,16 +4124,16 @@
         <v>45</v>
       </c>
       <c r="C138" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D138" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E138" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="F138" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4033,16 +4144,16 @@
         <v>45</v>
       </c>
       <c r="C139" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D139" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="F139" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4053,16 +4164,16 @@
         <v>46</v>
       </c>
       <c r="C140" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D140" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="F140" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4073,16 +4184,16 @@
         <v>46</v>
       </c>
       <c r="C141" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D141" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="F141" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4093,16 +4204,16 @@
         <v>46</v>
       </c>
       <c r="C142" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D142" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E142" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="F142" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4113,16 +4224,16 @@
         <v>47</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D143" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="F143" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4133,16 +4244,16 @@
         <v>47</v>
       </c>
       <c r="C144" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D144" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E144" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="F144" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4153,16 +4264,16 @@
         <v>47</v>
       </c>
       <c r="C145" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D145" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="F145" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4173,16 +4284,16 @@
         <v>47</v>
       </c>
       <c r="C146" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D146" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E146" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="F146" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4193,16 +4304,16 @@
         <v>47</v>
       </c>
       <c r="C147" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D147" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="F147" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4213,16 +4324,16 @@
         <v>47</v>
       </c>
       <c r="C148" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D148" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E148" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="F148" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4233,16 +4344,16 @@
         <v>48</v>
       </c>
       <c r="C149" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D149" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="F149" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4253,16 +4364,16 @@
         <v>48</v>
       </c>
       <c r="C150" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D150" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E150" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="F150" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4273,16 +4384,16 @@
         <v>48</v>
       </c>
       <c r="C151" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D151" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="F151" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4293,16 +4404,16 @@
         <v>49</v>
       </c>
       <c r="C152" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D152" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E152" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="F152" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4313,16 +4424,16 @@
         <v>49</v>
       </c>
       <c r="C153" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D153" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E153" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4333,16 +4444,16 @@
         <v>50</v>
       </c>
       <c r="C154" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D154" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E154" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4353,16 +4464,16 @@
         <v>50</v>
       </c>
       <c r="C155" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D155" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E155" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4373,16 +4484,16 @@
         <v>51</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D156" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E156" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4393,16 +4504,16 @@
         <v>52</v>
       </c>
       <c r="C157" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D157" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4413,16 +4524,16 @@
         <v>52</v>
       </c>
       <c r="C158" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D158" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E158" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4433,16 +4544,16 @@
         <v>53</v>
       </c>
       <c r="C159" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D159" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E159" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4453,16 +4564,16 @@
         <v>53</v>
       </c>
       <c r="C160" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D160" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E160" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4473,16 +4584,16 @@
         <v>54</v>
       </c>
       <c r="C161" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D161" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E161" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4493,16 +4604,16 @@
         <v>54</v>
       </c>
       <c r="C162" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D162" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E162" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4513,16 +4624,16 @@
         <v>54</v>
       </c>
       <c r="C163" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D163" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E163" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4533,16 +4644,396 @@
         <v>54</v>
       </c>
       <c r="C164" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D164" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E164" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>295</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
+        <v>55</v>
+      </c>
+      <c r="C165" t="s">
+        <v>96</v>
+      </c>
+      <c r="D165" t="s">
+        <v>143</v>
+      </c>
+      <c r="E165" t="s">
+        <v>313</v>
+      </c>
+      <c r="F165" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>55</v>
+      </c>
+      <c r="C166" t="s">
+        <v>93</v>
+      </c>
+      <c r="D166" t="s">
+        <v>143</v>
+      </c>
+      <c r="E166" t="s">
+        <v>314</v>
+      </c>
+      <c r="F166" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>56</v>
+      </c>
+      <c r="C167" t="s">
+        <v>91</v>
+      </c>
+      <c r="D167" t="s">
+        <v>144</v>
+      </c>
+      <c r="E167" t="s">
+        <v>315</v>
+      </c>
+      <c r="F167" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" t="s">
+        <v>92</v>
+      </c>
+      <c r="D168" t="s">
+        <v>144</v>
+      </c>
+      <c r="E168" t="s">
+        <v>316</v>
+      </c>
+      <c r="F168" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>57</v>
+      </c>
+      <c r="C169" t="s">
+        <v>91</v>
+      </c>
+      <c r="D169" t="s">
+        <v>145</v>
+      </c>
+      <c r="E169" t="s">
+        <v>317</v>
+      </c>
+      <c r="F169" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" t="s">
+        <v>57</v>
+      </c>
+      <c r="C170" t="s">
+        <v>92</v>
+      </c>
+      <c r="D170" t="s">
+        <v>145</v>
+      </c>
+      <c r="E170" t="s">
+        <v>318</v>
+      </c>
+      <c r="F170" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" t="s">
+        <v>58</v>
+      </c>
+      <c r="C171" t="s">
+        <v>96</v>
+      </c>
+      <c r="D171" t="s">
+        <v>146</v>
+      </c>
+      <c r="E171" t="s">
+        <v>319</v>
+      </c>
+      <c r="F171" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" t="s">
+        <v>91</v>
+      </c>
+      <c r="D172" t="s">
+        <v>147</v>
+      </c>
+      <c r="E172" t="s">
+        <v>320</v>
+      </c>
+      <c r="F172" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" t="s">
+        <v>92</v>
+      </c>
+      <c r="D173" t="s">
+        <v>147</v>
+      </c>
+      <c r="E173" t="s">
+        <v>321</v>
+      </c>
+      <c r="F173" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" t="s">
+        <v>96</v>
+      </c>
+      <c r="D174" t="s">
+        <v>147</v>
+      </c>
+      <c r="E174" t="s">
+        <v>322</v>
+      </c>
+      <c r="F174" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" t="s">
+        <v>93</v>
+      </c>
+      <c r="D175" t="s">
+        <v>147</v>
+      </c>
+      <c r="E175" t="s">
+        <v>323</v>
+      </c>
+      <c r="F175" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" t="s">
+        <v>60</v>
+      </c>
+      <c r="C176" t="s">
+        <v>88</v>
+      </c>
+      <c r="D176" t="s">
+        <v>148</v>
+      </c>
+      <c r="E176" t="s">
+        <v>324</v>
+      </c>
+      <c r="F176" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" t="s">
+        <v>60</v>
+      </c>
+      <c r="C177" t="s">
+        <v>89</v>
+      </c>
+      <c r="D177" t="s">
+        <v>148</v>
+      </c>
+      <c r="E177" t="s">
+        <v>325</v>
+      </c>
+      <c r="F177" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" t="s">
+        <v>60</v>
+      </c>
+      <c r="C178" t="s">
+        <v>94</v>
+      </c>
+      <c r="D178" t="s">
+        <v>148</v>
+      </c>
+      <c r="E178" t="s">
+        <v>326</v>
+      </c>
+      <c r="F178" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
+        <v>60</v>
+      </c>
+      <c r="C179" t="s">
+        <v>95</v>
+      </c>
+      <c r="D179" t="s">
+        <v>148</v>
+      </c>
+      <c r="E179" t="s">
+        <v>327</v>
+      </c>
+      <c r="F179" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" t="s">
+        <v>94</v>
+      </c>
+      <c r="D180" t="s">
+        <v>149</v>
+      </c>
+      <c r="E180" t="s">
+        <v>328</v>
+      </c>
+      <c r="F180" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" t="s">
+        <v>61</v>
+      </c>
+      <c r="C181" t="s">
+        <v>95</v>
+      </c>
+      <c r="D181" t="s">
+        <v>149</v>
+      </c>
+      <c r="E181" t="s">
+        <v>329</v>
+      </c>
+      <c r="F181" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" t="s">
+        <v>62</v>
+      </c>
+      <c r="C182" t="s">
+        <v>93</v>
+      </c>
+      <c r="D182" t="s">
+        <v>150</v>
+      </c>
+      <c r="E182" t="s">
+        <v>330</v>
+      </c>
+      <c r="F182" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" t="s">
+        <v>62</v>
+      </c>
+      <c r="C183" t="s">
+        <v>97</v>
+      </c>
+      <c r="D183" t="s">
+        <v>150</v>
+      </c>
+      <c r="E183" t="s">
+        <v>331</v>
+      </c>
+      <c r="F183" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="415">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -46,6 +46,9 @@
     <t>ASTON MARTIN</t>
   </si>
   <si>
+    <t>Audi</t>
+  </si>
+  <si>
     <t>145 Elegant 1.7/1.8 16V</t>
   </si>
   <si>
@@ -205,6 +208,60 @@
     <t>Vantage Roadster 4.7 V8 420cv</t>
   </si>
   <si>
+    <t>Vantage Roadster F1 Edition 4.0 V8 535cv</t>
+  </si>
+  <si>
+    <t>Vantage S 6.0 V12 565cv</t>
+  </si>
+  <si>
+    <t>Vantage S Coupe 4.7 V8 430cv</t>
+  </si>
+  <si>
+    <t>Virage Coupe 6.0 V12 490cv</t>
+  </si>
+  <si>
+    <t>100 2.8 V6</t>
+  </si>
+  <si>
+    <t>100 2.8 V6 Avant</t>
+  </si>
+  <si>
+    <t>100 S-4 2.2 Avant Turbo</t>
+  </si>
+  <si>
+    <t>80 2.0</t>
+  </si>
+  <si>
+    <t>80 2.0 Avant</t>
+  </si>
+  <si>
+    <t>80 2.6/ 2.8</t>
+  </si>
+  <si>
+    <t>80 2.6/2.8 Avant</t>
+  </si>
+  <si>
+    <t>80 2.8 Cabriolet</t>
+  </si>
+  <si>
+    <t>80 S2 Avant</t>
+  </si>
+  <si>
+    <t>A1 1.4 TFSI 122cv S-tronic 3p</t>
+  </si>
+  <si>
+    <t>A1 2.0 TFSI Quattro 256cv 3p</t>
+  </si>
+  <si>
+    <t>A1 Sport 1.4 TFSI 185cv 3p S-tronic</t>
+  </si>
+  <si>
+    <t>A1 Sport. S Edition 1.4 TFSI 5p S-tronic</t>
+  </si>
+  <si>
+    <t>A1 Sportback 1.4 TFSI 185cv 5p S-tronic</t>
+  </si>
+  <si>
     <t>1999 Gasolina</t>
   </si>
   <si>
@@ -310,6 +367,15 @@
     <t>2010 Gasolina</t>
   </si>
   <si>
+    <t>2015 Gasolina</t>
+  </si>
+  <si>
+    <t>2013 Gasolina</t>
+  </si>
+  <si>
+    <t>2017 Gasolina</t>
+  </si>
+  <si>
     <t>006009-7</t>
   </si>
   <si>
@@ -469,6 +535,60 @@
     <t>085003-9</t>
   </si>
   <si>
+    <t>085017-9</t>
+  </si>
+  <si>
+    <t>085008-0</t>
+  </si>
+  <si>
+    <t>085001-2</t>
+  </si>
+  <si>
+    <t>085005-5</t>
+  </si>
+  <si>
+    <t>008030-6</t>
+  </si>
+  <si>
+    <t>008076-4</t>
+  </si>
+  <si>
+    <t>008031-4</t>
+  </si>
+  <si>
+    <t>008001-2</t>
+  </si>
+  <si>
+    <t>008077-2</t>
+  </si>
+  <si>
+    <t>008080-2</t>
+  </si>
+  <si>
+    <t>008002-0</t>
+  </si>
+  <si>
+    <t>008003-9</t>
+  </si>
+  <si>
+    <t>008004-7</t>
+  </si>
+  <si>
+    <t>008153-1</t>
+  </si>
+  <si>
+    <t>008177-9</t>
+  </si>
+  <si>
+    <t>008172-8</t>
+  </si>
+  <si>
+    <t>008210-4</t>
+  </si>
+  <si>
+    <t>008174-4</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 27313.00</t>
   </si>
   <si>
@@ -1010,6 +1130,132 @@
   </si>
   <si>
     <t xml:space="preserve"> 521625.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1842750.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1145906.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 993822.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 531136.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 654552.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12940.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12146.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10344.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13652.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12238.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23715.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21449.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14965.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12435.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15117.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12483.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23449.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19050.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30297.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29558.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22679.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69220.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67531.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65883.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64276.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62708.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56940.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23516.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19107.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69227.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67538.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58794.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57172.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 121907.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73953.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67755.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59243.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82917.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80534.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78233.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68479.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66808.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -1370,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1401,19 +1647,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1421,19 +1667,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1441,19 +1687,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1461,19 +1707,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1481,19 +1727,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1501,19 +1747,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1521,19 +1767,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1541,19 +1787,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1561,19 +1807,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F10" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1581,19 +1827,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1601,19 +1847,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1621,19 +1867,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="F13" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1641,19 +1887,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1661,19 +1907,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="F15" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1681,19 +1927,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="F16" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1701,19 +1947,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1721,19 +1967,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1741,19 +1987,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1761,19 +2007,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="F20" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1781,19 +2027,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="F21" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1801,19 +2047,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="F22" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1821,19 +2067,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="F23" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1841,19 +2087,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="F24" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1861,19 +2107,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="F25" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1881,19 +2127,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1901,19 +2147,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="F27" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1921,19 +2167,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="F28" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1941,19 +2187,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="F29" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1961,19 +2207,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="F30" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1981,19 +2227,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2001,19 +2247,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="F32" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2021,19 +2267,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="F33" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2041,19 +2287,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2061,19 +2307,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="F35" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2081,19 +2327,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2101,19 +2347,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="F37" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2121,19 +2367,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="F38" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2141,19 +2387,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2161,19 +2407,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2181,19 +2427,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2201,19 +2447,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2221,19 +2467,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2241,19 +2487,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2261,19 +2507,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2281,19 +2527,19 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2301,19 +2547,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="F47" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2321,19 +2567,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2341,19 +2587,19 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="F49" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2361,19 +2607,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="F50" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2381,19 +2627,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F51" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2401,19 +2647,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="F52" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2421,19 +2667,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="F53" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2441,19 +2687,19 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="F54" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2461,19 +2707,19 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="F55" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2481,19 +2727,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="F56" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2501,19 +2747,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="F57" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2521,19 +2767,19 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="F58" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2541,19 +2787,19 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="F59" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2561,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="F60" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2581,19 +2827,19 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="F61" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2601,19 +2847,19 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="F62" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2621,19 +2867,19 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="F63" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2641,19 +2887,19 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="F64" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2661,19 +2907,19 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="F65" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2681,19 +2927,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E66" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="F66" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2701,19 +2947,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="F67" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2721,19 +2967,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="F68" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2741,19 +2987,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="F69" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2761,19 +3007,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="F70" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2781,19 +3027,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="F71" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2801,19 +3047,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E72" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="F72" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2821,19 +3067,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="F73" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2841,19 +3087,19 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="F74" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2861,19 +3107,19 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="F75" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2881,19 +3127,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="F76" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2901,19 +3147,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D77" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="F77" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2921,19 +3167,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="F78" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2941,19 +3187,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="F79" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2961,19 +3207,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="F80" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2981,19 +3227,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E81" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="F81" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3001,19 +3247,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E82" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="F82" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3021,19 +3267,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E83" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="F83" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3041,19 +3287,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E84" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="F84" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3061,19 +3307,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E85" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="F85" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3081,19 +3327,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="F86" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3101,19 +3347,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E87" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="F87" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3121,19 +3367,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E88" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="F88" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3141,19 +3387,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="F89" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3161,19 +3407,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D90" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E90" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="F90" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3181,19 +3427,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E91" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="F91" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3201,19 +3447,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E92" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="F92" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3221,19 +3467,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E93" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="F93" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3241,19 +3487,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E94" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="F94" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3261,19 +3507,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E95" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="F95" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3281,19 +3527,19 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D96" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E96" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F96" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3301,19 +3547,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E97" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="F97" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3321,19 +3567,19 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E98" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="F98" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3341,19 +3587,19 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E99" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="F99" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3361,19 +3607,19 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E100" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="F100" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3381,19 +3627,19 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E101" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="F101" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3401,19 +3647,19 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D102" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E102" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="F102" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3421,19 +3667,19 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E103" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="F103" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3441,19 +3687,19 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D104" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E104" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="F104" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3461,19 +3707,19 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E105" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="F105" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3481,19 +3727,19 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D106" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E106" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="F106" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3501,19 +3747,19 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D107" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E107" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="F107" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3521,19 +3767,19 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D108" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E108" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="F108" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3541,19 +3787,19 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D109" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E109" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="F109" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3561,19 +3807,19 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D110" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E110" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="F110" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3581,19 +3827,19 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D111" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E111" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="F111" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3601,19 +3847,19 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D112" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E112" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="F112" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3621,19 +3867,19 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D113" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E113" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="F113" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3641,19 +3887,19 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D114" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E114" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="F114" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3661,19 +3907,19 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D115" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E115" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="F115" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3681,19 +3927,19 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D116" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E116" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="F116" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3701,19 +3947,19 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D117" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E117" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="F117" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3721,19 +3967,19 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D118" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E118" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="F118" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3741,19 +3987,19 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D119" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E119" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="F119" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3761,19 +4007,19 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D120" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E120" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="F120" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3781,19 +4027,19 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D121" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E121" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="F121" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3801,19 +4047,19 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D122" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="F122" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3821,19 +4067,19 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D123" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E123" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="F123" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3841,19 +4087,19 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D124" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E124" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="F124" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3861,19 +4107,19 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D125" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E125" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="F125" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3881,19 +4127,19 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D126" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E126" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="F126" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3901,19 +4147,19 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D127" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E127" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="F127" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3921,19 +4167,19 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D128" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E128" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="F128" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3941,19 +4187,19 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D129" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E129" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="F129" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3961,19 +4207,19 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C130" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D130" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E130" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="F130" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3981,19 +4227,19 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D131" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E131" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="F131" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4001,19 +4247,19 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D132" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E132" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="F132" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4021,19 +4267,19 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C133" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E133" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="F133" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4041,19 +4287,19 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C134" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D134" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E134" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="F134" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4061,19 +4307,19 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C135" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D135" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E135" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="F135" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4081,19 +4327,19 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D136" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E136" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="F136" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4101,19 +4347,19 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C137" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D137" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E137" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="F137" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4121,19 +4367,19 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C138" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D138" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E138" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="F138" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4141,19 +4387,19 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C139" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D139" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E139" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="F139" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4161,19 +4407,19 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C140" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D140" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E140" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="F140" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4181,19 +4427,19 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C141" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E141" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="F141" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4201,19 +4447,19 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C142" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D142" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E142" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="F142" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4221,19 +4467,19 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C143" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D143" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E143" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="F143" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4241,19 +4487,19 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C144" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D144" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E144" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="F144" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4261,19 +4507,19 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C145" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D145" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E145" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="F145" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4281,19 +4527,19 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C146" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D146" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E146" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="F146" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4301,19 +4547,19 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C147" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D147" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E147" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="F147" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4321,19 +4567,19 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C148" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D148" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E148" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="F148" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4341,19 +4587,19 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C149" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D149" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="F149" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4361,19 +4607,19 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C150" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D150" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E150" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="F150" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4381,19 +4627,19 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C151" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D151" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="F151" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4401,19 +4647,19 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C152" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D152" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E152" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="F152" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4421,19 +4667,19 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C153" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D153" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="F153" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4441,19 +4687,19 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C154" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D154" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E154" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="F154" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4461,19 +4707,19 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C155" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D155" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="F155" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4481,19 +4727,19 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C156" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D156" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E156" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="F156" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4501,19 +4747,19 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D157" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="F157" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4521,19 +4767,19 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C158" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D158" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E158" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="F158" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4541,19 +4787,19 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C159" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D159" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="F159" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4561,19 +4807,19 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C160" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D160" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="F160" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4581,19 +4827,19 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D161" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F161" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4601,19 +4847,19 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C162" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D162" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E162" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="F162" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4621,19 +4867,19 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C163" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D163" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="F163" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4641,19 +4887,19 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C164" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D164" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E164" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="F164" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4661,19 +4907,19 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D165" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="F165" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4681,19 +4927,19 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C166" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D166" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4701,19 +4947,19 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C167" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D167" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4721,19 +4967,19 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C168" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D168" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E168" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4741,19 +4987,19 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C169" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D169" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4761,19 +5007,19 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C170" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D170" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E170" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4781,19 +5027,19 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C171" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D171" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="E171" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4801,19 +5047,19 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C172" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D172" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E172" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4821,19 +5067,19 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C173" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D173" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E173" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4841,19 +5087,19 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C174" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D174" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E174" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4861,19 +5107,19 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C175" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D175" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E175" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4881,19 +5127,19 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C176" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D176" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E176" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4901,19 +5147,19 @@
         <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C177" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D177" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="F177" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4921,19 +5167,19 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C178" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D178" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E178" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="F178" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4941,19 +5187,19 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C179" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D179" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E179" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="F179" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4961,19 +5207,19 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C180" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D180" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="E180" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="F180" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4981,19 +5227,19 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C181" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D181" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="E181" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="F181" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5001,19 +5247,19 @@
         <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C182" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D182" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E182" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="F182" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5021,19 +5267,859 @@
         <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C183" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D183" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E183" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="F183" t="s">
-        <v>332</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184" t="s">
+        <v>113</v>
+      </c>
+      <c r="D184" t="s">
+        <v>173</v>
+      </c>
+      <c r="E184" t="s">
+        <v>372</v>
+      </c>
+      <c r="F184" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
+        <v>65</v>
+      </c>
+      <c r="C185" t="s">
+        <v>110</v>
+      </c>
+      <c r="D185" t="s">
+        <v>174</v>
+      </c>
+      <c r="E185" t="s">
+        <v>373</v>
+      </c>
+      <c r="F185" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>65</v>
+      </c>
+      <c r="C186" t="s">
+        <v>117</v>
+      </c>
+      <c r="D186" t="s">
+        <v>174</v>
+      </c>
+      <c r="E186" t="s">
+        <v>374</v>
+      </c>
+      <c r="F186" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" t="s">
+        <v>66</v>
+      </c>
+      <c r="C187" t="s">
+        <v>115</v>
+      </c>
+      <c r="D187" t="s">
+        <v>175</v>
+      </c>
+      <c r="E187" t="s">
+        <v>375</v>
+      </c>
+      <c r="F187" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" t="s">
+        <v>67</v>
+      </c>
+      <c r="C188" t="s">
+        <v>115</v>
+      </c>
+      <c r="D188" t="s">
+        <v>176</v>
+      </c>
+      <c r="E188" t="s">
+        <v>376</v>
+      </c>
+      <c r="F188" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s">
+        <v>68</v>
+      </c>
+      <c r="C189" t="s">
+        <v>86</v>
+      </c>
+      <c r="D189" t="s">
+        <v>177</v>
+      </c>
+      <c r="E189" t="s">
+        <v>377</v>
+      </c>
+      <c r="F189" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>68</v>
+      </c>
+      <c r="C190" t="s">
+        <v>93</v>
+      </c>
+      <c r="D190" t="s">
+        <v>177</v>
+      </c>
+      <c r="E190" t="s">
+        <v>378</v>
+      </c>
+      <c r="F190" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" t="s">
+        <v>68</v>
+      </c>
+      <c r="C191" t="s">
+        <v>94</v>
+      </c>
+      <c r="D191" t="s">
+        <v>177</v>
+      </c>
+      <c r="E191" t="s">
+        <v>379</v>
+      </c>
+      <c r="F191" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" t="s">
+        <v>69</v>
+      </c>
+      <c r="C192" t="s">
+        <v>86</v>
+      </c>
+      <c r="D192" t="s">
+        <v>178</v>
+      </c>
+      <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" t="s">
+        <v>69</v>
+      </c>
+      <c r="C193" t="s">
+        <v>93</v>
+      </c>
+      <c r="D193" t="s">
+        <v>178</v>
+      </c>
+      <c r="E193" t="s">
+        <v>381</v>
+      </c>
+      <c r="F193" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" t="s">
+        <v>70</v>
+      </c>
+      <c r="C194" t="s">
+        <v>86</v>
+      </c>
+      <c r="D194" t="s">
+        <v>179</v>
+      </c>
+      <c r="E194" t="s">
+        <v>382</v>
+      </c>
+      <c r="F194" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" t="s">
+        <v>70</v>
+      </c>
+      <c r="C195" t="s">
+        <v>93</v>
+      </c>
+      <c r="D195" t="s">
+        <v>179</v>
+      </c>
+      <c r="E195" t="s">
+        <v>383</v>
+      </c>
+      <c r="F195" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" t="s">
+        <v>71</v>
+      </c>
+      <c r="C196" t="s">
+        <v>86</v>
+      </c>
+      <c r="D196" t="s">
+        <v>180</v>
+      </c>
+      <c r="E196" t="s">
+        <v>384</v>
+      </c>
+      <c r="F196" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" t="s">
+        <v>71</v>
+      </c>
+      <c r="C197" t="s">
+        <v>93</v>
+      </c>
+      <c r="D197" t="s">
+        <v>180</v>
+      </c>
+      <c r="E197" t="s">
+        <v>385</v>
+      </c>
+      <c r="F197" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" t="s">
+        <v>72</v>
+      </c>
+      <c r="C198" t="s">
+        <v>86</v>
+      </c>
+      <c r="D198" t="s">
+        <v>181</v>
+      </c>
+      <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" t="s">
+        <v>72</v>
+      </c>
+      <c r="C199" t="s">
+        <v>93</v>
+      </c>
+      <c r="D199" t="s">
+        <v>181</v>
+      </c>
+      <c r="E199" t="s">
+        <v>387</v>
+      </c>
+      <c r="F199" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>73</v>
+      </c>
+      <c r="C200" t="s">
+        <v>86</v>
+      </c>
+      <c r="D200" t="s">
+        <v>182</v>
+      </c>
+      <c r="E200" t="s">
+        <v>388</v>
+      </c>
+      <c r="F200" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>73</v>
+      </c>
+      <c r="C201" t="s">
+        <v>93</v>
+      </c>
+      <c r="D201" t="s">
+        <v>182</v>
+      </c>
+      <c r="E201" t="s">
+        <v>389</v>
+      </c>
+      <c r="F201" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>74</v>
+      </c>
+      <c r="C202" t="s">
+        <v>85</v>
+      </c>
+      <c r="D202" t="s">
+        <v>183</v>
+      </c>
+      <c r="E202" t="s">
+        <v>390</v>
+      </c>
+      <c r="F202" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>74</v>
+      </c>
+      <c r="C203" t="s">
+        <v>86</v>
+      </c>
+      <c r="D203" t="s">
+        <v>183</v>
+      </c>
+      <c r="E203" t="s">
+        <v>391</v>
+      </c>
+      <c r="F203" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>74</v>
+      </c>
+      <c r="C204" t="s">
+        <v>93</v>
+      </c>
+      <c r="D204" t="s">
+        <v>183</v>
+      </c>
+      <c r="E204" t="s">
+        <v>392</v>
+      </c>
+      <c r="F204" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>75</v>
+      </c>
+      <c r="C205" t="s">
+        <v>82</v>
+      </c>
+      <c r="D205" t="s">
+        <v>184</v>
+      </c>
+      <c r="E205" t="s">
+        <v>393</v>
+      </c>
+      <c r="F205" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>75</v>
+      </c>
+      <c r="C206" t="s">
+        <v>83</v>
+      </c>
+      <c r="D206" t="s">
+        <v>184</v>
+      </c>
+      <c r="E206" t="s">
+        <v>394</v>
+      </c>
+      <c r="F206" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" t="s">
+        <v>75</v>
+      </c>
+      <c r="C207" t="s">
+        <v>84</v>
+      </c>
+      <c r="D207" t="s">
+        <v>184</v>
+      </c>
+      <c r="E207" t="s">
+        <v>395</v>
+      </c>
+      <c r="F207" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="s">
+        <v>75</v>
+      </c>
+      <c r="C208" t="s">
+        <v>85</v>
+      </c>
+      <c r="D208" t="s">
+        <v>184</v>
+      </c>
+      <c r="E208" t="s">
+        <v>396</v>
+      </c>
+      <c r="F208" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>75</v>
+      </c>
+      <c r="C209" t="s">
+        <v>86</v>
+      </c>
+      <c r="D209" t="s">
+        <v>184</v>
+      </c>
+      <c r="E209" t="s">
+        <v>397</v>
+      </c>
+      <c r="F209" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>75</v>
+      </c>
+      <c r="C210" t="s">
+        <v>93</v>
+      </c>
+      <c r="D210" t="s">
+        <v>184</v>
+      </c>
+      <c r="E210" t="s">
+        <v>398</v>
+      </c>
+      <c r="F210" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>76</v>
+      </c>
+      <c r="C211" t="s">
+        <v>86</v>
+      </c>
+      <c r="D211" t="s">
+        <v>185</v>
+      </c>
+      <c r="E211" t="s">
+        <v>399</v>
+      </c>
+      <c r="F211" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>76</v>
+      </c>
+      <c r="C212" t="s">
+        <v>93</v>
+      </c>
+      <c r="D212" t="s">
+        <v>185</v>
+      </c>
+      <c r="E212" t="s">
+        <v>400</v>
+      </c>
+      <c r="F212" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>77</v>
+      </c>
+      <c r="C213" t="s">
+        <v>111</v>
+      </c>
+      <c r="D213" t="s">
+        <v>186</v>
+      </c>
+      <c r="E213" t="s">
+        <v>401</v>
+      </c>
+      <c r="F213" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>77</v>
+      </c>
+      <c r="C214" t="s">
+        <v>118</v>
+      </c>
+      <c r="D214" t="s">
+        <v>186</v>
+      </c>
+      <c r="E214" t="s">
+        <v>402</v>
+      </c>
+      <c r="F214" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>77</v>
+      </c>
+      <c r="C215" t="s">
+        <v>115</v>
+      </c>
+      <c r="D215" t="s">
+        <v>186</v>
+      </c>
+      <c r="E215" t="s">
+        <v>403</v>
+      </c>
+      <c r="F215" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>77</v>
+      </c>
+      <c r="C216" t="s">
+        <v>112</v>
+      </c>
+      <c r="D216" t="s">
+        <v>186</v>
+      </c>
+      <c r="E216" t="s">
+        <v>404</v>
+      </c>
+      <c r="F216" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s">
+        <v>78</v>
+      </c>
+      <c r="C217" t="s">
+        <v>118</v>
+      </c>
+      <c r="D217" t="s">
+        <v>187</v>
+      </c>
+      <c r="E217" t="s">
+        <v>405</v>
+      </c>
+      <c r="F217" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>79</v>
+      </c>
+      <c r="C218" t="s">
+        <v>111</v>
+      </c>
+      <c r="D218" t="s">
+        <v>188</v>
+      </c>
+      <c r="E218" t="s">
+        <v>406</v>
+      </c>
+      <c r="F218" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s">
+        <v>79</v>
+      </c>
+      <c r="C219" t="s">
+        <v>118</v>
+      </c>
+      <c r="D219" t="s">
+        <v>188</v>
+      </c>
+      <c r="E219" t="s">
+        <v>407</v>
+      </c>
+      <c r="F219" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>79</v>
+      </c>
+      <c r="C220" t="s">
+        <v>115</v>
+      </c>
+      <c r="D220" t="s">
+        <v>188</v>
+      </c>
+      <c r="E220" t="s">
+        <v>408</v>
+      </c>
+      <c r="F220" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>80</v>
+      </c>
+      <c r="C221" t="s">
+        <v>119</v>
+      </c>
+      <c r="D221" t="s">
+        <v>189</v>
+      </c>
+      <c r="E221" t="s">
+        <v>409</v>
+      </c>
+      <c r="F221" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" t="s">
+        <v>80</v>
+      </c>
+      <c r="C222" t="s">
+        <v>110</v>
+      </c>
+      <c r="D222" t="s">
+        <v>189</v>
+      </c>
+      <c r="E222" t="s">
+        <v>410</v>
+      </c>
+      <c r="F222" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>81</v>
+      </c>
+      <c r="C223" t="s">
+        <v>117</v>
+      </c>
+      <c r="D223" t="s">
+        <v>190</v>
+      </c>
+      <c r="E223" t="s">
+        <v>411</v>
+      </c>
+      <c r="F223" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>81</v>
+      </c>
+      <c r="C224" t="s">
+        <v>111</v>
+      </c>
+      <c r="D224" t="s">
+        <v>190</v>
+      </c>
+      <c r="E224" t="s">
+        <v>412</v>
+      </c>
+      <c r="F224" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>81</v>
+      </c>
+      <c r="C225" t="s">
+        <v>118</v>
+      </c>
+      <c r="D225" t="s">
+        <v>190</v>
+      </c>
+      <c r="E225" t="s">
+        <v>413</v>
+      </c>
+      <c r="F225" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="460">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -262,6 +262,24 @@
     <t>A1 Sportback 1.4 TFSI 185cv 5p S-tronic</t>
   </si>
   <si>
+    <t>A1 Sportback 1.4 TFSI 5p S-tronic</t>
+  </si>
+  <si>
+    <t>A1 Sportback 1.8 TFSI 192cv 5p S-tronic</t>
+  </si>
+  <si>
+    <t>A3 1.6 3p</t>
+  </si>
+  <si>
+    <t>A3 1.6 3p Aut.</t>
+  </si>
+  <si>
+    <t>A3 1.6 5p</t>
+  </si>
+  <si>
+    <t>A3 1.6 5p Aut.</t>
+  </si>
+  <si>
     <t>1999 Gasolina</t>
   </si>
   <si>
@@ -376,6 +394,12 @@
     <t>2017 Gasolina</t>
   </si>
   <si>
+    <t>2018 Gasolina</t>
+  </si>
+  <si>
+    <t>2006 Gasolina</t>
+  </si>
+  <si>
     <t>006009-7</t>
   </si>
   <si>
@@ -589,6 +613,24 @@
     <t>008174-4</t>
   </si>
   <si>
+    <t>008173-6</t>
+  </si>
+  <si>
+    <t>008204-0</t>
+  </si>
+  <si>
+    <t>008032-2</t>
+  </si>
+  <si>
+    <t>008056-0</t>
+  </si>
+  <si>
+    <t>008040-3</t>
+  </si>
+  <si>
+    <t>008057-8</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 27313.00</t>
   </si>
   <si>
@@ -1256,6 +1298,99 @@
   </si>
   <si>
     <t xml:space="preserve"> 66808.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102322.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78592.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76675.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72791.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68205.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66541.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 122630.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 116902.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 107141.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19755.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18974.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18511.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16245.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15235.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21354.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20443.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19315.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16389.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15482.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28210.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26539.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23062.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22499.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20267.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19467.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17989.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16792.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27532.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26860.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25756.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19966.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -1616,7 +1751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,16 +1785,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1670,16 +1805,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1690,16 +1825,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1710,16 +1845,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1730,16 +1865,16 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1750,16 +1885,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1770,16 +1905,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1790,16 +1925,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1810,16 +1945,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1830,16 +1965,16 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1850,16 +1985,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1870,16 +2005,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1890,16 +2025,16 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1910,16 +2045,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1930,16 +2065,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1950,16 +2085,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1970,16 +2105,16 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1990,16 +2125,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2010,16 +2145,16 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2030,16 +2165,16 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F21" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2050,16 +2185,16 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F22" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2070,16 +2205,16 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F23" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2090,16 +2225,16 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="F24" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2110,16 +2245,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F25" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2130,16 +2265,16 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="F26" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2150,16 +2285,16 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2170,16 +2305,16 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F28" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2190,16 +2325,16 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F29" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2210,16 +2345,16 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="F30" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2230,16 +2365,16 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F31" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2250,16 +2385,16 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F32" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2270,16 +2405,16 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F33" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2290,16 +2425,16 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2310,16 +2445,16 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2330,16 +2465,16 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2350,16 +2485,16 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2370,16 +2505,16 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2390,16 +2525,16 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2410,16 +2545,16 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2430,16 +2565,16 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="F41" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2450,16 +2585,16 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F42" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2470,16 +2605,16 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F43" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2490,16 +2625,16 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="F44" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2510,16 +2645,16 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F45" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2530,16 +2665,16 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2550,16 +2685,16 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2570,16 +2705,16 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="F48" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2590,16 +2725,16 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F49" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2610,16 +2745,16 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F50" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2630,16 +2765,16 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F51" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2650,16 +2785,16 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2670,16 +2805,16 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F53" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2690,16 +2825,16 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F54" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2710,16 +2845,16 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E55" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F55" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2730,16 +2865,16 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F56" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2750,16 +2885,16 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="F57" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2770,16 +2905,16 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F58" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2790,16 +2925,16 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F59" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2810,16 +2945,16 @@
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="F60" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2830,16 +2965,16 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2850,16 +2985,16 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F62" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2870,16 +3005,16 @@
         <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F63" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2890,16 +3025,16 @@
         <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F64" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2910,16 +3045,16 @@
         <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F65" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2930,16 +3065,16 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2950,16 +3085,16 @@
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F67" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2970,16 +3105,16 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F68" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2990,16 +3125,16 @@
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F69" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3010,16 +3145,16 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E70" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3030,16 +3165,16 @@
         <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E71" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F71" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3050,16 +3185,16 @@
         <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E72" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F72" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3070,16 +3205,16 @@
         <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D73" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F73" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3090,16 +3225,16 @@
         <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D74" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E74" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F74" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3110,16 +3245,16 @@
         <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E75" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="F75" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3130,16 +3265,16 @@
         <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F76" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3150,16 +3285,16 @@
         <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E77" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F77" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3170,16 +3305,16 @@
         <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E78" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F78" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3190,16 +3325,16 @@
         <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E79" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F79" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3210,16 +3345,16 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E80" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F80" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3230,16 +3365,16 @@
         <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E81" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F81" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3250,16 +3385,16 @@
         <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F82" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3270,16 +3405,16 @@
         <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E83" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="F83" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3290,16 +3425,16 @@
         <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E84" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="F84" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3310,16 +3445,16 @@
         <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E85" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F85" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3330,16 +3465,16 @@
         <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E86" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F86" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3350,16 +3485,16 @@
         <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D87" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E87" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F87" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3370,16 +3505,16 @@
         <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E88" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="F88" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3390,16 +3525,16 @@
         <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E89" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="F89" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3410,16 +3545,16 @@
         <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E90" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F90" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3430,16 +3565,16 @@
         <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D91" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E91" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F91" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3450,16 +3585,16 @@
         <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E92" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="F92" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3470,16 +3605,16 @@
         <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E93" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="F93" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3490,16 +3625,16 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E94" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="F94" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3510,16 +3645,16 @@
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="F95" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3530,16 +3665,16 @@
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E96" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F96" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3550,16 +3685,16 @@
         <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D97" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E97" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="F97" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3570,16 +3705,16 @@
         <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D98" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E98" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F98" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3590,16 +3725,16 @@
         <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E99" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F99" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3610,16 +3745,16 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E100" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F100" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3630,16 +3765,16 @@
         <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D101" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E101" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="F101" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3650,16 +3785,16 @@
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D102" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E102" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F102" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3670,16 +3805,16 @@
         <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D103" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E103" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="F103" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3690,16 +3825,16 @@
         <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E104" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="F104" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3710,16 +3845,16 @@
         <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E105" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="F105" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3730,16 +3865,16 @@
         <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D106" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E106" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="F106" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3750,16 +3885,16 @@
         <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="F107" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3770,16 +3905,16 @@
         <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D108" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="F108" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3790,16 +3925,16 @@
         <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D109" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E109" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="F109" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3810,16 +3945,16 @@
         <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D110" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E110" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="F110" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3830,16 +3965,16 @@
         <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D111" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E111" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F111" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3850,16 +3985,16 @@
         <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D112" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E112" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="F112" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3870,16 +4005,16 @@
         <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D113" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E113" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="F113" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3890,16 +4025,16 @@
         <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D114" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E114" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="F114" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3910,16 +4045,16 @@
         <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E115" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="F115" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3930,16 +4065,16 @@
         <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D116" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E116" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="F116" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3950,16 +4085,16 @@
         <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E117" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="F117" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3970,16 +4105,16 @@
         <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D118" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E118" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F118" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3990,16 +4125,16 @@
         <v>41</v>
       </c>
       <c r="C119" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D119" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E119" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="F119" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4010,16 +4145,16 @@
         <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D120" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E120" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F120" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4030,16 +4165,16 @@
         <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D121" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E121" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F121" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4050,16 +4185,16 @@
         <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E122" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="F122" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4070,16 +4205,16 @@
         <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D123" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E123" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="F123" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4090,16 +4225,16 @@
         <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D124" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E124" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F124" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4110,16 +4245,16 @@
         <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D125" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E125" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="F125" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4130,16 +4265,16 @@
         <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D126" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E126" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="F126" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4150,16 +4285,16 @@
         <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D127" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E127" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F127" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4170,16 +4305,16 @@
         <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D128" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E128" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="F128" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4190,16 +4325,16 @@
         <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D129" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E129" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="F129" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4210,16 +4345,16 @@
         <v>44</v>
       </c>
       <c r="C130" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D130" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E130" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="F130" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4230,16 +4365,16 @@
         <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D131" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E131" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="F131" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4250,16 +4385,16 @@
         <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D132" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E132" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="F132" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4270,16 +4405,16 @@
         <v>45</v>
       </c>
       <c r="C133" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D133" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E133" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F133" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4290,16 +4425,16 @@
         <v>46</v>
       </c>
       <c r="C134" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D134" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E134" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="F134" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4310,16 +4445,16 @@
         <v>46</v>
       </c>
       <c r="C135" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D135" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E135" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="F135" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4330,16 +4465,16 @@
         <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D136" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E136" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F136" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4350,16 +4485,16 @@
         <v>46</v>
       </c>
       <c r="C137" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D137" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E137" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="F137" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4370,16 +4505,16 @@
         <v>46</v>
       </c>
       <c r="C138" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D138" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E138" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="F138" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4390,16 +4525,16 @@
         <v>46</v>
       </c>
       <c r="C139" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D139" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E139" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="F139" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4410,16 +4545,16 @@
         <v>47</v>
       </c>
       <c r="C140" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D140" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E140" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="F140" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4430,16 +4565,16 @@
         <v>47</v>
       </c>
       <c r="C141" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D141" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E141" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F141" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4450,16 +4585,16 @@
         <v>47</v>
       </c>
       <c r="C142" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D142" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E142" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="F142" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4470,16 +4605,16 @@
         <v>48</v>
       </c>
       <c r="C143" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D143" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E143" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F143" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4490,16 +4625,16 @@
         <v>48</v>
       </c>
       <c r="C144" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D144" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E144" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="F144" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4510,16 +4645,16 @@
         <v>48</v>
       </c>
       <c r="C145" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D145" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E145" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="F145" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4530,16 +4665,16 @@
         <v>48</v>
       </c>
       <c r="C146" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D146" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E146" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="F146" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4550,16 +4685,16 @@
         <v>48</v>
       </c>
       <c r="C147" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D147" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E147" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="F147" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4570,16 +4705,16 @@
         <v>48</v>
       </c>
       <c r="C148" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D148" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E148" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="F148" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4590,16 +4725,16 @@
         <v>49</v>
       </c>
       <c r="C149" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D149" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E149" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="F149" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4610,16 +4745,16 @@
         <v>49</v>
       </c>
       <c r="C150" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D150" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E150" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="F150" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4630,16 +4765,16 @@
         <v>49</v>
       </c>
       <c r="C151" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D151" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E151" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="F151" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4650,16 +4785,16 @@
         <v>50</v>
       </c>
       <c r="C152" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D152" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E152" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="F152" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4670,16 +4805,16 @@
         <v>50</v>
       </c>
       <c r="C153" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D153" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E153" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F153" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4690,16 +4825,16 @@
         <v>51</v>
       </c>
       <c r="C154" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D154" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E154" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="F154" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4710,16 +4845,16 @@
         <v>51</v>
       </c>
       <c r="C155" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D155" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E155" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="F155" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4730,16 +4865,16 @@
         <v>52</v>
       </c>
       <c r="C156" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D156" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E156" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="F156" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4750,16 +4885,16 @@
         <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D157" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E157" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="F157" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4770,16 +4905,16 @@
         <v>53</v>
       </c>
       <c r="C158" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D158" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E158" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="F158" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4790,16 +4925,16 @@
         <v>54</v>
       </c>
       <c r="C159" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D159" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E159" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F159" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4810,16 +4945,16 @@
         <v>54</v>
       </c>
       <c r="C160" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D160" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E160" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F160" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4830,16 +4965,16 @@
         <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D161" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E161" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="F161" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4850,16 +4985,16 @@
         <v>55</v>
       </c>
       <c r="C162" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D162" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E162" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="F162" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4870,16 +5005,16 @@
         <v>55</v>
       </c>
       <c r="C163" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D163" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E163" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F163" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4890,16 +5025,16 @@
         <v>55</v>
       </c>
       <c r="C164" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D164" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E164" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="F164" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4910,16 +5045,16 @@
         <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D165" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E165" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="F165" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4930,16 +5065,16 @@
         <v>56</v>
       </c>
       <c r="C166" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D166" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E166" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F166" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4950,16 +5085,16 @@
         <v>57</v>
       </c>
       <c r="C167" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D167" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E167" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="F167" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4970,16 +5105,16 @@
         <v>57</v>
       </c>
       <c r="C168" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D168" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E168" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="F168" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4990,16 +5125,16 @@
         <v>58</v>
       </c>
       <c r="C169" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D169" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E169" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="F169" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5010,16 +5145,16 @@
         <v>58</v>
       </c>
       <c r="C170" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D170" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E170" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="F170" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5030,16 +5165,16 @@
         <v>59</v>
       </c>
       <c r="C171" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D171" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E171" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="F171" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5050,16 +5185,16 @@
         <v>60</v>
       </c>
       <c r="C172" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D172" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E172" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="F172" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5070,16 +5205,16 @@
         <v>60</v>
       </c>
       <c r="C173" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D173" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E173" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="F173" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5090,16 +5225,16 @@
         <v>60</v>
       </c>
       <c r="C174" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D174" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F174" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5110,16 +5245,16 @@
         <v>60</v>
       </c>
       <c r="C175" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D175" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E175" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="F175" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5130,16 +5265,16 @@
         <v>61</v>
       </c>
       <c r="C176" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D176" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E176" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="F176" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5150,16 +5285,16 @@
         <v>61</v>
       </c>
       <c r="C177" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D177" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="F177" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5170,16 +5305,16 @@
         <v>61</v>
       </c>
       <c r="C178" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D178" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E178" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="F178" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5190,16 +5325,16 @@
         <v>61</v>
       </c>
       <c r="C179" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D179" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="F179" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5210,16 +5345,16 @@
         <v>62</v>
       </c>
       <c r="C180" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D180" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="F180" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5230,16 +5365,16 @@
         <v>62</v>
       </c>
       <c r="C181" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D181" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E181" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F181" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5250,16 +5385,16 @@
         <v>63</v>
       </c>
       <c r="C182" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D182" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E182" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="F182" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5270,16 +5405,16 @@
         <v>63</v>
       </c>
       <c r="C183" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D183" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E183" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="F183" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5290,16 +5425,16 @@
         <v>64</v>
       </c>
       <c r="C184" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D184" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E184" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="F184" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5310,16 +5445,16 @@
         <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D185" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E185" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="F185" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5330,16 +5465,16 @@
         <v>65</v>
       </c>
       <c r="C186" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D186" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E186" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="F186" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5350,16 +5485,16 @@
         <v>66</v>
       </c>
       <c r="C187" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D187" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E187" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F187" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5370,16 +5505,16 @@
         <v>67</v>
       </c>
       <c r="C188" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D188" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E188" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="F188" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5390,16 +5525,16 @@
         <v>68</v>
       </c>
       <c r="C189" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D189" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F189" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5410,16 +5545,16 @@
         <v>68</v>
       </c>
       <c r="C190" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D190" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E190" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="F190" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5430,16 +5565,16 @@
         <v>68</v>
       </c>
       <c r="C191" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D191" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="F191" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5450,16 +5585,16 @@
         <v>69</v>
       </c>
       <c r="C192" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D192" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E192" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="F192" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5470,16 +5605,16 @@
         <v>69</v>
       </c>
       <c r="C193" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D193" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="F193" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5490,16 +5625,16 @@
         <v>70</v>
       </c>
       <c r="C194" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D194" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E194" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="F194" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5510,16 +5645,16 @@
         <v>70</v>
       </c>
       <c r="C195" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D195" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="F195" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5530,16 +5665,16 @@
         <v>71</v>
       </c>
       <c r="C196" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D196" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E196" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="F196" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5550,16 +5685,16 @@
         <v>71</v>
       </c>
       <c r="C197" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D197" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="F197" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5570,16 +5705,16 @@
         <v>72</v>
       </c>
       <c r="C198" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D198" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E198" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="F198" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5590,16 +5725,16 @@
         <v>72</v>
       </c>
       <c r="C199" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D199" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="F199" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5610,16 +5745,16 @@
         <v>73</v>
       </c>
       <c r="C200" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D200" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E200" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="F200" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5630,16 +5765,16 @@
         <v>73</v>
       </c>
       <c r="C201" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D201" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="F201" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5650,16 +5785,16 @@
         <v>74</v>
       </c>
       <c r="C202" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D202" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E202" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="F202" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5670,16 +5805,16 @@
         <v>74</v>
       </c>
       <c r="C203" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D203" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F203" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5690,16 +5825,16 @@
         <v>74</v>
       </c>
       <c r="C204" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D204" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E204" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="F204" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5710,16 +5845,16 @@
         <v>75</v>
       </c>
       <c r="C205" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D205" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="F205" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5730,16 +5865,16 @@
         <v>75</v>
       </c>
       <c r="C206" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D206" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E206" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F206" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5750,16 +5885,16 @@
         <v>75</v>
       </c>
       <c r="C207" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D207" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F207" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5770,16 +5905,16 @@
         <v>75</v>
       </c>
       <c r="C208" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D208" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E208" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5790,16 +5925,16 @@
         <v>75</v>
       </c>
       <c r="C209" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D209" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5810,16 +5945,16 @@
         <v>75</v>
       </c>
       <c r="C210" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D210" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E210" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5830,16 +5965,16 @@
         <v>76</v>
       </c>
       <c r="C211" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D211" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5850,16 +5985,16 @@
         <v>76</v>
       </c>
       <c r="C212" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D212" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E212" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5870,16 +6005,16 @@
         <v>77</v>
       </c>
       <c r="C213" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D213" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5890,16 +6025,16 @@
         <v>77</v>
       </c>
       <c r="C214" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D214" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E214" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5910,16 +6045,16 @@
         <v>77</v>
       </c>
       <c r="C215" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D215" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5930,16 +6065,16 @@
         <v>77</v>
       </c>
       <c r="C216" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D216" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E216" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5950,16 +6085,16 @@
         <v>78</v>
       </c>
       <c r="C217" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D217" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5970,16 +6105,16 @@
         <v>79</v>
       </c>
       <c r="C218" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D218" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E218" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5990,16 +6125,16 @@
         <v>79</v>
       </c>
       <c r="C219" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D219" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E219" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6010,16 +6145,16 @@
         <v>79</v>
       </c>
       <c r="C220" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D220" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E220" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6030,16 +6165,16 @@
         <v>80</v>
       </c>
       <c r="C221" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D221" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6050,16 +6185,16 @@
         <v>80</v>
       </c>
       <c r="C222" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D222" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E222" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="F222" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6070,16 +6205,16 @@
         <v>81</v>
       </c>
       <c r="C223" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D223" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E223" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6090,16 +6225,16 @@
         <v>81</v>
       </c>
       <c r="C224" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D224" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E224" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6110,16 +6245,636 @@
         <v>81</v>
       </c>
       <c r="C225" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D225" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E225" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F225" t="s">
-        <v>414</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s">
+        <v>82</v>
+      </c>
+      <c r="C226" t="s">
+        <v>126</v>
+      </c>
+      <c r="D226" t="s">
+        <v>199</v>
+      </c>
+      <c r="E226" t="s">
+        <v>428</v>
+      </c>
+      <c r="F226" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>82</v>
+      </c>
+      <c r="C227" t="s">
+        <v>125</v>
+      </c>
+      <c r="D227" t="s">
+        <v>199</v>
+      </c>
+      <c r="E227" t="s">
+        <v>429</v>
+      </c>
+      <c r="F227" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>82</v>
+      </c>
+      <c r="C228" t="s">
+        <v>116</v>
+      </c>
+      <c r="D228" t="s">
+        <v>199</v>
+      </c>
+      <c r="E228" t="s">
+        <v>430</v>
+      </c>
+      <c r="F228" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" t="s">
+        <v>82</v>
+      </c>
+      <c r="C229" t="s">
+        <v>123</v>
+      </c>
+      <c r="D229" t="s">
+        <v>199</v>
+      </c>
+      <c r="E229" t="s">
+        <v>431</v>
+      </c>
+      <c r="F229" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
+        <v>82</v>
+      </c>
+      <c r="C230" t="s">
+        <v>117</v>
+      </c>
+      <c r="D230" t="s">
+        <v>199</v>
+      </c>
+      <c r="E230" t="s">
+        <v>432</v>
+      </c>
+      <c r="F230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" t="s">
+        <v>82</v>
+      </c>
+      <c r="C231" t="s">
+        <v>124</v>
+      </c>
+      <c r="D231" t="s">
+        <v>199</v>
+      </c>
+      <c r="E231" t="s">
+        <v>433</v>
+      </c>
+      <c r="F231" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" t="s">
+        <v>83</v>
+      </c>
+      <c r="C232" t="s">
+        <v>126</v>
+      </c>
+      <c r="D232" t="s">
+        <v>200</v>
+      </c>
+      <c r="E232" t="s">
+        <v>434</v>
+      </c>
+      <c r="F232" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>83</v>
+      </c>
+      <c r="C233" t="s">
+        <v>125</v>
+      </c>
+      <c r="D233" t="s">
+        <v>200</v>
+      </c>
+      <c r="E233" t="s">
+        <v>435</v>
+      </c>
+      <c r="F233" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" t="s">
+        <v>83</v>
+      </c>
+      <c r="C234" t="s">
+        <v>116</v>
+      </c>
+      <c r="D234" t="s">
+        <v>200</v>
+      </c>
+      <c r="E234" t="s">
+        <v>436</v>
+      </c>
+      <c r="F234" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" t="s">
+        <v>84</v>
+      </c>
+      <c r="C235" t="s">
+        <v>95</v>
+      </c>
+      <c r="D235" t="s">
+        <v>201</v>
+      </c>
+      <c r="E235" t="s">
+        <v>437</v>
+      </c>
+      <c r="F235" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" t="s">
+        <v>84</v>
+      </c>
+      <c r="C236" t="s">
+        <v>96</v>
+      </c>
+      <c r="D236" t="s">
+        <v>201</v>
+      </c>
+      <c r="E236" t="s">
+        <v>438</v>
+      </c>
+      <c r="F236" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" t="s">
+        <v>84</v>
+      </c>
+      <c r="C237" t="s">
+        <v>97</v>
+      </c>
+      <c r="D237" t="s">
+        <v>201</v>
+      </c>
+      <c r="E237" t="s">
+        <v>439</v>
+      </c>
+      <c r="F237" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" t="s">
+        <v>84</v>
+      </c>
+      <c r="C238" t="s">
+        <v>98</v>
+      </c>
+      <c r="D238" t="s">
+        <v>201</v>
+      </c>
+      <c r="E238" t="s">
+        <v>440</v>
+      </c>
+      <c r="F238" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" t="s">
+        <v>84</v>
+      </c>
+      <c r="C239" t="s">
+        <v>88</v>
+      </c>
+      <c r="D239" t="s">
+        <v>201</v>
+      </c>
+      <c r="E239" t="s">
+        <v>441</v>
+      </c>
+      <c r="F239" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
+        <v>85</v>
+      </c>
+      <c r="C240" t="s">
+        <v>95</v>
+      </c>
+      <c r="D240" t="s">
+        <v>202</v>
+      </c>
+      <c r="E240" t="s">
+        <v>442</v>
+      </c>
+      <c r="F240" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" t="s">
+        <v>85</v>
+      </c>
+      <c r="C241" t="s">
+        <v>96</v>
+      </c>
+      <c r="D241" t="s">
+        <v>202</v>
+      </c>
+      <c r="E241" t="s">
+        <v>443</v>
+      </c>
+      <c r="F241" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242" t="s">
+        <v>85</v>
+      </c>
+      <c r="C242" t="s">
+        <v>97</v>
+      </c>
+      <c r="D242" t="s">
+        <v>202</v>
+      </c>
+      <c r="E242" t="s">
+        <v>444</v>
+      </c>
+      <c r="F242" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" t="s">
+        <v>85</v>
+      </c>
+      <c r="C243" t="s">
+        <v>98</v>
+      </c>
+      <c r="D243" t="s">
+        <v>202</v>
+      </c>
+      <c r="E243" t="s">
+        <v>445</v>
+      </c>
+      <c r="F243" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" t="s">
+        <v>85</v>
+      </c>
+      <c r="C244" t="s">
+        <v>88</v>
+      </c>
+      <c r="D244" t="s">
+        <v>202</v>
+      </c>
+      <c r="E244" t="s">
+        <v>446</v>
+      </c>
+      <c r="F244" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" t="s">
+        <v>86</v>
+      </c>
+      <c r="C245" t="s">
+        <v>127</v>
+      </c>
+      <c r="D245" t="s">
+        <v>203</v>
+      </c>
+      <c r="E245" t="s">
+        <v>447</v>
+      </c>
+      <c r="F245" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>86</v>
+      </c>
+      <c r="C246" t="s">
+        <v>93</v>
+      </c>
+      <c r="D246" t="s">
+        <v>203</v>
+      </c>
+      <c r="E246" t="s">
+        <v>448</v>
+      </c>
+      <c r="F246" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" t="s">
+        <v>86</v>
+      </c>
+      <c r="C247" t="s">
+        <v>94</v>
+      </c>
+      <c r="D247" t="s">
+        <v>203</v>
+      </c>
+      <c r="E247" t="s">
+        <v>449</v>
+      </c>
+      <c r="F247" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" t="s">
+        <v>86</v>
+      </c>
+      <c r="C248" t="s">
+        <v>95</v>
+      </c>
+      <c r="D248" t="s">
+        <v>203</v>
+      </c>
+      <c r="E248" t="s">
+        <v>450</v>
+      </c>
+      <c r="F248" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" t="s">
+        <v>86</v>
+      </c>
+      <c r="C249" t="s">
+        <v>96</v>
+      </c>
+      <c r="D249" t="s">
+        <v>203</v>
+      </c>
+      <c r="E249" t="s">
+        <v>451</v>
+      </c>
+      <c r="F249" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" t="s">
+        <v>86</v>
+      </c>
+      <c r="C250" t="s">
+        <v>97</v>
+      </c>
+      <c r="D250" t="s">
+        <v>203</v>
+      </c>
+      <c r="E250" t="s">
+        <v>452</v>
+      </c>
+      <c r="F250" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" t="s">
+        <v>86</v>
+      </c>
+      <c r="C251" t="s">
+        <v>98</v>
+      </c>
+      <c r="D251" t="s">
+        <v>203</v>
+      </c>
+      <c r="E251" t="s">
+        <v>453</v>
+      </c>
+      <c r="F251" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>86</v>
+      </c>
+      <c r="C252" t="s">
+        <v>88</v>
+      </c>
+      <c r="D252" t="s">
+        <v>203</v>
+      </c>
+      <c r="E252" t="s">
+        <v>454</v>
+      </c>
+      <c r="F252" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" t="s">
+        <v>87</v>
+      </c>
+      <c r="C253" t="s">
+        <v>95</v>
+      </c>
+      <c r="D253" t="s">
+        <v>204</v>
+      </c>
+      <c r="E253" t="s">
+        <v>455</v>
+      </c>
+      <c r="F253" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" t="s">
+        <v>87</v>
+      </c>
+      <c r="C254" t="s">
+        <v>96</v>
+      </c>
+      <c r="D254" t="s">
+        <v>204</v>
+      </c>
+      <c r="E254" t="s">
+        <v>456</v>
+      </c>
+      <c r="F254" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" t="s">
+        <v>87</v>
+      </c>
+      <c r="C255" t="s">
+        <v>97</v>
+      </c>
+      <c r="D255" t="s">
+        <v>204</v>
+      </c>
+      <c r="E255" t="s">
+        <v>457</v>
+      </c>
+      <c r="F255" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" t="s">
+        <v>87</v>
+      </c>
+      <c r="C256" t="s">
+        <v>98</v>
+      </c>
+      <c r="D256" t="s">
+        <v>204</v>
+      </c>
+      <c r="E256" t="s">
+        <v>458</v>
+      </c>
+      <c r="F256" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="234">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -280,6 +280,45 @@
     <t>A3 1.6 5p Aut.</t>
   </si>
   <si>
+    <t>A3 1.6 8V 102cv 3p</t>
+  </si>
+  <si>
+    <t>A3 1.8 3p</t>
+  </si>
+  <si>
+    <t>A3 1.8 3p Aut.</t>
+  </si>
+  <si>
+    <t>A3 1.8 5p Aut.</t>
+  </si>
+  <si>
+    <t>A3 1.8 5p Mec.</t>
+  </si>
+  <si>
+    <t>A3 1.8 Turbo 180cv 3p Aut./ Tip.</t>
+  </si>
+  <si>
+    <t>A3 1.8 Turbo 180cv 3p Mec.</t>
+  </si>
+  <si>
+    <t>A3 1.8 Turbo 180cv 5p Aut./ Tip.</t>
+  </si>
+  <si>
+    <t>A3 1.8 Turbo 180cv 5p Mec.</t>
+  </si>
+  <si>
+    <t>A3 1.8 Turbo 3p Aut.</t>
+  </si>
+  <si>
+    <t>A3 1.8 Turbo 3p Mec.</t>
+  </si>
+  <si>
+    <t>A3 1.8 Turbo 5p Aut.</t>
+  </si>
+  <si>
+    <t>A3 1.8 Turbo 5p Mec.</t>
+  </si>
+  <si>
     <t>1999 Gasolina</t>
   </si>
   <si>
@@ -400,6 +439,9 @@
     <t>2006 Gasolina</t>
   </si>
   <si>
+    <t>2007 Gasolina</t>
+  </si>
+  <si>
     <t>006009-7</t>
   </si>
   <si>
@@ -631,766 +673,46 @@
     <t>008057-8</t>
   </si>
   <si>
-    <t xml:space="preserve"> 27313.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21558.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14581.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13265.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21581.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17680.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17248.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13550.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29872.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29143.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23404.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22833.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22449.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18647.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18192.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92142.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89894.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 87701.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19511.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18466.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15931.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24925.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24317.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19754.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 104853.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32424.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49978.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 45101.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74355.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71998.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75561.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 70007.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58514.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57086.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29151.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28440.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27102.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19575.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13455.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11701.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28869.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28164.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89797.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86004.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83906.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81859.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71424.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8070.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7072.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 133185.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 129936.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92099.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41220.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32289.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27713.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 426859.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 384365.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 332825.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 396648.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 351603.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 294624.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 453297.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 401677.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 348246.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25397.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21995.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18798.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18158.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16980.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27427.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25605.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21492.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19903.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19231.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15514.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14842.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12659.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12058.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11358.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9903.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14608.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13421.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12439.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11373.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10192.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9297.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12164.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11236.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9800.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9324.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25330.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24712.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16727.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13972.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13585.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16655.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14777.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12873.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19837.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14311.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12443.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6442.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6095.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5884.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5680.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5955.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5298.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5168.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4546.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4415.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3607.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5607.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5281.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4945.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4532.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3838.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3291.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5858.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5699.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5481.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4160.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4058.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3746.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3569.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3442.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3284.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2840.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2401.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5876.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5732.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4374.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7989.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7146.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6889.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6037.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4876.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4281.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6241.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6088.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5939.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5967.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5821.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5569.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4635.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4206.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4005.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3600000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3228897.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3070680.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3900000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3625334.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1214247.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 946995.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 617791.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4493874.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4142252.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2346605.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2055673.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3800000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3226068.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2729902.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2502679.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 694217.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 607011.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1296696.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1032188.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1784133.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1616174.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 476063.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 638283.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 591028.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 528207.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 515323.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2800750.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2200329.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1739268.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1647750.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1770690.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1706250.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 588516.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 521625.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1842750.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1145906.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 993822.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 531136.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 654552.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12940.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12146.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10344.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13652.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12238.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23715.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21449.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14965.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12435.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15117.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12483.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23449.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19050.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30297.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29558.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22679.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 69220.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 67531.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 65883.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 64276.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 62708.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56940.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23516.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19107.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 69227.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 67538.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58794.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57172.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 121907.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 73953.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 67755.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59243.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82917.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80534.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78233.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 68479.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66808.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 102322.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78592.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 76675.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72791.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 68205.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66541.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 122630.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 116902.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 107141.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19755.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18974.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18511.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16245.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15235.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21354.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20443.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19315.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16389.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15482.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28210.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26539.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23062.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22499.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20267.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19467.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17989.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16792.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27532.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26860.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25756.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19966.00</t>
+    <t>008116-7</t>
+  </si>
+  <si>
+    <t>008005-5</t>
+  </si>
+  <si>
+    <t>008043-8</t>
+  </si>
+  <si>
+    <t>008042-0</t>
+  </si>
+  <si>
+    <t>008041-1</t>
+  </si>
+  <si>
+    <t>008073-0</t>
+  </si>
+  <si>
+    <t>008074-8</t>
+  </si>
+  <si>
+    <t>008071-3</t>
+  </si>
+  <si>
+    <t>008072-1</t>
+  </si>
+  <si>
+    <t>008046-2</t>
+  </si>
+  <si>
+    <t>008006-3</t>
+  </si>
+  <si>
+    <t>008045-4</t>
+  </si>
+  <si>
+    <t>008044-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26069.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -1751,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F256"/>
+  <dimension ref="A1:F340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1785,16 +1107,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" t="s">
-        <v>205</v>
+        <v>142</v>
+      </c>
+      <c r="E2">
+        <v>27313</v>
       </c>
       <c r="F2" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1805,16 +1127,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>206</v>
+        <v>142</v>
+      </c>
+      <c r="E3">
+        <v>21558</v>
       </c>
       <c r="F3" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1825,16 +1147,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" t="s">
-        <v>207</v>
+        <v>142</v>
+      </c>
+      <c r="E4">
+        <v>14581</v>
       </c>
       <c r="F4" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1845,16 +1167,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" t="s">
-        <v>208</v>
+        <v>142</v>
+      </c>
+      <c r="E5">
+        <v>13265</v>
       </c>
       <c r="F5" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1865,16 +1187,16 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s">
-        <v>209</v>
+        <v>143</v>
+      </c>
+      <c r="E6">
+        <v>21581</v>
       </c>
       <c r="F6" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1885,16 +1207,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" t="s">
-        <v>210</v>
+        <v>143</v>
+      </c>
+      <c r="E7">
+        <v>17680</v>
       </c>
       <c r="F7" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1905,16 +1227,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" t="s">
-        <v>211</v>
+        <v>143</v>
+      </c>
+      <c r="E8">
+        <v>17248</v>
       </c>
       <c r="F8" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1925,16 +1247,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" t="s">
-        <v>212</v>
+        <v>143</v>
+      </c>
+      <c r="E9">
+        <v>13550</v>
       </c>
       <c r="F9" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1945,16 +1267,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" t="s">
-        <v>213</v>
+        <v>144</v>
+      </c>
+      <c r="E10">
+        <v>29872</v>
       </c>
       <c r="F10" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1965,16 +1287,16 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" t="s">
-        <v>214</v>
+        <v>144</v>
+      </c>
+      <c r="E11">
+        <v>29143</v>
       </c>
       <c r="F11" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1985,16 +1307,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" t="s">
-        <v>215</v>
+        <v>144</v>
+      </c>
+      <c r="E12">
+        <v>23404</v>
       </c>
       <c r="F12" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2005,16 +1327,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" t="s">
-        <v>216</v>
+        <v>144</v>
+      </c>
+      <c r="E13">
+        <v>22833</v>
       </c>
       <c r="F13" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2025,16 +1347,16 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>217</v>
+        <v>145</v>
+      </c>
+      <c r="E14">
+        <v>22449</v>
       </c>
       <c r="F14" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2045,16 +1367,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" t="s">
-        <v>218</v>
+        <v>145</v>
+      </c>
+      <c r="E15">
+        <v>18647</v>
       </c>
       <c r="F15" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2065,16 +1387,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>219</v>
+        <v>145</v>
+      </c>
+      <c r="E16">
+        <v>18192</v>
       </c>
       <c r="F16" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2085,16 +1407,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" t="s">
-        <v>220</v>
+        <v>146</v>
+      </c>
+      <c r="E17">
+        <v>92142</v>
       </c>
       <c r="F17" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2105,16 +1427,16 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" t="s">
-        <v>221</v>
+        <v>146</v>
+      </c>
+      <c r="E18">
+        <v>89894</v>
       </c>
       <c r="F18" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2125,16 +1447,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" t="s">
-        <v>222</v>
+        <v>146</v>
+      </c>
+      <c r="E19">
+        <v>87701</v>
       </c>
       <c r="F19" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2145,16 +1467,16 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" t="s">
-        <v>223</v>
+        <v>147</v>
+      </c>
+      <c r="E20">
+        <v>19511</v>
       </c>
       <c r="F20" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2165,16 +1487,16 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>224</v>
+        <v>147</v>
+      </c>
+      <c r="E21">
+        <v>18466</v>
       </c>
       <c r="F21" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2185,16 +1507,16 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" t="s">
-        <v>225</v>
+        <v>147</v>
+      </c>
+      <c r="E22">
+        <v>15931</v>
       </c>
       <c r="F22" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2205,16 +1527,16 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>226</v>
+        <v>148</v>
+      </c>
+      <c r="E23">
+        <v>24925</v>
       </c>
       <c r="F23" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2225,16 +1547,16 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" t="s">
-        <v>227</v>
+        <v>148</v>
+      </c>
+      <c r="E24">
+        <v>24317</v>
       </c>
       <c r="F24" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2245,16 +1567,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="s">
-        <v>228</v>
+        <v>148</v>
+      </c>
+      <c r="E25">
+        <v>19754</v>
       </c>
       <c r="F25" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2265,16 +1587,16 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" t="s">
-        <v>229</v>
+        <v>149</v>
+      </c>
+      <c r="E26">
+        <v>104853</v>
       </c>
       <c r="F26" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2285,16 +1607,16 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" t="s">
-        <v>230</v>
+        <v>149</v>
+      </c>
+      <c r="E27">
+        <v>32424</v>
       </c>
       <c r="F27" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2305,16 +1627,16 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" t="s">
-        <v>231</v>
+        <v>150</v>
+      </c>
+      <c r="E28">
+        <v>49978</v>
       </c>
       <c r="F28" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2325,16 +1647,16 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" t="s">
-        <v>232</v>
+        <v>150</v>
+      </c>
+      <c r="E29">
+        <v>45101</v>
       </c>
       <c r="F29" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2345,16 +1667,16 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" t="s">
-        <v>233</v>
+        <v>151</v>
+      </c>
+      <c r="E30">
+        <v>74355</v>
       </c>
       <c r="F30" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2365,16 +1687,16 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" t="s">
-        <v>234</v>
+        <v>151</v>
+      </c>
+      <c r="E31">
+        <v>71998</v>
       </c>
       <c r="F31" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2385,16 +1707,16 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" t="s">
-        <v>235</v>
+        <v>152</v>
+      </c>
+      <c r="E32">
+        <v>75561</v>
       </c>
       <c r="F32" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2405,16 +1727,16 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" t="s">
-        <v>236</v>
+        <v>152</v>
+      </c>
+      <c r="E33">
+        <v>70007</v>
       </c>
       <c r="F33" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2425,16 +1747,16 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" t="s">
-        <v>237</v>
+        <v>152</v>
+      </c>
+      <c r="E34">
+        <v>58514</v>
       </c>
       <c r="F34" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2445,16 +1767,16 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" t="s">
-        <v>238</v>
+        <v>152</v>
+      </c>
+      <c r="E35">
+        <v>57086</v>
       </c>
       <c r="F35" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2465,16 +1787,16 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" t="s">
-        <v>239</v>
+        <v>153</v>
+      </c>
+      <c r="E36">
+        <v>29151</v>
       </c>
       <c r="F36" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2485,16 +1807,16 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" t="s">
-        <v>240</v>
+        <v>153</v>
+      </c>
+      <c r="E37">
+        <v>28440</v>
       </c>
       <c r="F37" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2505,16 +1827,16 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" t="s">
-        <v>241</v>
+        <v>153</v>
+      </c>
+      <c r="E38">
+        <v>27102</v>
       </c>
       <c r="F38" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2525,16 +1847,16 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" t="s">
-        <v>242</v>
+        <v>153</v>
+      </c>
+      <c r="E39">
+        <v>19575</v>
       </c>
       <c r="F39" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2545,16 +1867,16 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" t="s">
-        <v>243</v>
+        <v>153</v>
+      </c>
+      <c r="E40">
+        <v>13455</v>
       </c>
       <c r="F40" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2565,16 +1887,16 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" t="s">
-        <v>244</v>
+        <v>153</v>
+      </c>
+      <c r="E41">
+        <v>11701</v>
       </c>
       <c r="F41" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2585,16 +1907,16 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" t="s">
-        <v>245</v>
+        <v>154</v>
+      </c>
+      <c r="E42">
+        <v>28869</v>
       </c>
       <c r="F42" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2605,16 +1927,16 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" t="s">
-        <v>246</v>
+        <v>154</v>
+      </c>
+      <c r="E43">
+        <v>28164</v>
       </c>
       <c r="F43" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2625,16 +1947,16 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" t="s">
-        <v>247</v>
+        <v>155</v>
+      </c>
+      <c r="E44">
+        <v>89797</v>
       </c>
       <c r="F44" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2645,16 +1967,16 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" t="s">
-        <v>248</v>
+        <v>155</v>
+      </c>
+      <c r="E45">
+        <v>86004</v>
       </c>
       <c r="F45" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2665,16 +1987,16 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" t="s">
-        <v>249</v>
+        <v>155</v>
+      </c>
+      <c r="E46">
+        <v>83906</v>
       </c>
       <c r="F46" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2685,16 +2007,16 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" t="s">
-        <v>250</v>
+        <v>155</v>
+      </c>
+      <c r="E47">
+        <v>81859</v>
       </c>
       <c r="F47" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2705,16 +2027,16 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" t="s">
-        <v>251</v>
+        <v>155</v>
+      </c>
+      <c r="E48">
+        <v>71424</v>
       </c>
       <c r="F48" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2725,16 +2047,16 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" t="s">
-        <v>252</v>
+        <v>156</v>
+      </c>
+      <c r="E49">
+        <v>8070</v>
       </c>
       <c r="F49" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2745,16 +2067,16 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" t="s">
-        <v>253</v>
+        <v>156</v>
+      </c>
+      <c r="E50">
+        <v>7072</v>
       </c>
       <c r="F50" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2765,16 +2087,16 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" t="s">
-        <v>254</v>
+        <v>157</v>
+      </c>
+      <c r="E51">
+        <v>133185</v>
       </c>
       <c r="F51" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2785,16 +2107,16 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" t="s">
-        <v>255</v>
+        <v>157</v>
+      </c>
+      <c r="E52">
+        <v>129936</v>
       </c>
       <c r="F52" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2805,16 +2127,16 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" t="s">
-        <v>256</v>
+        <v>157</v>
+      </c>
+      <c r="E53">
+        <v>92099</v>
       </c>
       <c r="F53" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2825,16 +2147,16 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
-      </c>
-      <c r="E54" t="s">
-        <v>257</v>
+        <v>157</v>
+      </c>
+      <c r="E54">
+        <v>41220</v>
       </c>
       <c r="F54" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2845,16 +2167,16 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" t="s">
-        <v>258</v>
+        <v>157</v>
+      </c>
+      <c r="E55">
+        <v>32289</v>
       </c>
       <c r="F55" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2865,16 +2187,16 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" t="s">
-        <v>259</v>
+        <v>157</v>
+      </c>
+      <c r="E56">
+        <v>27713</v>
       </c>
       <c r="F56" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2885,16 +2207,16 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" t="s">
-        <v>260</v>
+        <v>158</v>
+      </c>
+      <c r="E57">
+        <v>426859</v>
       </c>
       <c r="F57" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2905,16 +2227,16 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E58" t="s">
-        <v>261</v>
+        <v>158</v>
+      </c>
+      <c r="E58">
+        <v>384365</v>
       </c>
       <c r="F58" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2925,16 +2247,16 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" t="s">
-        <v>262</v>
+        <v>158</v>
+      </c>
+      <c r="E59">
+        <v>332825</v>
       </c>
       <c r="F59" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2945,16 +2267,16 @@
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" t="s">
-        <v>263</v>
+        <v>159</v>
+      </c>
+      <c r="E60">
+        <v>396648</v>
       </c>
       <c r="F60" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2965,16 +2287,16 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" t="s">
-        <v>264</v>
+        <v>159</v>
+      </c>
+      <c r="E61">
+        <v>351603</v>
       </c>
       <c r="F61" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2985,16 +2307,16 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" t="s">
-        <v>265</v>
+        <v>159</v>
+      </c>
+      <c r="E62">
+        <v>294624</v>
       </c>
       <c r="F62" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3005,16 +2327,16 @@
         <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" t="s">
-        <v>266</v>
+        <v>160</v>
+      </c>
+      <c r="E63">
+        <v>453297</v>
       </c>
       <c r="F63" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3025,16 +2347,16 @@
         <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" t="s">
-        <v>267</v>
+        <v>160</v>
+      </c>
+      <c r="E64">
+        <v>401677</v>
       </c>
       <c r="F64" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3045,16 +2367,16 @@
         <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
-      </c>
-      <c r="E65" t="s">
-        <v>268</v>
+        <v>160</v>
+      </c>
+      <c r="E65">
+        <v>348246</v>
       </c>
       <c r="F65" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3065,16 +2387,16 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" t="s">
-        <v>269</v>
+        <v>161</v>
+      </c>
+      <c r="E66">
+        <v>25397</v>
       </c>
       <c r="F66" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3085,16 +2407,16 @@
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" t="s">
-        <v>270</v>
+        <v>161</v>
+      </c>
+      <c r="E67">
+        <v>21995</v>
       </c>
       <c r="F67" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3105,16 +2427,16 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" t="s">
-        <v>271</v>
+        <v>161</v>
+      </c>
+      <c r="E68">
+        <v>18798</v>
       </c>
       <c r="F68" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3125,16 +2447,16 @@
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
-      </c>
-      <c r="E69" t="s">
-        <v>272</v>
+        <v>161</v>
+      </c>
+      <c r="E69">
+        <v>18158</v>
       </c>
       <c r="F69" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3145,16 +2467,16 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" t="s">
-        <v>273</v>
+        <v>161</v>
+      </c>
+      <c r="E70">
+        <v>16980</v>
       </c>
       <c r="F70" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3165,16 +2487,16 @@
         <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" t="s">
-        <v>274</v>
+        <v>162</v>
+      </c>
+      <c r="E71">
+        <v>27427</v>
       </c>
       <c r="F71" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3185,16 +2507,16 @@
         <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
-      </c>
-      <c r="E72" t="s">
-        <v>275</v>
+        <v>162</v>
+      </c>
+      <c r="E72">
+        <v>25605</v>
       </c>
       <c r="F72" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3205,16 +2527,16 @@
         <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" t="s">
-        <v>276</v>
+        <v>162</v>
+      </c>
+      <c r="E73">
+        <v>21492</v>
       </c>
       <c r="F73" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3225,16 +2547,16 @@
         <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" t="s">
-        <v>277</v>
+        <v>162</v>
+      </c>
+      <c r="E74">
+        <v>19903</v>
       </c>
       <c r="F74" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3245,16 +2567,16 @@
         <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
-      </c>
-      <c r="E75" t="s">
-        <v>278</v>
+        <v>162</v>
+      </c>
+      <c r="E75">
+        <v>19231</v>
       </c>
       <c r="F75" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3265,16 +2587,16 @@
         <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
-      </c>
-      <c r="E76" t="s">
-        <v>279</v>
+        <v>163</v>
+      </c>
+      <c r="E76">
+        <v>15514</v>
       </c>
       <c r="F76" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3285,16 +2607,16 @@
         <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
-      </c>
-      <c r="E77" t="s">
-        <v>280</v>
+        <v>163</v>
+      </c>
+      <c r="E77">
+        <v>14842</v>
       </c>
       <c r="F77" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3305,16 +2627,16 @@
         <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
-      </c>
-      <c r="E78" t="s">
-        <v>281</v>
+        <v>163</v>
+      </c>
+      <c r="E78">
+        <v>12659</v>
       </c>
       <c r="F78" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3325,16 +2647,16 @@
         <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E79" t="s">
-        <v>282</v>
+        <v>163</v>
+      </c>
+      <c r="E79">
+        <v>12058</v>
       </c>
       <c r="F79" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3345,16 +2667,16 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
-      </c>
-      <c r="E80" t="s">
-        <v>283</v>
+        <v>163</v>
+      </c>
+      <c r="E80">
+        <v>11358</v>
       </c>
       <c r="F80" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3365,16 +2687,16 @@
         <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
-      </c>
-      <c r="E81" t="s">
-        <v>284</v>
+        <v>163</v>
+      </c>
+      <c r="E81">
+        <v>9903</v>
       </c>
       <c r="F81" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3385,16 +2707,16 @@
         <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D82" t="s">
-        <v>150</v>
-      </c>
-      <c r="E82" t="s">
-        <v>285</v>
+        <v>164</v>
+      </c>
+      <c r="E82">
+        <v>14608</v>
       </c>
       <c r="F82" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3405,16 +2727,16 @@
         <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D83" t="s">
-        <v>150</v>
-      </c>
-      <c r="E83" t="s">
-        <v>286</v>
+        <v>164</v>
+      </c>
+      <c r="E83">
+        <v>13421</v>
       </c>
       <c r="F83" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3425,16 +2747,16 @@
         <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D84" t="s">
-        <v>150</v>
-      </c>
-      <c r="E84" t="s">
-        <v>287</v>
+        <v>164</v>
+      </c>
+      <c r="E84">
+        <v>12439</v>
       </c>
       <c r="F84" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3445,16 +2767,16 @@
         <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
-      </c>
-      <c r="E85" t="s">
-        <v>288</v>
+        <v>164</v>
+      </c>
+      <c r="E85">
+        <v>11373</v>
       </c>
       <c r="F85" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3465,16 +2787,16 @@
         <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
-      </c>
-      <c r="E86" t="s">
-        <v>289</v>
+        <v>164</v>
+      </c>
+      <c r="E86">
+        <v>10192</v>
       </c>
       <c r="F86" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3485,16 +2807,16 @@
         <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D87" t="s">
-        <v>150</v>
-      </c>
-      <c r="E87" t="s">
-        <v>290</v>
+        <v>164</v>
+      </c>
+      <c r="E87">
+        <v>9297</v>
       </c>
       <c r="F87" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3505,16 +2827,16 @@
         <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D88" t="s">
-        <v>151</v>
-      </c>
-      <c r="E88" t="s">
-        <v>291</v>
+        <v>165</v>
+      </c>
+      <c r="E88">
+        <v>12164</v>
       </c>
       <c r="F88" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3525,16 +2847,16 @@
         <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D89" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" t="s">
-        <v>292</v>
+        <v>165</v>
+      </c>
+      <c r="E89">
+        <v>11236</v>
       </c>
       <c r="F89" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3545,16 +2867,16 @@
         <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
-      </c>
-      <c r="E90" t="s">
-        <v>293</v>
+        <v>165</v>
+      </c>
+      <c r="E90">
+        <v>9800</v>
       </c>
       <c r="F90" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3565,16 +2887,16 @@
         <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" t="s">
-        <v>294</v>
+        <v>165</v>
+      </c>
+      <c r="E91">
+        <v>9324</v>
       </c>
       <c r="F91" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3585,16 +2907,16 @@
         <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" t="s">
-        <v>295</v>
+        <v>166</v>
+      </c>
+      <c r="E92">
+        <v>25330</v>
       </c>
       <c r="F92" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3605,16 +2927,16 @@
         <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D93" t="s">
-        <v>152</v>
-      </c>
-      <c r="E93" t="s">
-        <v>296</v>
+        <v>166</v>
+      </c>
+      <c r="E93">
+        <v>24712</v>
       </c>
       <c r="F93" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3625,16 +2947,16 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
-      </c>
-      <c r="E94" t="s">
-        <v>297</v>
+        <v>167</v>
+      </c>
+      <c r="E94">
+        <v>16727</v>
       </c>
       <c r="F94" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3645,16 +2967,16 @@
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D95" t="s">
-        <v>153</v>
-      </c>
-      <c r="E95" t="s">
-        <v>298</v>
+        <v>167</v>
+      </c>
+      <c r="E95">
+        <v>13972</v>
       </c>
       <c r="F95" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3665,16 +2987,16 @@
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
-      </c>
-      <c r="E96" t="s">
-        <v>299</v>
+        <v>167</v>
+      </c>
+      <c r="E96">
+        <v>13585</v>
       </c>
       <c r="F96" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3685,16 +3007,16 @@
         <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D97" t="s">
-        <v>154</v>
-      </c>
-      <c r="E97" t="s">
-        <v>300</v>
+        <v>168</v>
+      </c>
+      <c r="E97">
+        <v>16655</v>
       </c>
       <c r="F97" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3705,16 +3027,16 @@
         <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
-      </c>
-      <c r="E98" t="s">
-        <v>301</v>
+        <v>168</v>
+      </c>
+      <c r="E98">
+        <v>14777</v>
       </c>
       <c r="F98" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3725,16 +3047,16 @@
         <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D99" t="s">
-        <v>154</v>
-      </c>
-      <c r="E99" t="s">
-        <v>302</v>
+        <v>168</v>
+      </c>
+      <c r="E99">
+        <v>12873</v>
       </c>
       <c r="F99" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3745,16 +3067,16 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D100" t="s">
-        <v>155</v>
-      </c>
-      <c r="E100" t="s">
-        <v>303</v>
+        <v>169</v>
+      </c>
+      <c r="E100">
+        <v>19837</v>
       </c>
       <c r="F100" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3762,19 +3084,19 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D101" t="s">
-        <v>153</v>
-      </c>
-      <c r="E101" t="s">
-        <v>298</v>
+        <v>169</v>
+      </c>
+      <c r="E101">
+        <v>14311</v>
       </c>
       <c r="F101" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3785,16 +3107,16 @@
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D102" t="s">
-        <v>155</v>
-      </c>
-      <c r="E102" t="s">
-        <v>304</v>
+        <v>169</v>
+      </c>
+      <c r="E102">
+        <v>12443</v>
       </c>
       <c r="F102" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3802,19 +3124,19 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D103" t="s">
-        <v>155</v>
-      </c>
-      <c r="E103" t="s">
-        <v>305</v>
+        <v>170</v>
+      </c>
+      <c r="E103">
+        <v>6442</v>
       </c>
       <c r="F103" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3825,16 +3147,16 @@
         <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>156</v>
-      </c>
-      <c r="E104" t="s">
-        <v>306</v>
+        <v>170</v>
+      </c>
+      <c r="E104">
+        <v>6095</v>
       </c>
       <c r="F104" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3845,16 +3167,16 @@
         <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D105" t="s">
-        <v>156</v>
-      </c>
-      <c r="E105" t="s">
-        <v>307</v>
+        <v>170</v>
+      </c>
+      <c r="E105">
+        <v>5884</v>
       </c>
       <c r="F105" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3865,16 +3187,16 @@
         <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D106" t="s">
-        <v>156</v>
-      </c>
-      <c r="E106" t="s">
-        <v>308</v>
+        <v>170</v>
+      </c>
+      <c r="E106">
+        <v>5680</v>
       </c>
       <c r="F106" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3882,19 +3204,19 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
-        <v>156</v>
-      </c>
-      <c r="E107" t="s">
-        <v>309</v>
+        <v>171</v>
+      </c>
+      <c r="E107">
+        <v>5955</v>
       </c>
       <c r="F107" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3905,16 +3227,16 @@
         <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D108" t="s">
-        <v>157</v>
-      </c>
-      <c r="E108" t="s">
-        <v>310</v>
+        <v>171</v>
+      </c>
+      <c r="E108">
+        <v>5298</v>
       </c>
       <c r="F108" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3925,16 +3247,16 @@
         <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
-        <v>157</v>
-      </c>
-      <c r="E109" t="s">
-        <v>311</v>
+        <v>171</v>
+      </c>
+      <c r="E109">
+        <v>5168</v>
       </c>
       <c r="F109" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3945,16 +3267,16 @@
         <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D110" t="s">
-        <v>157</v>
-      </c>
-      <c r="E110" t="s">
-        <v>312</v>
+        <v>171</v>
+      </c>
+      <c r="E110">
+        <v>4546</v>
       </c>
       <c r="F110" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3965,16 +3287,16 @@
         <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D111" t="s">
-        <v>157</v>
-      </c>
-      <c r="E111" t="s">
-        <v>313</v>
+        <v>171</v>
+      </c>
+      <c r="E111">
+        <v>4415</v>
       </c>
       <c r="F111" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3985,16 +3307,16 @@
         <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E112" t="s">
-        <v>314</v>
+        <v>171</v>
+      </c>
+      <c r="E112">
+        <v>3607</v>
       </c>
       <c r="F112" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4002,19 +3324,19 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
-        <v>157</v>
-      </c>
-      <c r="E113" t="s">
-        <v>315</v>
+        <v>172</v>
+      </c>
+      <c r="E113">
+        <v>5607</v>
       </c>
       <c r="F113" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4025,16 +3347,16 @@
         <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>158</v>
-      </c>
-      <c r="E114" t="s">
-        <v>316</v>
+        <v>172</v>
+      </c>
+      <c r="E114">
+        <v>5281</v>
       </c>
       <c r="F114" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4045,16 +3367,16 @@
         <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D115" t="s">
-        <v>158</v>
-      </c>
-      <c r="E115" t="s">
-        <v>317</v>
+        <v>172</v>
+      </c>
+      <c r="E115">
+        <v>4945</v>
       </c>
       <c r="F115" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4065,16 +3387,16 @@
         <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D116" t="s">
-        <v>158</v>
-      </c>
-      <c r="E116" t="s">
-        <v>318</v>
+        <v>172</v>
+      </c>
+      <c r="E116">
+        <v>4532</v>
       </c>
       <c r="F116" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4085,16 +3407,16 @@
         <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D117" t="s">
-        <v>158</v>
-      </c>
-      <c r="E117" t="s">
-        <v>319</v>
+        <v>172</v>
+      </c>
+      <c r="E117">
+        <v>3838</v>
       </c>
       <c r="F117" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4105,16 +3427,16 @@
         <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D118" t="s">
-        <v>158</v>
-      </c>
-      <c r="E118" t="s">
-        <v>320</v>
+        <v>172</v>
+      </c>
+      <c r="E118">
+        <v>3291</v>
       </c>
       <c r="F118" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4122,19 +3444,19 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D119" t="s">
-        <v>158</v>
-      </c>
-      <c r="E119" t="s">
-        <v>321</v>
+        <v>173</v>
+      </c>
+      <c r="E119">
+        <v>5858</v>
       </c>
       <c r="F119" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4145,16 +3467,16 @@
         <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D120" t="s">
-        <v>159</v>
-      </c>
-      <c r="E120" t="s">
-        <v>322</v>
+        <v>173</v>
+      </c>
+      <c r="E120">
+        <v>5699</v>
       </c>
       <c r="F120" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4165,16 +3487,16 @@
         <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D121" t="s">
-        <v>159</v>
-      </c>
-      <c r="E121" t="s">
-        <v>323</v>
+        <v>173</v>
+      </c>
+      <c r="E121">
+        <v>5481</v>
       </c>
       <c r="F121" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4182,19 +3504,19 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D122" t="s">
-        <v>159</v>
-      </c>
-      <c r="E122" t="s">
-        <v>324</v>
+        <v>174</v>
+      </c>
+      <c r="E122">
+        <v>4160</v>
       </c>
       <c r="F122" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4205,16 +3527,16 @@
         <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D123" t="s">
-        <v>160</v>
-      </c>
-      <c r="E123" t="s">
-        <v>325</v>
+        <v>174</v>
+      </c>
+      <c r="E123">
+        <v>4058</v>
       </c>
       <c r="F123" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4225,16 +3547,16 @@
         <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
-      </c>
-      <c r="E124" t="s">
-        <v>326</v>
+        <v>174</v>
+      </c>
+      <c r="E124">
+        <v>3746</v>
       </c>
       <c r="F124" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4242,19 +3564,19 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
-      </c>
-      <c r="E125" t="s">
-        <v>327</v>
+        <v>175</v>
+      </c>
+      <c r="E125">
+        <v>3569</v>
       </c>
       <c r="F125" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4265,16 +3587,16 @@
         <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D126" t="s">
-        <v>161</v>
-      </c>
-      <c r="E126" t="s">
-        <v>328</v>
+        <v>175</v>
+      </c>
+      <c r="E126">
+        <v>3442</v>
       </c>
       <c r="F126" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4285,16 +3607,16 @@
         <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D127" t="s">
-        <v>161</v>
-      </c>
-      <c r="E127" t="s">
-        <v>329</v>
+        <v>175</v>
+      </c>
+      <c r="E127">
+        <v>3284</v>
       </c>
       <c r="F127" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4305,16 +3627,16 @@
         <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D128" t="s">
-        <v>161</v>
-      </c>
-      <c r="E128" t="s">
-        <v>330</v>
+        <v>175</v>
+      </c>
+      <c r="E128">
+        <v>2840</v>
       </c>
       <c r="F128" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4325,16 +3647,16 @@
         <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D129" t="s">
-        <v>161</v>
-      </c>
-      <c r="E129" t="s">
-        <v>331</v>
+        <v>175</v>
+      </c>
+      <c r="E129">
+        <v>2401</v>
       </c>
       <c r="F129" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4342,19 +3664,19 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D130" t="s">
-        <v>161</v>
-      </c>
-      <c r="E130" t="s">
-        <v>332</v>
+        <v>176</v>
+      </c>
+      <c r="E130">
+        <v>5876</v>
       </c>
       <c r="F130" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4365,16 +3687,16 @@
         <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D131" t="s">
-        <v>162</v>
-      </c>
-      <c r="E131" t="s">
-        <v>333</v>
+        <v>176</v>
+      </c>
+      <c r="E131">
+        <v>5732</v>
       </c>
       <c r="F131" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4385,16 +3707,16 @@
         <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D132" t="s">
-        <v>162</v>
-      </c>
-      <c r="E132" t="s">
-        <v>334</v>
+        <v>176</v>
+      </c>
+      <c r="E132">
+        <v>4374</v>
       </c>
       <c r="F132" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4402,19 +3724,19 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D133" t="s">
-        <v>162</v>
-      </c>
-      <c r="E133" t="s">
-        <v>335</v>
+        <v>177</v>
+      </c>
+      <c r="E133">
+        <v>7989</v>
       </c>
       <c r="F133" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4425,16 +3747,16 @@
         <v>46</v>
       </c>
       <c r="C134" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D134" t="s">
-        <v>163</v>
-      </c>
-      <c r="E134" t="s">
-        <v>336</v>
+        <v>177</v>
+      </c>
+      <c r="E134">
+        <v>7146</v>
       </c>
       <c r="F134" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4445,16 +3767,16 @@
         <v>46</v>
       </c>
       <c r="C135" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D135" t="s">
-        <v>163</v>
-      </c>
-      <c r="E135" t="s">
-        <v>337</v>
+        <v>177</v>
+      </c>
+      <c r="E135">
+        <v>6889</v>
       </c>
       <c r="F135" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4465,16 +3787,16 @@
         <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
-      </c>
-      <c r="E136" t="s">
-        <v>338</v>
+        <v>177</v>
+      </c>
+      <c r="E136">
+        <v>6037</v>
       </c>
       <c r="F136" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4485,16 +3807,16 @@
         <v>46</v>
       </c>
       <c r="C137" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D137" t="s">
-        <v>163</v>
-      </c>
-      <c r="E137" t="s">
-        <v>339</v>
+        <v>177</v>
+      </c>
+      <c r="E137">
+        <v>4876</v>
       </c>
       <c r="F137" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4505,16 +3827,16 @@
         <v>46</v>
       </c>
       <c r="C138" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D138" t="s">
-        <v>163</v>
-      </c>
-      <c r="E138" t="s">
-        <v>340</v>
+        <v>177</v>
+      </c>
+      <c r="E138">
+        <v>4281</v>
       </c>
       <c r="F138" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4522,19 +3844,19 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D139" t="s">
-        <v>163</v>
-      </c>
-      <c r="E139" t="s">
-        <v>341</v>
+        <v>178</v>
+      </c>
+      <c r="E139">
+        <v>6241</v>
       </c>
       <c r="F139" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4545,16 +3867,16 @@
         <v>47</v>
       </c>
       <c r="C140" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D140" t="s">
-        <v>164</v>
-      </c>
-      <c r="E140" t="s">
-        <v>342</v>
+        <v>178</v>
+      </c>
+      <c r="E140">
+        <v>6088</v>
       </c>
       <c r="F140" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4565,16 +3887,16 @@
         <v>47</v>
       </c>
       <c r="C141" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D141" t="s">
-        <v>164</v>
-      </c>
-      <c r="E141" t="s">
-        <v>343</v>
+        <v>178</v>
+      </c>
+      <c r="E141">
+        <v>5939</v>
       </c>
       <c r="F141" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4582,19 +3904,19 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D142" t="s">
-        <v>164</v>
-      </c>
-      <c r="E142" t="s">
-        <v>344</v>
+        <v>179</v>
+      </c>
+      <c r="E142">
+        <v>5967</v>
       </c>
       <c r="F142" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4605,16 +3927,16 @@
         <v>48</v>
       </c>
       <c r="C143" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D143" t="s">
-        <v>165</v>
-      </c>
-      <c r="E143" t="s">
-        <v>345</v>
+        <v>179</v>
+      </c>
+      <c r="E143">
+        <v>5821</v>
       </c>
       <c r="F143" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4625,16 +3947,16 @@
         <v>48</v>
       </c>
       <c r="C144" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D144" t="s">
-        <v>165</v>
-      </c>
-      <c r="E144" t="s">
-        <v>346</v>
+        <v>179</v>
+      </c>
+      <c r="E144">
+        <v>5569</v>
       </c>
       <c r="F144" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4645,16 +3967,16 @@
         <v>48</v>
       </c>
       <c r="C145" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D145" t="s">
-        <v>165</v>
-      </c>
-      <c r="E145" t="s">
-        <v>347</v>
+        <v>179</v>
+      </c>
+      <c r="E145">
+        <v>4635</v>
       </c>
       <c r="F145" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4665,16 +3987,16 @@
         <v>48</v>
       </c>
       <c r="C146" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D146" t="s">
-        <v>165</v>
-      </c>
-      <c r="E146" t="s">
-        <v>348</v>
+        <v>179</v>
+      </c>
+      <c r="E146">
+        <v>4206</v>
       </c>
       <c r="F146" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4685,36 +4007,36 @@
         <v>48</v>
       </c>
       <c r="C147" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D147" t="s">
-        <v>165</v>
-      </c>
-      <c r="E147" t="s">
-        <v>349</v>
+        <v>179</v>
+      </c>
+      <c r="E147">
+        <v>4005</v>
       </c>
       <c r="F147" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C148" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E148" t="s">
-        <v>350</v>
+        <v>180</v>
+      </c>
+      <c r="E148">
+        <v>3600000</v>
       </c>
       <c r="F148" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4725,16 +4047,16 @@
         <v>49</v>
       </c>
       <c r="C149" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D149" t="s">
-        <v>166</v>
-      </c>
-      <c r="E149" t="s">
-        <v>351</v>
+        <v>180</v>
+      </c>
+      <c r="E149">
+        <v>3228897</v>
       </c>
       <c r="F149" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4745,16 +4067,16 @@
         <v>49</v>
       </c>
       <c r="C150" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D150" t="s">
-        <v>166</v>
-      </c>
-      <c r="E150" t="s">
-        <v>352</v>
+        <v>180</v>
+      </c>
+      <c r="E150">
+        <v>3070680</v>
       </c>
       <c r="F150" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4762,19 +4084,19 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C151" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D151" t="s">
-        <v>166</v>
-      </c>
-      <c r="E151" t="s">
-        <v>353</v>
+        <v>181</v>
+      </c>
+      <c r="E151">
+        <v>3900000</v>
       </c>
       <c r="F151" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4785,16 +4107,16 @@
         <v>50</v>
       </c>
       <c r="C152" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D152" t="s">
-        <v>167</v>
-      </c>
-      <c r="E152" t="s">
-        <v>354</v>
+        <v>181</v>
+      </c>
+      <c r="E152">
+        <v>3625334</v>
       </c>
       <c r="F152" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4802,19 +4124,19 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C153" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D153" t="s">
-        <v>167</v>
-      </c>
-      <c r="E153" t="s">
-        <v>355</v>
+        <v>182</v>
+      </c>
+      <c r="E153">
+        <v>1214247</v>
       </c>
       <c r="F153" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4825,16 +4147,16 @@
         <v>51</v>
       </c>
       <c r="C154" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D154" t="s">
-        <v>168</v>
-      </c>
-      <c r="E154" t="s">
-        <v>356</v>
+        <v>182</v>
+      </c>
+      <c r="E154">
+        <v>946995</v>
       </c>
       <c r="F154" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4842,19 +4164,19 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D155" t="s">
-        <v>168</v>
-      </c>
-      <c r="E155" t="s">
-        <v>357</v>
+        <v>183</v>
+      </c>
+      <c r="E155">
+        <v>617791</v>
       </c>
       <c r="F155" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4862,19 +4184,19 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D156" t="s">
-        <v>169</v>
-      </c>
-      <c r="E156" t="s">
-        <v>358</v>
+        <v>184</v>
+      </c>
+      <c r="E156">
+        <v>4493874</v>
       </c>
       <c r="F156" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4885,16 +4207,16 @@
         <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D157" t="s">
-        <v>170</v>
-      </c>
-      <c r="E157" t="s">
-        <v>359</v>
+        <v>184</v>
+      </c>
+      <c r="E157">
+        <v>4142252</v>
       </c>
       <c r="F157" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4902,19 +4224,19 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C158" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D158" t="s">
-        <v>170</v>
-      </c>
-      <c r="E158" t="s">
-        <v>360</v>
+        <v>185</v>
+      </c>
+      <c r="E158">
+        <v>2346605</v>
       </c>
       <c r="F158" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4925,16 +4247,16 @@
         <v>54</v>
       </c>
       <c r="C159" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D159" t="s">
-        <v>171</v>
-      </c>
-      <c r="E159" t="s">
-        <v>361</v>
+        <v>185</v>
+      </c>
+      <c r="E159">
+        <v>2055673</v>
       </c>
       <c r="F159" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4942,19 +4264,19 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D160" t="s">
-        <v>171</v>
-      </c>
-      <c r="E160" t="s">
-        <v>362</v>
+        <v>186</v>
+      </c>
+      <c r="E160">
+        <v>3800000</v>
       </c>
       <c r="F160" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4965,16 +4287,16 @@
         <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D161" t="s">
-        <v>172</v>
-      </c>
-      <c r="E161" t="s">
-        <v>363</v>
+        <v>186</v>
+      </c>
+      <c r="E161">
+        <v>3226068</v>
       </c>
       <c r="F161" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4985,16 +4307,16 @@
         <v>55</v>
       </c>
       <c r="C162" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D162" t="s">
-        <v>172</v>
-      </c>
-      <c r="E162" t="s">
-        <v>364</v>
+        <v>186</v>
+      </c>
+      <c r="E162">
+        <v>2729902</v>
       </c>
       <c r="F162" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5005,16 +4327,16 @@
         <v>55</v>
       </c>
       <c r="C163" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D163" t="s">
-        <v>172</v>
-      </c>
-      <c r="E163" t="s">
-        <v>365</v>
+        <v>186</v>
+      </c>
+      <c r="E163">
+        <v>2502679</v>
       </c>
       <c r="F163" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5022,19 +4344,19 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C164" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D164" t="s">
-        <v>172</v>
-      </c>
-      <c r="E164" t="s">
-        <v>366</v>
+        <v>187</v>
+      </c>
+      <c r="E164">
+        <v>694217</v>
       </c>
       <c r="F164" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5045,16 +4367,16 @@
         <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D165" t="s">
-        <v>173</v>
-      </c>
-      <c r="E165" t="s">
-        <v>367</v>
+        <v>187</v>
+      </c>
+      <c r="E165">
+        <v>607011</v>
       </c>
       <c r="F165" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5062,19 +4384,19 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C166" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D166" t="s">
-        <v>173</v>
-      </c>
-      <c r="E166" t="s">
-        <v>368</v>
+        <v>188</v>
+      </c>
+      <c r="E166">
+        <v>1296696</v>
       </c>
       <c r="F166" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5085,16 +4407,16 @@
         <v>57</v>
       </c>
       <c r="C167" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D167" t="s">
-        <v>174</v>
-      </c>
-      <c r="E167" t="s">
-        <v>369</v>
+        <v>188</v>
+      </c>
+      <c r="E167">
+        <v>1032188</v>
       </c>
       <c r="F167" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5102,19 +4424,19 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C168" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D168" t="s">
-        <v>174</v>
-      </c>
-      <c r="E168" t="s">
-        <v>370</v>
+        <v>189</v>
+      </c>
+      <c r="E168">
+        <v>1784133</v>
       </c>
       <c r="F168" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5125,16 +4447,16 @@
         <v>58</v>
       </c>
       <c r="C169" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D169" t="s">
-        <v>175</v>
-      </c>
-      <c r="E169" t="s">
-        <v>371</v>
+        <v>189</v>
+      </c>
+      <c r="E169">
+        <v>1616174</v>
       </c>
       <c r="F169" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5142,19 +4464,19 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C170" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D170" t="s">
-        <v>175</v>
-      </c>
-      <c r="E170" t="s">
-        <v>372</v>
+        <v>190</v>
+      </c>
+      <c r="E170">
+        <v>476063</v>
       </c>
       <c r="F170" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5162,19 +4484,19 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C171" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D171" t="s">
-        <v>176</v>
-      </c>
-      <c r="E171" t="s">
-        <v>373</v>
+        <v>191</v>
+      </c>
+      <c r="E171">
+        <v>638283</v>
       </c>
       <c r="F171" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5185,16 +4507,16 @@
         <v>60</v>
       </c>
       <c r="C172" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D172" t="s">
-        <v>177</v>
-      </c>
-      <c r="E172" t="s">
-        <v>374</v>
+        <v>191</v>
+      </c>
+      <c r="E172">
+        <v>591028</v>
       </c>
       <c r="F172" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5205,16 +4527,16 @@
         <v>60</v>
       </c>
       <c r="C173" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D173" t="s">
-        <v>177</v>
-      </c>
-      <c r="E173" t="s">
-        <v>375</v>
+        <v>191</v>
+      </c>
+      <c r="E173">
+        <v>528207</v>
       </c>
       <c r="F173" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5225,16 +4547,16 @@
         <v>60</v>
       </c>
       <c r="C174" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D174" t="s">
-        <v>177</v>
-      </c>
-      <c r="E174" t="s">
-        <v>376</v>
+        <v>191</v>
+      </c>
+      <c r="E174">
+        <v>515323</v>
       </c>
       <c r="F174" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5242,19 +4564,19 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C175" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D175" t="s">
-        <v>177</v>
-      </c>
-      <c r="E175" t="s">
-        <v>377</v>
+        <v>192</v>
+      </c>
+      <c r="E175">
+        <v>2800750</v>
       </c>
       <c r="F175" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5265,16 +4587,16 @@
         <v>61</v>
       </c>
       <c r="C176" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D176" t="s">
-        <v>178</v>
-      </c>
-      <c r="E176" t="s">
-        <v>378</v>
+        <v>192</v>
+      </c>
+      <c r="E176">
+        <v>2200329</v>
       </c>
       <c r="F176" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5285,16 +4607,16 @@
         <v>61</v>
       </c>
       <c r="C177" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D177" t="s">
-        <v>178</v>
-      </c>
-      <c r="E177" t="s">
-        <v>379</v>
+        <v>192</v>
+      </c>
+      <c r="E177">
+        <v>1739268</v>
       </c>
       <c r="F177" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5305,16 +4627,16 @@
         <v>61</v>
       </c>
       <c r="C178" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D178" t="s">
-        <v>178</v>
-      </c>
-      <c r="E178" t="s">
-        <v>380</v>
+        <v>192</v>
+      </c>
+      <c r="E178">
+        <v>1647750</v>
       </c>
       <c r="F178" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5322,19 +4644,19 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C179" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D179" t="s">
-        <v>178</v>
-      </c>
-      <c r="E179" t="s">
-        <v>381</v>
+        <v>193</v>
+      </c>
+      <c r="E179">
+        <v>1770690</v>
       </c>
       <c r="F179" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5345,16 +4667,16 @@
         <v>62</v>
       </c>
       <c r="C180" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D180" t="s">
-        <v>179</v>
-      </c>
-      <c r="E180" t="s">
-        <v>382</v>
+        <v>193</v>
+      </c>
+      <c r="E180">
+        <v>1706250</v>
       </c>
       <c r="F180" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5362,19 +4684,19 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D181" t="s">
-        <v>179</v>
-      </c>
-      <c r="E181" t="s">
-        <v>383</v>
+        <v>194</v>
+      </c>
+      <c r="E181">
+        <v>588516</v>
       </c>
       <c r="F181" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5385,16 +4707,16 @@
         <v>63</v>
       </c>
       <c r="C182" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D182" t="s">
-        <v>180</v>
-      </c>
-      <c r="E182" t="s">
-        <v>384</v>
+        <v>194</v>
+      </c>
+      <c r="E182">
+        <v>521625</v>
       </c>
       <c r="F182" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5402,19 +4724,19 @@
         <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C183" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D183" t="s">
-        <v>180</v>
-      </c>
-      <c r="E183" t="s">
-        <v>385</v>
+        <v>195</v>
+      </c>
+      <c r="E183">
+        <v>1842750</v>
       </c>
       <c r="F183" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5422,19 +4744,19 @@
         <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C184" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D184" t="s">
-        <v>181</v>
-      </c>
-      <c r="E184" t="s">
-        <v>386</v>
+        <v>196</v>
+      </c>
+      <c r="E184">
+        <v>1145906</v>
       </c>
       <c r="F184" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5445,16 +4767,16 @@
         <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D185" t="s">
-        <v>182</v>
-      </c>
-      <c r="E185" t="s">
-        <v>387</v>
+        <v>196</v>
+      </c>
+      <c r="E185">
+        <v>993822</v>
       </c>
       <c r="F185" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5462,19 +4784,19 @@
         <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C186" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D186" t="s">
-        <v>182</v>
-      </c>
-      <c r="E186" t="s">
-        <v>388</v>
+        <v>197</v>
+      </c>
+      <c r="E186">
+        <v>531136</v>
       </c>
       <c r="F186" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5482,39 +4804,39 @@
         <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D187" t="s">
-        <v>183</v>
-      </c>
-      <c r="E187" t="s">
-        <v>389</v>
+        <v>198</v>
+      </c>
+      <c r="E187">
+        <v>654552</v>
       </c>
       <c r="F187" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C188" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D188" t="s">
-        <v>184</v>
-      </c>
-      <c r="E188" t="s">
-        <v>390</v>
+        <v>199</v>
+      </c>
+      <c r="E188">
+        <v>12940</v>
       </c>
       <c r="F188" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5525,16 +4847,16 @@
         <v>68</v>
       </c>
       <c r="C189" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D189" t="s">
-        <v>185</v>
-      </c>
-      <c r="E189" t="s">
-        <v>391</v>
+        <v>199</v>
+      </c>
+      <c r="E189">
+        <v>12146</v>
       </c>
       <c r="F189" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5545,16 +4867,16 @@
         <v>68</v>
       </c>
       <c r="C190" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D190" t="s">
-        <v>185</v>
-      </c>
-      <c r="E190" t="s">
-        <v>392</v>
+        <v>199</v>
+      </c>
+      <c r="E190">
+        <v>10344</v>
       </c>
       <c r="F190" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5562,19 +4884,19 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C191" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D191" t="s">
-        <v>185</v>
-      </c>
-      <c r="E191" t="s">
-        <v>393</v>
+        <v>200</v>
+      </c>
+      <c r="E191">
+        <v>13652</v>
       </c>
       <c r="F191" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5585,16 +4907,16 @@
         <v>69</v>
       </c>
       <c r="C192" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D192" t="s">
-        <v>186</v>
-      </c>
-      <c r="E192" t="s">
-        <v>394</v>
+        <v>200</v>
+      </c>
+      <c r="E192">
+        <v>12238</v>
       </c>
       <c r="F192" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5602,19 +4924,19 @@
         <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C193" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D193" t="s">
-        <v>186</v>
-      </c>
-      <c r="E193" t="s">
-        <v>395</v>
+        <v>201</v>
+      </c>
+      <c r="E193">
+        <v>23715</v>
       </c>
       <c r="F193" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5625,16 +4947,16 @@
         <v>70</v>
       </c>
       <c r="C194" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D194" t="s">
-        <v>187</v>
-      </c>
-      <c r="E194" t="s">
-        <v>396</v>
+        <v>201</v>
+      </c>
+      <c r="E194">
+        <v>21449</v>
       </c>
       <c r="F194" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5642,19 +4964,19 @@
         <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C195" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D195" t="s">
-        <v>187</v>
-      </c>
-      <c r="E195" t="s">
-        <v>397</v>
+        <v>202</v>
+      </c>
+      <c r="E195">
+        <v>14965</v>
       </c>
       <c r="F195" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5665,16 +4987,16 @@
         <v>71</v>
       </c>
       <c r="C196" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D196" t="s">
-        <v>188</v>
-      </c>
-      <c r="E196" t="s">
-        <v>398</v>
+        <v>202</v>
+      </c>
+      <c r="E196">
+        <v>12435</v>
       </c>
       <c r="F196" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5682,19 +5004,19 @@
         <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C197" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D197" t="s">
-        <v>188</v>
-      </c>
-      <c r="E197" t="s">
-        <v>399</v>
+        <v>203</v>
+      </c>
+      <c r="E197">
+        <v>15117</v>
       </c>
       <c r="F197" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5705,16 +5027,16 @@
         <v>72</v>
       </c>
       <c r="C198" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D198" t="s">
-        <v>189</v>
-      </c>
-      <c r="E198" t="s">
-        <v>400</v>
+        <v>203</v>
+      </c>
+      <c r="E198">
+        <v>12483</v>
       </c>
       <c r="F198" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5722,19 +5044,19 @@
         <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C199" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D199" t="s">
-        <v>189</v>
-      </c>
-      <c r="E199" t="s">
-        <v>401</v>
+        <v>204</v>
+      </c>
+      <c r="E199">
+        <v>23449</v>
       </c>
       <c r="F199" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5745,16 +5067,16 @@
         <v>73</v>
       </c>
       <c r="C200" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D200" t="s">
-        <v>190</v>
-      </c>
-      <c r="E200" t="s">
-        <v>402</v>
+        <v>204</v>
+      </c>
+      <c r="E200">
+        <v>19050</v>
       </c>
       <c r="F200" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5762,19 +5084,19 @@
         <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C201" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D201" t="s">
-        <v>190</v>
-      </c>
-      <c r="E201" t="s">
-        <v>403</v>
+        <v>205</v>
+      </c>
+      <c r="E201">
+        <v>30297</v>
       </c>
       <c r="F201" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5785,16 +5107,16 @@
         <v>74</v>
       </c>
       <c r="C202" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D202" t="s">
-        <v>191</v>
-      </c>
-      <c r="E202" t="s">
-        <v>404</v>
+        <v>205</v>
+      </c>
+      <c r="E202">
+        <v>29558</v>
       </c>
       <c r="F202" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5805,16 +5127,16 @@
         <v>74</v>
       </c>
       <c r="C203" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D203" t="s">
-        <v>191</v>
-      </c>
-      <c r="E203" t="s">
-        <v>405</v>
+        <v>205</v>
+      </c>
+      <c r="E203">
+        <v>22679</v>
       </c>
       <c r="F203" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5822,19 +5144,19 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C204" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D204" t="s">
-        <v>191</v>
-      </c>
-      <c r="E204" t="s">
-        <v>406</v>
+        <v>206</v>
+      </c>
+      <c r="E204">
+        <v>69220</v>
       </c>
       <c r="F204" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5845,16 +5167,16 @@
         <v>75</v>
       </c>
       <c r="C205" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D205" t="s">
-        <v>192</v>
-      </c>
-      <c r="E205" t="s">
-        <v>407</v>
+        <v>206</v>
+      </c>
+      <c r="E205">
+        <v>67531</v>
       </c>
       <c r="F205" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5865,16 +5187,16 @@
         <v>75</v>
       </c>
       <c r="C206" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D206" t="s">
-        <v>192</v>
-      </c>
-      <c r="E206" t="s">
-        <v>408</v>
+        <v>206</v>
+      </c>
+      <c r="E206">
+        <v>65883</v>
       </c>
       <c r="F206" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5885,16 +5207,16 @@
         <v>75</v>
       </c>
       <c r="C207" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D207" t="s">
-        <v>192</v>
-      </c>
-      <c r="E207" t="s">
-        <v>409</v>
+        <v>206</v>
+      </c>
+      <c r="E207">
+        <v>64276</v>
       </c>
       <c r="F207" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5905,16 +5227,16 @@
         <v>75</v>
       </c>
       <c r="C208" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D208" t="s">
-        <v>192</v>
-      </c>
-      <c r="E208" t="s">
-        <v>410</v>
+        <v>206</v>
+      </c>
+      <c r="E208">
+        <v>62708</v>
       </c>
       <c r="F208" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5925,16 +5247,16 @@
         <v>75</v>
       </c>
       <c r="C209" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D209" t="s">
-        <v>192</v>
-      </c>
-      <c r="E209" t="s">
-        <v>411</v>
+        <v>206</v>
+      </c>
+      <c r="E209">
+        <v>56940</v>
       </c>
       <c r="F209" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5942,19 +5264,19 @@
         <v>10</v>
       </c>
       <c r="B210" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C210" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D210" t="s">
-        <v>192</v>
-      </c>
-      <c r="E210" t="s">
-        <v>412</v>
+        <v>207</v>
+      </c>
+      <c r="E210">
+        <v>23516</v>
       </c>
       <c r="F210" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5965,16 +5287,16 @@
         <v>76</v>
       </c>
       <c r="C211" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D211" t="s">
-        <v>193</v>
-      </c>
-      <c r="E211" t="s">
-        <v>413</v>
+        <v>207</v>
+      </c>
+      <c r="E211">
+        <v>19107</v>
       </c>
       <c r="F211" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5982,19 +5304,19 @@
         <v>10</v>
       </c>
       <c r="B212" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C212" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="D212" t="s">
-        <v>193</v>
-      </c>
-      <c r="E212" t="s">
-        <v>414</v>
+        <v>208</v>
+      </c>
+      <c r="E212">
+        <v>69227</v>
       </c>
       <c r="F212" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6005,16 +5327,16 @@
         <v>77</v>
       </c>
       <c r="C213" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D213" t="s">
-        <v>194</v>
-      </c>
-      <c r="E213" t="s">
-        <v>415</v>
+        <v>208</v>
+      </c>
+      <c r="E213">
+        <v>67538</v>
       </c>
       <c r="F213" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6025,16 +5347,16 @@
         <v>77</v>
       </c>
       <c r="C214" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D214" t="s">
-        <v>194</v>
-      </c>
-      <c r="E214" t="s">
-        <v>416</v>
+        <v>208</v>
+      </c>
+      <c r="E214">
+        <v>58794</v>
       </c>
       <c r="F214" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6045,16 +5367,16 @@
         <v>77</v>
       </c>
       <c r="C215" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D215" t="s">
-        <v>194</v>
-      </c>
-      <c r="E215" t="s">
-        <v>417</v>
+        <v>208</v>
+      </c>
+      <c r="E215">
+        <v>57172</v>
       </c>
       <c r="F215" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6062,19 +5384,19 @@
         <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C216" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D216" t="s">
-        <v>194</v>
-      </c>
-      <c r="E216" t="s">
-        <v>418</v>
+        <v>209</v>
+      </c>
+      <c r="E216">
+        <v>121907</v>
       </c>
       <c r="F216" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6082,19 +5404,19 @@
         <v>10</v>
       </c>
       <c r="B217" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C217" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D217" t="s">
-        <v>195</v>
-      </c>
-      <c r="E217" t="s">
-        <v>419</v>
+        <v>210</v>
+      </c>
+      <c r="E217">
+        <v>73953</v>
       </c>
       <c r="F217" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6105,16 +5427,16 @@
         <v>79</v>
       </c>
       <c r="C218" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D218" t="s">
-        <v>196</v>
-      </c>
-      <c r="E218" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="E218">
+        <v>67755</v>
       </c>
       <c r="F218" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -6125,16 +5447,16 @@
         <v>79</v>
       </c>
       <c r="C219" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D219" t="s">
-        <v>196</v>
-      </c>
-      <c r="E219" t="s">
-        <v>421</v>
+        <v>210</v>
+      </c>
+      <c r="E219">
+        <v>59243</v>
       </c>
       <c r="F219" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6142,19 +5464,19 @@
         <v>10</v>
       </c>
       <c r="B220" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C220" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D220" t="s">
-        <v>196</v>
-      </c>
-      <c r="E220" t="s">
-        <v>422</v>
+        <v>211</v>
+      </c>
+      <c r="E220">
+        <v>82917</v>
       </c>
       <c r="F220" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6165,16 +5487,16 @@
         <v>80</v>
       </c>
       <c r="C221" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D221" t="s">
-        <v>197</v>
-      </c>
-      <c r="E221" t="s">
-        <v>423</v>
+        <v>211</v>
+      </c>
+      <c r="E221">
+        <v>80534</v>
       </c>
       <c r="F221" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6182,19 +5504,19 @@
         <v>10</v>
       </c>
       <c r="B222" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C222" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D222" t="s">
-        <v>197</v>
-      </c>
-      <c r="E222" t="s">
-        <v>424</v>
+        <v>212</v>
+      </c>
+      <c r="E222">
+        <v>78233</v>
       </c>
       <c r="F222" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6205,16 +5527,16 @@
         <v>81</v>
       </c>
       <c r="C223" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D223" t="s">
-        <v>198</v>
-      </c>
-      <c r="E223" t="s">
-        <v>425</v>
+        <v>212</v>
+      </c>
+      <c r="E223">
+        <v>68479</v>
       </c>
       <c r="F223" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6225,16 +5547,16 @@
         <v>81</v>
       </c>
       <c r="C224" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D224" t="s">
-        <v>198</v>
-      </c>
-      <c r="E224" t="s">
-        <v>426</v>
+        <v>212</v>
+      </c>
+      <c r="E224">
+        <v>66808</v>
       </c>
       <c r="F224" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6242,19 +5564,19 @@
         <v>10</v>
       </c>
       <c r="B225" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C225" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D225" t="s">
-        <v>198</v>
-      </c>
-      <c r="E225" t="s">
-        <v>427</v>
+        <v>213</v>
+      </c>
+      <c r="E225">
+        <v>102322</v>
       </c>
       <c r="F225" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6265,16 +5587,16 @@
         <v>82</v>
       </c>
       <c r="C226" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D226" t="s">
-        <v>199</v>
-      </c>
-      <c r="E226" t="s">
-        <v>428</v>
+        <v>213</v>
+      </c>
+      <c r="E226">
+        <v>78592</v>
       </c>
       <c r="F226" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6285,16 +5607,16 @@
         <v>82</v>
       </c>
       <c r="C227" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D227" t="s">
-        <v>199</v>
-      </c>
-      <c r="E227" t="s">
-        <v>429</v>
+        <v>213</v>
+      </c>
+      <c r="E227">
+        <v>76675</v>
       </c>
       <c r="F227" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6305,16 +5627,16 @@
         <v>82</v>
       </c>
       <c r="C228" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D228" t="s">
-        <v>199</v>
-      </c>
-      <c r="E228" t="s">
-        <v>430</v>
+        <v>213</v>
+      </c>
+      <c r="E228">
+        <v>72791</v>
       </c>
       <c r="F228" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6325,16 +5647,16 @@
         <v>82</v>
       </c>
       <c r="C229" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D229" t="s">
-        <v>199</v>
-      </c>
-      <c r="E229" t="s">
-        <v>431</v>
+        <v>213</v>
+      </c>
+      <c r="E229">
+        <v>68205</v>
       </c>
       <c r="F229" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6345,16 +5667,16 @@
         <v>82</v>
       </c>
       <c r="C230" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D230" t="s">
-        <v>199</v>
-      </c>
-      <c r="E230" t="s">
-        <v>432</v>
+        <v>213</v>
+      </c>
+      <c r="E230">
+        <v>66541</v>
       </c>
       <c r="F230" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6362,19 +5684,19 @@
         <v>10</v>
       </c>
       <c r="B231" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C231" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D231" t="s">
-        <v>199</v>
-      </c>
-      <c r="E231" t="s">
-        <v>433</v>
+        <v>214</v>
+      </c>
+      <c r="E231">
+        <v>122630</v>
       </c>
       <c r="F231" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6385,16 +5707,16 @@
         <v>83</v>
       </c>
       <c r="C232" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D232" t="s">
-        <v>200</v>
-      </c>
-      <c r="E232" t="s">
-        <v>434</v>
+        <v>214</v>
+      </c>
+      <c r="E232">
+        <v>116902</v>
       </c>
       <c r="F232" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6405,16 +5727,16 @@
         <v>83</v>
       </c>
       <c r="C233" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D233" t="s">
-        <v>200</v>
-      </c>
-      <c r="E233" t="s">
-        <v>435</v>
+        <v>214</v>
+      </c>
+      <c r="E233">
+        <v>107141</v>
       </c>
       <c r="F233" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6422,19 +5744,19 @@
         <v>10</v>
       </c>
       <c r="B234" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C234" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D234" t="s">
-        <v>200</v>
-      </c>
-      <c r="E234" t="s">
-        <v>436</v>
+        <v>215</v>
+      </c>
+      <c r="E234">
+        <v>19755</v>
       </c>
       <c r="F234" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6445,16 +5767,16 @@
         <v>84</v>
       </c>
       <c r="C235" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D235" t="s">
-        <v>201</v>
-      </c>
-      <c r="E235" t="s">
-        <v>437</v>
+        <v>215</v>
+      </c>
+      <c r="E235">
+        <v>18974</v>
       </c>
       <c r="F235" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6465,16 +5787,16 @@
         <v>84</v>
       </c>
       <c r="C236" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D236" t="s">
-        <v>201</v>
-      </c>
-      <c r="E236" t="s">
-        <v>438</v>
+        <v>215</v>
+      </c>
+      <c r="E236">
+        <v>18511</v>
       </c>
       <c r="F236" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6485,16 +5807,16 @@
         <v>84</v>
       </c>
       <c r="C237" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D237" t="s">
-        <v>201</v>
-      </c>
-      <c r="E237" t="s">
-        <v>439</v>
+        <v>215</v>
+      </c>
+      <c r="E237">
+        <v>16245</v>
       </c>
       <c r="F237" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6505,16 +5827,16 @@
         <v>84</v>
       </c>
       <c r="C238" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D238" t="s">
-        <v>201</v>
-      </c>
-      <c r="E238" t="s">
-        <v>440</v>
+        <v>215</v>
+      </c>
+      <c r="E238">
+        <v>15235</v>
       </c>
       <c r="F238" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6522,19 +5844,19 @@
         <v>10</v>
       </c>
       <c r="B239" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C239" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D239" t="s">
-        <v>201</v>
-      </c>
-      <c r="E239" t="s">
-        <v>441</v>
+        <v>216</v>
+      </c>
+      <c r="E239">
+        <v>21354</v>
       </c>
       <c r="F239" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6545,16 +5867,16 @@
         <v>85</v>
       </c>
       <c r="C240" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D240" t="s">
-        <v>202</v>
-      </c>
-      <c r="E240" t="s">
-        <v>442</v>
+        <v>216</v>
+      </c>
+      <c r="E240">
+        <v>20443</v>
       </c>
       <c r="F240" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6565,16 +5887,16 @@
         <v>85</v>
       </c>
       <c r="C241" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D241" t="s">
-        <v>202</v>
-      </c>
-      <c r="E241" t="s">
-        <v>443</v>
+        <v>216</v>
+      </c>
+      <c r="E241">
+        <v>19315</v>
       </c>
       <c r="F241" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6585,16 +5907,16 @@
         <v>85</v>
       </c>
       <c r="C242" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D242" t="s">
-        <v>202</v>
-      </c>
-      <c r="E242" t="s">
-        <v>444</v>
+        <v>216</v>
+      </c>
+      <c r="E242">
+        <v>16389</v>
       </c>
       <c r="F242" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6605,16 +5927,16 @@
         <v>85</v>
       </c>
       <c r="C243" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D243" t="s">
-        <v>202</v>
-      </c>
-      <c r="E243" t="s">
-        <v>445</v>
+        <v>216</v>
+      </c>
+      <c r="E243">
+        <v>15482</v>
       </c>
       <c r="F243" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6622,19 +5944,19 @@
         <v>10</v>
       </c>
       <c r="B244" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C244" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="D244" t="s">
-        <v>202</v>
-      </c>
-      <c r="E244" t="s">
-        <v>446</v>
+        <v>217</v>
+      </c>
+      <c r="E244">
+        <v>28210</v>
       </c>
       <c r="F244" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6645,16 +5967,16 @@
         <v>86</v>
       </c>
       <c r="C245" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D245" t="s">
-        <v>203</v>
-      </c>
-      <c r="E245" t="s">
-        <v>447</v>
+        <v>217</v>
+      </c>
+      <c r="E245">
+        <v>26539</v>
       </c>
       <c r="F245" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6665,16 +5987,16 @@
         <v>86</v>
       </c>
       <c r="C246" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D246" t="s">
-        <v>203</v>
-      </c>
-      <c r="E246" t="s">
-        <v>448</v>
+        <v>217</v>
+      </c>
+      <c r="E246">
+        <v>23062</v>
       </c>
       <c r="F246" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6685,16 +6007,16 @@
         <v>86</v>
       </c>
       <c r="C247" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D247" t="s">
-        <v>203</v>
-      </c>
-      <c r="E247" t="s">
-        <v>449</v>
+        <v>217</v>
+      </c>
+      <c r="E247">
+        <v>22499</v>
       </c>
       <c r="F247" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6705,16 +6027,16 @@
         <v>86</v>
       </c>
       <c r="C248" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D248" t="s">
-        <v>203</v>
-      </c>
-      <c r="E248" t="s">
-        <v>450</v>
+        <v>217</v>
+      </c>
+      <c r="E248">
+        <v>20267</v>
       </c>
       <c r="F248" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6725,16 +6047,16 @@
         <v>86</v>
       </c>
       <c r="C249" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D249" t="s">
-        <v>203</v>
-      </c>
-      <c r="E249" t="s">
-        <v>451</v>
+        <v>217</v>
+      </c>
+      <c r="E249">
+        <v>19467</v>
       </c>
       <c r="F249" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6745,16 +6067,16 @@
         <v>86</v>
       </c>
       <c r="C250" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D250" t="s">
-        <v>203</v>
-      </c>
-      <c r="E250" t="s">
-        <v>452</v>
+        <v>217</v>
+      </c>
+      <c r="E250">
+        <v>17989</v>
       </c>
       <c r="F250" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6765,16 +6087,16 @@
         <v>86</v>
       </c>
       <c r="C251" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D251" t="s">
-        <v>203</v>
-      </c>
-      <c r="E251" t="s">
-        <v>453</v>
+        <v>217</v>
+      </c>
+      <c r="E251">
+        <v>16792</v>
       </c>
       <c r="F251" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6782,19 +6104,19 @@
         <v>10</v>
       </c>
       <c r="B252" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C252" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D252" t="s">
-        <v>203</v>
-      </c>
-      <c r="E252" t="s">
-        <v>454</v>
+        <v>218</v>
+      </c>
+      <c r="E252">
+        <v>27532</v>
       </c>
       <c r="F252" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6805,16 +6127,16 @@
         <v>87</v>
       </c>
       <c r="C253" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D253" t="s">
-        <v>204</v>
-      </c>
-      <c r="E253" t="s">
-        <v>455</v>
+        <v>218</v>
+      </c>
+      <c r="E253">
+        <v>26860</v>
       </c>
       <c r="F253" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6825,16 +6147,16 @@
         <v>87</v>
       </c>
       <c r="C254" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D254" t="s">
-        <v>204</v>
-      </c>
-      <c r="E254" t="s">
-        <v>456</v>
+        <v>218</v>
+      </c>
+      <c r="E254">
+        <v>25756</v>
       </c>
       <c r="F254" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6845,16 +6167,16 @@
         <v>87</v>
       </c>
       <c r="C255" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D255" t="s">
-        <v>204</v>
-      </c>
-      <c r="E255" t="s">
-        <v>457</v>
+        <v>218</v>
+      </c>
+      <c r="E255">
+        <v>19966</v>
       </c>
       <c r="F255" t="s">
-        <v>459</v>
+        <v>233</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6865,16 +6187,1696 @@
         <v>87</v>
       </c>
       <c r="C256" t="s">
+        <v>101</v>
+      </c>
+      <c r="D256" t="s">
+        <v>218</v>
+      </c>
+      <c r="E256">
+        <v>17486</v>
+      </c>
+      <c r="F256" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>10</v>
+      </c>
+      <c r="B257" t="s">
+        <v>88</v>
+      </c>
+      <c r="C257" t="s">
+        <v>141</v>
+      </c>
+      <c r="D257" t="s">
+        <v>219</v>
+      </c>
+      <c r="E257">
+        <v>34924</v>
+      </c>
+      <c r="F257" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" t="s">
+        <v>89</v>
+      </c>
+      <c r="C258" t="s">
+        <v>107</v>
+      </c>
+      <c r="D258" t="s">
+        <v>220</v>
+      </c>
+      <c r="E258">
+        <v>23670</v>
+      </c>
+      <c r="F258" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" t="s">
+        <v>89</v>
+      </c>
+      <c r="C259" t="s">
+        <v>108</v>
+      </c>
+      <c r="D259" t="s">
+        <v>220</v>
+      </c>
+      <c r="E259">
+        <v>21307</v>
+      </c>
+      <c r="F259" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>10</v>
+      </c>
+      <c r="B260" t="s">
+        <v>89</v>
+      </c>
+      <c r="C260" t="s">
+        <v>109</v>
+      </c>
+      <c r="D260" t="s">
+        <v>220</v>
+      </c>
+      <c r="E260">
+        <v>20787</v>
+      </c>
+      <c r="F260" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" t="s">
+        <v>89</v>
+      </c>
+      <c r="C261" t="s">
+        <v>110</v>
+      </c>
+      <c r="D261" t="s">
+        <v>220</v>
+      </c>
+      <c r="E261">
+        <v>19054</v>
+      </c>
+      <c r="F261" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" t="s">
+        <v>89</v>
+      </c>
+      <c r="C262" t="s">
+        <v>111</v>
+      </c>
+      <c r="D262" t="s">
+        <v>220</v>
+      </c>
+      <c r="E262">
+        <v>18588</v>
+      </c>
+      <c r="F262" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>10</v>
+      </c>
+      <c r="B263" t="s">
+        <v>89</v>
+      </c>
+      <c r="C263" t="s">
+        <v>101</v>
+      </c>
+      <c r="D263" t="s">
+        <v>220</v>
+      </c>
+      <c r="E263">
+        <v>17671</v>
+      </c>
+      <c r="F263" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" t="s">
+        <v>89</v>
+      </c>
+      <c r="C264" t="s">
+        <v>102</v>
+      </c>
+      <c r="D264" t="s">
+        <v>220</v>
+      </c>
+      <c r="E264">
+        <v>17210</v>
+      </c>
+      <c r="F264" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" t="s">
+        <v>89</v>
+      </c>
+      <c r="C265" t="s">
+        <v>103</v>
+      </c>
+      <c r="D265" t="s">
+        <v>220</v>
+      </c>
+      <c r="E265">
+        <v>16522</v>
+      </c>
+      <c r="F265" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" t="s">
+        <v>90</v>
+      </c>
+      <c r="C266" t="s">
+        <v>107</v>
+      </c>
+      <c r="D266" t="s">
+        <v>221</v>
+      </c>
+      <c r="E266">
+        <v>24304</v>
+      </c>
+      <c r="F266" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>10</v>
+      </c>
+      <c r="B267" t="s">
+        <v>90</v>
+      </c>
+      <c r="C267" t="s">
+        <v>108</v>
+      </c>
+      <c r="D267" t="s">
+        <v>221</v>
+      </c>
+      <c r="E267">
+        <v>22150</v>
+      </c>
+      <c r="F267" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>10</v>
+      </c>
+      <c r="B268" t="s">
+        <v>90</v>
+      </c>
+      <c r="C268" t="s">
+        <v>109</v>
+      </c>
+      <c r="D268" t="s">
+        <v>221</v>
+      </c>
+      <c r="E268">
+        <v>20880</v>
+      </c>
+      <c r="F268" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>10</v>
+      </c>
+      <c r="B269" t="s">
+        <v>90</v>
+      </c>
+      <c r="C269" t="s">
+        <v>110</v>
+      </c>
+      <c r="D269" t="s">
+        <v>221</v>
+      </c>
+      <c r="E269">
+        <v>19384</v>
+      </c>
+      <c r="F269" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" t="s">
+        <v>90</v>
+      </c>
+      <c r="C270" t="s">
+        <v>111</v>
+      </c>
+      <c r="D270" t="s">
+        <v>221</v>
+      </c>
+      <c r="E270">
+        <v>18590</v>
+      </c>
+      <c r="F270" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" t="s">
+        <v>90</v>
+      </c>
+      <c r="C271" t="s">
+        <v>101</v>
+      </c>
+      <c r="D271" t="s">
+        <v>221</v>
+      </c>
+      <c r="E271">
+        <v>18054</v>
+      </c>
+      <c r="F271" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" t="s">
+        <v>90</v>
+      </c>
+      <c r="C272" t="s">
+        <v>102</v>
+      </c>
+      <c r="D272" t="s">
+        <v>221</v>
+      </c>
+      <c r="E272">
+        <v>17269</v>
+      </c>
+      <c r="F272" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" t="s">
+        <v>90</v>
+      </c>
+      <c r="C273" t="s">
+        <v>103</v>
+      </c>
+      <c r="D273" t="s">
+        <v>221</v>
+      </c>
+      <c r="E273">
+        <v>16685</v>
+      </c>
+      <c r="F273" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" t="s">
+        <v>91</v>
+      </c>
+      <c r="C274" t="s">
+        <v>140</v>
+      </c>
+      <c r="D274" t="s">
+        <v>222</v>
+      </c>
+      <c r="E274">
+        <v>29127</v>
+      </c>
+      <c r="F274" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>10</v>
+      </c>
+      <c r="B275" t="s">
+        <v>91</v>
+      </c>
+      <c r="C275" t="s">
+        <v>106</v>
+      </c>
+      <c r="D275" t="s">
+        <v>222</v>
+      </c>
+      <c r="E275">
+        <v>28389</v>
+      </c>
+      <c r="F275" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" t="s">
+        <v>91</v>
+      </c>
+      <c r="C276" t="s">
+        <v>107</v>
+      </c>
+      <c r="D276" t="s">
+        <v>222</v>
+      </c>
+      <c r="E276">
+        <v>27696</v>
+      </c>
+      <c r="F276" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" t="s">
+        <v>91</v>
+      </c>
+      <c r="C277" t="s">
+        <v>108</v>
+      </c>
+      <c r="D277" t="s">
+        <v>222</v>
+      </c>
+      <c r="E277">
+        <v>25740</v>
+      </c>
+      <c r="F277" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" t="s">
+        <v>91</v>
+      </c>
+      <c r="C278" t="s">
+        <v>109</v>
+      </c>
+      <c r="D278" t="s">
+        <v>222</v>
+      </c>
+      <c r="E278">
+        <v>22881</v>
+      </c>
+      <c r="F278" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" t="s">
+        <v>91</v>
+      </c>
+      <c r="C279" t="s">
+        <v>110</v>
+      </c>
+      <c r="D279" t="s">
+        <v>222</v>
+      </c>
+      <c r="E279">
+        <v>21584</v>
+      </c>
+      <c r="F279" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" t="s">
+        <v>91</v>
+      </c>
+      <c r="C280" t="s">
+        <v>111</v>
+      </c>
+      <c r="D280" t="s">
+        <v>222</v>
+      </c>
+      <c r="E280">
+        <v>19616</v>
+      </c>
+      <c r="F280" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" t="s">
+        <v>91</v>
+      </c>
+      <c r="C281" t="s">
+        <v>101</v>
+      </c>
+      <c r="D281" t="s">
+        <v>222</v>
+      </c>
+      <c r="E281">
+        <v>19137</v>
+      </c>
+      <c r="F281" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>10</v>
+      </c>
+      <c r="B282" t="s">
+        <v>91</v>
+      </c>
+      <c r="C282" t="s">
+        <v>102</v>
+      </c>
+      <c r="D282" t="s">
+        <v>222</v>
+      </c>
+      <c r="E282">
+        <v>17310</v>
+      </c>
+      <c r="F282" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283" t="s">
+        <v>91</v>
+      </c>
+      <c r="C283" t="s">
+        <v>103</v>
+      </c>
+      <c r="D283" t="s">
+        <v>222</v>
+      </c>
+      <c r="E283">
+        <v>16711</v>
+      </c>
+      <c r="F283" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" t="s">
+        <v>92</v>
+      </c>
+      <c r="C284" t="s">
+        <v>140</v>
+      </c>
+      <c r="D284" t="s">
+        <v>223</v>
+      </c>
+      <c r="E284">
+        <v>26439</v>
+      </c>
+      <c r="F284" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="s">
+        <v>92</v>
+      </c>
+      <c r="C285" t="s">
+        <v>106</v>
+      </c>
+      <c r="D285" t="s">
+        <v>223</v>
+      </c>
+      <c r="E285">
+        <v>25794</v>
+      </c>
+      <c r="F285" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" t="s">
+        <v>92</v>
+      </c>
+      <c r="C286" t="s">
+        <v>107</v>
+      </c>
+      <c r="D286" t="s">
+        <v>223</v>
+      </c>
+      <c r="E286">
+        <v>23944</v>
+      </c>
+      <c r="F286" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" t="s">
+        <v>92</v>
+      </c>
+      <c r="C287" t="s">
+        <v>108</v>
+      </c>
+      <c r="D287" t="s">
+        <v>223</v>
+      </c>
+      <c r="E287">
+        <v>22551</v>
+      </c>
+      <c r="F287" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" t="s">
+        <v>92</v>
+      </c>
+      <c r="C288" t="s">
+        <v>109</v>
+      </c>
+      <c r="D288" t="s">
+        <v>223</v>
+      </c>
+      <c r="E288">
+        <v>21669</v>
+      </c>
+      <c r="F288" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>10</v>
+      </c>
+      <c r="B289" t="s">
+        <v>92</v>
+      </c>
+      <c r="C289" t="s">
+        <v>110</v>
+      </c>
+      <c r="D289" t="s">
+        <v>223</v>
+      </c>
+      <c r="E289">
+        <v>20926</v>
+      </c>
+      <c r="F289" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
+        <v>10</v>
+      </c>
+      <c r="B290" t="s">
+        <v>92</v>
+      </c>
+      <c r="C290" t="s">
+        <v>111</v>
+      </c>
+      <c r="D290" t="s">
+        <v>223</v>
+      </c>
+      <c r="E290">
+        <v>18963</v>
+      </c>
+      <c r="F290" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" t="s">
+        <v>92</v>
+      </c>
+      <c r="C291" t="s">
+        <v>101</v>
+      </c>
+      <c r="D291" t="s">
+        <v>223</v>
+      </c>
+      <c r="E291">
+        <v>18051</v>
+      </c>
+      <c r="F291" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" t="s">
+        <v>92</v>
+      </c>
+      <c r="C292" t="s">
+        <v>102</v>
+      </c>
+      <c r="D292" t="s">
+        <v>223</v>
+      </c>
+      <c r="E292">
+        <v>17265</v>
+      </c>
+      <c r="F292" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293" t="s">
+        <v>92</v>
+      </c>
+      <c r="C293" t="s">
+        <v>103</v>
+      </c>
+      <c r="D293" t="s">
+        <v>223</v>
+      </c>
+      <c r="E293">
+        <v>16694</v>
+      </c>
+      <c r="F293" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" t="s">
+        <v>93</v>
+      </c>
+      <c r="C294" t="s">
+        <v>108</v>
+      </c>
+      <c r="D294" t="s">
+        <v>224</v>
+      </c>
+      <c r="E294">
+        <v>26714</v>
+      </c>
+      <c r="F294" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" t="s">
+        <v>93</v>
+      </c>
+      <c r="C295" t="s">
+        <v>109</v>
+      </c>
+      <c r="D295" t="s">
+        <v>224</v>
+      </c>
+      <c r="E295">
+        <v>21512</v>
+      </c>
+      <c r="F295" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" t="s">
+        <v>94</v>
+      </c>
+      <c r="C296" t="s">
+        <v>107</v>
+      </c>
+      <c r="D296" t="s">
+        <v>225</v>
+      </c>
+      <c r="E296">
+        <v>23754</v>
+      </c>
+      <c r="F296" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" t="s">
+        <v>94</v>
+      </c>
+      <c r="C297" t="s">
+        <v>108</v>
+      </c>
+      <c r="D297" t="s">
+        <v>225</v>
+      </c>
+      <c r="E297">
+        <v>22346</v>
+      </c>
+      <c r="F297" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" t="s">
+        <v>94</v>
+      </c>
+      <c r="C298" t="s">
+        <v>109</v>
+      </c>
+      <c r="D298" t="s">
+        <v>225</v>
+      </c>
+      <c r="E298">
+        <v>20556</v>
+      </c>
+      <c r="F298" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>10</v>
+      </c>
+      <c r="B299" t="s">
+        <v>94</v>
+      </c>
+      <c r="C299" t="s">
+        <v>110</v>
+      </c>
+      <c r="D299" t="s">
+        <v>225</v>
+      </c>
+      <c r="E299">
+        <v>17333</v>
+      </c>
+      <c r="F299" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" t="s">
+        <v>94</v>
+      </c>
+      <c r="C300" t="s">
+        <v>111</v>
+      </c>
+      <c r="D300" t="s">
+        <v>225</v>
+      </c>
+      <c r="E300">
+        <v>16910</v>
+      </c>
+      <c r="F300" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" t="s">
+        <v>95</v>
+      </c>
+      <c r="C301" t="s">
+        <v>140</v>
+      </c>
+      <c r="D301" t="s">
+        <v>226</v>
+      </c>
+      <c r="E301">
+        <v>39909</v>
+      </c>
+      <c r="F301" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" t="s">
+        <v>95</v>
+      </c>
+      <c r="C302" t="s">
+        <v>106</v>
+      </c>
+      <c r="D302" t="s">
+        <v>226</v>
+      </c>
+      <c r="E302">
+        <v>34183</v>
+      </c>
+      <c r="F302" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" t="s">
+        <v>95</v>
+      </c>
+      <c r="C303" t="s">
+        <v>107</v>
+      </c>
+      <c r="D303" t="s">
+        <v>226</v>
+      </c>
+      <c r="E303">
+        <v>27982</v>
+      </c>
+      <c r="F303" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
+        <v>10</v>
+      </c>
+      <c r="B304" t="s">
+        <v>95</v>
+      </c>
+      <c r="C304" t="s">
+        <v>108</v>
+      </c>
+      <c r="D304" t="s">
+        <v>226</v>
+      </c>
+      <c r="E304">
+        <v>27299</v>
+      </c>
+      <c r="F304" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" t="s">
+        <v>95</v>
+      </c>
+      <c r="C305" t="s">
+        <v>109</v>
+      </c>
+      <c r="D305" t="s">
+        <v>226</v>
+      </c>
+      <c r="E305">
+        <v>23657</v>
+      </c>
+      <c r="F305" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" t="s">
+        <v>96</v>
+      </c>
+      <c r="C306" t="s">
+        <v>140</v>
+      </c>
+      <c r="D306" t="s">
+        <v>227</v>
+      </c>
+      <c r="E306">
+        <v>38682</v>
+      </c>
+      <c r="F306" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>10</v>
+      </c>
+      <c r="B307" t="s">
+        <v>96</v>
+      </c>
+      <c r="C307" t="s">
+        <v>106</v>
+      </c>
+      <c r="D307" t="s">
+        <v>227</v>
+      </c>
+      <c r="E307">
+        <v>32012</v>
+      </c>
+      <c r="F307" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" t="s">
+        <v>96</v>
+      </c>
+      <c r="C308" t="s">
+        <v>107</v>
+      </c>
+      <c r="D308" t="s">
+        <v>227</v>
+      </c>
+      <c r="E308">
+        <v>27977</v>
+      </c>
+      <c r="F308" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" t="s">
+        <v>96</v>
+      </c>
+      <c r="C309" t="s">
+        <v>108</v>
+      </c>
+      <c r="D309" t="s">
+        <v>227</v>
+      </c>
+      <c r="E309">
+        <v>27294</v>
+      </c>
+      <c r="F309" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" t="s">
+        <v>96</v>
+      </c>
+      <c r="C310" t="s">
+        <v>109</v>
+      </c>
+      <c r="D310" t="s">
+        <v>227</v>
+      </c>
+      <c r="E310">
+        <v>23549</v>
+      </c>
+      <c r="F310" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" t="s">
+        <v>96</v>
+      </c>
+      <c r="C311" t="s">
+        <v>110</v>
+      </c>
+      <c r="D311" t="s">
+        <v>227</v>
+      </c>
+      <c r="E311">
+        <v>22454</v>
+      </c>
+      <c r="F311" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" t="s">
+        <v>96</v>
+      </c>
+      <c r="C312" t="s">
+        <v>111</v>
+      </c>
+      <c r="D312" t="s">
+        <v>227</v>
+      </c>
+      <c r="E312">
+        <v>19295</v>
+      </c>
+      <c r="F312" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" t="s">
+        <v>97</v>
+      </c>
+      <c r="C313" t="s">
+        <v>108</v>
+      </c>
+      <c r="D313" t="s">
+        <v>228</v>
+      </c>
+      <c r="E313">
+        <v>30107</v>
+      </c>
+      <c r="F313" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" t="s">
+        <v>97</v>
+      </c>
+      <c r="C314" t="s">
+        <v>109</v>
+      </c>
+      <c r="D314" t="s">
+        <v>228</v>
+      </c>
+      <c r="E314">
+        <v>27473</v>
+      </c>
+      <c r="F314" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" t="s">
+        <v>97</v>
+      </c>
+      <c r="C315" t="s">
+        <v>110</v>
+      </c>
+      <c r="D315" t="s">
+        <v>228</v>
+      </c>
+      <c r="E315">
+        <v>22167</v>
+      </c>
+      <c r="F315" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" t="s">
+        <v>97</v>
+      </c>
+      <c r="C316" t="s">
+        <v>111</v>
+      </c>
+      <c r="D316" t="s">
+        <v>228</v>
+      </c>
+      <c r="E316">
+        <v>19944</v>
+      </c>
+      <c r="F316" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="s">
+        <v>97</v>
+      </c>
+      <c r="C317" t="s">
+        <v>101</v>
+      </c>
+      <c r="D317" t="s">
+        <v>228</v>
+      </c>
+      <c r="E317">
+        <v>18257</v>
+      </c>
+      <c r="F317" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" t="s">
+        <v>97</v>
+      </c>
+      <c r="C318" t="s">
+        <v>102</v>
+      </c>
+      <c r="D318" t="s">
+        <v>228</v>
+      </c>
+      <c r="E318">
+        <v>16413</v>
+      </c>
+      <c r="F318" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" t="s">
+        <v>97</v>
+      </c>
+      <c r="C319" t="s">
+        <v>103</v>
+      </c>
+      <c r="D319" t="s">
+        <v>228</v>
+      </c>
+      <c r="E319">
+        <v>15637</v>
+      </c>
+      <c r="F319" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" t="s">
         <v>98</v>
       </c>
-      <c r="D256" t="s">
-        <v>204</v>
-      </c>
-      <c r="E256" t="s">
-        <v>458</v>
-      </c>
-      <c r="F256" t="s">
-        <v>459</v>
+      <c r="C320" t="s">
+        <v>107</v>
+      </c>
+      <c r="D320" t="s">
+        <v>229</v>
+      </c>
+      <c r="E320">
+        <v>27168</v>
+      </c>
+      <c r="F320" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" t="s">
+        <v>98</v>
+      </c>
+      <c r="C321" t="s">
+        <v>108</v>
+      </c>
+      <c r="D321" t="s">
+        <v>229</v>
+      </c>
+      <c r="E321">
+        <v>26505</v>
+      </c>
+      <c r="F321" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" t="s">
+        <v>10</v>
+      </c>
+      <c r="B322" t="s">
+        <v>98</v>
+      </c>
+      <c r="C322" t="s">
+        <v>109</v>
+      </c>
+      <c r="D322" t="s">
+        <v>229</v>
+      </c>
+      <c r="E322">
+        <v>24325</v>
+      </c>
+      <c r="F322" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" t="s">
+        <v>10</v>
+      </c>
+      <c r="B323" t="s">
+        <v>98</v>
+      </c>
+      <c r="C323" t="s">
+        <v>110</v>
+      </c>
+      <c r="D323" t="s">
+        <v>229</v>
+      </c>
+      <c r="E323">
+        <v>22128</v>
+      </c>
+      <c r="F323" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" t="s">
+        <v>10</v>
+      </c>
+      <c r="B324" t="s">
+        <v>98</v>
+      </c>
+      <c r="C324" t="s">
+        <v>111</v>
+      </c>
+      <c r="D324" t="s">
+        <v>229</v>
+      </c>
+      <c r="E324">
+        <v>18749</v>
+      </c>
+      <c r="F324" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" t="s">
+        <v>10</v>
+      </c>
+      <c r="B325" t="s">
+        <v>98</v>
+      </c>
+      <c r="C325" t="s">
+        <v>101</v>
+      </c>
+      <c r="D325" t="s">
+        <v>229</v>
+      </c>
+      <c r="E325">
+        <v>17239</v>
+      </c>
+      <c r="F325" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" t="s">
+        <v>10</v>
+      </c>
+      <c r="B326" t="s">
+        <v>98</v>
+      </c>
+      <c r="C326" t="s">
+        <v>102</v>
+      </c>
+      <c r="D326" t="s">
+        <v>229</v>
+      </c>
+      <c r="E326">
+        <v>16309</v>
+      </c>
+      <c r="F326" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" t="s">
+        <v>10</v>
+      </c>
+      <c r="B327" t="s">
+        <v>98</v>
+      </c>
+      <c r="C327" t="s">
+        <v>103</v>
+      </c>
+      <c r="D327" t="s">
+        <v>229</v>
+      </c>
+      <c r="E327">
+        <v>14012</v>
+      </c>
+      <c r="F327" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" t="s">
+        <v>10</v>
+      </c>
+      <c r="B328" t="s">
+        <v>99</v>
+      </c>
+      <c r="C328" t="s">
+        <v>140</v>
+      </c>
+      <c r="D328" t="s">
+        <v>230</v>
+      </c>
+      <c r="E328">
+        <v>34577</v>
+      </c>
+      <c r="F328" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" t="s">
+        <v>10</v>
+      </c>
+      <c r="B329" t="s">
+        <v>99</v>
+      </c>
+      <c r="C329" t="s">
+        <v>106</v>
+      </c>
+      <c r="D329" t="s">
+        <v>230</v>
+      </c>
+      <c r="E329">
+        <v>32736</v>
+      </c>
+      <c r="F329" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" t="s">
+        <v>10</v>
+      </c>
+      <c r="B330" t="s">
+        <v>99</v>
+      </c>
+      <c r="C330" t="s">
+        <v>107</v>
+      </c>
+      <c r="D330" t="s">
+        <v>230</v>
+      </c>
+      <c r="E330">
+        <v>29971</v>
+      </c>
+      <c r="F330" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" t="s">
+        <v>99</v>
+      </c>
+      <c r="C331" t="s">
+        <v>108</v>
+      </c>
+      <c r="D331" t="s">
+        <v>230</v>
+      </c>
+      <c r="E331">
+        <v>29240</v>
+      </c>
+      <c r="F331" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" t="s">
+        <v>10</v>
+      </c>
+      <c r="B332" t="s">
+        <v>99</v>
+      </c>
+      <c r="C332" t="s">
+        <v>109</v>
+      </c>
+      <c r="D332" t="s">
+        <v>230</v>
+      </c>
+      <c r="E332">
+        <v>27300</v>
+      </c>
+      <c r="F332" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" t="s">
+        <v>99</v>
+      </c>
+      <c r="C333" t="s">
+        <v>110</v>
+      </c>
+      <c r="D333" t="s">
+        <v>230</v>
+      </c>
+      <c r="E333">
+        <v>22301</v>
+      </c>
+      <c r="F333" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" t="s">
+        <v>10</v>
+      </c>
+      <c r="B334" t="s">
+        <v>99</v>
+      </c>
+      <c r="C334" t="s">
+        <v>111</v>
+      </c>
+      <c r="D334" t="s">
+        <v>230</v>
+      </c>
+      <c r="E334">
+        <v>20067</v>
+      </c>
+      <c r="F334" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" t="s">
+        <v>10</v>
+      </c>
+      <c r="B335" t="s">
+        <v>99</v>
+      </c>
+      <c r="C335" t="s">
+        <v>101</v>
+      </c>
+      <c r="D335" t="s">
+        <v>230</v>
+      </c>
+      <c r="E335">
+        <v>18328</v>
+      </c>
+      <c r="F335" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336" t="s">
+        <v>99</v>
+      </c>
+      <c r="C336" t="s">
+        <v>102</v>
+      </c>
+      <c r="D336" t="s">
+        <v>230</v>
+      </c>
+      <c r="E336">
+        <v>17319</v>
+      </c>
+      <c r="F336" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" t="s">
+        <v>100</v>
+      </c>
+      <c r="C337" t="s">
+        <v>140</v>
+      </c>
+      <c r="D337" t="s">
+        <v>231</v>
+      </c>
+      <c r="E337">
+        <v>33868</v>
+      </c>
+      <c r="F337" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" t="s">
+        <v>100</v>
+      </c>
+      <c r="C338" t="s">
+        <v>106</v>
+      </c>
+      <c r="D338" t="s">
+        <v>231</v>
+      </c>
+      <c r="E338">
+        <v>32139</v>
+      </c>
+      <c r="F338" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" t="s">
+        <v>100</v>
+      </c>
+      <c r="C339" t="s">
+        <v>107</v>
+      </c>
+      <c r="D339" t="s">
+        <v>231</v>
+      </c>
+      <c r="E339">
+        <v>28339</v>
+      </c>
+      <c r="F339" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" t="s">
+        <v>10</v>
+      </c>
+      <c r="B340" t="s">
+        <v>100</v>
+      </c>
+      <c r="C340" t="s">
+        <v>108</v>
+      </c>
+      <c r="D340" t="s">
+        <v>231</v>
+      </c>
+      <c r="E340" t="s">
+        <v>232</v>
+      </c>
+      <c r="F340" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="243">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -319,6 +319,18 @@
     <t>A3 1.8 Turbo 5p Mec.</t>
   </si>
   <si>
+    <t>A3 Cabriolet 1.8 16V TFSI 180cv S-tronic</t>
+  </si>
+  <si>
+    <t>A3 Cabriolet Ambition 2.0 TFSI S-tronic</t>
+  </si>
+  <si>
+    <t>A3 Cabriolet Perfor. 2.0 TFSI S-tronic</t>
+  </si>
+  <si>
+    <t>A3 Sed. Ambition 2.0 TSFI 220cv S-tronic</t>
+  </si>
+  <si>
     <t>1999 Gasolina</t>
   </si>
   <si>
@@ -442,6 +454,9 @@
     <t>2007 Gasolina</t>
   </si>
   <si>
+    <t>2019 Gasolina</t>
+  </si>
+  <si>
     <t>006009-7</t>
   </si>
   <si>
@@ -712,7 +727,19 @@
     <t>008044-6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 26069.00</t>
+    <t>008195-7</t>
+  </si>
+  <si>
+    <t>008223-6</t>
+  </si>
+  <si>
+    <t>008236-8</t>
+  </si>
+  <si>
+    <t>008205-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 143722.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -1073,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F340"/>
+  <dimension ref="A1:F350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1107,16 +1134,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <v>27313</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1127,16 +1154,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E3">
         <v>21558</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1147,16 +1174,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>14581</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1167,16 +1194,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>13265</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1187,16 +1214,16 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E6">
         <v>21581</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1207,16 +1234,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E7">
         <v>17680</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1227,16 +1254,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E8">
         <v>17248</v>
       </c>
       <c r="F8" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1247,16 +1274,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E9">
         <v>13550</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1267,16 +1294,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E10">
         <v>29872</v>
       </c>
       <c r="F10" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1287,16 +1314,16 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E11">
         <v>29143</v>
       </c>
       <c r="F11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1307,16 +1334,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E12">
         <v>23404</v>
       </c>
       <c r="F12" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1327,16 +1354,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E13">
         <v>22833</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1347,16 +1374,16 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E14">
         <v>22449</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1367,16 +1394,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E15">
         <v>18647</v>
       </c>
       <c r="F15" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1387,16 +1414,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E16">
         <v>18192</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1407,16 +1434,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E17">
         <v>92142</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1427,16 +1454,16 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E18">
         <v>89894</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1447,16 +1474,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E19">
         <v>87701</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1467,16 +1494,16 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E20">
         <v>19511</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1487,16 +1514,16 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E21">
         <v>18466</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1507,16 +1534,16 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E22">
         <v>15931</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1527,16 +1554,16 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E23">
         <v>24925</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1547,16 +1574,16 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E24">
         <v>24317</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1567,16 +1594,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E25">
         <v>19754</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1587,16 +1614,16 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E26">
         <v>104853</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1607,16 +1634,16 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E27">
         <v>32424</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1627,16 +1654,16 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E28">
         <v>49978</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1647,16 +1674,16 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E29">
         <v>45101</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1667,16 +1694,16 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E30">
         <v>74355</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1687,16 +1714,16 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E31">
         <v>71998</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1707,16 +1734,16 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E32">
         <v>75561</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1727,16 +1754,16 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E33">
         <v>70007</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1747,16 +1774,16 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E34">
         <v>58514</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1767,16 +1794,16 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E35">
         <v>57086</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1787,16 +1814,16 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E36">
         <v>29151</v>
       </c>
       <c r="F36" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1807,16 +1834,16 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E37">
         <v>28440</v>
       </c>
       <c r="F37" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1827,16 +1854,16 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E38">
         <v>27102</v>
       </c>
       <c r="F38" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1847,16 +1874,16 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E39">
         <v>19575</v>
       </c>
       <c r="F39" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1867,16 +1894,16 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E40">
         <v>13455</v>
       </c>
       <c r="F40" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1887,16 +1914,16 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E41">
         <v>11701</v>
       </c>
       <c r="F41" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1907,16 +1934,16 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E42">
         <v>28869</v>
       </c>
       <c r="F42" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1927,16 +1954,16 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E43">
         <v>28164</v>
       </c>
       <c r="F43" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1947,16 +1974,16 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E44">
         <v>89797</v>
       </c>
       <c r="F44" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1967,16 +1994,16 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E45">
         <v>86004</v>
       </c>
       <c r="F45" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1987,16 +2014,16 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E46">
         <v>83906</v>
       </c>
       <c r="F46" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2007,16 +2034,16 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E47">
         <v>81859</v>
       </c>
       <c r="F47" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2027,16 +2054,16 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E48">
         <v>71424</v>
       </c>
       <c r="F48" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2047,16 +2074,16 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E49">
         <v>8070</v>
       </c>
       <c r="F49" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2067,16 +2094,16 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E50">
         <v>7072</v>
       </c>
       <c r="F50" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2087,16 +2114,16 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E51">
         <v>133185</v>
       </c>
       <c r="F51" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2107,16 +2134,16 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E52">
         <v>129936</v>
       </c>
       <c r="F52" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2127,16 +2154,16 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E53">
         <v>92099</v>
       </c>
       <c r="F53" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2147,16 +2174,16 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E54">
         <v>41220</v>
       </c>
       <c r="F54" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2167,16 +2194,16 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E55">
         <v>32289</v>
       </c>
       <c r="F55" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2187,16 +2214,16 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E56">
         <v>27713</v>
       </c>
       <c r="F56" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2207,16 +2234,16 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E57">
         <v>426859</v>
       </c>
       <c r="F57" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2227,16 +2254,16 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E58">
         <v>384365</v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2247,16 +2274,16 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E59">
         <v>332825</v>
       </c>
       <c r="F59" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2267,16 +2294,16 @@
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E60">
         <v>396648</v>
       </c>
       <c r="F60" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2287,16 +2314,16 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E61">
         <v>351603</v>
       </c>
       <c r="F61" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2307,16 +2334,16 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E62">
         <v>294624</v>
       </c>
       <c r="F62" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2327,16 +2354,16 @@
         <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E63">
         <v>453297</v>
       </c>
       <c r="F63" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2347,16 +2374,16 @@
         <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E64">
         <v>401677</v>
       </c>
       <c r="F64" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2367,16 +2394,16 @@
         <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E65">
         <v>348246</v>
       </c>
       <c r="F65" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2387,16 +2414,16 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E66">
         <v>25397</v>
       </c>
       <c r="F66" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2407,16 +2434,16 @@
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E67">
         <v>21995</v>
       </c>
       <c r="F67" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2427,16 +2454,16 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E68">
         <v>18798</v>
       </c>
       <c r="F68" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2447,16 +2474,16 @@
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E69">
         <v>18158</v>
       </c>
       <c r="F69" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2467,16 +2494,16 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E70">
         <v>16980</v>
       </c>
       <c r="F70" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2487,16 +2514,16 @@
         <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E71">
         <v>27427</v>
       </c>
       <c r="F71" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2507,16 +2534,16 @@
         <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E72">
         <v>25605</v>
       </c>
       <c r="F72" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2527,16 +2554,16 @@
         <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E73">
         <v>21492</v>
       </c>
       <c r="F73" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2547,16 +2574,16 @@
         <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E74">
         <v>19903</v>
       </c>
       <c r="F74" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2567,16 +2594,16 @@
         <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E75">
         <v>19231</v>
       </c>
       <c r="F75" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2587,16 +2614,16 @@
         <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E76">
         <v>15514</v>
       </c>
       <c r="F76" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2607,16 +2634,16 @@
         <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E77">
         <v>14842</v>
       </c>
       <c r="F77" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2627,16 +2654,16 @@
         <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D78" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E78">
         <v>12659</v>
       </c>
       <c r="F78" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2647,16 +2674,16 @@
         <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E79">
         <v>12058</v>
       </c>
       <c r="F79" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2667,16 +2694,16 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E80">
         <v>11358</v>
       </c>
       <c r="F80" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2687,16 +2714,16 @@
         <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E81">
         <v>9903</v>
       </c>
       <c r="F81" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2707,16 +2734,16 @@
         <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E82">
         <v>14608</v>
       </c>
       <c r="F82" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2727,16 +2754,16 @@
         <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E83">
         <v>13421</v>
       </c>
       <c r="F83" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2747,16 +2774,16 @@
         <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E84">
         <v>12439</v>
       </c>
       <c r="F84" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2767,16 +2794,16 @@
         <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E85">
         <v>11373</v>
       </c>
       <c r="F85" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2787,16 +2814,16 @@
         <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E86">
         <v>10192</v>
       </c>
       <c r="F86" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2807,16 +2834,16 @@
         <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D87" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E87">
         <v>9297</v>
       </c>
       <c r="F87" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2827,16 +2854,16 @@
         <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D88" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E88">
         <v>12164</v>
       </c>
       <c r="F88" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2847,16 +2874,16 @@
         <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E89">
         <v>11236</v>
       </c>
       <c r="F89" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2867,16 +2894,16 @@
         <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E90">
         <v>9800</v>
       </c>
       <c r="F90" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2887,16 +2914,16 @@
         <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D91" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E91">
         <v>9324</v>
       </c>
       <c r="F91" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2907,16 +2934,16 @@
         <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D92" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E92">
         <v>25330</v>
       </c>
       <c r="F92" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2927,16 +2954,16 @@
         <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D93" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E93">
         <v>24712</v>
       </c>
       <c r="F93" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2947,16 +2974,16 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D94" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E94">
         <v>16727</v>
       </c>
       <c r="F94" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2967,16 +2994,16 @@
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D95" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E95">
         <v>13972</v>
       </c>
       <c r="F95" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2987,16 +3014,16 @@
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D96" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E96">
         <v>13585</v>
       </c>
       <c r="F96" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3007,16 +3034,16 @@
         <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D97" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E97">
         <v>16655</v>
       </c>
       <c r="F97" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3027,16 +3054,16 @@
         <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D98" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E98">
         <v>14777</v>
       </c>
       <c r="F98" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3047,16 +3074,16 @@
         <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D99" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E99">
         <v>12873</v>
       </c>
       <c r="F99" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3067,16 +3094,16 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D100" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E100">
         <v>19837</v>
       </c>
       <c r="F100" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3087,16 +3114,16 @@
         <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D101" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E101">
         <v>14311</v>
       </c>
       <c r="F101" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3107,16 +3134,16 @@
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D102" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E102">
         <v>12443</v>
       </c>
       <c r="F102" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3127,16 +3154,16 @@
         <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D103" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E103">
         <v>6442</v>
       </c>
       <c r="F103" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3147,16 +3174,16 @@
         <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E104">
         <v>6095</v>
       </c>
       <c r="F104" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3167,16 +3194,16 @@
         <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E105">
         <v>5884</v>
       </c>
       <c r="F105" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3187,16 +3214,16 @@
         <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E106">
         <v>5680</v>
       </c>
       <c r="F106" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3207,16 +3234,16 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D107" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E107">
         <v>5955</v>
       </c>
       <c r="F107" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3227,16 +3254,16 @@
         <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E108">
         <v>5298</v>
       </c>
       <c r="F108" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3247,16 +3274,16 @@
         <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E109">
         <v>5168</v>
       </c>
       <c r="F109" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3267,16 +3294,16 @@
         <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E110">
         <v>4546</v>
       </c>
       <c r="F110" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3287,16 +3314,16 @@
         <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E111">
         <v>4415</v>
       </c>
       <c r="F111" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3307,16 +3334,16 @@
         <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E112">
         <v>3607</v>
       </c>
       <c r="F112" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3327,16 +3354,16 @@
         <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D113" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E113">
         <v>5607</v>
       </c>
       <c r="F113" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3347,16 +3374,16 @@
         <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D114" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E114">
         <v>5281</v>
       </c>
       <c r="F114" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3367,16 +3394,16 @@
         <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D115" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E115">
         <v>4945</v>
       </c>
       <c r="F115" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3387,16 +3414,16 @@
         <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D116" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E116">
         <v>4532</v>
       </c>
       <c r="F116" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3407,16 +3434,16 @@
         <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D117" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E117">
         <v>3838</v>
       </c>
       <c r="F117" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3427,16 +3454,16 @@
         <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D118" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E118">
         <v>3291</v>
       </c>
       <c r="F118" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3447,16 +3474,16 @@
         <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D119" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E119">
         <v>5858</v>
       </c>
       <c r="F119" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3467,16 +3494,16 @@
         <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D120" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E120">
         <v>5699</v>
       </c>
       <c r="F120" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3487,16 +3514,16 @@
         <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D121" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E121">
         <v>5481</v>
       </c>
       <c r="F121" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3507,16 +3534,16 @@
         <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D122" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E122">
         <v>4160</v>
       </c>
       <c r="F122" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3527,16 +3554,16 @@
         <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D123" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E123">
         <v>4058</v>
       </c>
       <c r="F123" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3547,16 +3574,16 @@
         <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D124" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E124">
         <v>3746</v>
       </c>
       <c r="F124" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3567,16 +3594,16 @@
         <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D125" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E125">
         <v>3569</v>
       </c>
       <c r="F125" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3587,16 +3614,16 @@
         <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D126" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E126">
         <v>3442</v>
       </c>
       <c r="F126" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3607,16 +3634,16 @@
         <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D127" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E127">
         <v>3284</v>
       </c>
       <c r="F127" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3627,16 +3654,16 @@
         <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D128" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E128">
         <v>2840</v>
       </c>
       <c r="F128" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3647,16 +3674,16 @@
         <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D129" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E129">
         <v>2401</v>
       </c>
       <c r="F129" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3667,16 +3694,16 @@
         <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D130" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E130">
         <v>5876</v>
       </c>
       <c r="F130" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3687,16 +3714,16 @@
         <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D131" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E131">
         <v>5732</v>
       </c>
       <c r="F131" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3707,16 +3734,16 @@
         <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D132" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E132">
         <v>4374</v>
       </c>
       <c r="F132" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3727,16 +3754,16 @@
         <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D133" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E133">
         <v>7989</v>
       </c>
       <c r="F133" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3747,16 +3774,16 @@
         <v>46</v>
       </c>
       <c r="C134" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D134" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E134">
         <v>7146</v>
       </c>
       <c r="F134" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3767,16 +3794,16 @@
         <v>46</v>
       </c>
       <c r="C135" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D135" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E135">
         <v>6889</v>
       </c>
       <c r="F135" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3787,16 +3814,16 @@
         <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D136" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E136">
         <v>6037</v>
       </c>
       <c r="F136" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3807,16 +3834,16 @@
         <v>46</v>
       </c>
       <c r="C137" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D137" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E137">
         <v>4876</v>
       </c>
       <c r="F137" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3827,16 +3854,16 @@
         <v>46</v>
       </c>
       <c r="C138" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D138" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E138">
         <v>4281</v>
       </c>
       <c r="F138" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3847,16 +3874,16 @@
         <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D139" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E139">
         <v>6241</v>
       </c>
       <c r="F139" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3867,16 +3894,16 @@
         <v>47</v>
       </c>
       <c r="C140" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D140" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E140">
         <v>6088</v>
       </c>
       <c r="F140" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3887,16 +3914,16 @@
         <v>47</v>
       </c>
       <c r="C141" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D141" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E141">
         <v>5939</v>
       </c>
       <c r="F141" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3907,16 +3934,16 @@
         <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D142" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E142">
         <v>5967</v>
       </c>
       <c r="F142" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3927,16 +3954,16 @@
         <v>48</v>
       </c>
       <c r="C143" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D143" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E143">
         <v>5821</v>
       </c>
       <c r="F143" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3947,16 +3974,16 @@
         <v>48</v>
       </c>
       <c r="C144" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D144" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E144">
         <v>5569</v>
       </c>
       <c r="F144" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3967,16 +3994,16 @@
         <v>48</v>
       </c>
       <c r="C145" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D145" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E145">
         <v>4635</v>
       </c>
       <c r="F145" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3987,16 +4014,16 @@
         <v>48</v>
       </c>
       <c r="C146" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D146" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E146">
         <v>4206</v>
       </c>
       <c r="F146" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4007,16 +4034,16 @@
         <v>48</v>
       </c>
       <c r="C147" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D147" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E147">
         <v>4005</v>
       </c>
       <c r="F147" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4027,16 +4054,16 @@
         <v>49</v>
       </c>
       <c r="C148" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D148" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E148">
         <v>3600000</v>
       </c>
       <c r="F148" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4047,16 +4074,16 @@
         <v>49</v>
       </c>
       <c r="C149" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D149" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E149">
         <v>3228897</v>
       </c>
       <c r="F149" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4067,16 +4094,16 @@
         <v>49</v>
       </c>
       <c r="C150" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D150" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E150">
         <v>3070680</v>
       </c>
       <c r="F150" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4087,16 +4114,16 @@
         <v>50</v>
       </c>
       <c r="C151" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D151" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E151">
         <v>3900000</v>
       </c>
       <c r="F151" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4107,16 +4134,16 @@
         <v>50</v>
       </c>
       <c r="C152" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D152" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E152">
         <v>3625334</v>
       </c>
       <c r="F152" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4127,16 +4154,16 @@
         <v>51</v>
       </c>
       <c r="C153" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D153" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E153">
         <v>1214247</v>
       </c>
       <c r="F153" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4147,16 +4174,16 @@
         <v>51</v>
       </c>
       <c r="C154" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D154" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E154">
         <v>946995</v>
       </c>
       <c r="F154" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4167,16 +4194,16 @@
         <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D155" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E155">
         <v>617791</v>
       </c>
       <c r="F155" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4187,16 +4214,16 @@
         <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D156" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E156">
         <v>4493874</v>
       </c>
       <c r="F156" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4207,16 +4234,16 @@
         <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D157" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E157">
         <v>4142252</v>
       </c>
       <c r="F157" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4227,16 +4254,16 @@
         <v>54</v>
       </c>
       <c r="C158" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D158" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E158">
         <v>2346605</v>
       </c>
       <c r="F158" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4247,16 +4274,16 @@
         <v>54</v>
       </c>
       <c r="C159" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D159" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E159">
         <v>2055673</v>
       </c>
       <c r="F159" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4267,16 +4294,16 @@
         <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D160" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E160">
         <v>3800000</v>
       </c>
       <c r="F160" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4287,16 +4314,16 @@
         <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D161" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E161">
         <v>3226068</v>
       </c>
       <c r="F161" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4307,16 +4334,16 @@
         <v>55</v>
       </c>
       <c r="C162" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D162" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E162">
         <v>2729902</v>
       </c>
       <c r="F162" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4327,16 +4354,16 @@
         <v>55</v>
       </c>
       <c r="C163" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D163" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E163">
         <v>2502679</v>
       </c>
       <c r="F163" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4347,16 +4374,16 @@
         <v>56</v>
       </c>
       <c r="C164" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D164" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E164">
         <v>694217</v>
       </c>
       <c r="F164" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4367,16 +4394,16 @@
         <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D165" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E165">
         <v>607011</v>
       </c>
       <c r="F165" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4387,16 +4414,16 @@
         <v>57</v>
       </c>
       <c r="C166" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D166" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E166">
         <v>1296696</v>
       </c>
       <c r="F166" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4407,16 +4434,16 @@
         <v>57</v>
       </c>
       <c r="C167" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D167" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E167">
         <v>1032188</v>
       </c>
       <c r="F167" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4427,16 +4454,16 @@
         <v>58</v>
       </c>
       <c r="C168" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D168" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E168">
         <v>1784133</v>
       </c>
       <c r="F168" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4447,16 +4474,16 @@
         <v>58</v>
       </c>
       <c r="C169" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D169" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E169">
         <v>1616174</v>
       </c>
       <c r="F169" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4467,16 +4494,16 @@
         <v>59</v>
       </c>
       <c r="C170" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D170" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E170">
         <v>476063</v>
       </c>
       <c r="F170" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4487,16 +4514,16 @@
         <v>60</v>
       </c>
       <c r="C171" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D171" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E171">
         <v>638283</v>
       </c>
       <c r="F171" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4507,16 +4534,16 @@
         <v>60</v>
       </c>
       <c r="C172" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D172" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E172">
         <v>591028</v>
       </c>
       <c r="F172" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4527,16 +4554,16 @@
         <v>60</v>
       </c>
       <c r="C173" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D173" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E173">
         <v>528207</v>
       </c>
       <c r="F173" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4547,16 +4574,16 @@
         <v>60</v>
       </c>
       <c r="C174" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D174" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E174">
         <v>515323</v>
       </c>
       <c r="F174" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4567,16 +4594,16 @@
         <v>61</v>
       </c>
       <c r="C175" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D175" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E175">
         <v>2800750</v>
       </c>
       <c r="F175" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4587,16 +4614,16 @@
         <v>61</v>
       </c>
       <c r="C176" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D176" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E176">
         <v>2200329</v>
       </c>
       <c r="F176" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4607,16 +4634,16 @@
         <v>61</v>
       </c>
       <c r="C177" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D177" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E177">
         <v>1739268</v>
       </c>
       <c r="F177" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4627,16 +4654,16 @@
         <v>61</v>
       </c>
       <c r="C178" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D178" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E178">
         <v>1647750</v>
       </c>
       <c r="F178" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4647,16 +4674,16 @@
         <v>62</v>
       </c>
       <c r="C179" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D179" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E179">
         <v>1770690</v>
       </c>
       <c r="F179" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4667,16 +4694,16 @@
         <v>62</v>
       </c>
       <c r="C180" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D180" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E180">
         <v>1706250</v>
       </c>
       <c r="F180" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4687,16 +4714,16 @@
         <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D181" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E181">
         <v>588516</v>
       </c>
       <c r="F181" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4707,16 +4734,16 @@
         <v>63</v>
       </c>
       <c r="C182" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D182" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E182">
         <v>521625</v>
       </c>
       <c r="F182" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4727,16 +4754,16 @@
         <v>64</v>
       </c>
       <c r="C183" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D183" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E183">
         <v>1842750</v>
       </c>
       <c r="F183" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4747,16 +4774,16 @@
         <v>65</v>
       </c>
       <c r="C184" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D184" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E184">
         <v>1145906</v>
       </c>
       <c r="F184" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4767,16 +4794,16 @@
         <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D185" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E185">
         <v>993822</v>
       </c>
       <c r="F185" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4787,16 +4814,16 @@
         <v>66</v>
       </c>
       <c r="C186" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D186" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E186">
         <v>531136</v>
       </c>
       <c r="F186" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4807,16 +4834,16 @@
         <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D187" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E187">
         <v>654552</v>
       </c>
       <c r="F187" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4827,16 +4854,16 @@
         <v>68</v>
       </c>
       <c r="C188" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D188" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E188">
         <v>12940</v>
       </c>
       <c r="F188" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4847,16 +4874,16 @@
         <v>68</v>
       </c>
       <c r="C189" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D189" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E189">
         <v>12146</v>
       </c>
       <c r="F189" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4867,16 +4894,16 @@
         <v>68</v>
       </c>
       <c r="C190" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D190" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E190">
         <v>10344</v>
       </c>
       <c r="F190" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4887,16 +4914,16 @@
         <v>69</v>
       </c>
       <c r="C191" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D191" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E191">
         <v>13652</v>
       </c>
       <c r="F191" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4907,16 +4934,16 @@
         <v>69</v>
       </c>
       <c r="C192" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D192" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E192">
         <v>12238</v>
       </c>
       <c r="F192" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4927,16 +4954,16 @@
         <v>70</v>
       </c>
       <c r="C193" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D193" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E193">
         <v>23715</v>
       </c>
       <c r="F193" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4947,16 +4974,16 @@
         <v>70</v>
       </c>
       <c r="C194" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D194" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E194">
         <v>21449</v>
       </c>
       <c r="F194" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4967,16 +4994,16 @@
         <v>71</v>
       </c>
       <c r="C195" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D195" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E195">
         <v>14965</v>
       </c>
       <c r="F195" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4987,16 +5014,16 @@
         <v>71</v>
       </c>
       <c r="C196" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D196" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E196">
         <v>12435</v>
       </c>
       <c r="F196" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5007,16 +5034,16 @@
         <v>72</v>
       </c>
       <c r="C197" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D197" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E197">
         <v>15117</v>
       </c>
       <c r="F197" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5027,16 +5054,16 @@
         <v>72</v>
       </c>
       <c r="C198" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D198" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E198">
         <v>12483</v>
       </c>
       <c r="F198" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5047,16 +5074,16 @@
         <v>73</v>
       </c>
       <c r="C199" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D199" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E199">
         <v>23449</v>
       </c>
       <c r="F199" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5067,16 +5094,16 @@
         <v>73</v>
       </c>
       <c r="C200" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D200" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E200">
         <v>19050</v>
       </c>
       <c r="F200" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5087,16 +5114,16 @@
         <v>74</v>
       </c>
       <c r="C201" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D201" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E201">
         <v>30297</v>
       </c>
       <c r="F201" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5107,16 +5134,16 @@
         <v>74</v>
       </c>
       <c r="C202" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D202" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E202">
         <v>29558</v>
       </c>
       <c r="F202" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5127,16 +5154,16 @@
         <v>74</v>
       </c>
       <c r="C203" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D203" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E203">
         <v>22679</v>
       </c>
       <c r="F203" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5147,16 +5174,16 @@
         <v>75</v>
       </c>
       <c r="C204" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D204" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E204">
         <v>69220</v>
       </c>
       <c r="F204" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5167,16 +5194,16 @@
         <v>75</v>
       </c>
       <c r="C205" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D205" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E205">
         <v>67531</v>
       </c>
       <c r="F205" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5187,16 +5214,16 @@
         <v>75</v>
       </c>
       <c r="C206" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D206" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E206">
         <v>65883</v>
       </c>
       <c r="F206" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5207,16 +5234,16 @@
         <v>75</v>
       </c>
       <c r="C207" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D207" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E207">
         <v>64276</v>
       </c>
       <c r="F207" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5227,16 +5254,16 @@
         <v>75</v>
       </c>
       <c r="C208" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D208" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E208">
         <v>62708</v>
       </c>
       <c r="F208" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5247,16 +5274,16 @@
         <v>75</v>
       </c>
       <c r="C209" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D209" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E209">
         <v>56940</v>
       </c>
       <c r="F209" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5267,16 +5294,16 @@
         <v>76</v>
       </c>
       <c r="C210" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D210" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E210">
         <v>23516</v>
       </c>
       <c r="F210" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5287,16 +5314,16 @@
         <v>76</v>
       </c>
       <c r="C211" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D211" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E211">
         <v>19107</v>
       </c>
       <c r="F211" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5307,16 +5334,16 @@
         <v>77</v>
       </c>
       <c r="C212" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D212" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E212">
         <v>69227</v>
       </c>
       <c r="F212" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5327,16 +5354,16 @@
         <v>77</v>
       </c>
       <c r="C213" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D213" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E213">
         <v>67538</v>
       </c>
       <c r="F213" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5347,16 +5374,16 @@
         <v>77</v>
       </c>
       <c r="C214" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D214" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E214">
         <v>58794</v>
       </c>
       <c r="F214" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5367,16 +5394,16 @@
         <v>77</v>
       </c>
       <c r="C215" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D215" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E215">
         <v>57172</v>
       </c>
       <c r="F215" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5387,16 +5414,16 @@
         <v>78</v>
       </c>
       <c r="C216" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D216" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E216">
         <v>121907</v>
       </c>
       <c r="F216" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5407,16 +5434,16 @@
         <v>79</v>
       </c>
       <c r="C217" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D217" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E217">
         <v>73953</v>
       </c>
       <c r="F217" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5427,16 +5454,16 @@
         <v>79</v>
       </c>
       <c r="C218" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D218" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E218">
         <v>67755</v>
       </c>
       <c r="F218" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5447,16 +5474,16 @@
         <v>79</v>
       </c>
       <c r="C219" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D219" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E219">
         <v>59243</v>
       </c>
       <c r="F219" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5467,16 +5494,16 @@
         <v>80</v>
       </c>
       <c r="C220" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D220" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E220">
         <v>82917</v>
       </c>
       <c r="F220" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5487,16 +5514,16 @@
         <v>80</v>
       </c>
       <c r="C221" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D221" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E221">
         <v>80534</v>
       </c>
       <c r="F221" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5507,16 +5534,16 @@
         <v>81</v>
       </c>
       <c r="C222" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D222" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E222">
         <v>78233</v>
       </c>
       <c r="F222" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5527,16 +5554,16 @@
         <v>81</v>
       </c>
       <c r="C223" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D223" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E223">
         <v>68479</v>
       </c>
       <c r="F223" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5547,16 +5574,16 @@
         <v>81</v>
       </c>
       <c r="C224" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D224" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E224">
         <v>66808</v>
       </c>
       <c r="F224" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5567,16 +5594,16 @@
         <v>82</v>
       </c>
       <c r="C225" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D225" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E225">
         <v>102322</v>
       </c>
       <c r="F225" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5587,16 +5614,16 @@
         <v>82</v>
       </c>
       <c r="C226" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D226" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E226">
         <v>78592</v>
       </c>
       <c r="F226" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5607,16 +5634,16 @@
         <v>82</v>
       </c>
       <c r="C227" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D227" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E227">
         <v>76675</v>
       </c>
       <c r="F227" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5627,16 +5654,16 @@
         <v>82</v>
       </c>
       <c r="C228" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D228" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E228">
         <v>72791</v>
       </c>
       <c r="F228" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5647,16 +5674,16 @@
         <v>82</v>
       </c>
       <c r="C229" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D229" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E229">
         <v>68205</v>
       </c>
       <c r="F229" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5667,16 +5694,16 @@
         <v>82</v>
       </c>
       <c r="C230" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D230" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E230">
         <v>66541</v>
       </c>
       <c r="F230" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5687,16 +5714,16 @@
         <v>83</v>
       </c>
       <c r="C231" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D231" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E231">
         <v>122630</v>
       </c>
       <c r="F231" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5707,16 +5734,16 @@
         <v>83</v>
       </c>
       <c r="C232" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D232" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E232">
         <v>116902</v>
       </c>
       <c r="F232" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5727,16 +5754,16 @@
         <v>83</v>
       </c>
       <c r="C233" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D233" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E233">
         <v>107141</v>
       </c>
       <c r="F233" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5747,16 +5774,16 @@
         <v>84</v>
       </c>
       <c r="C234" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D234" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E234">
         <v>19755</v>
       </c>
       <c r="F234" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5767,16 +5794,16 @@
         <v>84</v>
       </c>
       <c r="C235" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D235" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E235">
         <v>18974</v>
       </c>
       <c r="F235" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5787,16 +5814,16 @@
         <v>84</v>
       </c>
       <c r="C236" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D236" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E236">
         <v>18511</v>
       </c>
       <c r="F236" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5807,16 +5834,16 @@
         <v>84</v>
       </c>
       <c r="C237" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D237" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E237">
         <v>16245</v>
       </c>
       <c r="F237" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5827,16 +5854,16 @@
         <v>84</v>
       </c>
       <c r="C238" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D238" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E238">
         <v>15235</v>
       </c>
       <c r="F238" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5847,16 +5874,16 @@
         <v>85</v>
       </c>
       <c r="C239" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D239" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E239">
         <v>21354</v>
       </c>
       <c r="F239" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5867,16 +5894,16 @@
         <v>85</v>
       </c>
       <c r="C240" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D240" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E240">
         <v>20443</v>
       </c>
       <c r="F240" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5887,16 +5914,16 @@
         <v>85</v>
       </c>
       <c r="C241" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D241" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E241">
         <v>19315</v>
       </c>
       <c r="F241" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5907,16 +5934,16 @@
         <v>85</v>
       </c>
       <c r="C242" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D242" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E242">
         <v>16389</v>
       </c>
       <c r="F242" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5927,16 +5954,16 @@
         <v>85</v>
       </c>
       <c r="C243" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D243" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E243">
         <v>15482</v>
       </c>
       <c r="F243" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5947,16 +5974,16 @@
         <v>86</v>
       </c>
       <c r="C244" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D244" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E244">
         <v>28210</v>
       </c>
       <c r="F244" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5967,16 +5994,16 @@
         <v>86</v>
       </c>
       <c r="C245" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D245" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E245">
         <v>26539</v>
       </c>
       <c r="F245" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5987,16 +6014,16 @@
         <v>86</v>
       </c>
       <c r="C246" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D246" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E246">
         <v>23062</v>
       </c>
       <c r="F246" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6007,16 +6034,16 @@
         <v>86</v>
       </c>
       <c r="C247" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D247" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E247">
         <v>22499</v>
       </c>
       <c r="F247" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6027,16 +6054,16 @@
         <v>86</v>
       </c>
       <c r="C248" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D248" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E248">
         <v>20267</v>
       </c>
       <c r="F248" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6047,16 +6074,16 @@
         <v>86</v>
       </c>
       <c r="C249" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D249" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E249">
         <v>19467</v>
       </c>
       <c r="F249" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6067,16 +6094,16 @@
         <v>86</v>
       </c>
       <c r="C250" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D250" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E250">
         <v>17989</v>
       </c>
       <c r="F250" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6087,16 +6114,16 @@
         <v>86</v>
       </c>
       <c r="C251" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D251" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E251">
         <v>16792</v>
       </c>
       <c r="F251" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6107,16 +6134,16 @@
         <v>87</v>
       </c>
       <c r="C252" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D252" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E252">
         <v>27532</v>
       </c>
       <c r="F252" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6127,16 +6154,16 @@
         <v>87</v>
       </c>
       <c r="C253" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D253" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E253">
         <v>26860</v>
       </c>
       <c r="F253" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6147,16 +6174,16 @@
         <v>87</v>
       </c>
       <c r="C254" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D254" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E254">
         <v>25756</v>
       </c>
       <c r="F254" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6167,16 +6194,16 @@
         <v>87</v>
       </c>
       <c r="C255" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D255" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E255">
         <v>19966</v>
       </c>
       <c r="F255" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6187,16 +6214,16 @@
         <v>87</v>
       </c>
       <c r="C256" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D256" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E256">
         <v>17486</v>
       </c>
       <c r="F256" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6207,16 +6234,16 @@
         <v>88</v>
       </c>
       <c r="C257" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D257" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E257">
         <v>34924</v>
       </c>
       <c r="F257" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6227,16 +6254,16 @@
         <v>89</v>
       </c>
       <c r="C258" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D258" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E258">
         <v>23670</v>
       </c>
       <c r="F258" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6247,16 +6274,16 @@
         <v>89</v>
       </c>
       <c r="C259" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D259" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E259">
         <v>21307</v>
       </c>
       <c r="F259" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6267,16 +6294,16 @@
         <v>89</v>
       </c>
       <c r="C260" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D260" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E260">
         <v>20787</v>
       </c>
       <c r="F260" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6287,16 +6314,16 @@
         <v>89</v>
       </c>
       <c r="C261" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D261" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E261">
         <v>19054</v>
       </c>
       <c r="F261" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6307,16 +6334,16 @@
         <v>89</v>
       </c>
       <c r="C262" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D262" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E262">
         <v>18588</v>
       </c>
       <c r="F262" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6327,16 +6354,16 @@
         <v>89</v>
       </c>
       <c r="C263" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D263" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E263">
         <v>17671</v>
       </c>
       <c r="F263" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6347,16 +6374,16 @@
         <v>89</v>
       </c>
       <c r="C264" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D264" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E264">
         <v>17210</v>
       </c>
       <c r="F264" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6367,16 +6394,16 @@
         <v>89</v>
       </c>
       <c r="C265" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D265" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E265">
         <v>16522</v>
       </c>
       <c r="F265" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6387,16 +6414,16 @@
         <v>90</v>
       </c>
       <c r="C266" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D266" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E266">
         <v>24304</v>
       </c>
       <c r="F266" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6407,16 +6434,16 @@
         <v>90</v>
       </c>
       <c r="C267" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D267" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E267">
         <v>22150</v>
       </c>
       <c r="F267" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6427,16 +6454,16 @@
         <v>90</v>
       </c>
       <c r="C268" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D268" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E268">
         <v>20880</v>
       </c>
       <c r="F268" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6447,16 +6474,16 @@
         <v>90</v>
       </c>
       <c r="C269" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D269" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E269">
         <v>19384</v>
       </c>
       <c r="F269" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6467,16 +6494,16 @@
         <v>90</v>
       </c>
       <c r="C270" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D270" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E270">
         <v>18590</v>
       </c>
       <c r="F270" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6487,16 +6514,16 @@
         <v>90</v>
       </c>
       <c r="C271" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D271" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E271">
         <v>18054</v>
       </c>
       <c r="F271" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6507,16 +6534,16 @@
         <v>90</v>
       </c>
       <c r="C272" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D272" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E272">
         <v>17269</v>
       </c>
       <c r="F272" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6527,16 +6554,16 @@
         <v>90</v>
       </c>
       <c r="C273" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D273" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E273">
         <v>16685</v>
       </c>
       <c r="F273" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6547,16 +6574,16 @@
         <v>91</v>
       </c>
       <c r="C274" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D274" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E274">
         <v>29127</v>
       </c>
       <c r="F274" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6567,16 +6594,16 @@
         <v>91</v>
       </c>
       <c r="C275" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D275" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E275">
         <v>28389</v>
       </c>
       <c r="F275" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6587,16 +6614,16 @@
         <v>91</v>
       </c>
       <c r="C276" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D276" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E276">
         <v>27696</v>
       </c>
       <c r="F276" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6607,16 +6634,16 @@
         <v>91</v>
       </c>
       <c r="C277" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D277" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E277">
         <v>25740</v>
       </c>
       <c r="F277" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6627,16 +6654,16 @@
         <v>91</v>
       </c>
       <c r="C278" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D278" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E278">
         <v>22881</v>
       </c>
       <c r="F278" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6647,16 +6674,16 @@
         <v>91</v>
       </c>
       <c r="C279" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D279" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E279">
         <v>21584</v>
       </c>
       <c r="F279" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6667,16 +6694,16 @@
         <v>91</v>
       </c>
       <c r="C280" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D280" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E280">
         <v>19616</v>
       </c>
       <c r="F280" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6687,16 +6714,16 @@
         <v>91</v>
       </c>
       <c r="C281" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D281" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E281">
         <v>19137</v>
       </c>
       <c r="F281" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6707,16 +6734,16 @@
         <v>91</v>
       </c>
       <c r="C282" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D282" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E282">
         <v>17310</v>
       </c>
       <c r="F282" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6727,16 +6754,16 @@
         <v>91</v>
       </c>
       <c r="C283" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D283" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E283">
         <v>16711</v>
       </c>
       <c r="F283" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6747,16 +6774,16 @@
         <v>92</v>
       </c>
       <c r="C284" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D284" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E284">
         <v>26439</v>
       </c>
       <c r="F284" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6767,16 +6794,16 @@
         <v>92</v>
       </c>
       <c r="C285" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D285" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E285">
         <v>25794</v>
       </c>
       <c r="F285" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6787,16 +6814,16 @@
         <v>92</v>
       </c>
       <c r="C286" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D286" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E286">
         <v>23944</v>
       </c>
       <c r="F286" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6807,16 +6834,16 @@
         <v>92</v>
       </c>
       <c r="C287" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D287" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E287">
         <v>22551</v>
       </c>
       <c r="F287" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6827,16 +6854,16 @@
         <v>92</v>
       </c>
       <c r="C288" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D288" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E288">
         <v>21669</v>
       </c>
       <c r="F288" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6847,16 +6874,16 @@
         <v>92</v>
       </c>
       <c r="C289" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D289" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E289">
         <v>20926</v>
       </c>
       <c r="F289" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6867,16 +6894,16 @@
         <v>92</v>
       </c>
       <c r="C290" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D290" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E290">
         <v>18963</v>
       </c>
       <c r="F290" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6887,16 +6914,16 @@
         <v>92</v>
       </c>
       <c r="C291" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D291" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E291">
         <v>18051</v>
       </c>
       <c r="F291" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6907,16 +6934,16 @@
         <v>92</v>
       </c>
       <c r="C292" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D292" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E292">
         <v>17265</v>
       </c>
       <c r="F292" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6927,16 +6954,16 @@
         <v>92</v>
       </c>
       <c r="C293" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D293" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E293">
         <v>16694</v>
       </c>
       <c r="F293" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6947,16 +6974,16 @@
         <v>93</v>
       </c>
       <c r="C294" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D294" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E294">
         <v>26714</v>
       </c>
       <c r="F294" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6967,16 +6994,16 @@
         <v>93</v>
       </c>
       <c r="C295" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D295" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E295">
         <v>21512</v>
       </c>
       <c r="F295" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6987,16 +7014,16 @@
         <v>94</v>
       </c>
       <c r="C296" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D296" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E296">
         <v>23754</v>
       </c>
       <c r="F296" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7007,16 +7034,16 @@
         <v>94</v>
       </c>
       <c r="C297" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D297" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E297">
         <v>22346</v>
       </c>
       <c r="F297" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7027,16 +7054,16 @@
         <v>94</v>
       </c>
       <c r="C298" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D298" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E298">
         <v>20556</v>
       </c>
       <c r="F298" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7047,16 +7074,16 @@
         <v>94</v>
       </c>
       <c r="C299" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D299" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E299">
         <v>17333</v>
       </c>
       <c r="F299" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7067,16 +7094,16 @@
         <v>94</v>
       </c>
       <c r="C300" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D300" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E300">
         <v>16910</v>
       </c>
       <c r="F300" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7087,16 +7114,16 @@
         <v>95</v>
       </c>
       <c r="C301" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D301" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E301">
         <v>39909</v>
       </c>
       <c r="F301" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7107,16 +7134,16 @@
         <v>95</v>
       </c>
       <c r="C302" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D302" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E302">
         <v>34183</v>
       </c>
       <c r="F302" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7127,16 +7154,16 @@
         <v>95</v>
       </c>
       <c r="C303" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D303" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E303">
         <v>27982</v>
       </c>
       <c r="F303" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7147,16 +7174,16 @@
         <v>95</v>
       </c>
       <c r="C304" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D304" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E304">
         <v>27299</v>
       </c>
       <c r="F304" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7167,16 +7194,16 @@
         <v>95</v>
       </c>
       <c r="C305" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D305" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E305">
         <v>23657</v>
       </c>
       <c r="F305" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7187,16 +7214,16 @@
         <v>96</v>
       </c>
       <c r="C306" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D306" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E306">
         <v>38682</v>
       </c>
       <c r="F306" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7207,16 +7234,16 @@
         <v>96</v>
       </c>
       <c r="C307" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D307" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E307">
         <v>32012</v>
       </c>
       <c r="F307" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7227,16 +7254,16 @@
         <v>96</v>
       </c>
       <c r="C308" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D308" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E308">
         <v>27977</v>
       </c>
       <c r="F308" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7247,16 +7274,16 @@
         <v>96</v>
       </c>
       <c r="C309" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D309" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E309">
         <v>27294</v>
       </c>
       <c r="F309" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7267,16 +7294,16 @@
         <v>96</v>
       </c>
       <c r="C310" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D310" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E310">
         <v>23549</v>
       </c>
       <c r="F310" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7287,16 +7314,16 @@
         <v>96</v>
       </c>
       <c r="C311" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D311" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E311">
         <v>22454</v>
       </c>
       <c r="F311" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7307,16 +7334,16 @@
         <v>96</v>
       </c>
       <c r="C312" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D312" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E312">
         <v>19295</v>
       </c>
       <c r="F312" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7327,16 +7354,16 @@
         <v>97</v>
       </c>
       <c r="C313" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D313" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E313">
         <v>30107</v>
       </c>
       <c r="F313" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7347,16 +7374,16 @@
         <v>97</v>
       </c>
       <c r="C314" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D314" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E314">
         <v>27473</v>
       </c>
       <c r="F314" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7367,16 +7394,16 @@
         <v>97</v>
       </c>
       <c r="C315" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D315" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E315">
         <v>22167</v>
       </c>
       <c r="F315" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7387,16 +7414,16 @@
         <v>97</v>
       </c>
       <c r="C316" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D316" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E316">
         <v>19944</v>
       </c>
       <c r="F316" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7407,16 +7434,16 @@
         <v>97</v>
       </c>
       <c r="C317" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D317" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E317">
         <v>18257</v>
       </c>
       <c r="F317" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7427,16 +7454,16 @@
         <v>97</v>
       </c>
       <c r="C318" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D318" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E318">
         <v>16413</v>
       </c>
       <c r="F318" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7447,16 +7474,16 @@
         <v>97</v>
       </c>
       <c r="C319" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D319" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E319">
         <v>15637</v>
       </c>
       <c r="F319" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7467,16 +7494,16 @@
         <v>98</v>
       </c>
       <c r="C320" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D320" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E320">
         <v>27168</v>
       </c>
       <c r="F320" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7487,16 +7514,16 @@
         <v>98</v>
       </c>
       <c r="C321" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D321" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E321">
         <v>26505</v>
       </c>
       <c r="F321" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7507,16 +7534,16 @@
         <v>98</v>
       </c>
       <c r="C322" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D322" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E322">
         <v>24325</v>
       </c>
       <c r="F322" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7527,16 +7554,16 @@
         <v>98</v>
       </c>
       <c r="C323" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D323" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E323">
         <v>22128</v>
       </c>
       <c r="F323" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7547,16 +7574,16 @@
         <v>98</v>
       </c>
       <c r="C324" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D324" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E324">
         <v>18749</v>
       </c>
       <c r="F324" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7567,16 +7594,16 @@
         <v>98</v>
       </c>
       <c r="C325" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D325" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E325">
         <v>17239</v>
       </c>
       <c r="F325" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7587,16 +7614,16 @@
         <v>98</v>
       </c>
       <c r="C326" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D326" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E326">
         <v>16309</v>
       </c>
       <c r="F326" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7607,16 +7634,16 @@
         <v>98</v>
       </c>
       <c r="C327" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D327" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E327">
         <v>14012</v>
       </c>
       <c r="F327" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7627,16 +7654,16 @@
         <v>99</v>
       </c>
       <c r="C328" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D328" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E328">
         <v>34577</v>
       </c>
       <c r="F328" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7647,16 +7674,16 @@
         <v>99</v>
       </c>
       <c r="C329" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D329" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E329">
         <v>32736</v>
       </c>
       <c r="F329" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7667,16 +7694,16 @@
         <v>99</v>
       </c>
       <c r="C330" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D330" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E330">
         <v>29971</v>
       </c>
       <c r="F330" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7687,16 +7714,16 @@
         <v>99</v>
       </c>
       <c r="C331" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D331" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E331">
         <v>29240</v>
       </c>
       <c r="F331" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7707,16 +7734,16 @@
         <v>99</v>
       </c>
       <c r="C332" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D332" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E332">
         <v>27300</v>
       </c>
       <c r="F332" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7727,16 +7754,16 @@
         <v>99</v>
       </c>
       <c r="C333" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D333" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E333">
         <v>22301</v>
       </c>
       <c r="F333" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7747,16 +7774,16 @@
         <v>99</v>
       </c>
       <c r="C334" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D334" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E334">
         <v>20067</v>
       </c>
       <c r="F334" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7767,16 +7794,16 @@
         <v>99</v>
       </c>
       <c r="C335" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D335" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E335">
         <v>18328</v>
       </c>
       <c r="F335" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7787,16 +7814,16 @@
         <v>99</v>
       </c>
       <c r="C336" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D336" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E336">
         <v>17319</v>
       </c>
       <c r="F336" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7807,16 +7834,16 @@
         <v>100</v>
       </c>
       <c r="C337" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D337" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E337">
         <v>33868</v>
       </c>
       <c r="F337" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7827,16 +7854,16 @@
         <v>100</v>
       </c>
       <c r="C338" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D338" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E338">
         <v>32139</v>
       </c>
       <c r="F338" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7847,16 +7874,16 @@
         <v>100</v>
       </c>
       <c r="C339" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D339" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E339">
         <v>28339</v>
       </c>
       <c r="F339" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7867,16 +7894,216 @@
         <v>100</v>
       </c>
       <c r="C340" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D340" t="s">
-        <v>231</v>
-      </c>
-      <c r="E340" t="s">
-        <v>232</v>
+        <v>236</v>
+      </c>
+      <c r="E340">
+        <v>26069</v>
       </c>
       <c r="F340" t="s">
-        <v>233</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" t="s">
+        <v>10</v>
+      </c>
+      <c r="B341" t="s">
+        <v>100</v>
+      </c>
+      <c r="C341" t="s">
+        <v>113</v>
+      </c>
+      <c r="D341" t="s">
+        <v>236</v>
+      </c>
+      <c r="E341">
+        <v>22746</v>
+      </c>
+      <c r="F341" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" t="s">
+        <v>100</v>
+      </c>
+      <c r="C342" t="s">
+        <v>114</v>
+      </c>
+      <c r="D342" t="s">
+        <v>236</v>
+      </c>
+      <c r="E342">
+        <v>22073</v>
+      </c>
+      <c r="F342" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" t="s">
+        <v>100</v>
+      </c>
+      <c r="C343" t="s">
+        <v>115</v>
+      </c>
+      <c r="D343" t="s">
+        <v>236</v>
+      </c>
+      <c r="E343">
+        <v>19772</v>
+      </c>
+      <c r="F343" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" t="s">
+        <v>10</v>
+      </c>
+      <c r="B344" t="s">
+        <v>100</v>
+      </c>
+      <c r="C344" t="s">
+        <v>105</v>
+      </c>
+      <c r="D344" t="s">
+        <v>236</v>
+      </c>
+      <c r="E344">
+        <v>17952</v>
+      </c>
+      <c r="F344" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" t="s">
+        <v>10</v>
+      </c>
+      <c r="B345" t="s">
+        <v>101</v>
+      </c>
+      <c r="C345" t="s">
+        <v>133</v>
+      </c>
+      <c r="D345" t="s">
+        <v>237</v>
+      </c>
+      <c r="E345">
+        <v>135587</v>
+      </c>
+      <c r="F345" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" t="s">
+        <v>10</v>
+      </c>
+      <c r="B346" t="s">
+        <v>101</v>
+      </c>
+      <c r="C346" t="s">
+        <v>140</v>
+      </c>
+      <c r="D346" t="s">
+        <v>237</v>
+      </c>
+      <c r="E346">
+        <v>132280</v>
+      </c>
+      <c r="F346" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347" t="s">
+        <v>102</v>
+      </c>
+      <c r="C347" t="s">
+        <v>143</v>
+      </c>
+      <c r="D347" t="s">
+        <v>238</v>
+      </c>
+      <c r="E347">
+        <v>211512</v>
+      </c>
+      <c r="F347" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348" t="s">
+        <v>102</v>
+      </c>
+      <c r="C348" t="s">
+        <v>142</v>
+      </c>
+      <c r="D348" t="s">
+        <v>238</v>
+      </c>
+      <c r="E348">
+        <v>206353</v>
+      </c>
+      <c r="F348" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" t="s">
+        <v>10</v>
+      </c>
+      <c r="B349" t="s">
+        <v>103</v>
+      </c>
+      <c r="C349" t="s">
+        <v>146</v>
+      </c>
+      <c r="D349" t="s">
+        <v>239</v>
+      </c>
+      <c r="E349">
+        <v>141967</v>
+      </c>
+      <c r="F349" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" t="s">
+        <v>10</v>
+      </c>
+      <c r="B350" t="s">
+        <v>104</v>
+      </c>
+      <c r="C350" t="s">
+        <v>143</v>
+      </c>
+      <c r="D350" t="s">
+        <v>240</v>
+      </c>
+      <c r="E350" t="s">
+        <v>241</v>
+      </c>
+      <c r="F350" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="243">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -739,7 +739,7 @@
     <t>008205-8</t>
   </si>
   <si>
-    <t xml:space="preserve"> 143722.00</t>
+    <t xml:space="preserve"> 119187.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -1100,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F350"/>
+  <dimension ref="A1:F351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8099,10 +8099,30 @@
       <c r="D350" t="s">
         <v>240</v>
       </c>
-      <c r="E350" t="s">
+      <c r="E350">
+        <v>143722</v>
+      </c>
+      <c r="F350" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" t="s">
+        <v>104</v>
+      </c>
+      <c r="C351" t="s">
+        <v>142</v>
+      </c>
+      <c r="D351" t="s">
+        <v>240</v>
+      </c>
+      <c r="E351" t="s">
         <v>241</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F351" t="s">
         <v>242</v>
       </c>
     </row>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="303">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -331,6 +331,90 @@
     <t>A3 Sed. Ambition 2.0 TSFI 220cv S-tronic</t>
   </si>
   <si>
+    <t>A3 Sed. P. Plus Tech 1.4 Flex TFSI Tip.</t>
+  </si>
+  <si>
+    <t>A3 Sed. P.Plus 1.4 25Anos Flex TFSI Tip.</t>
+  </si>
+  <si>
+    <t>A3 Sed.1.8/1.8 Ambit.16V TB FSI S-tronic</t>
+  </si>
+  <si>
+    <t>A3 Sed.Perf. Black 2.0 TFSI S-tr. (Hib.)</t>
+  </si>
+  <si>
+    <t>A3 Sed.Perf. Black 2.0 TFSI S-tronic</t>
+  </si>
+  <si>
+    <t>A3 Sedan 1.4 TFSI Flex Tiptronic 4p</t>
+  </si>
+  <si>
+    <t>A3 Sedan 1.4/ Attra. 16V TB FSI S-tronic</t>
+  </si>
+  <si>
+    <t>A3 Sedan Advance 2.0 TFSI S-tronic</t>
+  </si>
+  <si>
+    <t>A3 Sedan Performance 2.0 TFSI S-tronic</t>
+  </si>
+  <si>
+    <t>A3 Sedan Prestige 1.4 TFSI Flex Tip.</t>
+  </si>
+  <si>
+    <t>A3 Sedan Prestige Plus 1.4 TFSI Flex Tip</t>
+  </si>
+  <si>
+    <t>A3 Sedan S-Line 2.0 TFSI  S-Tron.(Híb.)</t>
+  </si>
+  <si>
+    <t>A3 Sedan S-Line Limited 1.4 TFSI Tiptro.</t>
+  </si>
+  <si>
+    <t>A3 Sport 1.8 16V TFSI S-tronic 3p</t>
+  </si>
+  <si>
+    <t>A3 Sport 2.0 16V TFSI S- tronic</t>
+  </si>
+  <si>
+    <t>A3 Sportb. Perf. Black 2.0 S-tron.(Híb.)</t>
+  </si>
+  <si>
+    <t>A3 Sportb. Prestige Plus 1.4 TFSI S-tron</t>
+  </si>
+  <si>
+    <t>A3 Sportb. S-Line 2.0 TFSI S-Tron.(Híb.)</t>
+  </si>
+  <si>
+    <t>A3 Sportb. S-Line Limited 1.4 TFSI Tip.</t>
+  </si>
+  <si>
+    <t>A3 Sportback 1.4 TFSI S-tronic</t>
+  </si>
+  <si>
+    <t>A3 Sportback 1.6 8V 102cv 5p</t>
+  </si>
+  <si>
+    <t>A3 Sportback 1.8 16V TFSI S-tronic 5p</t>
+  </si>
+  <si>
+    <t>A3 Sportback 2.0 16V TFSI Mec.</t>
+  </si>
+  <si>
+    <t>A3 Sportback 2.0 16V TFSI S-tronic</t>
+  </si>
+  <si>
+    <t>A4 1.8  Aut.</t>
+  </si>
+  <si>
+    <t>A4 1.8  Mec.</t>
+  </si>
+  <si>
+    <t>A4 1.8 Avant Aut.</t>
+  </si>
+  <si>
+    <t>A4 1.8 Avant Mec.</t>
+  </si>
+  <si>
     <t>1999 Gasolina</t>
   </si>
   <si>
@@ -457,6 +541,18 @@
     <t>2019 Gasolina</t>
   </si>
   <si>
+    <t>2021 Gasolina</t>
+  </si>
+  <si>
+    <t>2020 Gasolina</t>
+  </si>
+  <si>
+    <t>2009 Gasolina</t>
+  </si>
+  <si>
+    <t>2008 Gasolina</t>
+  </si>
+  <si>
     <t>006009-7</t>
   </si>
   <si>
@@ -739,7 +835,91 @@
     <t>008205-8</t>
   </si>
   <si>
-    <t xml:space="preserve"> 119187.00</t>
+    <t>008255-4</t>
+  </si>
+  <si>
+    <t>008252-0</t>
+  </si>
+  <si>
+    <t>008190-6</t>
+  </si>
+  <si>
+    <t>008256-2</t>
+  </si>
+  <si>
+    <t>008312-7</t>
+  </si>
+  <si>
+    <t>008203-1</t>
+  </si>
+  <si>
+    <t>008192-2</t>
+  </si>
+  <si>
+    <t>008311-9</t>
+  </si>
+  <si>
+    <t>008237-6</t>
+  </si>
+  <si>
+    <t>008234-1</t>
+  </si>
+  <si>
+    <t>008235-0</t>
+  </si>
+  <si>
+    <t>008279-1</t>
+  </si>
+  <si>
+    <t>008277-5</t>
+  </si>
+  <si>
+    <t>008181-7</t>
+  </si>
+  <si>
+    <t>008138-8</t>
+  </si>
+  <si>
+    <t>008275-9</t>
+  </si>
+  <si>
+    <t>008233-3</t>
+  </si>
+  <si>
+    <t>008278-3</t>
+  </si>
+  <si>
+    <t>008276-7</t>
+  </si>
+  <si>
+    <t>008184-1</t>
+  </si>
+  <si>
+    <t>008117-5</t>
+  </si>
+  <si>
+    <t>008185-0</t>
+  </si>
+  <si>
+    <t>008118-3</t>
+  </si>
+  <si>
+    <t>008119-1</t>
+  </si>
+  <si>
+    <t>008047-0</t>
+  </si>
+  <si>
+    <t>008007-1</t>
+  </si>
+  <si>
+    <t>008048-9</t>
+  </si>
+  <si>
+    <t>008009-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20338.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -1100,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F351"/>
+  <dimension ref="A1:F456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1134,16 +1314,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="E2">
         <v>27313</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1154,16 +1334,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="E3">
         <v>21558</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1174,16 +1354,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="E4">
         <v>14581</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1194,16 +1374,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="E5">
         <v>13265</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1214,16 +1394,16 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>21581</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1234,16 +1414,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>17680</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1254,16 +1434,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>17248</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1274,16 +1454,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E9">
         <v>13550</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1294,16 +1474,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E10">
         <v>29872</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1314,16 +1494,16 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E11">
         <v>29143</v>
       </c>
       <c r="F11" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1334,16 +1514,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E12">
         <v>23404</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1354,16 +1534,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E13">
         <v>22833</v>
       </c>
       <c r="F13" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1374,16 +1554,16 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E14">
         <v>22449</v>
       </c>
       <c r="F14" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1394,16 +1574,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E15">
         <v>18647</v>
       </c>
       <c r="F15" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1414,16 +1594,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E16">
         <v>18192</v>
       </c>
       <c r="F16" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1434,16 +1614,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="E17">
         <v>92142</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1454,16 +1634,16 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="E18">
         <v>89894</v>
       </c>
       <c r="F18" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1474,16 +1654,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="E19">
         <v>87701</v>
       </c>
       <c r="F19" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1494,16 +1674,16 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="E20">
         <v>19511</v>
       </c>
       <c r="F20" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1514,16 +1694,16 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="E21">
         <v>18466</v>
       </c>
       <c r="F21" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1534,16 +1714,16 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="E22">
         <v>15931</v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1554,16 +1734,16 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E23">
         <v>24925</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1574,16 +1754,16 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E24">
         <v>24317</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1594,16 +1774,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E25">
         <v>19754</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1614,16 +1794,16 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E26">
         <v>104853</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1634,16 +1814,16 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E27">
         <v>32424</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1654,16 +1834,16 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="E28">
         <v>49978</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1674,16 +1854,16 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="E29">
         <v>45101</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1694,16 +1874,16 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E30">
         <v>74355</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1714,16 +1894,16 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E31">
         <v>71998</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1734,16 +1914,16 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E32">
         <v>75561</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1754,16 +1934,16 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E33">
         <v>70007</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1774,16 +1954,16 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E34">
         <v>58514</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1794,16 +1974,16 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E35">
         <v>57086</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1814,16 +1994,16 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E36">
         <v>29151</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1834,16 +2014,16 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E37">
         <v>28440</v>
       </c>
       <c r="F37" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1854,16 +2034,16 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E38">
         <v>27102</v>
       </c>
       <c r="F38" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1874,16 +2054,16 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E39">
         <v>19575</v>
       </c>
       <c r="F39" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1894,16 +2074,16 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E40">
         <v>13455</v>
       </c>
       <c r="F40" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1914,16 +2094,16 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E41">
         <v>11701</v>
       </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1934,16 +2114,16 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="E42">
         <v>28869</v>
       </c>
       <c r="F42" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1954,16 +2134,16 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="E43">
         <v>28164</v>
       </c>
       <c r="F43" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1974,16 +2154,16 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E44">
         <v>89797</v>
       </c>
       <c r="F44" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1994,16 +2174,16 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E45">
         <v>86004</v>
       </c>
       <c r="F45" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2014,16 +2194,16 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E46">
         <v>83906</v>
       </c>
       <c r="F46" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2034,16 +2214,16 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E47">
         <v>81859</v>
       </c>
       <c r="F47" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2054,16 +2234,16 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E48">
         <v>71424</v>
       </c>
       <c r="F48" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2074,16 +2254,16 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="E49">
         <v>8070</v>
       </c>
       <c r="F49" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2094,16 +2274,16 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="E50">
         <v>7072</v>
       </c>
       <c r="F50" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2114,16 +2294,16 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E51">
         <v>133185</v>
       </c>
       <c r="F51" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2134,16 +2314,16 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E52">
         <v>129936</v>
       </c>
       <c r="F52" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2154,16 +2334,16 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E53">
         <v>92099</v>
       </c>
       <c r="F53" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2174,16 +2354,16 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E54">
         <v>41220</v>
       </c>
       <c r="F54" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2194,16 +2374,16 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E55">
         <v>32289</v>
       </c>
       <c r="F55" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2214,16 +2394,16 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E56">
         <v>27713</v>
       </c>
       <c r="F56" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2234,16 +2414,16 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E57">
         <v>426859</v>
       </c>
       <c r="F57" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2254,16 +2434,16 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E58">
         <v>384365</v>
       </c>
       <c r="F58" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2274,16 +2454,16 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E59">
         <v>332825</v>
       </c>
       <c r="F59" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2294,16 +2474,16 @@
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="E60">
         <v>396648</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2314,16 +2494,16 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="E61">
         <v>351603</v>
       </c>
       <c r="F61" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2334,16 +2514,16 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="E62">
         <v>294624</v>
       </c>
       <c r="F62" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2354,16 +2534,16 @@
         <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E63">
         <v>453297</v>
       </c>
       <c r="F63" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2374,16 +2554,16 @@
         <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E64">
         <v>401677</v>
       </c>
       <c r="F64" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2394,16 +2574,16 @@
         <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E65">
         <v>348246</v>
       </c>
       <c r="F65" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2414,16 +2594,16 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E66">
         <v>25397</v>
       </c>
       <c r="F66" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2434,16 +2614,16 @@
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D67" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E67">
         <v>21995</v>
       </c>
       <c r="F67" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2454,16 +2634,16 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E68">
         <v>18798</v>
       </c>
       <c r="F68" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2474,16 +2654,16 @@
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E69">
         <v>18158</v>
       </c>
       <c r="F69" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2494,16 +2674,16 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E70">
         <v>16980</v>
       </c>
       <c r="F70" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2514,16 +2694,16 @@
         <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D71" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="E71">
         <v>27427</v>
       </c>
       <c r="F71" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2534,16 +2714,16 @@
         <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="E72">
         <v>25605</v>
       </c>
       <c r="F72" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2554,16 +2734,16 @@
         <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="E73">
         <v>21492</v>
       </c>
       <c r="F73" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2574,16 +2754,16 @@
         <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="E74">
         <v>19903</v>
       </c>
       <c r="F74" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2594,16 +2774,16 @@
         <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="E75">
         <v>19231</v>
       </c>
       <c r="F75" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2614,16 +2794,16 @@
         <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E76">
         <v>15514</v>
       </c>
       <c r="F76" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2634,16 +2814,16 @@
         <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E77">
         <v>14842</v>
       </c>
       <c r="F77" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2654,16 +2834,16 @@
         <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E78">
         <v>12659</v>
       </c>
       <c r="F78" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2674,16 +2854,16 @@
         <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E79">
         <v>12058</v>
       </c>
       <c r="F79" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2694,16 +2874,16 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D80" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E80">
         <v>11358</v>
       </c>
       <c r="F80" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2714,16 +2894,16 @@
         <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D81" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E81">
         <v>9903</v>
       </c>
       <c r="F81" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2734,16 +2914,16 @@
         <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E82">
         <v>14608</v>
       </c>
       <c r="F82" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2754,16 +2934,16 @@
         <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D83" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E83">
         <v>13421</v>
       </c>
       <c r="F83" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2774,16 +2954,16 @@
         <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E84">
         <v>12439</v>
       </c>
       <c r="F84" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2794,16 +2974,16 @@
         <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E85">
         <v>11373</v>
       </c>
       <c r="F85" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2814,16 +2994,16 @@
         <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E86">
         <v>10192</v>
       </c>
       <c r="F86" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2834,16 +3014,16 @@
         <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D87" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E87">
         <v>9297</v>
       </c>
       <c r="F87" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2854,16 +3034,16 @@
         <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D88" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="E88">
         <v>12164</v>
       </c>
       <c r="F88" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2874,16 +3054,16 @@
         <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D89" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="E89">
         <v>11236</v>
       </c>
       <c r="F89" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2894,16 +3074,16 @@
         <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="E90">
         <v>9800</v>
       </c>
       <c r="F90" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2914,16 +3094,16 @@
         <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D91" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="E91">
         <v>9324</v>
       </c>
       <c r="F91" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2934,16 +3114,16 @@
         <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D92" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="E92">
         <v>25330</v>
       </c>
       <c r="F92" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2954,16 +3134,16 @@
         <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D93" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="E93">
         <v>24712</v>
       </c>
       <c r="F93" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2974,16 +3154,16 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D94" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="E94">
         <v>16727</v>
       </c>
       <c r="F94" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2994,16 +3174,16 @@
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D95" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="E95">
         <v>13972</v>
       </c>
       <c r="F95" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3014,16 +3194,16 @@
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D96" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="E96">
         <v>13585</v>
       </c>
       <c r="F96" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3034,16 +3214,16 @@
         <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D97" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="E97">
         <v>16655</v>
       </c>
       <c r="F97" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3054,16 +3234,16 @@
         <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D98" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="E98">
         <v>14777</v>
       </c>
       <c r="F98" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3074,16 +3254,16 @@
         <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D99" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="E99">
         <v>12873</v>
       </c>
       <c r="F99" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3094,16 +3274,16 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E100">
         <v>19837</v>
       </c>
       <c r="F100" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3114,16 +3294,16 @@
         <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D101" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E101">
         <v>14311</v>
       </c>
       <c r="F101" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3134,16 +3314,16 @@
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D102" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E102">
         <v>12443</v>
       </c>
       <c r="F102" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3154,16 +3334,16 @@
         <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="E103">
         <v>6442</v>
       </c>
       <c r="F103" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3174,16 +3354,16 @@
         <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D104" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="E104">
         <v>6095</v>
       </c>
       <c r="F104" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3194,16 +3374,16 @@
         <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="E105">
         <v>5884</v>
       </c>
       <c r="F105" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3214,16 +3394,16 @@
         <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D106" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="E106">
         <v>5680</v>
       </c>
       <c r="F106" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3234,16 +3414,16 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D107" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="E107">
         <v>5955</v>
       </c>
       <c r="F107" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3254,16 +3434,16 @@
         <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D108" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="E108">
         <v>5298</v>
       </c>
       <c r="F108" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3274,16 +3454,16 @@
         <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D109" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="E109">
         <v>5168</v>
       </c>
       <c r="F109" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3294,16 +3474,16 @@
         <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D110" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="E110">
         <v>4546</v>
       </c>
       <c r="F110" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3314,16 +3494,16 @@
         <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D111" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="E111">
         <v>4415</v>
       </c>
       <c r="F111" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3334,16 +3514,16 @@
         <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="E112">
         <v>3607</v>
       </c>
       <c r="F112" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3354,16 +3534,16 @@
         <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D113" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="E113">
         <v>5607</v>
       </c>
       <c r="F113" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3374,16 +3554,16 @@
         <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D114" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="E114">
         <v>5281</v>
       </c>
       <c r="F114" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3394,16 +3574,16 @@
         <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D115" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="E115">
         <v>4945</v>
       </c>
       <c r="F115" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3414,16 +3594,16 @@
         <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D116" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="E116">
         <v>4532</v>
       </c>
       <c r="F116" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3434,16 +3614,16 @@
         <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D117" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="E117">
         <v>3838</v>
       </c>
       <c r="F117" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3454,16 +3634,16 @@
         <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D118" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="E118">
         <v>3291</v>
       </c>
       <c r="F118" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3474,16 +3654,16 @@
         <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D119" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="E119">
         <v>5858</v>
       </c>
       <c r="F119" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3494,16 +3674,16 @@
         <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D120" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="E120">
         <v>5699</v>
       </c>
       <c r="F120" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3514,16 +3694,16 @@
         <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D121" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="E121">
         <v>5481</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3534,16 +3714,16 @@
         <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D122" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="E122">
         <v>4160</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3554,16 +3734,16 @@
         <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D123" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="E123">
         <v>4058</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3574,16 +3754,16 @@
         <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D124" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="E124">
         <v>3746</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3594,16 +3774,16 @@
         <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D125" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E125">
         <v>3569</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3614,16 +3794,16 @@
         <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D126" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E126">
         <v>3442</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3634,16 +3814,16 @@
         <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D127" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E127">
         <v>3284</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3654,16 +3834,16 @@
         <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D128" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E128">
         <v>2840</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3674,16 +3854,16 @@
         <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E129">
         <v>2401</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3694,16 +3874,16 @@
         <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D130" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="E130">
         <v>5876</v>
       </c>
       <c r="F130" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3714,16 +3894,16 @@
         <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="E131">
         <v>5732</v>
       </c>
       <c r="F131" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3734,16 +3914,16 @@
         <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="E132">
         <v>4374</v>
       </c>
       <c r="F132" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3754,16 +3934,16 @@
         <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D133" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E133">
         <v>7989</v>
       </c>
       <c r="F133" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3774,16 +3954,16 @@
         <v>46</v>
       </c>
       <c r="C134" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D134" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E134">
         <v>7146</v>
       </c>
       <c r="F134" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3794,16 +3974,16 @@
         <v>46</v>
       </c>
       <c r="C135" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E135">
         <v>6889</v>
       </c>
       <c r="F135" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3814,16 +3994,16 @@
         <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D136" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E136">
         <v>6037</v>
       </c>
       <c r="F136" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3834,16 +4014,16 @@
         <v>46</v>
       </c>
       <c r="C137" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D137" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E137">
         <v>4876</v>
       </c>
       <c r="F137" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3854,16 +4034,16 @@
         <v>46</v>
       </c>
       <c r="C138" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D138" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E138">
         <v>4281</v>
       </c>
       <c r="F138" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3874,16 +4054,16 @@
         <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D139" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="E139">
         <v>6241</v>
       </c>
       <c r="F139" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3894,16 +4074,16 @@
         <v>47</v>
       </c>
       <c r="C140" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D140" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="E140">
         <v>6088</v>
       </c>
       <c r="F140" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3914,16 +4094,16 @@
         <v>47</v>
       </c>
       <c r="C141" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D141" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="E141">
         <v>5939</v>
       </c>
       <c r="F141" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3934,16 +4114,16 @@
         <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D142" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E142">
         <v>5967</v>
       </c>
       <c r="F142" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3954,16 +4134,16 @@
         <v>48</v>
       </c>
       <c r="C143" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D143" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E143">
         <v>5821</v>
       </c>
       <c r="F143" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3974,16 +4154,16 @@
         <v>48</v>
       </c>
       <c r="C144" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D144" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E144">
         <v>5569</v>
       </c>
       <c r="F144" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3994,16 +4174,16 @@
         <v>48</v>
       </c>
       <c r="C145" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D145" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E145">
         <v>4635</v>
       </c>
       <c r="F145" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4014,16 +4194,16 @@
         <v>48</v>
       </c>
       <c r="C146" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D146" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E146">
         <v>4206</v>
       </c>
       <c r="F146" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4034,16 +4214,16 @@
         <v>48</v>
       </c>
       <c r="C147" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D147" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E147">
         <v>4005</v>
       </c>
       <c r="F147" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4054,16 +4234,16 @@
         <v>49</v>
       </c>
       <c r="C148" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D148" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="E148">
         <v>3600000</v>
       </c>
       <c r="F148" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4074,16 +4254,16 @@
         <v>49</v>
       </c>
       <c r="C149" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="E149">
         <v>3228897</v>
       </c>
       <c r="F149" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4094,16 +4274,16 @@
         <v>49</v>
       </c>
       <c r="C150" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="E150">
         <v>3070680</v>
       </c>
       <c r="F150" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4114,16 +4294,16 @@
         <v>50</v>
       </c>
       <c r="C151" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D151" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="E151">
         <v>3900000</v>
       </c>
       <c r="F151" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4134,16 +4314,16 @@
         <v>50</v>
       </c>
       <c r="C152" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D152" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="E152">
         <v>3625334</v>
       </c>
       <c r="F152" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4154,16 +4334,16 @@
         <v>51</v>
       </c>
       <c r="C153" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D153" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="E153">
         <v>1214247</v>
       </c>
       <c r="F153" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4174,16 +4354,16 @@
         <v>51</v>
       </c>
       <c r="C154" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D154" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="E154">
         <v>946995</v>
       </c>
       <c r="F154" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4194,16 +4374,16 @@
         <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D155" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E155">
         <v>617791</v>
       </c>
       <c r="F155" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4214,16 +4394,16 @@
         <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D156" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="E156">
         <v>4493874</v>
       </c>
       <c r="F156" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4234,16 +4414,16 @@
         <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D157" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="E157">
         <v>4142252</v>
       </c>
       <c r="F157" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4254,16 +4434,16 @@
         <v>54</v>
       </c>
       <c r="C158" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D158" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="E158">
         <v>2346605</v>
       </c>
       <c r="F158" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4274,16 +4454,16 @@
         <v>54</v>
       </c>
       <c r="C159" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D159" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="E159">
         <v>2055673</v>
       </c>
       <c r="F159" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4294,16 +4474,16 @@
         <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D160" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="E160">
         <v>3800000</v>
       </c>
       <c r="F160" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4314,16 +4494,16 @@
         <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D161" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="E161">
         <v>3226068</v>
       </c>
       <c r="F161" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4334,16 +4514,16 @@
         <v>55</v>
       </c>
       <c r="C162" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="D162" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="E162">
         <v>2729902</v>
       </c>
       <c r="F162" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4354,16 +4534,16 @@
         <v>55</v>
       </c>
       <c r="C163" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D163" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="E163">
         <v>2502679</v>
       </c>
       <c r="F163" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4374,16 +4554,16 @@
         <v>56</v>
       </c>
       <c r="C164" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D164" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="E164">
         <v>694217</v>
       </c>
       <c r="F164" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4394,16 +4574,16 @@
         <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D165" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="E165">
         <v>607011</v>
       </c>
       <c r="F165" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4414,16 +4594,16 @@
         <v>57</v>
       </c>
       <c r="C166" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D166" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="E166">
         <v>1296696</v>
       </c>
       <c r="F166" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4434,16 +4614,16 @@
         <v>57</v>
       </c>
       <c r="C167" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D167" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="E167">
         <v>1032188</v>
       </c>
       <c r="F167" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4454,16 +4634,16 @@
         <v>58</v>
       </c>
       <c r="C168" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D168" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E168">
         <v>1784133</v>
       </c>
       <c r="F168" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4474,16 +4654,16 @@
         <v>58</v>
       </c>
       <c r="C169" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D169" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E169">
         <v>1616174</v>
       </c>
       <c r="F169" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4494,16 +4674,16 @@
         <v>59</v>
       </c>
       <c r="C170" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D170" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="E170">
         <v>476063</v>
       </c>
       <c r="F170" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4514,16 +4694,16 @@
         <v>60</v>
       </c>
       <c r="C171" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D171" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="E171">
         <v>638283</v>
       </c>
       <c r="F171" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4534,16 +4714,16 @@
         <v>60</v>
       </c>
       <c r="C172" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D172" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="E172">
         <v>591028</v>
       </c>
       <c r="F172" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4554,16 +4734,16 @@
         <v>60</v>
       </c>
       <c r="C173" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D173" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="E173">
         <v>528207</v>
       </c>
       <c r="F173" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4574,16 +4754,16 @@
         <v>60</v>
       </c>
       <c r="C174" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D174" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="E174">
         <v>515323</v>
       </c>
       <c r="F174" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4594,16 +4774,16 @@
         <v>61</v>
       </c>
       <c r="C175" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D175" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="E175">
         <v>2800750</v>
       </c>
       <c r="F175" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4614,16 +4794,16 @@
         <v>61</v>
       </c>
       <c r="C176" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D176" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="E176">
         <v>2200329</v>
       </c>
       <c r="F176" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4634,16 +4814,16 @@
         <v>61</v>
       </c>
       <c r="C177" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D177" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="E177">
         <v>1739268</v>
       </c>
       <c r="F177" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4654,16 +4834,16 @@
         <v>61</v>
       </c>
       <c r="C178" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D178" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="E178">
         <v>1647750</v>
       </c>
       <c r="F178" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4674,16 +4854,16 @@
         <v>62</v>
       </c>
       <c r="C179" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D179" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="E179">
         <v>1770690</v>
       </c>
       <c r="F179" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4694,16 +4874,16 @@
         <v>62</v>
       </c>
       <c r="C180" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D180" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="E180">
         <v>1706250</v>
       </c>
       <c r="F180" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4714,16 +4894,16 @@
         <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D181" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="E181">
         <v>588516</v>
       </c>
       <c r="F181" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4734,16 +4914,16 @@
         <v>63</v>
       </c>
       <c r="C182" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D182" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="E182">
         <v>521625</v>
       </c>
       <c r="F182" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4754,16 +4934,16 @@
         <v>64</v>
       </c>
       <c r="C183" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D183" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="E183">
         <v>1842750</v>
       </c>
       <c r="F183" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4774,16 +4954,16 @@
         <v>65</v>
       </c>
       <c r="C184" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D184" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="E184">
         <v>1145906</v>
       </c>
       <c r="F184" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4794,16 +4974,16 @@
         <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D185" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="E185">
         <v>993822</v>
       </c>
       <c r="F185" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4814,16 +4994,16 @@
         <v>66</v>
       </c>
       <c r="C186" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D186" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="E186">
         <v>531136</v>
       </c>
       <c r="F186" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4834,16 +5014,16 @@
         <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D187" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="E187">
         <v>654552</v>
       </c>
       <c r="F187" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4854,16 +5034,16 @@
         <v>68</v>
       </c>
       <c r="C188" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D188" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="E188">
         <v>12940</v>
       </c>
       <c r="F188" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4874,16 +5054,16 @@
         <v>68</v>
       </c>
       <c r="C189" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D189" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="E189">
         <v>12146</v>
       </c>
       <c r="F189" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4894,16 +5074,16 @@
         <v>68</v>
       </c>
       <c r="C190" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D190" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="E190">
         <v>10344</v>
       </c>
       <c r="F190" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4914,16 +5094,16 @@
         <v>69</v>
       </c>
       <c r="C191" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D191" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="E191">
         <v>13652</v>
       </c>
       <c r="F191" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4934,16 +5114,16 @@
         <v>69</v>
       </c>
       <c r="C192" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D192" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="E192">
         <v>12238</v>
       </c>
       <c r="F192" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4954,16 +5134,16 @@
         <v>70</v>
       </c>
       <c r="C193" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D193" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="E193">
         <v>23715</v>
       </c>
       <c r="F193" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4974,16 +5154,16 @@
         <v>70</v>
       </c>
       <c r="C194" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D194" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="E194">
         <v>21449</v>
       </c>
       <c r="F194" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4994,16 +5174,16 @@
         <v>71</v>
       </c>
       <c r="C195" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D195" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="E195">
         <v>14965</v>
       </c>
       <c r="F195" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5014,16 +5194,16 @@
         <v>71</v>
       </c>
       <c r="C196" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D196" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="E196">
         <v>12435</v>
       </c>
       <c r="F196" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5034,16 +5214,16 @@
         <v>72</v>
       </c>
       <c r="C197" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D197" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="E197">
         <v>15117</v>
       </c>
       <c r="F197" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5054,16 +5234,16 @@
         <v>72</v>
       </c>
       <c r="C198" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D198" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="E198">
         <v>12483</v>
       </c>
       <c r="F198" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5074,16 +5254,16 @@
         <v>73</v>
       </c>
       <c r="C199" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D199" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="E199">
         <v>23449</v>
       </c>
       <c r="F199" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5094,16 +5274,16 @@
         <v>73</v>
       </c>
       <c r="C200" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D200" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="E200">
         <v>19050</v>
       </c>
       <c r="F200" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5114,16 +5294,16 @@
         <v>74</v>
       </c>
       <c r="C201" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D201" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="E201">
         <v>30297</v>
       </c>
       <c r="F201" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5134,16 +5314,16 @@
         <v>74</v>
       </c>
       <c r="C202" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D202" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="E202">
         <v>29558</v>
       </c>
       <c r="F202" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5154,16 +5334,16 @@
         <v>74</v>
       </c>
       <c r="C203" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D203" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="E203">
         <v>22679</v>
       </c>
       <c r="F203" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5174,16 +5354,16 @@
         <v>75</v>
       </c>
       <c r="C204" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D204" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="E204">
         <v>69220</v>
       </c>
       <c r="F204" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5194,16 +5374,16 @@
         <v>75</v>
       </c>
       <c r="C205" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D205" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="E205">
         <v>67531</v>
       </c>
       <c r="F205" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5214,16 +5394,16 @@
         <v>75</v>
       </c>
       <c r="C206" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D206" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="E206">
         <v>65883</v>
       </c>
       <c r="F206" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5234,16 +5414,16 @@
         <v>75</v>
       </c>
       <c r="C207" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D207" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="E207">
         <v>64276</v>
       </c>
       <c r="F207" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5254,16 +5434,16 @@
         <v>75</v>
       </c>
       <c r="C208" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D208" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="E208">
         <v>62708</v>
       </c>
       <c r="F208" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5274,16 +5454,16 @@
         <v>75</v>
       </c>
       <c r="C209" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D209" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="E209">
         <v>56940</v>
       </c>
       <c r="F209" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5294,16 +5474,16 @@
         <v>76</v>
       </c>
       <c r="C210" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D210" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="E210">
         <v>23516</v>
       </c>
       <c r="F210" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5314,16 +5494,16 @@
         <v>76</v>
       </c>
       <c r="C211" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D211" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="E211">
         <v>19107</v>
       </c>
       <c r="F211" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5334,16 +5514,16 @@
         <v>77</v>
       </c>
       <c r="C212" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D212" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="E212">
         <v>69227</v>
       </c>
       <c r="F212" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5354,16 +5534,16 @@
         <v>77</v>
       </c>
       <c r="C213" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="D213" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="E213">
         <v>67538</v>
       </c>
       <c r="F213" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5374,16 +5554,16 @@
         <v>77</v>
       </c>
       <c r="C214" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D214" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="E214">
         <v>58794</v>
       </c>
       <c r="F214" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5394,16 +5574,16 @@
         <v>77</v>
       </c>
       <c r="C215" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D215" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="E215">
         <v>57172</v>
       </c>
       <c r="F215" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5414,16 +5594,16 @@
         <v>78</v>
       </c>
       <c r="C216" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="D216" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="E216">
         <v>121907</v>
       </c>
       <c r="F216" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5434,16 +5614,16 @@
         <v>79</v>
       </c>
       <c r="C217" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D217" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="E217">
         <v>73953</v>
       </c>
       <c r="F217" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5454,16 +5634,16 @@
         <v>79</v>
       </c>
       <c r="C218" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="D218" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="E218">
         <v>67755</v>
       </c>
       <c r="F218" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5474,16 +5654,16 @@
         <v>79</v>
       </c>
       <c r="C219" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D219" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="E219">
         <v>59243</v>
       </c>
       <c r="F219" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5494,16 +5674,16 @@
         <v>80</v>
       </c>
       <c r="C220" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D220" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="E220">
         <v>82917</v>
       </c>
       <c r="F220" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5514,16 +5694,16 @@
         <v>80</v>
       </c>
       <c r="C221" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D221" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="E221">
         <v>80534</v>
       </c>
       <c r="F221" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5534,16 +5714,16 @@
         <v>81</v>
       </c>
       <c r="C222" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D222" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="E222">
         <v>78233</v>
       </c>
       <c r="F222" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5554,16 +5734,16 @@
         <v>81</v>
       </c>
       <c r="C223" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D223" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="E223">
         <v>68479</v>
       </c>
       <c r="F223" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5574,16 +5754,16 @@
         <v>81</v>
       </c>
       <c r="C224" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="D224" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="E224">
         <v>66808</v>
       </c>
       <c r="F224" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5594,16 +5774,16 @@
         <v>82</v>
       </c>
       <c r="C225" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D225" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E225">
         <v>102322</v>
       </c>
       <c r="F225" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5614,16 +5794,16 @@
         <v>82</v>
       </c>
       <c r="C226" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D226" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E226">
         <v>78592</v>
       </c>
       <c r="F226" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5634,16 +5814,16 @@
         <v>82</v>
       </c>
       <c r="C227" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D227" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E227">
         <v>76675</v>
       </c>
       <c r="F227" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5654,16 +5834,16 @@
         <v>82</v>
       </c>
       <c r="C228" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D228" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E228">
         <v>72791</v>
       </c>
       <c r="F228" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5674,16 +5854,16 @@
         <v>82</v>
       </c>
       <c r="C229" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D229" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E229">
         <v>68205</v>
       </c>
       <c r="F229" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5694,16 +5874,16 @@
         <v>82</v>
       </c>
       <c r="C230" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="D230" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E230">
         <v>66541</v>
       </c>
       <c r="F230" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5714,16 +5894,16 @@
         <v>83</v>
       </c>
       <c r="C231" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D231" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E231">
         <v>122630</v>
       </c>
       <c r="F231" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5734,16 +5914,16 @@
         <v>83</v>
       </c>
       <c r="C232" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D232" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E232">
         <v>116902</v>
       </c>
       <c r="F232" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5754,16 +5934,16 @@
         <v>83</v>
       </c>
       <c r="C233" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D233" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E233">
         <v>107141</v>
       </c>
       <c r="F233" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5774,16 +5954,16 @@
         <v>84</v>
       </c>
       <c r="C234" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D234" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="E234">
         <v>19755</v>
       </c>
       <c r="F234" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5794,16 +5974,16 @@
         <v>84</v>
       </c>
       <c r="C235" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D235" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="E235">
         <v>18974</v>
       </c>
       <c r="F235" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5814,16 +5994,16 @@
         <v>84</v>
       </c>
       <c r="C236" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D236" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="E236">
         <v>18511</v>
       </c>
       <c r="F236" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5834,16 +6014,16 @@
         <v>84</v>
       </c>
       <c r="C237" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D237" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="E237">
         <v>16245</v>
       </c>
       <c r="F237" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5854,16 +6034,16 @@
         <v>84</v>
       </c>
       <c r="C238" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D238" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="E238">
         <v>15235</v>
       </c>
       <c r="F238" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5874,16 +6054,16 @@
         <v>85</v>
       </c>
       <c r="C239" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D239" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="E239">
         <v>21354</v>
       </c>
       <c r="F239" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5894,16 +6074,16 @@
         <v>85</v>
       </c>
       <c r="C240" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D240" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="E240">
         <v>20443</v>
       </c>
       <c r="F240" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5914,16 +6094,16 @@
         <v>85</v>
       </c>
       <c r="C241" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D241" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="E241">
         <v>19315</v>
       </c>
       <c r="F241" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5934,16 +6114,16 @@
         <v>85</v>
       </c>
       <c r="C242" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D242" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="E242">
         <v>16389</v>
       </c>
       <c r="F242" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5954,16 +6134,16 @@
         <v>85</v>
       </c>
       <c r="C243" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D243" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="E243">
         <v>15482</v>
       </c>
       <c r="F243" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5974,16 +6154,16 @@
         <v>86</v>
       </c>
       <c r="C244" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D244" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="E244">
         <v>28210</v>
       </c>
       <c r="F244" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5994,16 +6174,16 @@
         <v>86</v>
       </c>
       <c r="C245" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D245" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="E245">
         <v>26539</v>
       </c>
       <c r="F245" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6014,16 +6194,16 @@
         <v>86</v>
       </c>
       <c r="C246" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D246" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="E246">
         <v>23062</v>
       </c>
       <c r="F246" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6034,16 +6214,16 @@
         <v>86</v>
       </c>
       <c r="C247" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D247" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="E247">
         <v>22499</v>
       </c>
       <c r="F247" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6054,16 +6234,16 @@
         <v>86</v>
       </c>
       <c r="C248" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D248" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="E248">
         <v>20267</v>
       </c>
       <c r="F248" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6074,16 +6254,16 @@
         <v>86</v>
       </c>
       <c r="C249" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D249" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="E249">
         <v>19467</v>
       </c>
       <c r="F249" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6094,16 +6274,16 @@
         <v>86</v>
       </c>
       <c r="C250" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D250" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="E250">
         <v>17989</v>
       </c>
       <c r="F250" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6114,16 +6294,16 @@
         <v>86</v>
       </c>
       <c r="C251" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D251" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="E251">
         <v>16792</v>
       </c>
       <c r="F251" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6134,16 +6314,16 @@
         <v>87</v>
       </c>
       <c r="C252" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D252" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="E252">
         <v>27532</v>
       </c>
       <c r="F252" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6154,16 +6334,16 @@
         <v>87</v>
       </c>
       <c r="C253" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D253" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="E253">
         <v>26860</v>
       </c>
       <c r="F253" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6174,16 +6354,16 @@
         <v>87</v>
       </c>
       <c r="C254" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D254" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="E254">
         <v>25756</v>
       </c>
       <c r="F254" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6194,16 +6374,16 @@
         <v>87</v>
       </c>
       <c r="C255" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D255" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="E255">
         <v>19966</v>
       </c>
       <c r="F255" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6214,16 +6394,16 @@
         <v>87</v>
       </c>
       <c r="C256" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D256" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="E256">
         <v>17486</v>
       </c>
       <c r="F256" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6234,16 +6414,16 @@
         <v>88</v>
       </c>
       <c r="C257" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D257" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="E257">
         <v>34924</v>
       </c>
       <c r="F257" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6254,16 +6434,16 @@
         <v>89</v>
       </c>
       <c r="C258" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D258" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="E258">
         <v>23670</v>
       </c>
       <c r="F258" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6274,16 +6454,16 @@
         <v>89</v>
       </c>
       <c r="C259" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D259" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="E259">
         <v>21307</v>
       </c>
       <c r="F259" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6294,16 +6474,16 @@
         <v>89</v>
       </c>
       <c r="C260" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D260" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="E260">
         <v>20787</v>
       </c>
       <c r="F260" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6314,16 +6494,16 @@
         <v>89</v>
       </c>
       <c r="C261" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D261" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="E261">
         <v>19054</v>
       </c>
       <c r="F261" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6334,16 +6514,16 @@
         <v>89</v>
       </c>
       <c r="C262" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D262" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="E262">
         <v>18588</v>
       </c>
       <c r="F262" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6354,16 +6534,16 @@
         <v>89</v>
       </c>
       <c r="C263" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D263" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="E263">
         <v>17671</v>
       </c>
       <c r="F263" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6374,16 +6554,16 @@
         <v>89</v>
       </c>
       <c r="C264" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D264" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="E264">
         <v>17210</v>
       </c>
       <c r="F264" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6394,16 +6574,16 @@
         <v>89</v>
       </c>
       <c r="C265" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D265" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="E265">
         <v>16522</v>
       </c>
       <c r="F265" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6414,16 +6594,16 @@
         <v>90</v>
       </c>
       <c r="C266" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D266" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="E266">
         <v>24304</v>
       </c>
       <c r="F266" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6434,16 +6614,16 @@
         <v>90</v>
       </c>
       <c r="C267" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D267" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="E267">
         <v>22150</v>
       </c>
       <c r="F267" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6454,16 +6634,16 @@
         <v>90</v>
       </c>
       <c r="C268" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D268" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="E268">
         <v>20880</v>
       </c>
       <c r="F268" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6474,16 +6654,16 @@
         <v>90</v>
       </c>
       <c r="C269" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D269" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="E269">
         <v>19384</v>
       </c>
       <c r="F269" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6494,16 +6674,16 @@
         <v>90</v>
       </c>
       <c r="C270" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D270" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="E270">
         <v>18590</v>
       </c>
       <c r="F270" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6514,16 +6694,16 @@
         <v>90</v>
       </c>
       <c r="C271" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D271" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="E271">
         <v>18054</v>
       </c>
       <c r="F271" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6534,16 +6714,16 @@
         <v>90</v>
       </c>
       <c r="C272" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D272" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="E272">
         <v>17269</v>
       </c>
       <c r="F272" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6554,16 +6734,16 @@
         <v>90</v>
       </c>
       <c r="C273" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D273" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="E273">
         <v>16685</v>
       </c>
       <c r="F273" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6574,16 +6754,16 @@
         <v>91</v>
       </c>
       <c r="C274" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D274" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E274">
         <v>29127</v>
       </c>
       <c r="F274" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6594,16 +6774,16 @@
         <v>91</v>
       </c>
       <c r="C275" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D275" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E275">
         <v>28389</v>
       </c>
       <c r="F275" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6614,16 +6794,16 @@
         <v>91</v>
       </c>
       <c r="C276" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D276" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E276">
         <v>27696</v>
       </c>
       <c r="F276" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6634,16 +6814,16 @@
         <v>91</v>
       </c>
       <c r="C277" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D277" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E277">
         <v>25740</v>
       </c>
       <c r="F277" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6654,16 +6834,16 @@
         <v>91</v>
       </c>
       <c r="C278" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D278" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E278">
         <v>22881</v>
       </c>
       <c r="F278" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6674,16 +6854,16 @@
         <v>91</v>
       </c>
       <c r="C279" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D279" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E279">
         <v>21584</v>
       </c>
       <c r="F279" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6694,16 +6874,16 @@
         <v>91</v>
       </c>
       <c r="C280" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D280" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E280">
         <v>19616</v>
       </c>
       <c r="F280" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6714,16 +6894,16 @@
         <v>91</v>
       </c>
       <c r="C281" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D281" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E281">
         <v>19137</v>
       </c>
       <c r="F281" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6734,16 +6914,16 @@
         <v>91</v>
       </c>
       <c r="C282" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D282" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E282">
         <v>17310</v>
       </c>
       <c r="F282" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6754,16 +6934,16 @@
         <v>91</v>
       </c>
       <c r="C283" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D283" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="E283">
         <v>16711</v>
       </c>
       <c r="F283" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6774,16 +6954,16 @@
         <v>92</v>
       </c>
       <c r="C284" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D284" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E284">
         <v>26439</v>
       </c>
       <c r="F284" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6794,16 +6974,16 @@
         <v>92</v>
       </c>
       <c r="C285" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D285" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E285">
         <v>25794</v>
       </c>
       <c r="F285" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6814,16 +6994,16 @@
         <v>92</v>
       </c>
       <c r="C286" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D286" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E286">
         <v>23944</v>
       </c>
       <c r="F286" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6834,16 +7014,16 @@
         <v>92</v>
       </c>
       <c r="C287" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D287" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E287">
         <v>22551</v>
       </c>
       <c r="F287" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6854,16 +7034,16 @@
         <v>92</v>
       </c>
       <c r="C288" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D288" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E288">
         <v>21669</v>
       </c>
       <c r="F288" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6874,16 +7054,16 @@
         <v>92</v>
       </c>
       <c r="C289" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D289" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E289">
         <v>20926</v>
       </c>
       <c r="F289" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6894,16 +7074,16 @@
         <v>92</v>
       </c>
       <c r="C290" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D290" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E290">
         <v>18963</v>
       </c>
       <c r="F290" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6914,16 +7094,16 @@
         <v>92</v>
       </c>
       <c r="C291" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D291" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E291">
         <v>18051</v>
       </c>
       <c r="F291" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6934,16 +7114,16 @@
         <v>92</v>
       </c>
       <c r="C292" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D292" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E292">
         <v>17265</v>
       </c>
       <c r="F292" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6954,16 +7134,16 @@
         <v>92</v>
       </c>
       <c r="C293" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D293" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="E293">
         <v>16694</v>
       </c>
       <c r="F293" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6974,16 +7154,16 @@
         <v>93</v>
       </c>
       <c r="C294" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D294" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E294">
         <v>26714</v>
       </c>
       <c r="F294" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6994,16 +7174,16 @@
         <v>93</v>
       </c>
       <c r="C295" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D295" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E295">
         <v>21512</v>
       </c>
       <c r="F295" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7014,16 +7194,16 @@
         <v>94</v>
       </c>
       <c r="C296" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D296" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="E296">
         <v>23754</v>
       </c>
       <c r="F296" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7034,16 +7214,16 @@
         <v>94</v>
       </c>
       <c r="C297" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D297" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="E297">
         <v>22346</v>
       </c>
       <c r="F297" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7054,16 +7234,16 @@
         <v>94</v>
       </c>
       <c r="C298" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D298" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="E298">
         <v>20556</v>
       </c>
       <c r="F298" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7074,16 +7254,16 @@
         <v>94</v>
       </c>
       <c r="C299" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D299" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="E299">
         <v>17333</v>
       </c>
       <c r="F299" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7094,16 +7274,16 @@
         <v>94</v>
       </c>
       <c r="C300" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D300" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="E300">
         <v>16910</v>
       </c>
       <c r="F300" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7114,16 +7294,16 @@
         <v>95</v>
       </c>
       <c r="C301" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D301" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E301">
         <v>39909</v>
       </c>
       <c r="F301" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7134,16 +7314,16 @@
         <v>95</v>
       </c>
       <c r="C302" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D302" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E302">
         <v>34183</v>
       </c>
       <c r="F302" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7154,16 +7334,16 @@
         <v>95</v>
       </c>
       <c r="C303" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D303" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E303">
         <v>27982</v>
       </c>
       <c r="F303" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7174,16 +7354,16 @@
         <v>95</v>
       </c>
       <c r="C304" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D304" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E304">
         <v>27299</v>
       </c>
       <c r="F304" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7194,16 +7374,16 @@
         <v>95</v>
       </c>
       <c r="C305" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D305" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="E305">
         <v>23657</v>
       </c>
       <c r="F305" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7214,16 +7394,16 @@
         <v>96</v>
       </c>
       <c r="C306" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D306" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E306">
         <v>38682</v>
       </c>
       <c r="F306" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7234,16 +7414,16 @@
         <v>96</v>
       </c>
       <c r="C307" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D307" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E307">
         <v>32012</v>
       </c>
       <c r="F307" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7254,16 +7434,16 @@
         <v>96</v>
       </c>
       <c r="C308" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D308" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E308">
         <v>27977</v>
       </c>
       <c r="F308" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7274,16 +7454,16 @@
         <v>96</v>
       </c>
       <c r="C309" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D309" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E309">
         <v>27294</v>
       </c>
       <c r="F309" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7294,16 +7474,16 @@
         <v>96</v>
       </c>
       <c r="C310" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D310" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E310">
         <v>23549</v>
       </c>
       <c r="F310" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7314,16 +7494,16 @@
         <v>96</v>
       </c>
       <c r="C311" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D311" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E311">
         <v>22454</v>
       </c>
       <c r="F311" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7334,16 +7514,16 @@
         <v>96</v>
       </c>
       <c r="C312" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D312" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E312">
         <v>19295</v>
       </c>
       <c r="F312" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7354,16 +7534,16 @@
         <v>97</v>
       </c>
       <c r="C313" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D313" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="E313">
         <v>30107</v>
       </c>
       <c r="F313" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7374,16 +7554,16 @@
         <v>97</v>
       </c>
       <c r="C314" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D314" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="E314">
         <v>27473</v>
       </c>
       <c r="F314" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7394,16 +7574,16 @@
         <v>97</v>
       </c>
       <c r="C315" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D315" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="E315">
         <v>22167</v>
       </c>
       <c r="F315" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7414,16 +7594,16 @@
         <v>97</v>
       </c>
       <c r="C316" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D316" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="E316">
         <v>19944</v>
       </c>
       <c r="F316" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7434,16 +7614,16 @@
         <v>97</v>
       </c>
       <c r="C317" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D317" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="E317">
         <v>18257</v>
       </c>
       <c r="F317" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7454,16 +7634,16 @@
         <v>97</v>
       </c>
       <c r="C318" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D318" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="E318">
         <v>16413</v>
       </c>
       <c r="F318" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7474,16 +7654,16 @@
         <v>97</v>
       </c>
       <c r="C319" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D319" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="E319">
         <v>15637</v>
       </c>
       <c r="F319" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7494,16 +7674,16 @@
         <v>98</v>
       </c>
       <c r="C320" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D320" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="E320">
         <v>27168</v>
       </c>
       <c r="F320" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7514,16 +7694,16 @@
         <v>98</v>
       </c>
       <c r="C321" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D321" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="E321">
         <v>26505</v>
       </c>
       <c r="F321" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7534,16 +7714,16 @@
         <v>98</v>
       </c>
       <c r="C322" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D322" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="E322">
         <v>24325</v>
       </c>
       <c r="F322" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7554,16 +7734,16 @@
         <v>98</v>
       </c>
       <c r="C323" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D323" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="E323">
         <v>22128</v>
       </c>
       <c r="F323" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7574,16 +7754,16 @@
         <v>98</v>
       </c>
       <c r="C324" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D324" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="E324">
         <v>18749</v>
       </c>
       <c r="F324" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7594,16 +7774,16 @@
         <v>98</v>
       </c>
       <c r="C325" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D325" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="E325">
         <v>17239</v>
       </c>
       <c r="F325" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7614,16 +7794,16 @@
         <v>98</v>
       </c>
       <c r="C326" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D326" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="E326">
         <v>16309</v>
       </c>
       <c r="F326" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7634,16 +7814,16 @@
         <v>98</v>
       </c>
       <c r="C327" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D327" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="E327">
         <v>14012</v>
       </c>
       <c r="F327" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7654,16 +7834,16 @@
         <v>99</v>
       </c>
       <c r="C328" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D328" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E328">
         <v>34577</v>
       </c>
       <c r="F328" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7674,16 +7854,16 @@
         <v>99</v>
       </c>
       <c r="C329" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D329" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E329">
         <v>32736</v>
       </c>
       <c r="F329" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7694,16 +7874,16 @@
         <v>99</v>
       </c>
       <c r="C330" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D330" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E330">
         <v>29971</v>
       </c>
       <c r="F330" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7714,16 +7894,16 @@
         <v>99</v>
       </c>
       <c r="C331" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D331" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E331">
         <v>29240</v>
       </c>
       <c r="F331" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7734,16 +7914,16 @@
         <v>99</v>
       </c>
       <c r="C332" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D332" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E332">
         <v>27300</v>
       </c>
       <c r="F332" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7754,16 +7934,16 @@
         <v>99</v>
       </c>
       <c r="C333" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D333" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E333">
         <v>22301</v>
       </c>
       <c r="F333" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7774,16 +7954,16 @@
         <v>99</v>
       </c>
       <c r="C334" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D334" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E334">
         <v>20067</v>
       </c>
       <c r="F334" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7794,16 +7974,16 @@
         <v>99</v>
       </c>
       <c r="C335" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D335" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E335">
         <v>18328</v>
       </c>
       <c r="F335" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7814,16 +7994,16 @@
         <v>99</v>
       </c>
       <c r="C336" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D336" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="E336">
         <v>17319</v>
       </c>
       <c r="F336" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7834,16 +8014,16 @@
         <v>100</v>
       </c>
       <c r="C337" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D337" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E337">
         <v>33868</v>
       </c>
       <c r="F337" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7854,16 +8034,16 @@
         <v>100</v>
       </c>
       <c r="C338" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D338" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E338">
         <v>32139</v>
       </c>
       <c r="F338" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7874,16 +8054,16 @@
         <v>100</v>
       </c>
       <c r="C339" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D339" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E339">
         <v>28339</v>
       </c>
       <c r="F339" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7894,16 +8074,16 @@
         <v>100</v>
       </c>
       <c r="C340" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="D340" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E340">
         <v>26069</v>
       </c>
       <c r="F340" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7914,16 +8094,16 @@
         <v>100</v>
       </c>
       <c r="C341" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D341" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E341">
         <v>22746</v>
       </c>
       <c r="F341" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7934,16 +8114,16 @@
         <v>100</v>
       </c>
       <c r="C342" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D342" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E342">
         <v>22073</v>
       </c>
       <c r="F342" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7954,16 +8134,16 @@
         <v>100</v>
       </c>
       <c r="C343" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D343" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E343">
         <v>19772</v>
       </c>
       <c r="F343" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7974,16 +8154,16 @@
         <v>100</v>
       </c>
       <c r="C344" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D344" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="E344">
         <v>17952</v>
       </c>
       <c r="F344" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7994,16 +8174,16 @@
         <v>101</v>
       </c>
       <c r="C345" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D345" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="E345">
         <v>135587</v>
       </c>
       <c r="F345" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -8014,16 +8194,16 @@
         <v>101</v>
       </c>
       <c r="C346" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D346" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="E346">
         <v>132280</v>
       </c>
       <c r="F346" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8034,16 +8214,16 @@
         <v>102</v>
       </c>
       <c r="C347" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D347" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="E347">
         <v>211512</v>
       </c>
       <c r="F347" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8054,16 +8234,16 @@
         <v>102</v>
       </c>
       <c r="C348" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D348" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="E348">
         <v>206353</v>
       </c>
       <c r="F348" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8074,16 +8254,16 @@
         <v>103</v>
       </c>
       <c r="C349" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D349" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="E349">
         <v>141967</v>
       </c>
       <c r="F349" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8094,16 +8274,16 @@
         <v>104</v>
       </c>
       <c r="C350" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D350" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="E350">
         <v>143722</v>
       </c>
       <c r="F350" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8114,16 +8294,2116 @@
         <v>104</v>
       </c>
       <c r="C351" t="s">
+        <v>170</v>
+      </c>
+      <c r="D351" t="s">
+        <v>272</v>
+      </c>
+      <c r="E351">
+        <v>119187</v>
+      </c>
+      <c r="F351" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" t="s">
+        <v>10</v>
+      </c>
+      <c r="B352" t="s">
+        <v>104</v>
+      </c>
+      <c r="C352" t="s">
+        <v>161</v>
+      </c>
+      <c r="D352" t="s">
+        <v>272</v>
+      </c>
+      <c r="E352">
+        <v>111138</v>
+      </c>
+      <c r="F352" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" t="s">
+        <v>10</v>
+      </c>
+      <c r="B353" t="s">
+        <v>105</v>
+      </c>
+      <c r="C353" t="s">
+        <v>175</v>
+      </c>
+      <c r="D353" t="s">
+        <v>273</v>
+      </c>
+      <c r="E353">
+        <v>145168</v>
+      </c>
+      <c r="F353" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" t="s">
+        <v>10</v>
+      </c>
+      <c r="B354" t="s">
+        <v>105</v>
+      </c>
+      <c r="C354" t="s">
+        <v>176</v>
+      </c>
+      <c r="D354" t="s">
+        <v>273</v>
+      </c>
+      <c r="E354">
+        <v>121339</v>
+      </c>
+      <c r="F354" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" t="s">
+        <v>10</v>
+      </c>
+      <c r="B355" t="s">
+        <v>106</v>
+      </c>
+      <c r="C355" t="s">
+        <v>174</v>
+      </c>
+      <c r="D355" t="s">
+        <v>274</v>
+      </c>
+      <c r="E355">
+        <v>128598</v>
+      </c>
+      <c r="F355" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" t="s">
+        <v>10</v>
+      </c>
+      <c r="B356" t="s">
+        <v>107</v>
+      </c>
+      <c r="C356" t="s">
+        <v>161</v>
+      </c>
+      <c r="D356" t="s">
+        <v>275</v>
+      </c>
+      <c r="E356">
+        <v>89559</v>
+      </c>
+      <c r="F356" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" t="s">
+        <v>10</v>
+      </c>
+      <c r="B357" t="s">
+        <v>107</v>
+      </c>
+      <c r="C357" t="s">
+        <v>168</v>
+      </c>
+      <c r="D357" t="s">
+        <v>275</v>
+      </c>
+      <c r="E357">
+        <v>86923</v>
+      </c>
+      <c r="F357" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" t="s">
+        <v>10</v>
+      </c>
+      <c r="B358" t="s">
+        <v>107</v>
+      </c>
+      <c r="C358" t="s">
+        <v>162</v>
+      </c>
+      <c r="D358" t="s">
+        <v>275</v>
+      </c>
+      <c r="E358">
+        <v>84333</v>
+      </c>
+      <c r="F358" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" t="s">
+        <v>10</v>
+      </c>
+      <c r="B359" t="s">
+        <v>108</v>
+      </c>
+      <c r="C359" t="s">
+        <v>158</v>
+      </c>
+      <c r="D359" t="s">
+        <v>276</v>
+      </c>
+      <c r="E359">
+        <v>349603</v>
+      </c>
+      <c r="F359" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" t="s">
+        <v>10</v>
+      </c>
+      <c r="B360" t="s">
+        <v>108</v>
+      </c>
+      <c r="C360" t="s">
+        <v>159</v>
+      </c>
+      <c r="D360" t="s">
+        <v>276</v>
+      </c>
+      <c r="E360">
+        <v>296331</v>
+      </c>
+      <c r="F360" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" t="s">
+        <v>10</v>
+      </c>
+      <c r="B361" t="s">
+        <v>108</v>
+      </c>
+      <c r="C361" t="s">
+        <v>160</v>
+      </c>
+      <c r="D361" t="s">
+        <v>276</v>
+      </c>
+      <c r="E361">
+        <v>256280</v>
+      </c>
+      <c r="F361" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" t="s">
+        <v>108</v>
+      </c>
+      <c r="C362" t="s">
+        <v>164</v>
+      </c>
+      <c r="D362" t="s">
+        <v>276</v>
+      </c>
+      <c r="E362">
+        <v>230584</v>
+      </c>
+      <c r="F362" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" t="s">
+        <v>10</v>
+      </c>
+      <c r="B363" t="s">
+        <v>108</v>
+      </c>
+      <c r="C363" t="s">
+        <v>165</v>
+      </c>
+      <c r="D363" t="s">
+        <v>276</v>
+      </c>
+      <c r="E363">
+        <v>218048</v>
+      </c>
+      <c r="F363" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" t="s">
+        <v>10</v>
+      </c>
+      <c r="B364" t="s">
+        <v>108</v>
+      </c>
+      <c r="C364" t="s">
+        <v>175</v>
+      </c>
+      <c r="D364" t="s">
+        <v>276</v>
+      </c>
+      <c r="E364">
+        <v>191292</v>
+      </c>
+      <c r="F364" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" t="s">
+        <v>10</v>
+      </c>
+      <c r="B365" t="s">
+        <v>108</v>
+      </c>
+      <c r="C365" t="s">
+        <v>176</v>
+      </c>
+      <c r="D365" t="s">
+        <v>276</v>
+      </c>
+      <c r="E365">
+        <v>175739</v>
+      </c>
+      <c r="F365" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" t="s">
+        <v>10</v>
+      </c>
+      <c r="B366" t="s">
+        <v>109</v>
+      </c>
+      <c r="C366" t="s">
+        <v>158</v>
+      </c>
+      <c r="D366" t="s">
+        <v>277</v>
+      </c>
+      <c r="E366">
+        <v>348662</v>
+      </c>
+      <c r="F366" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" t="s">
+        <v>10</v>
+      </c>
+      <c r="B367" t="s">
+        <v>109</v>
+      </c>
+      <c r="C367" t="s">
+        <v>159</v>
+      </c>
+      <c r="D367" t="s">
+        <v>277</v>
+      </c>
+      <c r="E367">
+        <v>309301</v>
+      </c>
+      <c r="F367" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" t="s">
+        <v>10</v>
+      </c>
+      <c r="B368" t="s">
+        <v>110</v>
+      </c>
+      <c r="C368" t="s">
+        <v>171</v>
+      </c>
+      <c r="D368" t="s">
+        <v>278</v>
+      </c>
+      <c r="E368">
+        <v>93994</v>
+      </c>
+      <c r="F368" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" t="s">
+        <v>10</v>
+      </c>
+      <c r="B369" t="s">
+        <v>110</v>
+      </c>
+      <c r="C369" t="s">
+        <v>170</v>
+      </c>
+      <c r="D369" t="s">
+        <v>278</v>
+      </c>
+      <c r="E369">
+        <v>88354</v>
+      </c>
+      <c r="F369" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" t="s">
+        <v>10</v>
+      </c>
+      <c r="B370" t="s">
+        <v>110</v>
+      </c>
+      <c r="C370" t="s">
+        <v>161</v>
+      </c>
+      <c r="D370" t="s">
+        <v>278</v>
+      </c>
+      <c r="E370">
+        <v>77184</v>
+      </c>
+      <c r="F370" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" t="s">
+        <v>10</v>
+      </c>
+      <c r="B371" t="s">
+        <v>111</v>
+      </c>
+      <c r="C371" t="s">
+        <v>161</v>
+      </c>
+      <c r="D371" t="s">
+        <v>279</v>
+      </c>
+      <c r="E371">
+        <v>76543</v>
+      </c>
+      <c r="F371" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" t="s">
+        <v>10</v>
+      </c>
+      <c r="B372" t="s">
+        <v>111</v>
+      </c>
+      <c r="C372" t="s">
+        <v>168</v>
+      </c>
+      <c r="D372" t="s">
+        <v>279</v>
+      </c>
+      <c r="E372">
+        <v>73246</v>
+      </c>
+      <c r="F372" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" t="s">
+        <v>10</v>
+      </c>
+      <c r="B373" t="s">
+        <v>111</v>
+      </c>
+      <c r="C373" t="s">
+        <v>162</v>
+      </c>
+      <c r="D373" t="s">
+        <v>279</v>
+      </c>
+      <c r="E373">
+        <v>70455</v>
+      </c>
+      <c r="F373" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" t="s">
+        <v>10</v>
+      </c>
+      <c r="B374" t="s">
+        <v>112</v>
+      </c>
+      <c r="C374" t="s">
+        <v>158</v>
+      </c>
+      <c r="D374" t="s">
+        <v>280</v>
+      </c>
+      <c r="E374">
+        <v>290950</v>
+      </c>
+      <c r="F374" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" t="s">
+        <v>10</v>
+      </c>
+      <c r="B375" t="s">
+        <v>112</v>
+      </c>
+      <c r="C375" t="s">
+        <v>159</v>
+      </c>
+      <c r="D375" t="s">
+        <v>280</v>
+      </c>
+      <c r="E375">
+        <v>258788</v>
+      </c>
+      <c r="F375" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" t="s">
+        <v>10</v>
+      </c>
+      <c r="B376" t="s">
+        <v>113</v>
+      </c>
+      <c r="C376" t="s">
+        <v>158</v>
+      </c>
+      <c r="D376" t="s">
+        <v>281</v>
+      </c>
+      <c r="E376">
+        <v>323845</v>
+      </c>
+      <c r="F376" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" t="s">
+        <v>10</v>
+      </c>
+      <c r="B377" t="s">
+        <v>113</v>
+      </c>
+      <c r="C377" t="s">
+        <v>159</v>
+      </c>
+      <c r="D377" t="s">
+        <v>281</v>
+      </c>
+      <c r="E377">
+        <v>292967</v>
+      </c>
+      <c r="F377" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" t="s">
+        <v>113</v>
+      </c>
+      <c r="C378" t="s">
+        <v>176</v>
+      </c>
+      <c r="D378" t="s">
+        <v>281</v>
+      </c>
+      <c r="E378">
+        <v>173497</v>
+      </c>
+      <c r="F378" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" t="s">
+        <v>10</v>
+      </c>
+      <c r="B379" t="s">
+        <v>113</v>
+      </c>
+      <c r="C379" t="s">
+        <v>174</v>
+      </c>
+      <c r="D379" t="s">
+        <v>281</v>
+      </c>
+      <c r="E379">
+        <v>146873</v>
+      </c>
+      <c r="F379" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" t="s">
+        <v>10</v>
+      </c>
+      <c r="B380" t="s">
+        <v>114</v>
+      </c>
+      <c r="C380" t="s">
+        <v>175</v>
+      </c>
+      <c r="D380" t="s">
+        <v>282</v>
+      </c>
+      <c r="E380">
+        <v>118592</v>
+      </c>
+      <c r="F380" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" t="s">
+        <v>10</v>
+      </c>
+      <c r="B381" t="s">
+        <v>114</v>
+      </c>
+      <c r="C381" t="s">
+        <v>176</v>
+      </c>
+      <c r="D381" t="s">
+        <v>282</v>
+      </c>
+      <c r="E381">
+        <v>108799</v>
+      </c>
+      <c r="F381" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" t="s">
+        <v>10</v>
+      </c>
+      <c r="B382" t="s">
+        <v>114</v>
+      </c>
+      <c r="C382" t="s">
+        <v>174</v>
+      </c>
+      <c r="D382" t="s">
+        <v>282</v>
+      </c>
+      <c r="E382">
+        <v>104723</v>
+      </c>
+      <c r="F382" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" t="s">
+        <v>10</v>
+      </c>
+      <c r="B383" t="s">
+        <v>115</v>
+      </c>
+      <c r="C383" t="s">
+        <v>175</v>
+      </c>
+      <c r="D383" t="s">
+        <v>283</v>
+      </c>
+      <c r="E383">
+        <v>140745</v>
+      </c>
+      <c r="F383" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" t="s">
+        <v>10</v>
+      </c>
+      <c r="B384" t="s">
+        <v>115</v>
+      </c>
+      <c r="C384" t="s">
+        <v>176</v>
+      </c>
+      <c r="D384" t="s">
+        <v>283</v>
+      </c>
+      <c r="E384">
+        <v>120944</v>
+      </c>
+      <c r="F384" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" t="s">
+        <v>10</v>
+      </c>
+      <c r="B385" t="s">
+        <v>115</v>
+      </c>
+      <c r="C385" t="s">
+        <v>174</v>
+      </c>
+      <c r="D385" t="s">
+        <v>283</v>
+      </c>
+      <c r="E385">
+        <v>115391</v>
+      </c>
+      <c r="F385" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" t="s">
+        <v>10</v>
+      </c>
+      <c r="B386" t="s">
+        <v>116</v>
+      </c>
+      <c r="C386" t="s">
+        <v>158</v>
+      </c>
+      <c r="D386" t="s">
+        <v>284</v>
+      </c>
+      <c r="E386">
+        <v>283331</v>
+      </c>
+      <c r="F386" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" t="s">
+        <v>10</v>
+      </c>
+      <c r="B387" t="s">
+        <v>116</v>
+      </c>
+      <c r="C387" t="s">
+        <v>160</v>
+      </c>
+      <c r="D387" t="s">
+        <v>284</v>
+      </c>
+      <c r="E387">
+        <v>241871</v>
+      </c>
+      <c r="F387" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" t="s">
+        <v>10</v>
+      </c>
+      <c r="B388" t="s">
+        <v>116</v>
+      </c>
+      <c r="C388" t="s">
+        <v>164</v>
+      </c>
+      <c r="D388" t="s">
+        <v>284</v>
+      </c>
+      <c r="E388">
+        <v>227383</v>
+      </c>
+      <c r="F388" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" t="s">
+        <v>10</v>
+      </c>
+      <c r="B389" t="s">
+        <v>116</v>
+      </c>
+      <c r="C389" t="s">
+        <v>165</v>
+      </c>
+      <c r="D389" t="s">
+        <v>284</v>
+      </c>
+      <c r="E389">
+        <v>202248</v>
+      </c>
+      <c r="F389" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" t="s">
+        <v>10</v>
+      </c>
+      <c r="B390" t="s">
+        <v>117</v>
+      </c>
+      <c r="C390" t="s">
+        <v>165</v>
+      </c>
+      <c r="D390" t="s">
+        <v>285</v>
+      </c>
+      <c r="E390">
+        <v>184152</v>
+      </c>
+      <c r="F390" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" t="s">
+        <v>10</v>
+      </c>
+      <c r="B391" t="s">
+        <v>118</v>
+      </c>
+      <c r="C391" t="s">
+        <v>162</v>
+      </c>
+      <c r="D391" t="s">
+        <v>286</v>
+      </c>
+      <c r="E391">
+        <v>86611</v>
+      </c>
+      <c r="F391" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" t="s">
+        <v>10</v>
+      </c>
+      <c r="B392" t="s">
+        <v>118</v>
+      </c>
+      <c r="C392" t="s">
+        <v>169</v>
+      </c>
+      <c r="D392" t="s">
+        <v>286</v>
+      </c>
+      <c r="E392">
+        <v>77747</v>
+      </c>
+      <c r="F392" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" t="s">
+        <v>10</v>
+      </c>
+      <c r="B393" t="s">
+        <v>119</v>
+      </c>
+      <c r="C393" t="s">
+        <v>169</v>
+      </c>
+      <c r="D393" t="s">
+        <v>287</v>
+      </c>
+      <c r="E393">
+        <v>76705</v>
+      </c>
+      <c r="F393" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394" t="s">
+        <v>119</v>
+      </c>
+      <c r="C394" t="s">
+        <v>166</v>
+      </c>
+      <c r="D394" t="s">
+        <v>287</v>
+      </c>
+      <c r="E394">
+        <v>68403</v>
+      </c>
+      <c r="F394" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" t="s">
+        <v>10</v>
+      </c>
+      <c r="B395" t="s">
+        <v>119</v>
+      </c>
+      <c r="C395" t="s">
+        <v>163</v>
+      </c>
+      <c r="D395" t="s">
+        <v>287</v>
+      </c>
+      <c r="E395">
+        <v>62798</v>
+      </c>
+      <c r="F395" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" t="s">
+        <v>10</v>
+      </c>
+      <c r="B396" t="s">
+        <v>119</v>
+      </c>
+      <c r="C396" t="s">
+        <v>167</v>
+      </c>
+      <c r="D396" t="s">
+        <v>287</v>
+      </c>
+      <c r="E396">
+        <v>56010</v>
+      </c>
+      <c r="F396" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" t="s">
+        <v>10</v>
+      </c>
+      <c r="B397" t="s">
+        <v>120</v>
+      </c>
+      <c r="C397" t="s">
+        <v>158</v>
+      </c>
+      <c r="D397" t="s">
+        <v>288</v>
+      </c>
+      <c r="E397">
+        <v>301741</v>
+      </c>
+      <c r="F397" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" t="s">
+        <v>10</v>
+      </c>
+      <c r="B398" t="s">
+        <v>120</v>
+      </c>
+      <c r="C398" t="s">
+        <v>160</v>
+      </c>
+      <c r="D398" t="s">
+        <v>288</v>
+      </c>
+      <c r="E398">
+        <v>258373</v>
+      </c>
+      <c r="F398" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" t="s">
+        <v>10</v>
+      </c>
+      <c r="B399" t="s">
+        <v>120</v>
+      </c>
+      <c r="C399" t="s">
+        <v>164</v>
+      </c>
+      <c r="D399" t="s">
+        <v>288</v>
+      </c>
+      <c r="E399">
+        <v>231983</v>
+      </c>
+      <c r="F399" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" t="s">
+        <v>10</v>
+      </c>
+      <c r="B400" t="s">
+        <v>120</v>
+      </c>
+      <c r="C400" t="s">
+        <v>165</v>
+      </c>
+      <c r="D400" t="s">
+        <v>288</v>
+      </c>
+      <c r="E400">
+        <v>224152</v>
+      </c>
+      <c r="F400" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" t="s">
+        <v>121</v>
+      </c>
+      <c r="C401" t="s">
+        <v>176</v>
+      </c>
+      <c r="D401" t="s">
+        <v>289</v>
+      </c>
+      <c r="E401">
+        <v>127334</v>
+      </c>
+      <c r="F401" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" t="s">
+        <v>10</v>
+      </c>
+      <c r="B402" t="s">
+        <v>121</v>
+      </c>
+      <c r="C402" t="s">
+        <v>174</v>
+      </c>
+      <c r="D402" t="s">
+        <v>289</v>
+      </c>
+      <c r="E402">
+        <v>111038</v>
+      </c>
+      <c r="F402" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" t="s">
+        <v>10</v>
+      </c>
+      <c r="B403" t="s">
+        <v>122</v>
+      </c>
+      <c r="C403" t="s">
+        <v>158</v>
+      </c>
+      <c r="D403" t="s">
+        <v>290</v>
+      </c>
+      <c r="E403">
+        <v>283181</v>
+      </c>
+      <c r="F403" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" t="s">
+        <v>10</v>
+      </c>
+      <c r="B404" t="s">
+        <v>122</v>
+      </c>
+      <c r="C404" t="s">
+        <v>160</v>
+      </c>
+      <c r="D404" t="s">
+        <v>290</v>
+      </c>
+      <c r="E404">
+        <v>243617</v>
+      </c>
+      <c r="F404" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" t="s">
+        <v>10</v>
+      </c>
+      <c r="B405" t="s">
+        <v>122</v>
+      </c>
+      <c r="C405" t="s">
+        <v>164</v>
+      </c>
+      <c r="D405" t="s">
+        <v>290</v>
+      </c>
+      <c r="E405">
+        <v>228910</v>
+      </c>
+      <c r="F405" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" t="s">
+        <v>10</v>
+      </c>
+      <c r="B406" t="s">
+        <v>122</v>
+      </c>
+      <c r="C406" t="s">
+        <v>165</v>
+      </c>
+      <c r="D406" t="s">
+        <v>290</v>
+      </c>
+      <c r="E406">
+        <v>203891</v>
+      </c>
+      <c r="F406" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" t="s">
+        <v>10</v>
+      </c>
+      <c r="B407" t="s">
+        <v>123</v>
+      </c>
+      <c r="C407" t="s">
+        <v>165</v>
+      </c>
+      <c r="D407" t="s">
+        <v>291</v>
+      </c>
+      <c r="E407">
+        <v>199841</v>
+      </c>
+      <c r="F407" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" t="s">
+        <v>10</v>
+      </c>
+      <c r="B408" t="s">
+        <v>124</v>
+      </c>
+      <c r="C408" t="s">
+        <v>171</v>
+      </c>
+      <c r="D408" t="s">
+        <v>292</v>
+      </c>
+      <c r="E408">
+        <v>102108</v>
+      </c>
+      <c r="F408" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" t="s">
+        <v>10</v>
+      </c>
+      <c r="B409" t="s">
+        <v>124</v>
+      </c>
+      <c r="C409" t="s">
+        <v>170</v>
+      </c>
+      <c r="D409" t="s">
+        <v>292</v>
+      </c>
+      <c r="E409">
+        <v>89819</v>
+      </c>
+      <c r="F409" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" t="s">
+        <v>10</v>
+      </c>
+      <c r="B410" t="s">
+        <v>124</v>
+      </c>
+      <c r="C410" t="s">
+        <v>161</v>
+      </c>
+      <c r="D410" t="s">
+        <v>292</v>
+      </c>
+      <c r="E410">
+        <v>77470</v>
+      </c>
+      <c r="F410" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" t="s">
+        <v>10</v>
+      </c>
+      <c r="B411" t="s">
+        <v>124</v>
+      </c>
+      <c r="C411" t="s">
+        <v>168</v>
+      </c>
+      <c r="D411" t="s">
+        <v>292</v>
+      </c>
+      <c r="E411">
+        <v>73319</v>
+      </c>
+      <c r="F411" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" t="s">
+        <v>10</v>
+      </c>
+      <c r="B412" t="s">
+        <v>124</v>
+      </c>
+      <c r="C412" t="s">
+        <v>162</v>
+      </c>
+      <c r="D412" t="s">
+        <v>292</v>
+      </c>
+      <c r="E412">
+        <v>70524</v>
+      </c>
+      <c r="F412" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B413" t="s">
+        <v>125</v>
+      </c>
+      <c r="C413" t="s">
+        <v>167</v>
+      </c>
+      <c r="D413" t="s">
+        <v>293</v>
+      </c>
+      <c r="E413">
+        <v>54250</v>
+      </c>
+      <c r="F413" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" t="s">
+        <v>10</v>
+      </c>
+      <c r="B414" t="s">
+        <v>125</v>
+      </c>
+      <c r="C414" t="s">
+        <v>177</v>
+      </c>
+      <c r="D414" t="s">
+        <v>293</v>
+      </c>
+      <c r="E414">
+        <v>52105</v>
+      </c>
+      <c r="F414" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" t="s">
+        <v>10</v>
+      </c>
+      <c r="B415" t="s">
+        <v>125</v>
+      </c>
+      <c r="C415" t="s">
+        <v>178</v>
+      </c>
+      <c r="D415" t="s">
+        <v>293</v>
+      </c>
+      <c r="E415">
+        <v>43661</v>
+      </c>
+      <c r="F415" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" t="s">
+        <v>10</v>
+      </c>
+      <c r="B416" t="s">
+        <v>125</v>
+      </c>
+      <c r="C416" t="s">
+        <v>173</v>
+      </c>
+      <c r="D416" t="s">
+        <v>293</v>
+      </c>
+      <c r="E416">
+        <v>42596</v>
+      </c>
+      <c r="F416" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" t="s">
+        <v>10</v>
+      </c>
+      <c r="B417" t="s">
+        <v>126</v>
+      </c>
+      <c r="C417" t="s">
+        <v>161</v>
+      </c>
+      <c r="D417" t="s">
+        <v>294</v>
+      </c>
+      <c r="E417">
+        <v>90201</v>
+      </c>
+      <c r="F417" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" t="s">
+        <v>10</v>
+      </c>
+      <c r="B418" t="s">
+        <v>126</v>
+      </c>
+      <c r="C418" t="s">
+        <v>168</v>
+      </c>
+      <c r="D418" t="s">
+        <v>294</v>
+      </c>
+      <c r="E418">
+        <v>87451</v>
+      </c>
+      <c r="F418" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" t="s">
+        <v>10</v>
+      </c>
+      <c r="B419" t="s">
+        <v>126</v>
+      </c>
+      <c r="C419" t="s">
+        <v>162</v>
+      </c>
+      <c r="D419" t="s">
+        <v>294</v>
+      </c>
+      <c r="E419">
+        <v>84526</v>
+      </c>
+      <c r="F419" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" t="s">
+        <v>10</v>
+      </c>
+      <c r="B420" t="s">
+        <v>127</v>
+      </c>
+      <c r="C420" t="s">
+        <v>163</v>
+      </c>
+      <c r="D420" t="s">
+        <v>295</v>
+      </c>
+      <c r="E420">
+        <v>62441</v>
+      </c>
+      <c r="F420" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" t="s">
+        <v>10</v>
+      </c>
+      <c r="B421" t="s">
+        <v>127</v>
+      </c>
+      <c r="C421" t="s">
+        <v>167</v>
+      </c>
+      <c r="D421" t="s">
+        <v>295</v>
+      </c>
+      <c r="E421">
+        <v>57784</v>
+      </c>
+      <c r="F421" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" t="s">
+        <v>10</v>
+      </c>
+      <c r="B422" t="s">
+        <v>127</v>
+      </c>
+      <c r="C422" t="s">
+        <v>177</v>
+      </c>
+      <c r="D422" t="s">
+        <v>295</v>
+      </c>
+      <c r="E422">
+        <v>54037</v>
+      </c>
+      <c r="F422" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" t="s">
+        <v>10</v>
+      </c>
+      <c r="B423" t="s">
+        <v>127</v>
+      </c>
+      <c r="C423" t="s">
+        <v>178</v>
+      </c>
+      <c r="D423" t="s">
+        <v>295</v>
+      </c>
+      <c r="E423">
+        <v>47908</v>
+      </c>
+      <c r="F423" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" t="s">
+        <v>10</v>
+      </c>
+      <c r="B424" t="s">
+        <v>127</v>
+      </c>
+      <c r="C424" t="s">
+        <v>173</v>
+      </c>
+      <c r="D424" t="s">
+        <v>295</v>
+      </c>
+      <c r="E424">
+        <v>39395</v>
+      </c>
+      <c r="F424" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" t="s">
+        <v>10</v>
+      </c>
+      <c r="B425" t="s">
+        <v>128</v>
+      </c>
+      <c r="C425" t="s">
+        <v>169</v>
+      </c>
+      <c r="D425" t="s">
+        <v>296</v>
+      </c>
+      <c r="E425">
+        <v>84885</v>
+      </c>
+      <c r="F425" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" t="s">
+        <v>10</v>
+      </c>
+      <c r="B426" t="s">
+        <v>128</v>
+      </c>
+      <c r="C426" t="s">
+        <v>166</v>
+      </c>
+      <c r="D426" t="s">
+        <v>296</v>
+      </c>
+      <c r="E426">
+        <v>77334</v>
+      </c>
+      <c r="F426" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" t="s">
+        <v>10</v>
+      </c>
+      <c r="B427" t="s">
+        <v>128</v>
+      </c>
+      <c r="C427" t="s">
+        <v>163</v>
+      </c>
+      <c r="D427" t="s">
+        <v>296</v>
+      </c>
+      <c r="E427">
+        <v>67853</v>
+      </c>
+      <c r="F427" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" t="s">
+        <v>10</v>
+      </c>
+      <c r="B428" t="s">
+        <v>128</v>
+      </c>
+      <c r="C428" t="s">
+        <v>167</v>
+      </c>
+      <c r="D428" t="s">
+        <v>296</v>
+      </c>
+      <c r="E428">
+        <v>62501</v>
+      </c>
+      <c r="F428" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" t="s">
+        <v>10</v>
+      </c>
+      <c r="B429" t="s">
+        <v>128</v>
+      </c>
+      <c r="C429" t="s">
+        <v>177</v>
+      </c>
+      <c r="D429" t="s">
+        <v>296</v>
+      </c>
+      <c r="E429">
+        <v>56575</v>
+      </c>
+      <c r="F429" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" t="s">
+        <v>10</v>
+      </c>
+      <c r="B430" t="s">
+        <v>128</v>
+      </c>
+      <c r="C430" t="s">
+        <v>178</v>
+      </c>
+      <c r="D430" t="s">
+        <v>296</v>
+      </c>
+      <c r="E430">
+        <v>49033</v>
+      </c>
+      <c r="F430" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" t="s">
+        <v>10</v>
+      </c>
+      <c r="B431" t="s">
+        <v>128</v>
+      </c>
+      <c r="C431" t="s">
+        <v>173</v>
+      </c>
+      <c r="D431" t="s">
+        <v>296</v>
+      </c>
+      <c r="E431">
+        <v>39758</v>
+      </c>
+      <c r="F431" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" t="s">
+        <v>10</v>
+      </c>
+      <c r="B432" t="s">
+        <v>129</v>
+      </c>
+      <c r="C432" t="s">
         <v>142</v>
       </c>
-      <c r="D351" t="s">
-        <v>240</v>
-      </c>
-      <c r="E351" t="s">
-        <v>241</v>
-      </c>
-      <c r="F351" t="s">
-        <v>242</v>
+      <c r="D432" t="s">
+        <v>297</v>
+      </c>
+      <c r="E432">
+        <v>26991</v>
+      </c>
+      <c r="F432" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" t="s">
+        <v>10</v>
+      </c>
+      <c r="B433" t="s">
+        <v>129</v>
+      </c>
+      <c r="C433" t="s">
+        <v>143</v>
+      </c>
+      <c r="D433" t="s">
+        <v>297</v>
+      </c>
+      <c r="E433">
+        <v>22110</v>
+      </c>
+      <c r="F433" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" t="s">
+        <v>10</v>
+      </c>
+      <c r="B434" t="s">
+        <v>129</v>
+      </c>
+      <c r="C434" t="s">
+        <v>133</v>
+      </c>
+      <c r="D434" t="s">
+        <v>297</v>
+      </c>
+      <c r="E434">
+        <v>20279</v>
+      </c>
+      <c r="F434" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" t="s">
+        <v>10</v>
+      </c>
+      <c r="B435" t="s">
+        <v>129</v>
+      </c>
+      <c r="C435" t="s">
+        <v>134</v>
+      </c>
+      <c r="D435" t="s">
+        <v>297</v>
+      </c>
+      <c r="E435">
+        <v>18125</v>
+      </c>
+      <c r="F435" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" t="s">
+        <v>10</v>
+      </c>
+      <c r="B436" t="s">
+        <v>129</v>
+      </c>
+      <c r="C436" t="s">
+        <v>135</v>
+      </c>
+      <c r="D436" t="s">
+        <v>297</v>
+      </c>
+      <c r="E436">
+        <v>16814</v>
+      </c>
+      <c r="F436" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" t="s">
+        <v>10</v>
+      </c>
+      <c r="B437" t="s">
+        <v>129</v>
+      </c>
+      <c r="C437" t="s">
+        <v>136</v>
+      </c>
+      <c r="D437" t="s">
+        <v>297</v>
+      </c>
+      <c r="E437">
+        <v>14619</v>
+      </c>
+      <c r="F437" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" t="s">
+        <v>10</v>
+      </c>
+      <c r="B438" t="s">
+        <v>129</v>
+      </c>
+      <c r="C438" t="s">
+        <v>137</v>
+      </c>
+      <c r="D438" t="s">
+        <v>297</v>
+      </c>
+      <c r="E438">
+        <v>12857</v>
+      </c>
+      <c r="F438" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" t="s">
+        <v>10</v>
+      </c>
+      <c r="B439" t="s">
+        <v>130</v>
+      </c>
+      <c r="C439" t="s">
+        <v>142</v>
+      </c>
+      <c r="D439" t="s">
+        <v>298</v>
+      </c>
+      <c r="E439">
+        <v>20093</v>
+      </c>
+      <c r="F439" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" t="s">
+        <v>10</v>
+      </c>
+      <c r="B440" t="s">
+        <v>130</v>
+      </c>
+      <c r="C440" t="s">
+        <v>143</v>
+      </c>
+      <c r="D440" t="s">
+        <v>298</v>
+      </c>
+      <c r="E440">
+        <v>18583</v>
+      </c>
+      <c r="F440" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" t="s">
+        <v>10</v>
+      </c>
+      <c r="B441" t="s">
+        <v>130</v>
+      </c>
+      <c r="C441" t="s">
+        <v>133</v>
+      </c>
+      <c r="D441" t="s">
+        <v>298</v>
+      </c>
+      <c r="E441">
+        <v>18129</v>
+      </c>
+      <c r="F441" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" t="s">
+        <v>10</v>
+      </c>
+      <c r="B442" t="s">
+        <v>130</v>
+      </c>
+      <c r="C442" t="s">
+        <v>134</v>
+      </c>
+      <c r="D442" t="s">
+        <v>298</v>
+      </c>
+      <c r="E442">
+        <v>17686</v>
+      </c>
+      <c r="F442" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" t="s">
+        <v>10</v>
+      </c>
+      <c r="B443" t="s">
+        <v>130</v>
+      </c>
+      <c r="C443" t="s">
+        <v>135</v>
+      </c>
+      <c r="D443" t="s">
+        <v>298</v>
+      </c>
+      <c r="E443">
+        <v>15818</v>
+      </c>
+      <c r="F443" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" t="s">
+        <v>10</v>
+      </c>
+      <c r="B444" t="s">
+        <v>130</v>
+      </c>
+      <c r="C444" t="s">
+        <v>136</v>
+      </c>
+      <c r="D444" t="s">
+        <v>298</v>
+      </c>
+      <c r="E444">
+        <v>14067</v>
+      </c>
+      <c r="F444" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" t="s">
+        <v>10</v>
+      </c>
+      <c r="B445" t="s">
+        <v>130</v>
+      </c>
+      <c r="C445" t="s">
+        <v>137</v>
+      </c>
+      <c r="D445" t="s">
+        <v>298</v>
+      </c>
+      <c r="E445">
+        <v>12714</v>
+      </c>
+      <c r="F445" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" t="s">
+        <v>10</v>
+      </c>
+      <c r="B446" t="s">
+        <v>131</v>
+      </c>
+      <c r="C446" t="s">
+        <v>142</v>
+      </c>
+      <c r="D446" t="s">
+        <v>299</v>
+      </c>
+      <c r="E446">
+        <v>21763</v>
+      </c>
+      <c r="F446" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" t="s">
+        <v>10</v>
+      </c>
+      <c r="B447" t="s">
+        <v>131</v>
+      </c>
+      <c r="C447" t="s">
+        <v>143</v>
+      </c>
+      <c r="D447" t="s">
+        <v>299</v>
+      </c>
+      <c r="E447">
+        <v>21138</v>
+      </c>
+      <c r="F447" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" t="s">
+        <v>10</v>
+      </c>
+      <c r="B448" t="s">
+        <v>131</v>
+      </c>
+      <c r="C448" t="s">
+        <v>133</v>
+      </c>
+      <c r="D448" t="s">
+        <v>299</v>
+      </c>
+      <c r="E448">
+        <v>20456</v>
+      </c>
+      <c r="F448" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" t="s">
+        <v>10</v>
+      </c>
+      <c r="B449" t="s">
+        <v>131</v>
+      </c>
+      <c r="C449" t="s">
+        <v>135</v>
+      </c>
+      <c r="D449" t="s">
+        <v>299</v>
+      </c>
+      <c r="E449">
+        <v>17122</v>
+      </c>
+      <c r="F449" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" t="s">
+        <v>10</v>
+      </c>
+      <c r="B450" t="s">
+        <v>131</v>
+      </c>
+      <c r="C450" t="s">
+        <v>136</v>
+      </c>
+      <c r="D450" t="s">
+        <v>299</v>
+      </c>
+      <c r="E450">
+        <v>15138</v>
+      </c>
+      <c r="F450" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" t="s">
+        <v>10</v>
+      </c>
+      <c r="B451" t="s">
+        <v>132</v>
+      </c>
+      <c r="C451" t="s">
+        <v>142</v>
+      </c>
+      <c r="D451" t="s">
+        <v>300</v>
+      </c>
+      <c r="E451">
+        <v>20847</v>
+      </c>
+      <c r="F451" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" t="s">
+        <v>10</v>
+      </c>
+      <c r="B452" t="s">
+        <v>132</v>
+      </c>
+      <c r="C452" t="s">
+        <v>143</v>
+      </c>
+      <c r="D452" t="s">
+        <v>300</v>
+      </c>
+      <c r="E452">
+        <v>20338</v>
+      </c>
+      <c r="F452" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="s">
+        <v>10</v>
+      </c>
+      <c r="B453" t="s">
+        <v>132</v>
+      </c>
+      <c r="C453" t="s">
+        <v>133</v>
+      </c>
+      <c r="D453" t="s">
+        <v>300</v>
+      </c>
+      <c r="E453">
+        <v>18767</v>
+      </c>
+      <c r="F453" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="s">
+        <v>10</v>
+      </c>
+      <c r="B454" t="s">
+        <v>132</v>
+      </c>
+      <c r="C454" t="s">
+        <v>134</v>
+      </c>
+      <c r="D454" t="s">
+        <v>300</v>
+      </c>
+      <c r="E454">
+        <v>16709</v>
+      </c>
+      <c r="F454" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="s">
+        <v>10</v>
+      </c>
+      <c r="B455" t="s">
+        <v>132</v>
+      </c>
+      <c r="C455" t="s">
+        <v>135</v>
+      </c>
+      <c r="D455" t="s">
+        <v>300</v>
+      </c>
+      <c r="E455">
+        <v>16301</v>
+      </c>
+      <c r="F455" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" t="s">
+        <v>10</v>
+      </c>
+      <c r="B456" t="s">
+        <v>132</v>
+      </c>
+      <c r="C456" t="s">
+        <v>143</v>
+      </c>
+      <c r="D456" t="s">
+        <v>300</v>
+      </c>
+      <c r="E456" t="s">
+        <v>301</v>
+      </c>
+      <c r="F456" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="305">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -415,6 +415,9 @@
     <t>A4 1.8 Avant Mec.</t>
   </si>
   <si>
+    <t>A4 1.8 Avant Turbo Mec.</t>
+  </si>
+  <si>
     <t>1999 Gasolina</t>
   </si>
   <si>
@@ -919,7 +922,10 @@
     <t>008009-8</t>
   </si>
   <si>
-    <t xml:space="preserve"> 20338.00</t>
+    <t>008010-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17244.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -1280,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F456"/>
+  <dimension ref="A1:F461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1314,16 +1320,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E2">
         <v>27313</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1334,16 +1340,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E3">
         <v>21558</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1354,16 +1360,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E4">
         <v>14581</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1374,16 +1380,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>13265</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1394,16 +1400,16 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E6">
         <v>21581</v>
       </c>
       <c r="F6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1414,16 +1420,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E7">
         <v>17680</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1434,16 +1440,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E8">
         <v>17248</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1454,16 +1460,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E9">
         <v>13550</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1474,16 +1480,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E10">
         <v>29872</v>
       </c>
       <c r="F10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1494,16 +1500,16 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E11">
         <v>29143</v>
       </c>
       <c r="F11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1514,16 +1520,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E12">
         <v>23404</v>
       </c>
       <c r="F12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1534,16 +1540,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E13">
         <v>22833</v>
       </c>
       <c r="F13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1554,16 +1560,16 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E14">
         <v>22449</v>
       </c>
       <c r="F14" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1574,16 +1580,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E15">
         <v>18647</v>
       </c>
       <c r="F15" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1594,16 +1600,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E16">
         <v>18192</v>
       </c>
       <c r="F16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1614,16 +1620,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E17">
         <v>92142</v>
       </c>
       <c r="F17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1634,16 +1640,16 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18">
         <v>89894</v>
       </c>
       <c r="F18" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1654,16 +1660,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19">
         <v>87701</v>
       </c>
       <c r="F19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1674,16 +1680,16 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E20">
         <v>19511</v>
       </c>
       <c r="F20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1694,16 +1700,16 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E21">
         <v>18466</v>
       </c>
       <c r="F21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1714,16 +1720,16 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E22">
         <v>15931</v>
       </c>
       <c r="F22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1734,16 +1740,16 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E23">
         <v>24925</v>
       </c>
       <c r="F23" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1754,16 +1760,16 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E24">
         <v>24317</v>
       </c>
       <c r="F24" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1774,16 +1780,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E25">
         <v>19754</v>
       </c>
       <c r="F25" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1794,16 +1800,16 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E26">
         <v>104853</v>
       </c>
       <c r="F26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1814,16 +1820,16 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E27">
         <v>32424</v>
       </c>
       <c r="F27" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1834,16 +1840,16 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E28">
         <v>49978</v>
       </c>
       <c r="F28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1854,16 +1860,16 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E29">
         <v>45101</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1874,16 +1880,16 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E30">
         <v>74355</v>
       </c>
       <c r="F30" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1894,16 +1900,16 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E31">
         <v>71998</v>
       </c>
       <c r="F31" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1914,16 +1920,16 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E32">
         <v>75561</v>
       </c>
       <c r="F32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1934,16 +1940,16 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E33">
         <v>70007</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1954,16 +1960,16 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E34">
         <v>58514</v>
       </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1974,16 +1980,16 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E35">
         <v>57086</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1994,16 +2000,16 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E36">
         <v>29151</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2014,16 +2020,16 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E37">
         <v>28440</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2034,16 +2040,16 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E38">
         <v>27102</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2054,16 +2060,16 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E39">
         <v>19575</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2074,16 +2080,16 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E40">
         <v>13455</v>
       </c>
       <c r="F40" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2094,16 +2100,16 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E41">
         <v>11701</v>
       </c>
       <c r="F41" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2114,16 +2120,16 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E42">
         <v>28869</v>
       </c>
       <c r="F42" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2134,16 +2140,16 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E43">
         <v>28164</v>
       </c>
       <c r="F43" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2154,16 +2160,16 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E44">
         <v>89797</v>
       </c>
       <c r="F44" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2174,16 +2180,16 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E45">
         <v>86004</v>
       </c>
       <c r="F45" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2194,16 +2200,16 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E46">
         <v>83906</v>
       </c>
       <c r="F46" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2214,16 +2220,16 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E47">
         <v>81859</v>
       </c>
       <c r="F47" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2234,16 +2240,16 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E48">
         <v>71424</v>
       </c>
       <c r="F48" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2254,16 +2260,16 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E49">
         <v>8070</v>
       </c>
       <c r="F49" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2274,16 +2280,16 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E50">
         <v>7072</v>
       </c>
       <c r="F50" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2294,16 +2300,16 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E51">
         <v>133185</v>
       </c>
       <c r="F51" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2314,16 +2320,16 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E52">
         <v>129936</v>
       </c>
       <c r="F52" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2334,16 +2340,16 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E53">
         <v>92099</v>
       </c>
       <c r="F53" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2354,16 +2360,16 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E54">
         <v>41220</v>
       </c>
       <c r="F54" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2374,16 +2380,16 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E55">
         <v>32289</v>
       </c>
       <c r="F55" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2394,16 +2400,16 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E56">
         <v>27713</v>
       </c>
       <c r="F56" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2414,16 +2420,16 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E57">
         <v>426859</v>
       </c>
       <c r="F57" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2434,16 +2440,16 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E58">
         <v>384365</v>
       </c>
       <c r="F58" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2454,16 +2460,16 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E59">
         <v>332825</v>
       </c>
       <c r="F59" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2474,16 +2480,16 @@
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E60">
         <v>396648</v>
       </c>
       <c r="F60" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2494,16 +2500,16 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E61">
         <v>351603</v>
       </c>
       <c r="F61" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2514,16 +2520,16 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E62">
         <v>294624</v>
       </c>
       <c r="F62" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2534,16 +2540,16 @@
         <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E63">
         <v>453297</v>
       </c>
       <c r="F63" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2554,16 +2560,16 @@
         <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E64">
         <v>401677</v>
       </c>
       <c r="F64" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2574,16 +2580,16 @@
         <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E65">
         <v>348246</v>
       </c>
       <c r="F65" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2594,16 +2600,16 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E66">
         <v>25397</v>
       </c>
       <c r="F66" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2614,16 +2620,16 @@
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E67">
         <v>21995</v>
       </c>
       <c r="F67" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2634,16 +2640,16 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E68">
         <v>18798</v>
       </c>
       <c r="F68" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2654,16 +2660,16 @@
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E69">
         <v>18158</v>
       </c>
       <c r="F69" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2674,16 +2680,16 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E70">
         <v>16980</v>
       </c>
       <c r="F70" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2694,16 +2700,16 @@
         <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E71">
         <v>27427</v>
       </c>
       <c r="F71" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2714,16 +2720,16 @@
         <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E72">
         <v>25605</v>
       </c>
       <c r="F72" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2734,16 +2740,16 @@
         <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E73">
         <v>21492</v>
       </c>
       <c r="F73" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2754,16 +2760,16 @@
         <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E74">
         <v>19903</v>
       </c>
       <c r="F74" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2774,16 +2780,16 @@
         <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E75">
         <v>19231</v>
       </c>
       <c r="F75" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2794,16 +2800,16 @@
         <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E76">
         <v>15514</v>
       </c>
       <c r="F76" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2814,16 +2820,16 @@
         <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E77">
         <v>14842</v>
       </c>
       <c r="F77" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2834,16 +2840,16 @@
         <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E78">
         <v>12659</v>
       </c>
       <c r="F78" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2854,16 +2860,16 @@
         <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E79">
         <v>12058</v>
       </c>
       <c r="F79" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2874,16 +2880,16 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E80">
         <v>11358</v>
       </c>
       <c r="F80" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2894,16 +2900,16 @@
         <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E81">
         <v>9903</v>
       </c>
       <c r="F81" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2914,16 +2920,16 @@
         <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E82">
         <v>14608</v>
       </c>
       <c r="F82" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2934,16 +2940,16 @@
         <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E83">
         <v>13421</v>
       </c>
       <c r="F83" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2954,16 +2960,16 @@
         <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E84">
         <v>12439</v>
       </c>
       <c r="F84" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2974,16 +2980,16 @@
         <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E85">
         <v>11373</v>
       </c>
       <c r="F85" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2994,16 +3000,16 @@
         <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E86">
         <v>10192</v>
       </c>
       <c r="F86" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3014,16 +3020,16 @@
         <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E87">
         <v>9297</v>
       </c>
       <c r="F87" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3034,16 +3040,16 @@
         <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E88">
         <v>12164</v>
       </c>
       <c r="F88" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3054,16 +3060,16 @@
         <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E89">
         <v>11236</v>
       </c>
       <c r="F89" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3074,16 +3080,16 @@
         <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E90">
         <v>9800</v>
       </c>
       <c r="F90" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3094,16 +3100,16 @@
         <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E91">
         <v>9324</v>
       </c>
       <c r="F91" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3114,16 +3120,16 @@
         <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E92">
         <v>25330</v>
       </c>
       <c r="F92" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3134,16 +3140,16 @@
         <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D93" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E93">
         <v>24712</v>
       </c>
       <c r="F93" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3154,16 +3160,16 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E94">
         <v>16727</v>
       </c>
       <c r="F94" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3174,16 +3180,16 @@
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E95">
         <v>13972</v>
       </c>
       <c r="F95" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3194,16 +3200,16 @@
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E96">
         <v>13585</v>
       </c>
       <c r="F96" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3214,16 +3220,16 @@
         <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E97">
         <v>16655</v>
       </c>
       <c r="F97" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3234,16 +3240,16 @@
         <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E98">
         <v>14777</v>
       </c>
       <c r="F98" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3254,16 +3260,16 @@
         <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E99">
         <v>12873</v>
       </c>
       <c r="F99" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3274,16 +3280,16 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E100">
         <v>19837</v>
       </c>
       <c r="F100" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3294,16 +3300,16 @@
         <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D101" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E101">
         <v>14311</v>
       </c>
       <c r="F101" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3314,16 +3320,16 @@
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D102" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E102">
         <v>12443</v>
       </c>
       <c r="F102" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3334,16 +3340,16 @@
         <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E103">
         <v>6442</v>
       </c>
       <c r="F103" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3354,16 +3360,16 @@
         <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E104">
         <v>6095</v>
       </c>
       <c r="F104" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3374,16 +3380,16 @@
         <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D105" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E105">
         <v>5884</v>
       </c>
       <c r="F105" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3394,16 +3400,16 @@
         <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E106">
         <v>5680</v>
       </c>
       <c r="F106" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3414,16 +3420,16 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E107">
         <v>5955</v>
       </c>
       <c r="F107" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3434,16 +3440,16 @@
         <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D108" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E108">
         <v>5298</v>
       </c>
       <c r="F108" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3454,16 +3460,16 @@
         <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D109" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E109">
         <v>5168</v>
       </c>
       <c r="F109" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3474,16 +3480,16 @@
         <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D110" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E110">
         <v>4546</v>
       </c>
       <c r="F110" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3494,16 +3500,16 @@
         <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D111" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E111">
         <v>4415</v>
       </c>
       <c r="F111" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3514,16 +3520,16 @@
         <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D112" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E112">
         <v>3607</v>
       </c>
       <c r="F112" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3534,16 +3540,16 @@
         <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D113" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E113">
         <v>5607</v>
       </c>
       <c r="F113" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3554,16 +3560,16 @@
         <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D114" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E114">
         <v>5281</v>
       </c>
       <c r="F114" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3574,16 +3580,16 @@
         <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D115" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E115">
         <v>4945</v>
       </c>
       <c r="F115" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3594,16 +3600,16 @@
         <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D116" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E116">
         <v>4532</v>
       </c>
       <c r="F116" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3614,16 +3620,16 @@
         <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E117">
         <v>3838</v>
       </c>
       <c r="F117" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3634,16 +3640,16 @@
         <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E118">
         <v>3291</v>
       </c>
       <c r="F118" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3654,16 +3660,16 @@
         <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D119" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E119">
         <v>5858</v>
       </c>
       <c r="F119" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3674,16 +3680,16 @@
         <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D120" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E120">
         <v>5699</v>
       </c>
       <c r="F120" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3694,16 +3700,16 @@
         <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D121" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E121">
         <v>5481</v>
       </c>
       <c r="F121" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3714,16 +3720,16 @@
         <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D122" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E122">
         <v>4160</v>
       </c>
       <c r="F122" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3734,16 +3740,16 @@
         <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D123" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E123">
         <v>4058</v>
       </c>
       <c r="F123" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3754,16 +3760,16 @@
         <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D124" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E124">
         <v>3746</v>
       </c>
       <c r="F124" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3774,16 +3780,16 @@
         <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E125">
         <v>3569</v>
       </c>
       <c r="F125" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3794,16 +3800,16 @@
         <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E126">
         <v>3442</v>
       </c>
       <c r="F126" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3814,16 +3820,16 @@
         <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D127" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E127">
         <v>3284</v>
       </c>
       <c r="F127" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3834,16 +3840,16 @@
         <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E128">
         <v>2840</v>
       </c>
       <c r="F128" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3854,16 +3860,16 @@
         <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D129" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E129">
         <v>2401</v>
       </c>
       <c r="F129" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3874,16 +3880,16 @@
         <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D130" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E130">
         <v>5876</v>
       </c>
       <c r="F130" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3894,16 +3900,16 @@
         <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D131" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E131">
         <v>5732</v>
       </c>
       <c r="F131" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3914,16 +3920,16 @@
         <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D132" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E132">
         <v>4374</v>
       </c>
       <c r="F132" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3934,16 +3940,16 @@
         <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D133" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E133">
         <v>7989</v>
       </c>
       <c r="F133" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3954,16 +3960,16 @@
         <v>46</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D134" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E134">
         <v>7146</v>
       </c>
       <c r="F134" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3974,16 +3980,16 @@
         <v>46</v>
       </c>
       <c r="C135" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D135" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E135">
         <v>6889</v>
       </c>
       <c r="F135" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3994,16 +4000,16 @@
         <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D136" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E136">
         <v>6037</v>
       </c>
       <c r="F136" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4014,16 +4020,16 @@
         <v>46</v>
       </c>
       <c r="C137" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D137" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E137">
         <v>4876</v>
       </c>
       <c r="F137" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4034,16 +4040,16 @@
         <v>46</v>
       </c>
       <c r="C138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D138" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E138">
         <v>4281</v>
       </c>
       <c r="F138" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4054,16 +4060,16 @@
         <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D139" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E139">
         <v>6241</v>
       </c>
       <c r="F139" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4074,16 +4080,16 @@
         <v>47</v>
       </c>
       <c r="C140" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D140" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E140">
         <v>6088</v>
       </c>
       <c r="F140" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4094,16 +4100,16 @@
         <v>47</v>
       </c>
       <c r="C141" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D141" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E141">
         <v>5939</v>
       </c>
       <c r="F141" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4114,16 +4120,16 @@
         <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D142" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E142">
         <v>5967</v>
       </c>
       <c r="F142" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4134,16 +4140,16 @@
         <v>48</v>
       </c>
       <c r="C143" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D143" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E143">
         <v>5821</v>
       </c>
       <c r="F143" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4154,16 +4160,16 @@
         <v>48</v>
       </c>
       <c r="C144" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D144" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E144">
         <v>5569</v>
       </c>
       <c r="F144" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4174,16 +4180,16 @@
         <v>48</v>
       </c>
       <c r="C145" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D145" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E145">
         <v>4635</v>
       </c>
       <c r="F145" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4194,16 +4200,16 @@
         <v>48</v>
       </c>
       <c r="C146" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D146" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E146">
         <v>4206</v>
       </c>
       <c r="F146" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4214,16 +4220,16 @@
         <v>48</v>
       </c>
       <c r="C147" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D147" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E147">
         <v>4005</v>
       </c>
       <c r="F147" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4234,16 +4240,16 @@
         <v>49</v>
       </c>
       <c r="C148" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D148" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E148">
         <v>3600000</v>
       </c>
       <c r="F148" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4254,16 +4260,16 @@
         <v>49</v>
       </c>
       <c r="C149" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D149" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E149">
         <v>3228897</v>
       </c>
       <c r="F149" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4274,16 +4280,16 @@
         <v>49</v>
       </c>
       <c r="C150" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D150" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E150">
         <v>3070680</v>
       </c>
       <c r="F150" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4294,16 +4300,16 @@
         <v>50</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D151" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E151">
         <v>3900000</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4314,16 +4320,16 @@
         <v>50</v>
       </c>
       <c r="C152" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D152" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E152">
         <v>3625334</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4334,16 +4340,16 @@
         <v>51</v>
       </c>
       <c r="C153" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D153" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E153">
         <v>1214247</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4354,16 +4360,16 @@
         <v>51</v>
       </c>
       <c r="C154" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D154" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E154">
         <v>946995</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4374,16 +4380,16 @@
         <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D155" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E155">
         <v>617791</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4394,16 +4400,16 @@
         <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D156" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E156">
         <v>4493874</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4414,16 +4420,16 @@
         <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D157" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E157">
         <v>4142252</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4434,16 +4440,16 @@
         <v>54</v>
       </c>
       <c r="C158" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D158" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E158">
         <v>2346605</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4454,16 +4460,16 @@
         <v>54</v>
       </c>
       <c r="C159" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D159" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E159">
         <v>2055673</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4474,16 +4480,16 @@
         <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D160" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E160">
         <v>3800000</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4494,16 +4500,16 @@
         <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D161" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E161">
         <v>3226068</v>
       </c>
       <c r="F161" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4514,16 +4520,16 @@
         <v>55</v>
       </c>
       <c r="C162" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D162" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E162">
         <v>2729902</v>
       </c>
       <c r="F162" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4534,16 +4540,16 @@
         <v>55</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D163" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E163">
         <v>2502679</v>
       </c>
       <c r="F163" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4554,16 +4560,16 @@
         <v>56</v>
       </c>
       <c r="C164" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D164" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E164">
         <v>694217</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4574,16 +4580,16 @@
         <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D165" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E165">
         <v>607011</v>
       </c>
       <c r="F165" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4594,16 +4600,16 @@
         <v>57</v>
       </c>
       <c r="C166" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D166" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E166">
         <v>1296696</v>
       </c>
       <c r="F166" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4614,16 +4620,16 @@
         <v>57</v>
       </c>
       <c r="C167" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D167" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E167">
         <v>1032188</v>
       </c>
       <c r="F167" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4634,16 +4640,16 @@
         <v>58</v>
       </c>
       <c r="C168" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D168" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E168">
         <v>1784133</v>
       </c>
       <c r="F168" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4654,16 +4660,16 @@
         <v>58</v>
       </c>
       <c r="C169" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D169" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E169">
         <v>1616174</v>
       </c>
       <c r="F169" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4674,16 +4680,16 @@
         <v>59</v>
       </c>
       <c r="C170" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D170" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E170">
         <v>476063</v>
       </c>
       <c r="F170" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4694,16 +4700,16 @@
         <v>60</v>
       </c>
       <c r="C171" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D171" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E171">
         <v>638283</v>
       </c>
       <c r="F171" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4714,16 +4720,16 @@
         <v>60</v>
       </c>
       <c r="C172" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D172" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E172">
         <v>591028</v>
       </c>
       <c r="F172" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4734,16 +4740,16 @@
         <v>60</v>
       </c>
       <c r="C173" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D173" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E173">
         <v>528207</v>
       </c>
       <c r="F173" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4754,16 +4760,16 @@
         <v>60</v>
       </c>
       <c r="C174" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D174" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E174">
         <v>515323</v>
       </c>
       <c r="F174" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4774,16 +4780,16 @@
         <v>61</v>
       </c>
       <c r="C175" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D175" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E175">
         <v>2800750</v>
       </c>
       <c r="F175" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4794,16 +4800,16 @@
         <v>61</v>
       </c>
       <c r="C176" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D176" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E176">
         <v>2200329</v>
       </c>
       <c r="F176" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4814,16 +4820,16 @@
         <v>61</v>
       </c>
       <c r="C177" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D177" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E177">
         <v>1739268</v>
       </c>
       <c r="F177" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4834,16 +4840,16 @@
         <v>61</v>
       </c>
       <c r="C178" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D178" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E178">
         <v>1647750</v>
       </c>
       <c r="F178" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4854,16 +4860,16 @@
         <v>62</v>
       </c>
       <c r="C179" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D179" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E179">
         <v>1770690</v>
       </c>
       <c r="F179" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4874,16 +4880,16 @@
         <v>62</v>
       </c>
       <c r="C180" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D180" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E180">
         <v>1706250</v>
       </c>
       <c r="F180" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4894,16 +4900,16 @@
         <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D181" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E181">
         <v>588516</v>
       </c>
       <c r="F181" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4914,16 +4920,16 @@
         <v>63</v>
       </c>
       <c r="C182" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D182" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E182">
         <v>521625</v>
       </c>
       <c r="F182" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4934,16 +4940,16 @@
         <v>64</v>
       </c>
       <c r="C183" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D183" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E183">
         <v>1842750</v>
       </c>
       <c r="F183" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4954,16 +4960,16 @@
         <v>65</v>
       </c>
       <c r="C184" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D184" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E184">
         <v>1145906</v>
       </c>
       <c r="F184" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4974,16 +4980,16 @@
         <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D185" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E185">
         <v>993822</v>
       </c>
       <c r="F185" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4994,16 +5000,16 @@
         <v>66</v>
       </c>
       <c r="C186" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D186" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E186">
         <v>531136</v>
       </c>
       <c r="F186" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5014,16 +5020,16 @@
         <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D187" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E187">
         <v>654552</v>
       </c>
       <c r="F187" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5034,16 +5040,16 @@
         <v>68</v>
       </c>
       <c r="C188" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D188" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E188">
         <v>12940</v>
       </c>
       <c r="F188" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5054,16 +5060,16 @@
         <v>68</v>
       </c>
       <c r="C189" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D189" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E189">
         <v>12146</v>
       </c>
       <c r="F189" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5074,16 +5080,16 @@
         <v>68</v>
       </c>
       <c r="C190" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D190" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E190">
         <v>10344</v>
       </c>
       <c r="F190" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5094,16 +5100,16 @@
         <v>69</v>
       </c>
       <c r="C191" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D191" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E191">
         <v>13652</v>
       </c>
       <c r="F191" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5114,16 +5120,16 @@
         <v>69</v>
       </c>
       <c r="C192" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D192" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E192">
         <v>12238</v>
       </c>
       <c r="F192" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5134,16 +5140,16 @@
         <v>70</v>
       </c>
       <c r="C193" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D193" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E193">
         <v>23715</v>
       </c>
       <c r="F193" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5154,16 +5160,16 @@
         <v>70</v>
       </c>
       <c r="C194" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D194" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E194">
         <v>21449</v>
       </c>
       <c r="F194" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5174,16 +5180,16 @@
         <v>71</v>
       </c>
       <c r="C195" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D195" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E195">
         <v>14965</v>
       </c>
       <c r="F195" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5194,16 +5200,16 @@
         <v>71</v>
       </c>
       <c r="C196" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D196" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E196">
         <v>12435</v>
       </c>
       <c r="F196" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5214,16 +5220,16 @@
         <v>72</v>
       </c>
       <c r="C197" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D197" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E197">
         <v>15117</v>
       </c>
       <c r="F197" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5234,16 +5240,16 @@
         <v>72</v>
       </c>
       <c r="C198" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D198" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E198">
         <v>12483</v>
       </c>
       <c r="F198" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5254,16 +5260,16 @@
         <v>73</v>
       </c>
       <c r="C199" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D199" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E199">
         <v>23449</v>
       </c>
       <c r="F199" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5274,16 +5280,16 @@
         <v>73</v>
       </c>
       <c r="C200" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D200" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E200">
         <v>19050</v>
       </c>
       <c r="F200" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5294,16 +5300,16 @@
         <v>74</v>
       </c>
       <c r="C201" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D201" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E201">
         <v>30297</v>
       </c>
       <c r="F201" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5314,16 +5320,16 @@
         <v>74</v>
       </c>
       <c r="C202" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D202" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E202">
         <v>29558</v>
       </c>
       <c r="F202" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5334,16 +5340,16 @@
         <v>74</v>
       </c>
       <c r="C203" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D203" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E203">
         <v>22679</v>
       </c>
       <c r="F203" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5354,16 +5360,16 @@
         <v>75</v>
       </c>
       <c r="C204" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D204" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E204">
         <v>69220</v>
       </c>
       <c r="F204" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5374,16 +5380,16 @@
         <v>75</v>
       </c>
       <c r="C205" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D205" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E205">
         <v>67531</v>
       </c>
       <c r="F205" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5394,16 +5400,16 @@
         <v>75</v>
       </c>
       <c r="C206" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D206" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E206">
         <v>65883</v>
       </c>
       <c r="F206" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5414,16 +5420,16 @@
         <v>75</v>
       </c>
       <c r="C207" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D207" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E207">
         <v>64276</v>
       </c>
       <c r="F207" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5434,16 +5440,16 @@
         <v>75</v>
       </c>
       <c r="C208" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D208" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E208">
         <v>62708</v>
       </c>
       <c r="F208" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5454,16 +5460,16 @@
         <v>75</v>
       </c>
       <c r="C209" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D209" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E209">
         <v>56940</v>
       </c>
       <c r="F209" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5474,16 +5480,16 @@
         <v>76</v>
       </c>
       <c r="C210" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D210" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E210">
         <v>23516</v>
       </c>
       <c r="F210" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5494,16 +5500,16 @@
         <v>76</v>
       </c>
       <c r="C211" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D211" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E211">
         <v>19107</v>
       </c>
       <c r="F211" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5514,16 +5520,16 @@
         <v>77</v>
       </c>
       <c r="C212" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D212" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E212">
         <v>69227</v>
       </c>
       <c r="F212" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5534,16 +5540,16 @@
         <v>77</v>
       </c>
       <c r="C213" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D213" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E213">
         <v>67538</v>
       </c>
       <c r="F213" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5554,16 +5560,16 @@
         <v>77</v>
       </c>
       <c r="C214" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D214" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E214">
         <v>58794</v>
       </c>
       <c r="F214" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5574,16 +5580,16 @@
         <v>77</v>
       </c>
       <c r="C215" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D215" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E215">
         <v>57172</v>
       </c>
       <c r="F215" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5594,16 +5600,16 @@
         <v>78</v>
       </c>
       <c r="C216" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D216" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E216">
         <v>121907</v>
       </c>
       <c r="F216" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5614,16 +5620,16 @@
         <v>79</v>
       </c>
       <c r="C217" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D217" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E217">
         <v>73953</v>
       </c>
       <c r="F217" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5634,16 +5640,16 @@
         <v>79</v>
       </c>
       <c r="C218" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D218" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E218">
         <v>67755</v>
       </c>
       <c r="F218" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5654,16 +5660,16 @@
         <v>79</v>
       </c>
       <c r="C219" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D219" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E219">
         <v>59243</v>
       </c>
       <c r="F219" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5674,16 +5680,16 @@
         <v>80</v>
       </c>
       <c r="C220" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D220" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E220">
         <v>82917</v>
       </c>
       <c r="F220" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5694,16 +5700,16 @@
         <v>80</v>
       </c>
       <c r="C221" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D221" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E221">
         <v>80534</v>
       </c>
       <c r="F221" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5714,16 +5720,16 @@
         <v>81</v>
       </c>
       <c r="C222" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D222" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E222">
         <v>78233</v>
       </c>
       <c r="F222" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5734,16 +5740,16 @@
         <v>81</v>
       </c>
       <c r="C223" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D223" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E223">
         <v>68479</v>
       </c>
       <c r="F223" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5754,16 +5760,16 @@
         <v>81</v>
       </c>
       <c r="C224" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D224" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E224">
         <v>66808</v>
       </c>
       <c r="F224" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5774,16 +5780,16 @@
         <v>82</v>
       </c>
       <c r="C225" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D225" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E225">
         <v>102322</v>
       </c>
       <c r="F225" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5794,16 +5800,16 @@
         <v>82</v>
       </c>
       <c r="C226" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D226" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E226">
         <v>78592</v>
       </c>
       <c r="F226" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5814,16 +5820,16 @@
         <v>82</v>
       </c>
       <c r="C227" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D227" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E227">
         <v>76675</v>
       </c>
       <c r="F227" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5834,16 +5840,16 @@
         <v>82</v>
       </c>
       <c r="C228" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D228" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E228">
         <v>72791</v>
       </c>
       <c r="F228" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5854,16 +5860,16 @@
         <v>82</v>
       </c>
       <c r="C229" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E229">
         <v>68205</v>
       </c>
       <c r="F229" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5874,16 +5880,16 @@
         <v>82</v>
       </c>
       <c r="C230" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D230" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E230">
         <v>66541</v>
       </c>
       <c r="F230" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5894,16 +5900,16 @@
         <v>83</v>
       </c>
       <c r="C231" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D231" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E231">
         <v>122630</v>
       </c>
       <c r="F231" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5914,16 +5920,16 @@
         <v>83</v>
       </c>
       <c r="C232" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D232" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E232">
         <v>116902</v>
       </c>
       <c r="F232" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5934,16 +5940,16 @@
         <v>83</v>
       </c>
       <c r="C233" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D233" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E233">
         <v>107141</v>
       </c>
       <c r="F233" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5954,16 +5960,16 @@
         <v>84</v>
       </c>
       <c r="C234" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D234" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E234">
         <v>19755</v>
       </c>
       <c r="F234" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5974,16 +5980,16 @@
         <v>84</v>
       </c>
       <c r="C235" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D235" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E235">
         <v>18974</v>
       </c>
       <c r="F235" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5994,16 +6000,16 @@
         <v>84</v>
       </c>
       <c r="C236" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D236" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E236">
         <v>18511</v>
       </c>
       <c r="F236" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6014,16 +6020,16 @@
         <v>84</v>
       </c>
       <c r="C237" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D237" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E237">
         <v>16245</v>
       </c>
       <c r="F237" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6034,16 +6040,16 @@
         <v>84</v>
       </c>
       <c r="C238" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D238" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E238">
         <v>15235</v>
       </c>
       <c r="F238" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6054,16 +6060,16 @@
         <v>85</v>
       </c>
       <c r="C239" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D239" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E239">
         <v>21354</v>
       </c>
       <c r="F239" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6074,16 +6080,16 @@
         <v>85</v>
       </c>
       <c r="C240" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D240" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E240">
         <v>20443</v>
       </c>
       <c r="F240" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6094,16 +6100,16 @@
         <v>85</v>
       </c>
       <c r="C241" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D241" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E241">
         <v>19315</v>
       </c>
       <c r="F241" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6114,16 +6120,16 @@
         <v>85</v>
       </c>
       <c r="C242" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D242" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E242">
         <v>16389</v>
       </c>
       <c r="F242" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6134,16 +6140,16 @@
         <v>85</v>
       </c>
       <c r="C243" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D243" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E243">
         <v>15482</v>
       </c>
       <c r="F243" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6154,16 +6160,16 @@
         <v>86</v>
       </c>
       <c r="C244" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D244" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E244">
         <v>28210</v>
       </c>
       <c r="F244" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6174,16 +6180,16 @@
         <v>86</v>
       </c>
       <c r="C245" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D245" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E245">
         <v>26539</v>
       </c>
       <c r="F245" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6194,16 +6200,16 @@
         <v>86</v>
       </c>
       <c r="C246" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D246" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E246">
         <v>23062</v>
       </c>
       <c r="F246" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6214,16 +6220,16 @@
         <v>86</v>
       </c>
       <c r="C247" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D247" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E247">
         <v>22499</v>
       </c>
       <c r="F247" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6234,16 +6240,16 @@
         <v>86</v>
       </c>
       <c r="C248" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D248" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E248">
         <v>20267</v>
       </c>
       <c r="F248" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6254,16 +6260,16 @@
         <v>86</v>
       </c>
       <c r="C249" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D249" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E249">
         <v>19467</v>
       </c>
       <c r="F249" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6274,16 +6280,16 @@
         <v>86</v>
       </c>
       <c r="C250" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D250" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E250">
         <v>17989</v>
       </c>
       <c r="F250" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6294,16 +6300,16 @@
         <v>86</v>
       </c>
       <c r="C251" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D251" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E251">
         <v>16792</v>
       </c>
       <c r="F251" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6314,16 +6320,16 @@
         <v>87</v>
       </c>
       <c r="C252" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D252" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E252">
         <v>27532</v>
       </c>
       <c r="F252" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6334,16 +6340,16 @@
         <v>87</v>
       </c>
       <c r="C253" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D253" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E253">
         <v>26860</v>
       </c>
       <c r="F253" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6354,16 +6360,16 @@
         <v>87</v>
       </c>
       <c r="C254" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D254" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E254">
         <v>25756</v>
       </c>
       <c r="F254" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6374,16 +6380,16 @@
         <v>87</v>
       </c>
       <c r="C255" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D255" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E255">
         <v>19966</v>
       </c>
       <c r="F255" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6394,16 +6400,16 @@
         <v>87</v>
       </c>
       <c r="C256" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D256" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E256">
         <v>17486</v>
       </c>
       <c r="F256" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6414,16 +6420,16 @@
         <v>88</v>
       </c>
       <c r="C257" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D257" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E257">
         <v>34924</v>
       </c>
       <c r="F257" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6434,16 +6440,16 @@
         <v>89</v>
       </c>
       <c r="C258" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D258" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E258">
         <v>23670</v>
       </c>
       <c r="F258" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6454,16 +6460,16 @@
         <v>89</v>
       </c>
       <c r="C259" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D259" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E259">
         <v>21307</v>
       </c>
       <c r="F259" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6474,16 +6480,16 @@
         <v>89</v>
       </c>
       <c r="C260" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D260" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E260">
         <v>20787</v>
       </c>
       <c r="F260" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6494,16 +6500,16 @@
         <v>89</v>
       </c>
       <c r="C261" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D261" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E261">
         <v>19054</v>
       </c>
       <c r="F261" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6514,16 +6520,16 @@
         <v>89</v>
       </c>
       <c r="C262" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D262" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E262">
         <v>18588</v>
       </c>
       <c r="F262" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6534,16 +6540,16 @@
         <v>89</v>
       </c>
       <c r="C263" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D263" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E263">
         <v>17671</v>
       </c>
       <c r="F263" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6554,16 +6560,16 @@
         <v>89</v>
       </c>
       <c r="C264" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D264" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E264">
         <v>17210</v>
       </c>
       <c r="F264" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6574,16 +6580,16 @@
         <v>89</v>
       </c>
       <c r="C265" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D265" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E265">
         <v>16522</v>
       </c>
       <c r="F265" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6594,16 +6600,16 @@
         <v>90</v>
       </c>
       <c r="C266" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D266" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E266">
         <v>24304</v>
       </c>
       <c r="F266" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6614,16 +6620,16 @@
         <v>90</v>
       </c>
       <c r="C267" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D267" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E267">
         <v>22150</v>
       </c>
       <c r="F267" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6634,16 +6640,16 @@
         <v>90</v>
       </c>
       <c r="C268" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D268" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E268">
         <v>20880</v>
       </c>
       <c r="F268" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6654,16 +6660,16 @@
         <v>90</v>
       </c>
       <c r="C269" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D269" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E269">
         <v>19384</v>
       </c>
       <c r="F269" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6674,16 +6680,16 @@
         <v>90</v>
       </c>
       <c r="C270" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D270" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E270">
         <v>18590</v>
       </c>
       <c r="F270" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6694,16 +6700,16 @@
         <v>90</v>
       </c>
       <c r="C271" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D271" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E271">
         <v>18054</v>
       </c>
       <c r="F271" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6714,16 +6720,16 @@
         <v>90</v>
       </c>
       <c r="C272" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D272" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E272">
         <v>17269</v>
       </c>
       <c r="F272" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6734,16 +6740,16 @@
         <v>90</v>
       </c>
       <c r="C273" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D273" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E273">
         <v>16685</v>
       </c>
       <c r="F273" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6754,16 +6760,16 @@
         <v>91</v>
       </c>
       <c r="C274" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D274" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E274">
         <v>29127</v>
       </c>
       <c r="F274" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6774,16 +6780,16 @@
         <v>91</v>
       </c>
       <c r="C275" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D275" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E275">
         <v>28389</v>
       </c>
       <c r="F275" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6794,16 +6800,16 @@
         <v>91</v>
       </c>
       <c r="C276" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D276" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E276">
         <v>27696</v>
       </c>
       <c r="F276" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6814,16 +6820,16 @@
         <v>91</v>
       </c>
       <c r="C277" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D277" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E277">
         <v>25740</v>
       </c>
       <c r="F277" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6834,16 +6840,16 @@
         <v>91</v>
       </c>
       <c r="C278" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D278" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E278">
         <v>22881</v>
       </c>
       <c r="F278" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6854,16 +6860,16 @@
         <v>91</v>
       </c>
       <c r="C279" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D279" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E279">
         <v>21584</v>
       </c>
       <c r="F279" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6874,16 +6880,16 @@
         <v>91</v>
       </c>
       <c r="C280" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D280" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E280">
         <v>19616</v>
       </c>
       <c r="F280" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6894,16 +6900,16 @@
         <v>91</v>
       </c>
       <c r="C281" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D281" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E281">
         <v>19137</v>
       </c>
       <c r="F281" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6914,16 +6920,16 @@
         <v>91</v>
       </c>
       <c r="C282" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D282" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E282">
         <v>17310</v>
       </c>
       <c r="F282" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6934,16 +6940,16 @@
         <v>91</v>
       </c>
       <c r="C283" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D283" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E283">
         <v>16711</v>
       </c>
       <c r="F283" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6954,16 +6960,16 @@
         <v>92</v>
       </c>
       <c r="C284" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D284" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E284">
         <v>26439</v>
       </c>
       <c r="F284" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6974,16 +6980,16 @@
         <v>92</v>
       </c>
       <c r="C285" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D285" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E285">
         <v>25794</v>
       </c>
       <c r="F285" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6994,16 +7000,16 @@
         <v>92</v>
       </c>
       <c r="C286" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D286" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E286">
         <v>23944</v>
       </c>
       <c r="F286" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7014,16 +7020,16 @@
         <v>92</v>
       </c>
       <c r="C287" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D287" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E287">
         <v>22551</v>
       </c>
       <c r="F287" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7034,16 +7040,16 @@
         <v>92</v>
       </c>
       <c r="C288" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D288" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E288">
         <v>21669</v>
       </c>
       <c r="F288" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7054,16 +7060,16 @@
         <v>92</v>
       </c>
       <c r="C289" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D289" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E289">
         <v>20926</v>
       </c>
       <c r="F289" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7074,16 +7080,16 @@
         <v>92</v>
       </c>
       <c r="C290" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D290" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E290">
         <v>18963</v>
       </c>
       <c r="F290" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7094,16 +7100,16 @@
         <v>92</v>
       </c>
       <c r="C291" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D291" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E291">
         <v>18051</v>
       </c>
       <c r="F291" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7114,16 +7120,16 @@
         <v>92</v>
       </c>
       <c r="C292" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D292" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E292">
         <v>17265</v>
       </c>
       <c r="F292" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7134,16 +7140,16 @@
         <v>92</v>
       </c>
       <c r="C293" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D293" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E293">
         <v>16694</v>
       </c>
       <c r="F293" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7154,16 +7160,16 @@
         <v>93</v>
       </c>
       <c r="C294" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D294" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E294">
         <v>26714</v>
       </c>
       <c r="F294" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7174,16 +7180,16 @@
         <v>93</v>
       </c>
       <c r="C295" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D295" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E295">
         <v>21512</v>
       </c>
       <c r="F295" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7194,16 +7200,16 @@
         <v>94</v>
       </c>
       <c r="C296" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D296" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E296">
         <v>23754</v>
       </c>
       <c r="F296" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7214,16 +7220,16 @@
         <v>94</v>
       </c>
       <c r="C297" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D297" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E297">
         <v>22346</v>
       </c>
       <c r="F297" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7234,16 +7240,16 @@
         <v>94</v>
       </c>
       <c r="C298" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D298" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E298">
         <v>20556</v>
       </c>
       <c r="F298" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7254,16 +7260,16 @@
         <v>94</v>
       </c>
       <c r="C299" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D299" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E299">
         <v>17333</v>
       </c>
       <c r="F299" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7274,16 +7280,16 @@
         <v>94</v>
       </c>
       <c r="C300" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D300" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E300">
         <v>16910</v>
       </c>
       <c r="F300" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7294,16 +7300,16 @@
         <v>95</v>
       </c>
       <c r="C301" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D301" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E301">
         <v>39909</v>
       </c>
       <c r="F301" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7314,16 +7320,16 @@
         <v>95</v>
       </c>
       <c r="C302" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D302" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E302">
         <v>34183</v>
       </c>
       <c r="F302" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7334,16 +7340,16 @@
         <v>95</v>
       </c>
       <c r="C303" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D303" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E303">
         <v>27982</v>
       </c>
       <c r="F303" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7354,16 +7360,16 @@
         <v>95</v>
       </c>
       <c r="C304" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D304" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E304">
         <v>27299</v>
       </c>
       <c r="F304" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7374,16 +7380,16 @@
         <v>95</v>
       </c>
       <c r="C305" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D305" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E305">
         <v>23657</v>
       </c>
       <c r="F305" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7394,16 +7400,16 @@
         <v>96</v>
       </c>
       <c r="C306" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D306" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E306">
         <v>38682</v>
       </c>
       <c r="F306" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7414,16 +7420,16 @@
         <v>96</v>
       </c>
       <c r="C307" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D307" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E307">
         <v>32012</v>
       </c>
       <c r="F307" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7434,16 +7440,16 @@
         <v>96</v>
       </c>
       <c r="C308" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D308" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E308">
         <v>27977</v>
       </c>
       <c r="F308" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7454,16 +7460,16 @@
         <v>96</v>
       </c>
       <c r="C309" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D309" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E309">
         <v>27294</v>
       </c>
       <c r="F309" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7474,16 +7480,16 @@
         <v>96</v>
       </c>
       <c r="C310" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D310" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E310">
         <v>23549</v>
       </c>
       <c r="F310" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7494,16 +7500,16 @@
         <v>96</v>
       </c>
       <c r="C311" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D311" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E311">
         <v>22454</v>
       </c>
       <c r="F311" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7514,16 +7520,16 @@
         <v>96</v>
       </c>
       <c r="C312" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D312" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E312">
         <v>19295</v>
       </c>
       <c r="F312" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7534,16 +7540,16 @@
         <v>97</v>
       </c>
       <c r="C313" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D313" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E313">
         <v>30107</v>
       </c>
       <c r="F313" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7554,16 +7560,16 @@
         <v>97</v>
       </c>
       <c r="C314" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D314" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E314">
         <v>27473</v>
       </c>
       <c r="F314" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7574,16 +7580,16 @@
         <v>97</v>
       </c>
       <c r="C315" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D315" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E315">
         <v>22167</v>
       </c>
       <c r="F315" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7594,16 +7600,16 @@
         <v>97</v>
       </c>
       <c r="C316" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D316" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E316">
         <v>19944</v>
       </c>
       <c r="F316" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7614,16 +7620,16 @@
         <v>97</v>
       </c>
       <c r="C317" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D317" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E317">
         <v>18257</v>
       </c>
       <c r="F317" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7634,16 +7640,16 @@
         <v>97</v>
       </c>
       <c r="C318" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D318" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E318">
         <v>16413</v>
       </c>
       <c r="F318" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7654,16 +7660,16 @@
         <v>97</v>
       </c>
       <c r="C319" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D319" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E319">
         <v>15637</v>
       </c>
       <c r="F319" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7674,16 +7680,16 @@
         <v>98</v>
       </c>
       <c r="C320" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D320" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E320">
         <v>27168</v>
       </c>
       <c r="F320" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7694,16 +7700,16 @@
         <v>98</v>
       </c>
       <c r="C321" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D321" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E321">
         <v>26505</v>
       </c>
       <c r="F321" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7714,16 +7720,16 @@
         <v>98</v>
       </c>
       <c r="C322" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D322" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E322">
         <v>24325</v>
       </c>
       <c r="F322" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7734,16 +7740,16 @@
         <v>98</v>
       </c>
       <c r="C323" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D323" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E323">
         <v>22128</v>
       </c>
       <c r="F323" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7754,16 +7760,16 @@
         <v>98</v>
       </c>
       <c r="C324" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D324" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E324">
         <v>18749</v>
       </c>
       <c r="F324" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7774,16 +7780,16 @@
         <v>98</v>
       </c>
       <c r="C325" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D325" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E325">
         <v>17239</v>
       </c>
       <c r="F325" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7794,16 +7800,16 @@
         <v>98</v>
       </c>
       <c r="C326" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D326" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E326">
         <v>16309</v>
       </c>
       <c r="F326" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7814,16 +7820,16 @@
         <v>98</v>
       </c>
       <c r="C327" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D327" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E327">
         <v>14012</v>
       </c>
       <c r="F327" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7834,16 +7840,16 @@
         <v>99</v>
       </c>
       <c r="C328" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D328" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E328">
         <v>34577</v>
       </c>
       <c r="F328" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7854,16 +7860,16 @@
         <v>99</v>
       </c>
       <c r="C329" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D329" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E329">
         <v>32736</v>
       </c>
       <c r="F329" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7874,16 +7880,16 @@
         <v>99</v>
       </c>
       <c r="C330" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D330" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E330">
         <v>29971</v>
       </c>
       <c r="F330" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7894,16 +7900,16 @@
         <v>99</v>
       </c>
       <c r="C331" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D331" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E331">
         <v>29240</v>
       </c>
       <c r="F331" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7914,16 +7920,16 @@
         <v>99</v>
       </c>
       <c r="C332" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D332" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E332">
         <v>27300</v>
       </c>
       <c r="F332" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7934,16 +7940,16 @@
         <v>99</v>
       </c>
       <c r="C333" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D333" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E333">
         <v>22301</v>
       </c>
       <c r="F333" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7954,16 +7960,16 @@
         <v>99</v>
       </c>
       <c r="C334" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D334" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E334">
         <v>20067</v>
       </c>
       <c r="F334" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7974,16 +7980,16 @@
         <v>99</v>
       </c>
       <c r="C335" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D335" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E335">
         <v>18328</v>
       </c>
       <c r="F335" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7994,16 +8000,16 @@
         <v>99</v>
       </c>
       <c r="C336" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D336" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E336">
         <v>17319</v>
       </c>
       <c r="F336" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8014,16 +8020,16 @@
         <v>100</v>
       </c>
       <c r="C337" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D337" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E337">
         <v>33868</v>
       </c>
       <c r="F337" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -8034,16 +8040,16 @@
         <v>100</v>
       </c>
       <c r="C338" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D338" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E338">
         <v>32139</v>
       </c>
       <c r="F338" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8054,16 +8060,16 @@
         <v>100</v>
       </c>
       <c r="C339" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D339" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E339">
         <v>28339</v>
       </c>
       <c r="F339" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -8074,16 +8080,16 @@
         <v>100</v>
       </c>
       <c r="C340" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D340" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E340">
         <v>26069</v>
       </c>
       <c r="F340" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8094,16 +8100,16 @@
         <v>100</v>
       </c>
       <c r="C341" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D341" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E341">
         <v>22746</v>
       </c>
       <c r="F341" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -8114,16 +8120,16 @@
         <v>100</v>
       </c>
       <c r="C342" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D342" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E342">
         <v>22073</v>
       </c>
       <c r="F342" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -8134,16 +8140,16 @@
         <v>100</v>
       </c>
       <c r="C343" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D343" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E343">
         <v>19772</v>
       </c>
       <c r="F343" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -8154,16 +8160,16 @@
         <v>100</v>
       </c>
       <c r="C344" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D344" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E344">
         <v>17952</v>
       </c>
       <c r="F344" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -8174,16 +8180,16 @@
         <v>101</v>
       </c>
       <c r="C345" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D345" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E345">
         <v>135587</v>
       </c>
       <c r="F345" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -8194,16 +8200,16 @@
         <v>101</v>
       </c>
       <c r="C346" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D346" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E346">
         <v>132280</v>
       </c>
       <c r="F346" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8214,16 +8220,16 @@
         <v>102</v>
       </c>
       <c r="C347" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D347" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E347">
         <v>211512</v>
       </c>
       <c r="F347" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8234,16 +8240,16 @@
         <v>102</v>
       </c>
       <c r="C348" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D348" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E348">
         <v>206353</v>
       </c>
       <c r="F348" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8254,16 +8260,16 @@
         <v>103</v>
       </c>
       <c r="C349" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D349" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E349">
         <v>141967</v>
       </c>
       <c r="F349" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8274,16 +8280,16 @@
         <v>104</v>
       </c>
       <c r="C350" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D350" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E350">
         <v>143722</v>
       </c>
       <c r="F350" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8294,16 +8300,16 @@
         <v>104</v>
       </c>
       <c r="C351" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D351" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E351">
         <v>119187</v>
       </c>
       <c r="F351" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8314,16 +8320,16 @@
         <v>104</v>
       </c>
       <c r="C352" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D352" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E352">
         <v>111138</v>
       </c>
       <c r="F352" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8334,16 +8340,16 @@
         <v>105</v>
       </c>
       <c r="C353" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D353" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E353">
         <v>145168</v>
       </c>
       <c r="F353" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -8354,16 +8360,16 @@
         <v>105</v>
       </c>
       <c r="C354" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D354" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E354">
         <v>121339</v>
       </c>
       <c r="F354" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8374,16 +8380,16 @@
         <v>106</v>
       </c>
       <c r="C355" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D355" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E355">
         <v>128598</v>
       </c>
       <c r="F355" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8394,16 +8400,16 @@
         <v>107</v>
       </c>
       <c r="C356" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D356" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E356">
         <v>89559</v>
       </c>
       <c r="F356" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8414,16 +8420,16 @@
         <v>107</v>
       </c>
       <c r="C357" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D357" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E357">
         <v>86923</v>
       </c>
       <c r="F357" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8434,16 +8440,16 @@
         <v>107</v>
       </c>
       <c r="C358" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D358" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E358">
         <v>84333</v>
       </c>
       <c r="F358" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8454,16 +8460,16 @@
         <v>108</v>
       </c>
       <c r="C359" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D359" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E359">
         <v>349603</v>
       </c>
       <c r="F359" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -8474,16 +8480,16 @@
         <v>108</v>
       </c>
       <c r="C360" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D360" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E360">
         <v>296331</v>
       </c>
       <c r="F360" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -8494,16 +8500,16 @@
         <v>108</v>
       </c>
       <c r="C361" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D361" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E361">
         <v>256280</v>
       </c>
       <c r="F361" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -8514,16 +8520,16 @@
         <v>108</v>
       </c>
       <c r="C362" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D362" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E362">
         <v>230584</v>
       </c>
       <c r="F362" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -8534,16 +8540,16 @@
         <v>108</v>
       </c>
       <c r="C363" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D363" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E363">
         <v>218048</v>
       </c>
       <c r="F363" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -8554,16 +8560,16 @@
         <v>108</v>
       </c>
       <c r="C364" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D364" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E364">
         <v>191292</v>
       </c>
       <c r="F364" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -8574,16 +8580,16 @@
         <v>108</v>
       </c>
       <c r="C365" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D365" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E365">
         <v>175739</v>
       </c>
       <c r="F365" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -8594,16 +8600,16 @@
         <v>109</v>
       </c>
       <c r="C366" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D366" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E366">
         <v>348662</v>
       </c>
       <c r="F366" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -8614,16 +8620,16 @@
         <v>109</v>
       </c>
       <c r="C367" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D367" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E367">
         <v>309301</v>
       </c>
       <c r="F367" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -8634,16 +8640,16 @@
         <v>110</v>
       </c>
       <c r="C368" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D368" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E368">
         <v>93994</v>
       </c>
       <c r="F368" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -8654,16 +8660,16 @@
         <v>110</v>
       </c>
       <c r="C369" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D369" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E369">
         <v>88354</v>
       </c>
       <c r="F369" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -8674,16 +8680,16 @@
         <v>110</v>
       </c>
       <c r="C370" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D370" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E370">
         <v>77184</v>
       </c>
       <c r="F370" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -8694,16 +8700,16 @@
         <v>111</v>
       </c>
       <c r="C371" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D371" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E371">
         <v>76543</v>
       </c>
       <c r="F371" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8714,16 +8720,16 @@
         <v>111</v>
       </c>
       <c r="C372" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D372" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E372">
         <v>73246</v>
       </c>
       <c r="F372" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8734,16 +8740,16 @@
         <v>111</v>
       </c>
       <c r="C373" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D373" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E373">
         <v>70455</v>
       </c>
       <c r="F373" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8754,16 +8760,16 @@
         <v>112</v>
       </c>
       <c r="C374" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D374" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E374">
         <v>290950</v>
       </c>
       <c r="F374" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8774,16 +8780,16 @@
         <v>112</v>
       </c>
       <c r="C375" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D375" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E375">
         <v>258788</v>
       </c>
       <c r="F375" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8794,16 +8800,16 @@
         <v>113</v>
       </c>
       <c r="C376" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D376" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E376">
         <v>323845</v>
       </c>
       <c r="F376" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8814,16 +8820,16 @@
         <v>113</v>
       </c>
       <c r="C377" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D377" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E377">
         <v>292967</v>
       </c>
       <c r="F377" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8834,16 +8840,16 @@
         <v>113</v>
       </c>
       <c r="C378" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D378" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E378">
         <v>173497</v>
       </c>
       <c r="F378" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8854,16 +8860,16 @@
         <v>113</v>
       </c>
       <c r="C379" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D379" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E379">
         <v>146873</v>
       </c>
       <c r="F379" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8874,16 +8880,16 @@
         <v>114</v>
       </c>
       <c r="C380" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D380" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E380">
         <v>118592</v>
       </c>
       <c r="F380" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8894,16 +8900,16 @@
         <v>114</v>
       </c>
       <c r="C381" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D381" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E381">
         <v>108799</v>
       </c>
       <c r="F381" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8914,16 +8920,16 @@
         <v>114</v>
       </c>
       <c r="C382" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D382" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E382">
         <v>104723</v>
       </c>
       <c r="F382" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8934,16 +8940,16 @@
         <v>115</v>
       </c>
       <c r="C383" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D383" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E383">
         <v>140745</v>
       </c>
       <c r="F383" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8954,16 +8960,16 @@
         <v>115</v>
       </c>
       <c r="C384" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D384" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E384">
         <v>120944</v>
       </c>
       <c r="F384" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8974,16 +8980,16 @@
         <v>115</v>
       </c>
       <c r="C385" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D385" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E385">
         <v>115391</v>
       </c>
       <c r="F385" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8994,16 +9000,16 @@
         <v>116</v>
       </c>
       <c r="C386" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D386" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E386">
         <v>283331</v>
       </c>
       <c r="F386" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -9014,16 +9020,16 @@
         <v>116</v>
       </c>
       <c r="C387" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D387" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E387">
         <v>241871</v>
       </c>
       <c r="F387" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -9034,16 +9040,16 @@
         <v>116</v>
       </c>
       <c r="C388" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D388" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E388">
         <v>227383</v>
       </c>
       <c r="F388" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -9054,16 +9060,16 @@
         <v>116</v>
       </c>
       <c r="C389" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D389" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E389">
         <v>202248</v>
       </c>
       <c r="F389" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -9074,16 +9080,16 @@
         <v>117</v>
       </c>
       <c r="C390" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D390" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E390">
         <v>184152</v>
       </c>
       <c r="F390" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -9094,16 +9100,16 @@
         <v>118</v>
       </c>
       <c r="C391" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D391" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E391">
         <v>86611</v>
       </c>
       <c r="F391" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -9114,16 +9120,16 @@
         <v>118</v>
       </c>
       <c r="C392" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D392" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E392">
         <v>77747</v>
       </c>
       <c r="F392" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -9134,16 +9140,16 @@
         <v>119</v>
       </c>
       <c r="C393" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D393" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E393">
         <v>76705</v>
       </c>
       <c r="F393" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -9154,16 +9160,16 @@
         <v>119</v>
       </c>
       <c r="C394" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D394" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E394">
         <v>68403</v>
       </c>
       <c r="F394" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -9174,16 +9180,16 @@
         <v>119</v>
       </c>
       <c r="C395" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D395" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E395">
         <v>62798</v>
       </c>
       <c r="F395" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -9194,16 +9200,16 @@
         <v>119</v>
       </c>
       <c r="C396" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D396" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E396">
         <v>56010</v>
       </c>
       <c r="F396" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -9214,16 +9220,16 @@
         <v>120</v>
       </c>
       <c r="C397" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D397" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E397">
         <v>301741</v>
       </c>
       <c r="F397" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -9234,16 +9240,16 @@
         <v>120</v>
       </c>
       <c r="C398" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D398" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E398">
         <v>258373</v>
       </c>
       <c r="F398" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -9254,16 +9260,16 @@
         <v>120</v>
       </c>
       <c r="C399" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D399" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E399">
         <v>231983</v>
       </c>
       <c r="F399" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -9274,16 +9280,16 @@
         <v>120</v>
       </c>
       <c r="C400" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D400" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E400">
         <v>224152</v>
       </c>
       <c r="F400" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -9294,16 +9300,16 @@
         <v>121</v>
       </c>
       <c r="C401" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D401" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E401">
         <v>127334</v>
       </c>
       <c r="F401" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -9314,16 +9320,16 @@
         <v>121</v>
       </c>
       <c r="C402" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D402" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E402">
         <v>111038</v>
       </c>
       <c r="F402" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -9334,16 +9340,16 @@
         <v>122</v>
       </c>
       <c r="C403" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D403" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E403">
         <v>283181</v>
       </c>
       <c r="F403" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -9354,16 +9360,16 @@
         <v>122</v>
       </c>
       <c r="C404" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D404" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E404">
         <v>243617</v>
       </c>
       <c r="F404" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -9374,16 +9380,16 @@
         <v>122</v>
       </c>
       <c r="C405" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D405" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E405">
         <v>228910</v>
       </c>
       <c r="F405" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -9394,16 +9400,16 @@
         <v>122</v>
       </c>
       <c r="C406" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D406" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E406">
         <v>203891</v>
       </c>
       <c r="F406" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -9414,16 +9420,16 @@
         <v>123</v>
       </c>
       <c r="C407" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D407" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E407">
         <v>199841</v>
       </c>
       <c r="F407" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -9434,16 +9440,16 @@
         <v>124</v>
       </c>
       <c r="C408" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D408" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E408">
         <v>102108</v>
       </c>
       <c r="F408" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -9454,16 +9460,16 @@
         <v>124</v>
       </c>
       <c r="C409" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D409" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E409">
         <v>89819</v>
       </c>
       <c r="F409" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -9474,16 +9480,16 @@
         <v>124</v>
       </c>
       <c r="C410" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D410" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E410">
         <v>77470</v>
       </c>
       <c r="F410" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -9494,16 +9500,16 @@
         <v>124</v>
       </c>
       <c r="C411" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D411" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E411">
         <v>73319</v>
       </c>
       <c r="F411" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -9514,16 +9520,16 @@
         <v>124</v>
       </c>
       <c r="C412" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D412" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E412">
         <v>70524</v>
       </c>
       <c r="F412" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -9534,16 +9540,16 @@
         <v>125</v>
       </c>
       <c r="C413" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D413" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E413">
         <v>54250</v>
       </c>
       <c r="F413" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -9554,16 +9560,16 @@
         <v>125</v>
       </c>
       <c r="C414" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D414" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E414">
         <v>52105</v>
       </c>
       <c r="F414" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -9574,16 +9580,16 @@
         <v>125</v>
       </c>
       <c r="C415" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D415" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E415">
         <v>43661</v>
       </c>
       <c r="F415" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -9594,16 +9600,16 @@
         <v>125</v>
       </c>
       <c r="C416" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D416" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E416">
         <v>42596</v>
       </c>
       <c r="F416" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -9614,16 +9620,16 @@
         <v>126</v>
       </c>
       <c r="C417" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D417" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E417">
         <v>90201</v>
       </c>
       <c r="F417" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -9634,16 +9640,16 @@
         <v>126</v>
       </c>
       <c r="C418" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D418" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E418">
         <v>87451</v>
       </c>
       <c r="F418" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -9654,16 +9660,16 @@
         <v>126</v>
       </c>
       <c r="C419" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D419" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E419">
         <v>84526</v>
       </c>
       <c r="F419" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -9674,16 +9680,16 @@
         <v>127</v>
       </c>
       <c r="C420" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D420" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E420">
         <v>62441</v>
       </c>
       <c r="F420" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -9694,16 +9700,16 @@
         <v>127</v>
       </c>
       <c r="C421" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D421" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E421">
         <v>57784</v>
       </c>
       <c r="F421" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -9714,16 +9720,16 @@
         <v>127</v>
       </c>
       <c r="C422" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D422" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E422">
         <v>54037</v>
       </c>
       <c r="F422" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -9734,16 +9740,16 @@
         <v>127</v>
       </c>
       <c r="C423" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D423" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E423">
         <v>47908</v>
       </c>
       <c r="F423" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -9754,16 +9760,16 @@
         <v>127</v>
       </c>
       <c r="C424" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D424" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E424">
         <v>39395</v>
       </c>
       <c r="F424" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -9774,16 +9780,16 @@
         <v>128</v>
       </c>
       <c r="C425" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D425" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E425">
         <v>84885</v>
       </c>
       <c r="F425" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -9794,16 +9800,16 @@
         <v>128</v>
       </c>
       <c r="C426" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D426" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E426">
         <v>77334</v>
       </c>
       <c r="F426" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -9814,16 +9820,16 @@
         <v>128</v>
       </c>
       <c r="C427" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D427" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E427">
         <v>67853</v>
       </c>
       <c r="F427" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -9834,16 +9840,16 @@
         <v>128</v>
       </c>
       <c r="C428" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D428" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E428">
         <v>62501</v>
       </c>
       <c r="F428" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9854,16 +9860,16 @@
         <v>128</v>
       </c>
       <c r="C429" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D429" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E429">
         <v>56575</v>
       </c>
       <c r="F429" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9874,16 +9880,16 @@
         <v>128</v>
       </c>
       <c r="C430" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D430" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E430">
         <v>49033</v>
       </c>
       <c r="F430" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9894,16 +9900,16 @@
         <v>128</v>
       </c>
       <c r="C431" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D431" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E431">
         <v>39758</v>
       </c>
       <c r="F431" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9914,16 +9920,16 @@
         <v>129</v>
       </c>
       <c r="C432" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D432" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E432">
         <v>26991</v>
       </c>
       <c r="F432" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9934,16 +9940,16 @@
         <v>129</v>
       </c>
       <c r="C433" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D433" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E433">
         <v>22110</v>
       </c>
       <c r="F433" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9954,16 +9960,16 @@
         <v>129</v>
       </c>
       <c r="C434" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D434" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E434">
         <v>20279</v>
       </c>
       <c r="F434" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9974,16 +9980,16 @@
         <v>129</v>
       </c>
       <c r="C435" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D435" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E435">
         <v>18125</v>
       </c>
       <c r="F435" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9994,16 +10000,16 @@
         <v>129</v>
       </c>
       <c r="C436" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D436" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E436">
         <v>16814</v>
       </c>
       <c r="F436" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -10014,16 +10020,16 @@
         <v>129</v>
       </c>
       <c r="C437" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D437" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E437">
         <v>14619</v>
       </c>
       <c r="F437" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -10034,16 +10040,16 @@
         <v>129</v>
       </c>
       <c r="C438" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D438" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E438">
         <v>12857</v>
       </c>
       <c r="F438" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -10054,16 +10060,16 @@
         <v>130</v>
       </c>
       <c r="C439" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D439" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E439">
         <v>20093</v>
       </c>
       <c r="F439" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -10074,16 +10080,16 @@
         <v>130</v>
       </c>
       <c r="C440" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D440" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E440">
         <v>18583</v>
       </c>
       <c r="F440" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -10094,16 +10100,16 @@
         <v>130</v>
       </c>
       <c r="C441" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D441" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E441">
         <v>18129</v>
       </c>
       <c r="F441" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -10114,16 +10120,16 @@
         <v>130</v>
       </c>
       <c r="C442" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D442" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E442">
         <v>17686</v>
       </c>
       <c r="F442" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -10134,16 +10140,16 @@
         <v>130</v>
       </c>
       <c r="C443" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D443" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E443">
         <v>15818</v>
       </c>
       <c r="F443" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -10154,16 +10160,16 @@
         <v>130</v>
       </c>
       <c r="C444" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D444" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E444">
         <v>14067</v>
       </c>
       <c r="F444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -10174,16 +10180,16 @@
         <v>130</v>
       </c>
       <c r="C445" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D445" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E445">
         <v>12714</v>
       </c>
       <c r="F445" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -10194,16 +10200,16 @@
         <v>131</v>
       </c>
       <c r="C446" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D446" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E446">
         <v>21763</v>
       </c>
       <c r="F446" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -10214,16 +10220,16 @@
         <v>131</v>
       </c>
       <c r="C447" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D447" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E447">
         <v>21138</v>
       </c>
       <c r="F447" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -10234,16 +10240,16 @@
         <v>131</v>
       </c>
       <c r="C448" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D448" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E448">
         <v>20456</v>
       </c>
       <c r="F448" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -10254,16 +10260,16 @@
         <v>131</v>
       </c>
       <c r="C449" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D449" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E449">
         <v>17122</v>
       </c>
       <c r="F449" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -10274,16 +10280,16 @@
         <v>131</v>
       </c>
       <c r="C450" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D450" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E450">
         <v>15138</v>
       </c>
       <c r="F450" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -10294,16 +10300,16 @@
         <v>132</v>
       </c>
       <c r="C451" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D451" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E451">
         <v>20847</v>
       </c>
       <c r="F451" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -10314,16 +10320,16 @@
         <v>132</v>
       </c>
       <c r="C452" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D452" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E452">
         <v>20338</v>
       </c>
       <c r="F452" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -10334,16 +10340,16 @@
         <v>132</v>
       </c>
       <c r="C453" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D453" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E453">
         <v>18767</v>
       </c>
       <c r="F453" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -10354,16 +10360,16 @@
         <v>132</v>
       </c>
       <c r="C454" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D454" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E454">
         <v>16709</v>
       </c>
       <c r="F454" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -10374,16 +10380,16 @@
         <v>132</v>
       </c>
       <c r="C455" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D455" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E455">
         <v>16301</v>
       </c>
       <c r="F455" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -10394,16 +10400,116 @@
         <v>132</v>
       </c>
       <c r="C456" t="s">
+        <v>137</v>
+      </c>
+      <c r="D456" t="s">
+        <v>301</v>
+      </c>
+      <c r="E456">
+        <v>14262</v>
+      </c>
+      <c r="F456" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" t="s">
+        <v>10</v>
+      </c>
+      <c r="B457" t="s">
+        <v>133</v>
+      </c>
+      <c r="C457" t="s">
         <v>143</v>
       </c>
-      <c r="D456" t="s">
-        <v>300</v>
-      </c>
-      <c r="E456" t="s">
-        <v>301</v>
-      </c>
-      <c r="F456" t="s">
+      <c r="D457" t="s">
         <v>302</v>
+      </c>
+      <c r="E457">
+        <v>24432</v>
+      </c>
+      <c r="F457" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="s">
+        <v>10</v>
+      </c>
+      <c r="B458" t="s">
+        <v>133</v>
+      </c>
+      <c r="C458" t="s">
+        <v>144</v>
+      </c>
+      <c r="D458" t="s">
+        <v>302</v>
+      </c>
+      <c r="E458">
+        <v>21312</v>
+      </c>
+      <c r="F458" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" t="s">
+        <v>10</v>
+      </c>
+      <c r="B459" t="s">
+        <v>133</v>
+      </c>
+      <c r="C459" t="s">
+        <v>134</v>
+      </c>
+      <c r="D459" t="s">
+        <v>302</v>
+      </c>
+      <c r="E459">
+        <v>20655</v>
+      </c>
+      <c r="F459" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" t="s">
+        <v>10</v>
+      </c>
+      <c r="B460" t="s">
+        <v>133</v>
+      </c>
+      <c r="C460" t="s">
+        <v>135</v>
+      </c>
+      <c r="D460" t="s">
+        <v>302</v>
+      </c>
+      <c r="E460">
+        <v>19107</v>
+      </c>
+      <c r="F460" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" t="s">
+        <v>10</v>
+      </c>
+      <c r="B461" t="s">
+        <v>133</v>
+      </c>
+      <c r="C461" t="s">
+        <v>136</v>
+      </c>
+      <c r="D461" t="s">
+        <v>302</v>
+      </c>
+      <c r="E461" t="s">
+        <v>303</v>
+      </c>
+      <c r="F461" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="307">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -418,6 +418,9 @@
     <t>A4 1.8 Avant Turbo Mec.</t>
   </si>
   <si>
+    <t>A4 1.8 Avant Turbo Tip./ Multitronic</t>
+  </si>
+  <si>
     <t>1999 Gasolina</t>
   </si>
   <si>
@@ -925,7 +928,10 @@
     <t>008010-1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 17244.00</t>
+    <t>008049-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42121.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -1286,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F461"/>
+  <dimension ref="A1:F468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1320,16 +1326,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E2">
         <v>27313</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1340,16 +1346,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3">
         <v>21558</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1360,16 +1366,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>14581</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1380,16 +1386,16 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E5">
         <v>13265</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1400,16 +1406,16 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E6">
         <v>21581</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1420,16 +1426,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E7">
         <v>17680</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1440,16 +1446,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E8">
         <v>17248</v>
       </c>
       <c r="F8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1460,16 +1466,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E9">
         <v>13550</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1480,16 +1486,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E10">
         <v>29872</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1500,16 +1506,16 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E11">
         <v>29143</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1520,16 +1526,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E12">
         <v>23404</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1540,16 +1546,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E13">
         <v>22833</v>
       </c>
       <c r="F13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1560,16 +1566,16 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E14">
         <v>22449</v>
       </c>
       <c r="F14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1580,16 +1586,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15">
         <v>18647</v>
       </c>
       <c r="F15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1600,16 +1606,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16">
         <v>18192</v>
       </c>
       <c r="F16" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1620,16 +1626,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E17">
         <v>92142</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1640,16 +1646,16 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E18">
         <v>89894</v>
       </c>
       <c r="F18" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1660,16 +1666,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E19">
         <v>87701</v>
       </c>
       <c r="F19" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1680,16 +1686,16 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E20">
         <v>19511</v>
       </c>
       <c r="F20" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1700,16 +1706,16 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E21">
         <v>18466</v>
       </c>
       <c r="F21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1720,16 +1726,16 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E22">
         <v>15931</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1740,16 +1746,16 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E23">
         <v>24925</v>
       </c>
       <c r="F23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1760,16 +1766,16 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E24">
         <v>24317</v>
       </c>
       <c r="F24" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1780,16 +1786,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E25">
         <v>19754</v>
       </c>
       <c r="F25" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1800,16 +1806,16 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E26">
         <v>104853</v>
       </c>
       <c r="F26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1820,16 +1826,16 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E27">
         <v>32424</v>
       </c>
       <c r="F27" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1840,16 +1846,16 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E28">
         <v>49978</v>
       </c>
       <c r="F28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1860,16 +1866,16 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E29">
         <v>45101</v>
       </c>
       <c r="F29" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1880,16 +1886,16 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E30">
         <v>74355</v>
       </c>
       <c r="F30" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1900,16 +1906,16 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E31">
         <v>71998</v>
       </c>
       <c r="F31" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1920,16 +1926,16 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E32">
         <v>75561</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1940,16 +1946,16 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E33">
         <v>70007</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1960,16 +1966,16 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E34">
         <v>58514</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1980,16 +1986,16 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E35">
         <v>57086</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2000,16 +2006,16 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E36">
         <v>29151</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2020,16 +2026,16 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E37">
         <v>28440</v>
       </c>
       <c r="F37" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2040,16 +2046,16 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E38">
         <v>27102</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2060,16 +2066,16 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E39">
         <v>19575</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2080,16 +2086,16 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E40">
         <v>13455</v>
       </c>
       <c r="F40" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2100,16 +2106,16 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E41">
         <v>11701</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2120,16 +2126,16 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E42">
         <v>28869</v>
       </c>
       <c r="F42" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2140,16 +2146,16 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E43">
         <v>28164</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2160,16 +2166,16 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E44">
         <v>89797</v>
       </c>
       <c r="F44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2180,16 +2186,16 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E45">
         <v>86004</v>
       </c>
       <c r="F45" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2200,16 +2206,16 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E46">
         <v>83906</v>
       </c>
       <c r="F46" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2220,16 +2226,16 @@
         <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E47">
         <v>81859</v>
       </c>
       <c r="F47" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2240,16 +2246,16 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E48">
         <v>71424</v>
       </c>
       <c r="F48" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2260,16 +2266,16 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E49">
         <v>8070</v>
       </c>
       <c r="F49" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2280,16 +2286,16 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E50">
         <v>7072</v>
       </c>
       <c r="F50" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2300,16 +2306,16 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E51">
         <v>133185</v>
       </c>
       <c r="F51" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2320,16 +2326,16 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E52">
         <v>129936</v>
       </c>
       <c r="F52" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2340,16 +2346,16 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E53">
         <v>92099</v>
       </c>
       <c r="F53" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2360,16 +2366,16 @@
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E54">
         <v>41220</v>
       </c>
       <c r="F54" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2380,16 +2386,16 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E55">
         <v>32289</v>
       </c>
       <c r="F55" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2400,16 +2406,16 @@
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E56">
         <v>27713</v>
       </c>
       <c r="F56" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2420,16 +2426,16 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E57">
         <v>426859</v>
       </c>
       <c r="F57" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2440,16 +2446,16 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E58">
         <v>384365</v>
       </c>
       <c r="F58" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2460,16 +2466,16 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E59">
         <v>332825</v>
       </c>
       <c r="F59" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2480,16 +2486,16 @@
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E60">
         <v>396648</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2500,16 +2506,16 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E61">
         <v>351603</v>
       </c>
       <c r="F61" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2520,16 +2526,16 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E62">
         <v>294624</v>
       </c>
       <c r="F62" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2540,16 +2546,16 @@
         <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E63">
         <v>453297</v>
       </c>
       <c r="F63" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2560,16 +2566,16 @@
         <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E64">
         <v>401677</v>
       </c>
       <c r="F64" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2580,16 +2586,16 @@
         <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E65">
         <v>348246</v>
       </c>
       <c r="F65" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2600,16 +2606,16 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E66">
         <v>25397</v>
       </c>
       <c r="F66" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2620,16 +2626,16 @@
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E67">
         <v>21995</v>
       </c>
       <c r="F67" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2640,16 +2646,16 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E68">
         <v>18798</v>
       </c>
       <c r="F68" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2660,16 +2666,16 @@
         <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E69">
         <v>18158</v>
       </c>
       <c r="F69" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2680,16 +2686,16 @@
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E70">
         <v>16980</v>
       </c>
       <c r="F70" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2700,16 +2706,16 @@
         <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E71">
         <v>27427</v>
       </c>
       <c r="F71" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2720,16 +2726,16 @@
         <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E72">
         <v>25605</v>
       </c>
       <c r="F72" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2740,16 +2746,16 @@
         <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E73">
         <v>21492</v>
       </c>
       <c r="F73" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2760,16 +2766,16 @@
         <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E74">
         <v>19903</v>
       </c>
       <c r="F74" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2780,16 +2786,16 @@
         <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E75">
         <v>19231</v>
       </c>
       <c r="F75" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2800,16 +2806,16 @@
         <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E76">
         <v>15514</v>
       </c>
       <c r="F76" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2820,16 +2826,16 @@
         <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E77">
         <v>14842</v>
       </c>
       <c r="F77" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2840,16 +2846,16 @@
         <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E78">
         <v>12659</v>
       </c>
       <c r="F78" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2860,16 +2866,16 @@
         <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E79">
         <v>12058</v>
       </c>
       <c r="F79" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2880,16 +2886,16 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E80">
         <v>11358</v>
       </c>
       <c r="F80" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2900,16 +2906,16 @@
         <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E81">
         <v>9903</v>
       </c>
       <c r="F81" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2920,16 +2926,16 @@
         <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E82">
         <v>14608</v>
       </c>
       <c r="F82" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2940,16 +2946,16 @@
         <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E83">
         <v>13421</v>
       </c>
       <c r="F83" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2960,16 +2966,16 @@
         <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E84">
         <v>12439</v>
       </c>
       <c r="F84" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2980,16 +2986,16 @@
         <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E85">
         <v>11373</v>
       </c>
       <c r="F85" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3000,16 +3006,16 @@
         <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E86">
         <v>10192</v>
       </c>
       <c r="F86" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3020,16 +3026,16 @@
         <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E87">
         <v>9297</v>
       </c>
       <c r="F87" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3040,16 +3046,16 @@
         <v>34</v>
       </c>
       <c r="C88" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E88">
         <v>12164</v>
       </c>
       <c r="F88" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3060,16 +3066,16 @@
         <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E89">
         <v>11236</v>
       </c>
       <c r="F89" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3080,16 +3086,16 @@
         <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E90">
         <v>9800</v>
       </c>
       <c r="F90" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3100,16 +3106,16 @@
         <v>34</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E91">
         <v>9324</v>
       </c>
       <c r="F91" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3120,16 +3126,16 @@
         <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E92">
         <v>25330</v>
       </c>
       <c r="F92" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3140,16 +3146,16 @@
         <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E93">
         <v>24712</v>
       </c>
       <c r="F93" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3160,16 +3166,16 @@
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E94">
         <v>16727</v>
       </c>
       <c r="F94" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3180,16 +3186,16 @@
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E95">
         <v>13972</v>
       </c>
       <c r="F95" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3200,16 +3206,16 @@
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D96" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E96">
         <v>13585</v>
       </c>
       <c r="F96" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3220,16 +3226,16 @@
         <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E97">
         <v>16655</v>
       </c>
       <c r="F97" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3240,16 +3246,16 @@
         <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E98">
         <v>14777</v>
       </c>
       <c r="F98" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3260,16 +3266,16 @@
         <v>37</v>
       </c>
       <c r="C99" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E99">
         <v>12873</v>
       </c>
       <c r="F99" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3280,16 +3286,16 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E100">
         <v>19837</v>
       </c>
       <c r="F100" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3300,16 +3306,16 @@
         <v>38</v>
       </c>
       <c r="C101" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E101">
         <v>14311</v>
       </c>
       <c r="F101" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3320,16 +3326,16 @@
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E102">
         <v>12443</v>
       </c>
       <c r="F102" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3340,16 +3346,16 @@
         <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E103">
         <v>6442</v>
       </c>
       <c r="F103" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3360,16 +3366,16 @@
         <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E104">
         <v>6095</v>
       </c>
       <c r="F104" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3380,16 +3386,16 @@
         <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E105">
         <v>5884</v>
       </c>
       <c r="F105" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3400,16 +3406,16 @@
         <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D106" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E106">
         <v>5680</v>
       </c>
       <c r="F106" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3420,16 +3426,16 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E107">
         <v>5955</v>
       </c>
       <c r="F107" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3440,16 +3446,16 @@
         <v>40</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E108">
         <v>5298</v>
       </c>
       <c r="F108" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3460,16 +3466,16 @@
         <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D109" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E109">
         <v>5168</v>
       </c>
       <c r="F109" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3480,16 +3486,16 @@
         <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E110">
         <v>4546</v>
       </c>
       <c r="F110" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3500,16 +3506,16 @@
         <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D111" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E111">
         <v>4415</v>
       </c>
       <c r="F111" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3520,16 +3526,16 @@
         <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E112">
         <v>3607</v>
       </c>
       <c r="F112" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3540,16 +3546,16 @@
         <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E113">
         <v>5607</v>
       </c>
       <c r="F113" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3560,16 +3566,16 @@
         <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D114" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E114">
         <v>5281</v>
       </c>
       <c r="F114" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3580,16 +3586,16 @@
         <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D115" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E115">
         <v>4945</v>
       </c>
       <c r="F115" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3600,16 +3606,16 @@
         <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D116" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E116">
         <v>4532</v>
       </c>
       <c r="F116" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3620,16 +3626,16 @@
         <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E117">
         <v>3838</v>
       </c>
       <c r="F117" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3640,16 +3646,16 @@
         <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D118" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E118">
         <v>3291</v>
       </c>
       <c r="F118" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3660,16 +3666,16 @@
         <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D119" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E119">
         <v>5858</v>
       </c>
       <c r="F119" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3680,16 +3686,16 @@
         <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D120" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E120">
         <v>5699</v>
       </c>
       <c r="F120" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3700,16 +3706,16 @@
         <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D121" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E121">
         <v>5481</v>
       </c>
       <c r="F121" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3720,16 +3726,16 @@
         <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E122">
         <v>4160</v>
       </c>
       <c r="F122" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3740,16 +3746,16 @@
         <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E123">
         <v>4058</v>
       </c>
       <c r="F123" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3760,16 +3766,16 @@
         <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E124">
         <v>3746</v>
       </c>
       <c r="F124" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3780,16 +3786,16 @@
         <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D125" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E125">
         <v>3569</v>
       </c>
       <c r="F125" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3800,16 +3806,16 @@
         <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D126" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E126">
         <v>3442</v>
       </c>
       <c r="F126" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3820,16 +3826,16 @@
         <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D127" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E127">
         <v>3284</v>
       </c>
       <c r="F127" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3840,16 +3846,16 @@
         <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D128" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E128">
         <v>2840</v>
       </c>
       <c r="F128" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3860,16 +3866,16 @@
         <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D129" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E129">
         <v>2401</v>
       </c>
       <c r="F129" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3880,16 +3886,16 @@
         <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D130" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E130">
         <v>5876</v>
       </c>
       <c r="F130" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3900,16 +3906,16 @@
         <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D131" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E131">
         <v>5732</v>
       </c>
       <c r="F131" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3920,16 +3926,16 @@
         <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D132" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E132">
         <v>4374</v>
       </c>
       <c r="F132" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3940,16 +3946,16 @@
         <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E133">
         <v>7989</v>
       </c>
       <c r="F133" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3960,16 +3966,16 @@
         <v>46</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D134" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E134">
         <v>7146</v>
       </c>
       <c r="F134" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3980,16 +3986,16 @@
         <v>46</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E135">
         <v>6889</v>
       </c>
       <c r="F135" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4000,16 +4006,16 @@
         <v>46</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E136">
         <v>6037</v>
       </c>
       <c r="F136" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4020,16 +4026,16 @@
         <v>46</v>
       </c>
       <c r="C137" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D137" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E137">
         <v>4876</v>
       </c>
       <c r="F137" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4040,16 +4046,16 @@
         <v>46</v>
       </c>
       <c r="C138" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D138" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E138">
         <v>4281</v>
       </c>
       <c r="F138" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4060,16 +4066,16 @@
         <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D139" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E139">
         <v>6241</v>
       </c>
       <c r="F139" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4080,16 +4086,16 @@
         <v>47</v>
       </c>
       <c r="C140" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D140" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E140">
         <v>6088</v>
       </c>
       <c r="F140" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4100,16 +4106,16 @@
         <v>47</v>
       </c>
       <c r="C141" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D141" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E141">
         <v>5939</v>
       </c>
       <c r="F141" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4120,16 +4126,16 @@
         <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D142" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E142">
         <v>5967</v>
       </c>
       <c r="F142" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4140,16 +4146,16 @@
         <v>48</v>
       </c>
       <c r="C143" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D143" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E143">
         <v>5821</v>
       </c>
       <c r="F143" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4160,16 +4166,16 @@
         <v>48</v>
       </c>
       <c r="C144" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D144" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E144">
         <v>5569</v>
       </c>
       <c r="F144" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4180,16 +4186,16 @@
         <v>48</v>
       </c>
       <c r="C145" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D145" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E145">
         <v>4635</v>
       </c>
       <c r="F145" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4200,16 +4206,16 @@
         <v>48</v>
       </c>
       <c r="C146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D146" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E146">
         <v>4206</v>
       </c>
       <c r="F146" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4220,16 +4226,16 @@
         <v>48</v>
       </c>
       <c r="C147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D147" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E147">
         <v>4005</v>
       </c>
       <c r="F147" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4240,16 +4246,16 @@
         <v>49</v>
       </c>
       <c r="C148" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D148" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E148">
         <v>3600000</v>
       </c>
       <c r="F148" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4260,16 +4266,16 @@
         <v>49</v>
       </c>
       <c r="C149" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D149" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E149">
         <v>3228897</v>
       </c>
       <c r="F149" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4280,16 +4286,16 @@
         <v>49</v>
       </c>
       <c r="C150" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D150" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E150">
         <v>3070680</v>
       </c>
       <c r="F150" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4300,16 +4306,16 @@
         <v>50</v>
       </c>
       <c r="C151" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D151" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E151">
         <v>3900000</v>
       </c>
       <c r="F151" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4320,16 +4326,16 @@
         <v>50</v>
       </c>
       <c r="C152" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D152" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E152">
         <v>3625334</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4340,16 +4346,16 @@
         <v>51</v>
       </c>
       <c r="C153" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E153">
         <v>1214247</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4360,16 +4366,16 @@
         <v>51</v>
       </c>
       <c r="C154" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D154" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E154">
         <v>946995</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4380,16 +4386,16 @@
         <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D155" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E155">
         <v>617791</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4400,16 +4406,16 @@
         <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D156" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E156">
         <v>4493874</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4420,16 +4426,16 @@
         <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D157" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E157">
         <v>4142252</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4440,16 +4446,16 @@
         <v>54</v>
       </c>
       <c r="C158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D158" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E158">
         <v>2346605</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4460,16 +4466,16 @@
         <v>54</v>
       </c>
       <c r="C159" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D159" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E159">
         <v>2055673</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4480,16 +4486,16 @@
         <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D160" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E160">
         <v>3800000</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4500,16 +4506,16 @@
         <v>55</v>
       </c>
       <c r="C161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D161" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E161">
         <v>3226068</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4520,16 +4526,16 @@
         <v>55</v>
       </c>
       <c r="C162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D162" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E162">
         <v>2729902</v>
       </c>
       <c r="F162" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4540,16 +4546,16 @@
         <v>55</v>
       </c>
       <c r="C163" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D163" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E163">
         <v>2502679</v>
       </c>
       <c r="F163" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4560,16 +4566,16 @@
         <v>56</v>
       </c>
       <c r="C164" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D164" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E164">
         <v>694217</v>
       </c>
       <c r="F164" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4580,16 +4586,16 @@
         <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D165" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E165">
         <v>607011</v>
       </c>
       <c r="F165" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4600,16 +4606,16 @@
         <v>57</v>
       </c>
       <c r="C166" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D166" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E166">
         <v>1296696</v>
       </c>
       <c r="F166" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4620,16 +4626,16 @@
         <v>57</v>
       </c>
       <c r="C167" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D167" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E167">
         <v>1032188</v>
       </c>
       <c r="F167" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4640,16 +4646,16 @@
         <v>58</v>
       </c>
       <c r="C168" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D168" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E168">
         <v>1784133</v>
       </c>
       <c r="F168" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4660,16 +4666,16 @@
         <v>58</v>
       </c>
       <c r="C169" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D169" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E169">
         <v>1616174</v>
       </c>
       <c r="F169" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4680,16 +4686,16 @@
         <v>59</v>
       </c>
       <c r="C170" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D170" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E170">
         <v>476063</v>
       </c>
       <c r="F170" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4700,16 +4706,16 @@
         <v>60</v>
       </c>
       <c r="C171" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D171" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E171">
         <v>638283</v>
       </c>
       <c r="F171" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4720,16 +4726,16 @@
         <v>60</v>
       </c>
       <c r="C172" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D172" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E172">
         <v>591028</v>
       </c>
       <c r="F172" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4740,16 +4746,16 @@
         <v>60</v>
       </c>
       <c r="C173" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D173" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E173">
         <v>528207</v>
       </c>
       <c r="F173" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4760,16 +4766,16 @@
         <v>60</v>
       </c>
       <c r="C174" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D174" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E174">
         <v>515323</v>
       </c>
       <c r="F174" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4780,16 +4786,16 @@
         <v>61</v>
       </c>
       <c r="C175" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D175" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E175">
         <v>2800750</v>
       </c>
       <c r="F175" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4800,16 +4806,16 @@
         <v>61</v>
       </c>
       <c r="C176" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D176" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E176">
         <v>2200329</v>
       </c>
       <c r="F176" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4820,16 +4826,16 @@
         <v>61</v>
       </c>
       <c r="C177" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D177" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E177">
         <v>1739268</v>
       </c>
       <c r="F177" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4840,16 +4846,16 @@
         <v>61</v>
       </c>
       <c r="C178" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D178" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E178">
         <v>1647750</v>
       </c>
       <c r="F178" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4860,16 +4866,16 @@
         <v>62</v>
       </c>
       <c r="C179" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D179" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E179">
         <v>1770690</v>
       </c>
       <c r="F179" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4880,16 +4886,16 @@
         <v>62</v>
       </c>
       <c r="C180" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D180" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E180">
         <v>1706250</v>
       </c>
       <c r="F180" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4900,16 +4906,16 @@
         <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D181" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E181">
         <v>588516</v>
       </c>
       <c r="F181" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4920,16 +4926,16 @@
         <v>63</v>
       </c>
       <c r="C182" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D182" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E182">
         <v>521625</v>
       </c>
       <c r="F182" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4940,16 +4946,16 @@
         <v>64</v>
       </c>
       <c r="C183" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D183" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E183">
         <v>1842750</v>
       </c>
       <c r="F183" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4960,16 +4966,16 @@
         <v>65</v>
       </c>
       <c r="C184" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D184" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E184">
         <v>1145906</v>
       </c>
       <c r="F184" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4980,16 +4986,16 @@
         <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D185" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E185">
         <v>993822</v>
       </c>
       <c r="F185" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5000,16 +5006,16 @@
         <v>66</v>
       </c>
       <c r="C186" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D186" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E186">
         <v>531136</v>
       </c>
       <c r="F186" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5020,16 +5026,16 @@
         <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D187" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E187">
         <v>654552</v>
       </c>
       <c r="F187" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5040,16 +5046,16 @@
         <v>68</v>
       </c>
       <c r="C188" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D188" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E188">
         <v>12940</v>
       </c>
       <c r="F188" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5060,16 +5066,16 @@
         <v>68</v>
       </c>
       <c r="C189" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D189" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E189">
         <v>12146</v>
       </c>
       <c r="F189" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5080,16 +5086,16 @@
         <v>68</v>
       </c>
       <c r="C190" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D190" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E190">
         <v>10344</v>
       </c>
       <c r="F190" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5100,16 +5106,16 @@
         <v>69</v>
       </c>
       <c r="C191" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D191" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E191">
         <v>13652</v>
       </c>
       <c r="F191" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5120,16 +5126,16 @@
         <v>69</v>
       </c>
       <c r="C192" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D192" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E192">
         <v>12238</v>
       </c>
       <c r="F192" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5140,16 +5146,16 @@
         <v>70</v>
       </c>
       <c r="C193" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D193" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E193">
         <v>23715</v>
       </c>
       <c r="F193" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5160,16 +5166,16 @@
         <v>70</v>
       </c>
       <c r="C194" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D194" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E194">
         <v>21449</v>
       </c>
       <c r="F194" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5180,16 +5186,16 @@
         <v>71</v>
       </c>
       <c r="C195" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D195" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E195">
         <v>14965</v>
       </c>
       <c r="F195" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5200,16 +5206,16 @@
         <v>71</v>
       </c>
       <c r="C196" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D196" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E196">
         <v>12435</v>
       </c>
       <c r="F196" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5220,16 +5226,16 @@
         <v>72</v>
       </c>
       <c r="C197" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D197" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E197">
         <v>15117</v>
       </c>
       <c r="F197" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5240,16 +5246,16 @@
         <v>72</v>
       </c>
       <c r="C198" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D198" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E198">
         <v>12483</v>
       </c>
       <c r="F198" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5260,16 +5266,16 @@
         <v>73</v>
       </c>
       <c r="C199" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D199" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E199">
         <v>23449</v>
       </c>
       <c r="F199" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5280,16 +5286,16 @@
         <v>73</v>
       </c>
       <c r="C200" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D200" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E200">
         <v>19050</v>
       </c>
       <c r="F200" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5300,16 +5306,16 @@
         <v>74</v>
       </c>
       <c r="C201" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D201" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E201">
         <v>30297</v>
       </c>
       <c r="F201" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5320,16 +5326,16 @@
         <v>74</v>
       </c>
       <c r="C202" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D202" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E202">
         <v>29558</v>
       </c>
       <c r="F202" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5340,16 +5346,16 @@
         <v>74</v>
       </c>
       <c r="C203" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D203" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E203">
         <v>22679</v>
       </c>
       <c r="F203" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5360,16 +5366,16 @@
         <v>75</v>
       </c>
       <c r="C204" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D204" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E204">
         <v>69220</v>
       </c>
       <c r="F204" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5380,16 +5386,16 @@
         <v>75</v>
       </c>
       <c r="C205" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D205" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E205">
         <v>67531</v>
       </c>
       <c r="F205" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5400,16 +5406,16 @@
         <v>75</v>
       </c>
       <c r="C206" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D206" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E206">
         <v>65883</v>
       </c>
       <c r="F206" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5420,16 +5426,16 @@
         <v>75</v>
       </c>
       <c r="C207" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D207" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E207">
         <v>64276</v>
       </c>
       <c r="F207" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5440,16 +5446,16 @@
         <v>75</v>
       </c>
       <c r="C208" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D208" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E208">
         <v>62708</v>
       </c>
       <c r="F208" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5460,16 +5466,16 @@
         <v>75</v>
       </c>
       <c r="C209" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D209" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E209">
         <v>56940</v>
       </c>
       <c r="F209" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5480,16 +5486,16 @@
         <v>76</v>
       </c>
       <c r="C210" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D210" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E210">
         <v>23516</v>
       </c>
       <c r="F210" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5500,16 +5506,16 @@
         <v>76</v>
       </c>
       <c r="C211" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D211" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E211">
         <v>19107</v>
       </c>
       <c r="F211" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5520,16 +5526,16 @@
         <v>77</v>
       </c>
       <c r="C212" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D212" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E212">
         <v>69227</v>
       </c>
       <c r="F212" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5540,16 +5546,16 @@
         <v>77</v>
       </c>
       <c r="C213" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D213" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E213">
         <v>67538</v>
       </c>
       <c r="F213" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5560,16 +5566,16 @@
         <v>77</v>
       </c>
       <c r="C214" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D214" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E214">
         <v>58794</v>
       </c>
       <c r="F214" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5580,16 +5586,16 @@
         <v>77</v>
       </c>
       <c r="C215" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D215" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E215">
         <v>57172</v>
       </c>
       <c r="F215" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5600,16 +5606,16 @@
         <v>78</v>
       </c>
       <c r="C216" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D216" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E216">
         <v>121907</v>
       </c>
       <c r="F216" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5620,16 +5626,16 @@
         <v>79</v>
       </c>
       <c r="C217" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D217" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E217">
         <v>73953</v>
       </c>
       <c r="F217" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5640,16 +5646,16 @@
         <v>79</v>
       </c>
       <c r="C218" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D218" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E218">
         <v>67755</v>
       </c>
       <c r="F218" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5660,16 +5666,16 @@
         <v>79</v>
       </c>
       <c r="C219" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D219" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E219">
         <v>59243</v>
       </c>
       <c r="F219" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5680,16 +5686,16 @@
         <v>80</v>
       </c>
       <c r="C220" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D220" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E220">
         <v>82917</v>
       </c>
       <c r="F220" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5700,16 +5706,16 @@
         <v>80</v>
       </c>
       <c r="C221" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D221" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E221">
         <v>80534</v>
       </c>
       <c r="F221" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5720,16 +5726,16 @@
         <v>81</v>
       </c>
       <c r="C222" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D222" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E222">
         <v>78233</v>
       </c>
       <c r="F222" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5740,16 +5746,16 @@
         <v>81</v>
       </c>
       <c r="C223" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D223" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E223">
         <v>68479</v>
       </c>
       <c r="F223" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5760,16 +5766,16 @@
         <v>81</v>
       </c>
       <c r="C224" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D224" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E224">
         <v>66808</v>
       </c>
       <c r="F224" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5780,16 +5786,16 @@
         <v>82</v>
       </c>
       <c r="C225" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D225" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E225">
         <v>102322</v>
       </c>
       <c r="F225" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5800,16 +5806,16 @@
         <v>82</v>
       </c>
       <c r="C226" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D226" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E226">
         <v>78592</v>
       </c>
       <c r="F226" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5820,16 +5826,16 @@
         <v>82</v>
       </c>
       <c r="C227" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D227" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E227">
         <v>76675</v>
       </c>
       <c r="F227" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5840,16 +5846,16 @@
         <v>82</v>
       </c>
       <c r="C228" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D228" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E228">
         <v>72791</v>
       </c>
       <c r="F228" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5860,16 +5866,16 @@
         <v>82</v>
       </c>
       <c r="C229" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D229" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E229">
         <v>68205</v>
       </c>
       <c r="F229" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5880,16 +5886,16 @@
         <v>82</v>
       </c>
       <c r="C230" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E230">
         <v>66541</v>
       </c>
       <c r="F230" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5900,16 +5906,16 @@
         <v>83</v>
       </c>
       <c r="C231" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E231">
         <v>122630</v>
       </c>
       <c r="F231" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5920,16 +5926,16 @@
         <v>83</v>
       </c>
       <c r="C232" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D232" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E232">
         <v>116902</v>
       </c>
       <c r="F232" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5940,16 +5946,16 @@
         <v>83</v>
       </c>
       <c r="C233" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D233" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E233">
         <v>107141</v>
       </c>
       <c r="F233" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5960,16 +5966,16 @@
         <v>84</v>
       </c>
       <c r="C234" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D234" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E234">
         <v>19755</v>
       </c>
       <c r="F234" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5980,16 +5986,16 @@
         <v>84</v>
       </c>
       <c r="C235" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D235" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E235">
         <v>18974</v>
       </c>
       <c r="F235" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6000,16 +6006,16 @@
         <v>84</v>
       </c>
       <c r="C236" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D236" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E236">
         <v>18511</v>
       </c>
       <c r="F236" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6020,16 +6026,16 @@
         <v>84</v>
       </c>
       <c r="C237" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D237" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E237">
         <v>16245</v>
       </c>
       <c r="F237" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6040,16 +6046,16 @@
         <v>84</v>
       </c>
       <c r="C238" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D238" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E238">
         <v>15235</v>
       </c>
       <c r="F238" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6060,16 +6066,16 @@
         <v>85</v>
       </c>
       <c r="C239" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D239" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E239">
         <v>21354</v>
       </c>
       <c r="F239" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6080,16 +6086,16 @@
         <v>85</v>
       </c>
       <c r="C240" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D240" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E240">
         <v>20443</v>
       </c>
       <c r="F240" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6100,16 +6106,16 @@
         <v>85</v>
       </c>
       <c r="C241" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D241" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E241">
         <v>19315</v>
       </c>
       <c r="F241" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6120,16 +6126,16 @@
         <v>85</v>
       </c>
       <c r="C242" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D242" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E242">
         <v>16389</v>
       </c>
       <c r="F242" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6140,16 +6146,16 @@
         <v>85</v>
       </c>
       <c r="C243" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D243" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E243">
         <v>15482</v>
       </c>
       <c r="F243" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6160,16 +6166,16 @@
         <v>86</v>
       </c>
       <c r="C244" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D244" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E244">
         <v>28210</v>
       </c>
       <c r="F244" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6180,16 +6186,16 @@
         <v>86</v>
       </c>
       <c r="C245" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D245" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E245">
         <v>26539</v>
       </c>
       <c r="F245" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6200,16 +6206,16 @@
         <v>86</v>
       </c>
       <c r="C246" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D246" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E246">
         <v>23062</v>
       </c>
       <c r="F246" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6220,16 +6226,16 @@
         <v>86</v>
       </c>
       <c r="C247" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D247" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E247">
         <v>22499</v>
       </c>
       <c r="F247" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6240,16 +6246,16 @@
         <v>86</v>
       </c>
       <c r="C248" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D248" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E248">
         <v>20267</v>
       </c>
       <c r="F248" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6260,16 +6266,16 @@
         <v>86</v>
       </c>
       <c r="C249" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D249" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E249">
         <v>19467</v>
       </c>
       <c r="F249" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6280,16 +6286,16 @@
         <v>86</v>
       </c>
       <c r="C250" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D250" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E250">
         <v>17989</v>
       </c>
       <c r="F250" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6300,16 +6306,16 @@
         <v>86</v>
       </c>
       <c r="C251" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D251" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E251">
         <v>16792</v>
       </c>
       <c r="F251" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6320,16 +6326,16 @@
         <v>87</v>
       </c>
       <c r="C252" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D252" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E252">
         <v>27532</v>
       </c>
       <c r="F252" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6340,16 +6346,16 @@
         <v>87</v>
       </c>
       <c r="C253" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D253" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E253">
         <v>26860</v>
       </c>
       <c r="F253" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6360,16 +6366,16 @@
         <v>87</v>
       </c>
       <c r="C254" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D254" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E254">
         <v>25756</v>
       </c>
       <c r="F254" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6380,16 +6386,16 @@
         <v>87</v>
       </c>
       <c r="C255" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D255" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E255">
         <v>19966</v>
       </c>
       <c r="F255" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6400,16 +6406,16 @@
         <v>87</v>
       </c>
       <c r="C256" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D256" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E256">
         <v>17486</v>
       </c>
       <c r="F256" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6420,16 +6426,16 @@
         <v>88</v>
       </c>
       <c r="C257" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D257" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E257">
         <v>34924</v>
       </c>
       <c r="F257" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6440,16 +6446,16 @@
         <v>89</v>
       </c>
       <c r="C258" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D258" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E258">
         <v>23670</v>
       </c>
       <c r="F258" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6460,16 +6466,16 @@
         <v>89</v>
       </c>
       <c r="C259" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D259" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E259">
         <v>21307</v>
       </c>
       <c r="F259" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6480,16 +6486,16 @@
         <v>89</v>
       </c>
       <c r="C260" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D260" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E260">
         <v>20787</v>
       </c>
       <c r="F260" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6500,16 +6506,16 @@
         <v>89</v>
       </c>
       <c r="C261" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D261" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E261">
         <v>19054</v>
       </c>
       <c r="F261" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6520,16 +6526,16 @@
         <v>89</v>
       </c>
       <c r="C262" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D262" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E262">
         <v>18588</v>
       </c>
       <c r="F262" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6540,16 +6546,16 @@
         <v>89</v>
       </c>
       <c r="C263" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D263" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E263">
         <v>17671</v>
       </c>
       <c r="F263" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6560,16 +6566,16 @@
         <v>89</v>
       </c>
       <c r="C264" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D264" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E264">
         <v>17210</v>
       </c>
       <c r="F264" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6580,16 +6586,16 @@
         <v>89</v>
       </c>
       <c r="C265" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D265" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E265">
         <v>16522</v>
       </c>
       <c r="F265" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6600,16 +6606,16 @@
         <v>90</v>
       </c>
       <c r="C266" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D266" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E266">
         <v>24304</v>
       </c>
       <c r="F266" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6620,16 +6626,16 @@
         <v>90</v>
       </c>
       <c r="C267" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D267" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E267">
         <v>22150</v>
       </c>
       <c r="F267" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6640,16 +6646,16 @@
         <v>90</v>
       </c>
       <c r="C268" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D268" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E268">
         <v>20880</v>
       </c>
       <c r="F268" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6660,16 +6666,16 @@
         <v>90</v>
       </c>
       <c r="C269" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D269" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E269">
         <v>19384</v>
       </c>
       <c r="F269" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6680,16 +6686,16 @@
         <v>90</v>
       </c>
       <c r="C270" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D270" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E270">
         <v>18590</v>
       </c>
       <c r="F270" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6700,16 +6706,16 @@
         <v>90</v>
       </c>
       <c r="C271" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D271" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E271">
         <v>18054</v>
       </c>
       <c r="F271" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6720,16 +6726,16 @@
         <v>90</v>
       </c>
       <c r="C272" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D272" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E272">
         <v>17269</v>
       </c>
       <c r="F272" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6740,16 +6746,16 @@
         <v>90</v>
       </c>
       <c r="C273" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D273" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E273">
         <v>16685</v>
       </c>
       <c r="F273" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6760,16 +6766,16 @@
         <v>91</v>
       </c>
       <c r="C274" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D274" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E274">
         <v>29127</v>
       </c>
       <c r="F274" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6780,16 +6786,16 @@
         <v>91</v>
       </c>
       <c r="C275" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D275" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E275">
         <v>28389</v>
       </c>
       <c r="F275" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6800,16 +6806,16 @@
         <v>91</v>
       </c>
       <c r="C276" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D276" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E276">
         <v>27696</v>
       </c>
       <c r="F276" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6820,16 +6826,16 @@
         <v>91</v>
       </c>
       <c r="C277" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D277" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E277">
         <v>25740</v>
       </c>
       <c r="F277" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6840,16 +6846,16 @@
         <v>91</v>
       </c>
       <c r="C278" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D278" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E278">
         <v>22881</v>
       </c>
       <c r="F278" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6860,16 +6866,16 @@
         <v>91</v>
       </c>
       <c r="C279" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D279" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E279">
         <v>21584</v>
       </c>
       <c r="F279" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6880,16 +6886,16 @@
         <v>91</v>
       </c>
       <c r="C280" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D280" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E280">
         <v>19616</v>
       </c>
       <c r="F280" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6900,16 +6906,16 @@
         <v>91</v>
       </c>
       <c r="C281" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D281" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E281">
         <v>19137</v>
       </c>
       <c r="F281" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6920,16 +6926,16 @@
         <v>91</v>
       </c>
       <c r="C282" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D282" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E282">
         <v>17310</v>
       </c>
       <c r="F282" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6940,16 +6946,16 @@
         <v>91</v>
       </c>
       <c r="C283" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D283" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E283">
         <v>16711</v>
       </c>
       <c r="F283" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6960,16 +6966,16 @@
         <v>92</v>
       </c>
       <c r="C284" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D284" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E284">
         <v>26439</v>
       </c>
       <c r="F284" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6980,16 +6986,16 @@
         <v>92</v>
       </c>
       <c r="C285" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D285" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E285">
         <v>25794</v>
       </c>
       <c r="F285" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7000,16 +7006,16 @@
         <v>92</v>
       </c>
       <c r="C286" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D286" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E286">
         <v>23944</v>
       </c>
       <c r="F286" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7020,16 +7026,16 @@
         <v>92</v>
       </c>
       <c r="C287" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D287" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E287">
         <v>22551</v>
       </c>
       <c r="F287" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7040,16 +7046,16 @@
         <v>92</v>
       </c>
       <c r="C288" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D288" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E288">
         <v>21669</v>
       </c>
       <c r="F288" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7060,16 +7066,16 @@
         <v>92</v>
       </c>
       <c r="C289" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D289" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E289">
         <v>20926</v>
       </c>
       <c r="F289" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7080,16 +7086,16 @@
         <v>92</v>
       </c>
       <c r="C290" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D290" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E290">
         <v>18963</v>
       </c>
       <c r="F290" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7100,16 +7106,16 @@
         <v>92</v>
       </c>
       <c r="C291" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D291" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E291">
         <v>18051</v>
       </c>
       <c r="F291" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7120,16 +7126,16 @@
         <v>92</v>
       </c>
       <c r="C292" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D292" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E292">
         <v>17265</v>
       </c>
       <c r="F292" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7140,16 +7146,16 @@
         <v>92</v>
       </c>
       <c r="C293" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D293" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E293">
         <v>16694</v>
       </c>
       <c r="F293" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7160,16 +7166,16 @@
         <v>93</v>
       </c>
       <c r="C294" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D294" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E294">
         <v>26714</v>
       </c>
       <c r="F294" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7180,16 +7186,16 @@
         <v>93</v>
       </c>
       <c r="C295" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D295" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E295">
         <v>21512</v>
       </c>
       <c r="F295" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7200,16 +7206,16 @@
         <v>94</v>
       </c>
       <c r="C296" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D296" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E296">
         <v>23754</v>
       </c>
       <c r="F296" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7220,16 +7226,16 @@
         <v>94</v>
       </c>
       <c r="C297" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D297" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E297">
         <v>22346</v>
       </c>
       <c r="F297" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7240,16 +7246,16 @@
         <v>94</v>
       </c>
       <c r="C298" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D298" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E298">
         <v>20556</v>
       </c>
       <c r="F298" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7260,16 +7266,16 @@
         <v>94</v>
       </c>
       <c r="C299" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D299" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E299">
         <v>17333</v>
       </c>
       <c r="F299" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7280,16 +7286,16 @@
         <v>94</v>
       </c>
       <c r="C300" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D300" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E300">
         <v>16910</v>
       </c>
       <c r="F300" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7300,16 +7306,16 @@
         <v>95</v>
       </c>
       <c r="C301" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D301" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E301">
         <v>39909</v>
       </c>
       <c r="F301" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7320,16 +7326,16 @@
         <v>95</v>
       </c>
       <c r="C302" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D302" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E302">
         <v>34183</v>
       </c>
       <c r="F302" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7340,16 +7346,16 @@
         <v>95</v>
       </c>
       <c r="C303" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D303" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E303">
         <v>27982</v>
       </c>
       <c r="F303" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7360,16 +7366,16 @@
         <v>95</v>
       </c>
       <c r="C304" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D304" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E304">
         <v>27299</v>
       </c>
       <c r="F304" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7380,16 +7386,16 @@
         <v>95</v>
       </c>
       <c r="C305" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D305" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E305">
         <v>23657</v>
       </c>
       <c r="F305" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7400,16 +7406,16 @@
         <v>96</v>
       </c>
       <c r="C306" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D306" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E306">
         <v>38682</v>
       </c>
       <c r="F306" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7420,16 +7426,16 @@
         <v>96</v>
       </c>
       <c r="C307" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D307" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E307">
         <v>32012</v>
       </c>
       <c r="F307" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7440,16 +7446,16 @@
         <v>96</v>
       </c>
       <c r="C308" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D308" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E308">
         <v>27977</v>
       </c>
       <c r="F308" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7460,16 +7466,16 @@
         <v>96</v>
       </c>
       <c r="C309" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D309" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E309">
         <v>27294</v>
       </c>
       <c r="F309" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7480,16 +7486,16 @@
         <v>96</v>
       </c>
       <c r="C310" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D310" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E310">
         <v>23549</v>
       </c>
       <c r="F310" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7500,16 +7506,16 @@
         <v>96</v>
       </c>
       <c r="C311" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D311" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E311">
         <v>22454</v>
       </c>
       <c r="F311" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7520,16 +7526,16 @@
         <v>96</v>
       </c>
       <c r="C312" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D312" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E312">
         <v>19295</v>
       </c>
       <c r="F312" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7540,16 +7546,16 @@
         <v>97</v>
       </c>
       <c r="C313" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D313" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E313">
         <v>30107</v>
       </c>
       <c r="F313" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7560,16 +7566,16 @@
         <v>97</v>
       </c>
       <c r="C314" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D314" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E314">
         <v>27473</v>
       </c>
       <c r="F314" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7580,16 +7586,16 @@
         <v>97</v>
       </c>
       <c r="C315" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D315" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E315">
         <v>22167</v>
       </c>
       <c r="F315" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7600,16 +7606,16 @@
         <v>97</v>
       </c>
       <c r="C316" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D316" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E316">
         <v>19944</v>
       </c>
       <c r="F316" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7620,16 +7626,16 @@
         <v>97</v>
       </c>
       <c r="C317" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D317" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E317">
         <v>18257</v>
       </c>
       <c r="F317" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7640,16 +7646,16 @@
         <v>97</v>
       </c>
       <c r="C318" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D318" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E318">
         <v>16413</v>
       </c>
       <c r="F318" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7660,16 +7666,16 @@
         <v>97</v>
       </c>
       <c r="C319" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D319" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E319">
         <v>15637</v>
       </c>
       <c r="F319" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7680,16 +7686,16 @@
         <v>98</v>
       </c>
       <c r="C320" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D320" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E320">
         <v>27168</v>
       </c>
       <c r="F320" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7700,16 +7706,16 @@
         <v>98</v>
       </c>
       <c r="C321" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D321" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E321">
         <v>26505</v>
       </c>
       <c r="F321" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7720,16 +7726,16 @@
         <v>98</v>
       </c>
       <c r="C322" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D322" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E322">
         <v>24325</v>
       </c>
       <c r="F322" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7740,16 +7746,16 @@
         <v>98</v>
       </c>
       <c r="C323" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D323" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E323">
         <v>22128</v>
       </c>
       <c r="F323" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7760,16 +7766,16 @@
         <v>98</v>
       </c>
       <c r="C324" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D324" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E324">
         <v>18749</v>
       </c>
       <c r="F324" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7780,16 +7786,16 @@
         <v>98</v>
       </c>
       <c r="C325" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D325" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E325">
         <v>17239</v>
       </c>
       <c r="F325" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7800,16 +7806,16 @@
         <v>98</v>
       </c>
       <c r="C326" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D326" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E326">
         <v>16309</v>
       </c>
       <c r="F326" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7820,16 +7826,16 @@
         <v>98</v>
       </c>
       <c r="C327" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D327" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E327">
         <v>14012</v>
       </c>
       <c r="F327" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7840,16 +7846,16 @@
         <v>99</v>
       </c>
       <c r="C328" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D328" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E328">
         <v>34577</v>
       </c>
       <c r="F328" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7860,16 +7866,16 @@
         <v>99</v>
       </c>
       <c r="C329" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D329" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E329">
         <v>32736</v>
       </c>
       <c r="F329" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7880,16 +7886,16 @@
         <v>99</v>
       </c>
       <c r="C330" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D330" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E330">
         <v>29971</v>
       </c>
       <c r="F330" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7900,16 +7906,16 @@
         <v>99</v>
       </c>
       <c r="C331" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D331" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E331">
         <v>29240</v>
       </c>
       <c r="F331" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7920,16 +7926,16 @@
         <v>99</v>
       </c>
       <c r="C332" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D332" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E332">
         <v>27300</v>
       </c>
       <c r="F332" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7940,16 +7946,16 @@
         <v>99</v>
       </c>
       <c r="C333" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D333" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E333">
         <v>22301</v>
       </c>
       <c r="F333" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7960,16 +7966,16 @@
         <v>99</v>
       </c>
       <c r="C334" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D334" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E334">
         <v>20067</v>
       </c>
       <c r="F334" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7980,16 +7986,16 @@
         <v>99</v>
       </c>
       <c r="C335" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D335" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E335">
         <v>18328</v>
       </c>
       <c r="F335" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -8000,16 +8006,16 @@
         <v>99</v>
       </c>
       <c r="C336" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D336" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E336">
         <v>17319</v>
       </c>
       <c r="F336" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8020,16 +8026,16 @@
         <v>100</v>
       </c>
       <c r="C337" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D337" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E337">
         <v>33868</v>
       </c>
       <c r="F337" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -8040,16 +8046,16 @@
         <v>100</v>
       </c>
       <c r="C338" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D338" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E338">
         <v>32139</v>
       </c>
       <c r="F338" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8060,16 +8066,16 @@
         <v>100</v>
       </c>
       <c r="C339" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D339" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E339">
         <v>28339</v>
       </c>
       <c r="F339" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -8080,16 +8086,16 @@
         <v>100</v>
       </c>
       <c r="C340" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D340" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E340">
         <v>26069</v>
       </c>
       <c r="F340" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8100,16 +8106,16 @@
         <v>100</v>
       </c>
       <c r="C341" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D341" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E341">
         <v>22746</v>
       </c>
       <c r="F341" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -8120,16 +8126,16 @@
         <v>100</v>
       </c>
       <c r="C342" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D342" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E342">
         <v>22073</v>
       </c>
       <c r="F342" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -8140,16 +8146,16 @@
         <v>100</v>
       </c>
       <c r="C343" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D343" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E343">
         <v>19772</v>
       </c>
       <c r="F343" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -8160,16 +8166,16 @@
         <v>100</v>
       </c>
       <c r="C344" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D344" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E344">
         <v>17952</v>
       </c>
       <c r="F344" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -8180,16 +8186,16 @@
         <v>101</v>
       </c>
       <c r="C345" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D345" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E345">
         <v>135587</v>
       </c>
       <c r="F345" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -8200,16 +8206,16 @@
         <v>101</v>
       </c>
       <c r="C346" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D346" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E346">
         <v>132280</v>
       </c>
       <c r="F346" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8220,16 +8226,16 @@
         <v>102</v>
       </c>
       <c r="C347" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D347" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E347">
         <v>211512</v>
       </c>
       <c r="F347" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8240,16 +8246,16 @@
         <v>102</v>
       </c>
       <c r="C348" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D348" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E348">
         <v>206353</v>
       </c>
       <c r="F348" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8260,16 +8266,16 @@
         <v>103</v>
       </c>
       <c r="C349" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D349" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E349">
         <v>141967</v>
       </c>
       <c r="F349" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8280,16 +8286,16 @@
         <v>104</v>
       </c>
       <c r="C350" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D350" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E350">
         <v>143722</v>
       </c>
       <c r="F350" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8300,16 +8306,16 @@
         <v>104</v>
       </c>
       <c r="C351" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D351" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E351">
         <v>119187</v>
       </c>
       <c r="F351" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8320,16 +8326,16 @@
         <v>104</v>
       </c>
       <c r="C352" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D352" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E352">
         <v>111138</v>
       </c>
       <c r="F352" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8340,16 +8346,16 @@
         <v>105</v>
       </c>
       <c r="C353" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D353" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E353">
         <v>145168</v>
       </c>
       <c r="F353" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -8360,16 +8366,16 @@
         <v>105</v>
       </c>
       <c r="C354" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D354" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E354">
         <v>121339</v>
       </c>
       <c r="F354" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8380,16 +8386,16 @@
         <v>106</v>
       </c>
       <c r="C355" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D355" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E355">
         <v>128598</v>
       </c>
       <c r="F355" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8400,16 +8406,16 @@
         <v>107</v>
       </c>
       <c r="C356" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D356" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E356">
         <v>89559</v>
       </c>
       <c r="F356" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8420,16 +8426,16 @@
         <v>107</v>
       </c>
       <c r="C357" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D357" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E357">
         <v>86923</v>
       </c>
       <c r="F357" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8440,16 +8446,16 @@
         <v>107</v>
       </c>
       <c r="C358" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D358" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E358">
         <v>84333</v>
       </c>
       <c r="F358" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8460,16 +8466,16 @@
         <v>108</v>
       </c>
       <c r="C359" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D359" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E359">
         <v>349603</v>
       </c>
       <c r="F359" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -8480,16 +8486,16 @@
         <v>108</v>
       </c>
       <c r="C360" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D360" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E360">
         <v>296331</v>
       </c>
       <c r="F360" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -8500,16 +8506,16 @@
         <v>108</v>
       </c>
       <c r="C361" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D361" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E361">
         <v>256280</v>
       </c>
       <c r="F361" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -8520,16 +8526,16 @@
         <v>108</v>
       </c>
       <c r="C362" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D362" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E362">
         <v>230584</v>
       </c>
       <c r="F362" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -8540,16 +8546,16 @@
         <v>108</v>
       </c>
       <c r="C363" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D363" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E363">
         <v>218048</v>
       </c>
       <c r="F363" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -8560,16 +8566,16 @@
         <v>108</v>
       </c>
       <c r="C364" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D364" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E364">
         <v>191292</v>
       </c>
       <c r="F364" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -8580,16 +8586,16 @@
         <v>108</v>
       </c>
       <c r="C365" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D365" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E365">
         <v>175739</v>
       </c>
       <c r="F365" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -8600,16 +8606,16 @@
         <v>109</v>
       </c>
       <c r="C366" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D366" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E366">
         <v>348662</v>
       </c>
       <c r="F366" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -8620,16 +8626,16 @@
         <v>109</v>
       </c>
       <c r="C367" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D367" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E367">
         <v>309301</v>
       </c>
       <c r="F367" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -8640,16 +8646,16 @@
         <v>110</v>
       </c>
       <c r="C368" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D368" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E368">
         <v>93994</v>
       </c>
       <c r="F368" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -8660,16 +8666,16 @@
         <v>110</v>
       </c>
       <c r="C369" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D369" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E369">
         <v>88354</v>
       </c>
       <c r="F369" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -8680,16 +8686,16 @@
         <v>110</v>
       </c>
       <c r="C370" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D370" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E370">
         <v>77184</v>
       </c>
       <c r="F370" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -8700,16 +8706,16 @@
         <v>111</v>
       </c>
       <c r="C371" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D371" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E371">
         <v>76543</v>
       </c>
       <c r="F371" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8720,16 +8726,16 @@
         <v>111</v>
       </c>
       <c r="C372" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D372" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E372">
         <v>73246</v>
       </c>
       <c r="F372" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8740,16 +8746,16 @@
         <v>111</v>
       </c>
       <c r="C373" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D373" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E373">
         <v>70455</v>
       </c>
       <c r="F373" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8760,16 +8766,16 @@
         <v>112</v>
       </c>
       <c r="C374" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D374" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E374">
         <v>290950</v>
       </c>
       <c r="F374" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8780,16 +8786,16 @@
         <v>112</v>
       </c>
       <c r="C375" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D375" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E375">
         <v>258788</v>
       </c>
       <c r="F375" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8800,16 +8806,16 @@
         <v>113</v>
       </c>
       <c r="C376" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D376" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E376">
         <v>323845</v>
       </c>
       <c r="F376" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8820,16 +8826,16 @@
         <v>113</v>
       </c>
       <c r="C377" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D377" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E377">
         <v>292967</v>
       </c>
       <c r="F377" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8840,16 +8846,16 @@
         <v>113</v>
       </c>
       <c r="C378" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D378" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E378">
         <v>173497</v>
       </c>
       <c r="F378" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8860,16 +8866,16 @@
         <v>113</v>
       </c>
       <c r="C379" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D379" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E379">
         <v>146873</v>
       </c>
       <c r="F379" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8880,16 +8886,16 @@
         <v>114</v>
       </c>
       <c r="C380" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D380" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E380">
         <v>118592</v>
       </c>
       <c r="F380" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8900,16 +8906,16 @@
         <v>114</v>
       </c>
       <c r="C381" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D381" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E381">
         <v>108799</v>
       </c>
       <c r="F381" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8920,16 +8926,16 @@
         <v>114</v>
       </c>
       <c r="C382" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D382" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E382">
         <v>104723</v>
       </c>
       <c r="F382" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8940,16 +8946,16 @@
         <v>115</v>
       </c>
       <c r="C383" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D383" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E383">
         <v>140745</v>
       </c>
       <c r="F383" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8960,16 +8966,16 @@
         <v>115</v>
       </c>
       <c r="C384" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D384" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E384">
         <v>120944</v>
       </c>
       <c r="F384" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8980,16 +8986,16 @@
         <v>115</v>
       </c>
       <c r="C385" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D385" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E385">
         <v>115391</v>
       </c>
       <c r="F385" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -9000,16 +9006,16 @@
         <v>116</v>
       </c>
       <c r="C386" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D386" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E386">
         <v>283331</v>
       </c>
       <c r="F386" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -9020,16 +9026,16 @@
         <v>116</v>
       </c>
       <c r="C387" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D387" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E387">
         <v>241871</v>
       </c>
       <c r="F387" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -9040,16 +9046,16 @@
         <v>116</v>
       </c>
       <c r="C388" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D388" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E388">
         <v>227383</v>
       </c>
       <c r="F388" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -9060,16 +9066,16 @@
         <v>116</v>
       </c>
       <c r="C389" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D389" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E389">
         <v>202248</v>
       </c>
       <c r="F389" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -9080,16 +9086,16 @@
         <v>117</v>
       </c>
       <c r="C390" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D390" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E390">
         <v>184152</v>
       </c>
       <c r="F390" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -9100,16 +9106,16 @@
         <v>118</v>
       </c>
       <c r="C391" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D391" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E391">
         <v>86611</v>
       </c>
       <c r="F391" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -9120,16 +9126,16 @@
         <v>118</v>
       </c>
       <c r="C392" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D392" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E392">
         <v>77747</v>
       </c>
       <c r="F392" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -9140,16 +9146,16 @@
         <v>119</v>
       </c>
       <c r="C393" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D393" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E393">
         <v>76705</v>
       </c>
       <c r="F393" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -9160,16 +9166,16 @@
         <v>119</v>
       </c>
       <c r="C394" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D394" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E394">
         <v>68403</v>
       </c>
       <c r="F394" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -9180,16 +9186,16 @@
         <v>119</v>
       </c>
       <c r="C395" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D395" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E395">
         <v>62798</v>
       </c>
       <c r="F395" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -9200,16 +9206,16 @@
         <v>119</v>
       </c>
       <c r="C396" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D396" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E396">
         <v>56010</v>
       </c>
       <c r="F396" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -9220,16 +9226,16 @@
         <v>120</v>
       </c>
       <c r="C397" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D397" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E397">
         <v>301741</v>
       </c>
       <c r="F397" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -9240,16 +9246,16 @@
         <v>120</v>
       </c>
       <c r="C398" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D398" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E398">
         <v>258373</v>
       </c>
       <c r="F398" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -9260,16 +9266,16 @@
         <v>120</v>
       </c>
       <c r="C399" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D399" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E399">
         <v>231983</v>
       </c>
       <c r="F399" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -9280,16 +9286,16 @@
         <v>120</v>
       </c>
       <c r="C400" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D400" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E400">
         <v>224152</v>
       </c>
       <c r="F400" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -9300,16 +9306,16 @@
         <v>121</v>
       </c>
       <c r="C401" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D401" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E401">
         <v>127334</v>
       </c>
       <c r="F401" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -9320,16 +9326,16 @@
         <v>121</v>
       </c>
       <c r="C402" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D402" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E402">
         <v>111038</v>
       </c>
       <c r="F402" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -9340,16 +9346,16 @@
         <v>122</v>
       </c>
       <c r="C403" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D403" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E403">
         <v>283181</v>
       </c>
       <c r="F403" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -9360,16 +9366,16 @@
         <v>122</v>
       </c>
       <c r="C404" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D404" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E404">
         <v>243617</v>
       </c>
       <c r="F404" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -9380,16 +9386,16 @@
         <v>122</v>
       </c>
       <c r="C405" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D405" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E405">
         <v>228910</v>
       </c>
       <c r="F405" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -9400,16 +9406,16 @@
         <v>122</v>
       </c>
       <c r="C406" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D406" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E406">
         <v>203891</v>
       </c>
       <c r="F406" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -9420,16 +9426,16 @@
         <v>123</v>
       </c>
       <c r="C407" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D407" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E407">
         <v>199841</v>
       </c>
       <c r="F407" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -9440,16 +9446,16 @@
         <v>124</v>
       </c>
       <c r="C408" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D408" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E408">
         <v>102108</v>
       </c>
       <c r="F408" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -9460,16 +9466,16 @@
         <v>124</v>
       </c>
       <c r="C409" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D409" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E409">
         <v>89819</v>
       </c>
       <c r="F409" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -9480,16 +9486,16 @@
         <v>124</v>
       </c>
       <c r="C410" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D410" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E410">
         <v>77470</v>
       </c>
       <c r="F410" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -9500,16 +9506,16 @@
         <v>124</v>
       </c>
       <c r="C411" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D411" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E411">
         <v>73319</v>
       </c>
       <c r="F411" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -9520,16 +9526,16 @@
         <v>124</v>
       </c>
       <c r="C412" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D412" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E412">
         <v>70524</v>
       </c>
       <c r="F412" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -9540,16 +9546,16 @@
         <v>125</v>
       </c>
       <c r="C413" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D413" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E413">
         <v>54250</v>
       </c>
       <c r="F413" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -9560,16 +9566,16 @@
         <v>125</v>
       </c>
       <c r="C414" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D414" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E414">
         <v>52105</v>
       </c>
       <c r="F414" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -9580,16 +9586,16 @@
         <v>125</v>
       </c>
       <c r="C415" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D415" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E415">
         <v>43661</v>
       </c>
       <c r="F415" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -9600,16 +9606,16 @@
         <v>125</v>
       </c>
       <c r="C416" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D416" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E416">
         <v>42596</v>
       </c>
       <c r="F416" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -9620,16 +9626,16 @@
         <v>126</v>
       </c>
       <c r="C417" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D417" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E417">
         <v>90201</v>
       </c>
       <c r="F417" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -9640,16 +9646,16 @@
         <v>126</v>
       </c>
       <c r="C418" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D418" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E418">
         <v>87451</v>
       </c>
       <c r="F418" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -9660,16 +9666,16 @@
         <v>126</v>
       </c>
       <c r="C419" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D419" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E419">
         <v>84526</v>
       </c>
       <c r="F419" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -9680,16 +9686,16 @@
         <v>127</v>
       </c>
       <c r="C420" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D420" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E420">
         <v>62441</v>
       </c>
       <c r="F420" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -9700,16 +9706,16 @@
         <v>127</v>
       </c>
       <c r="C421" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D421" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E421">
         <v>57784</v>
       </c>
       <c r="F421" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -9720,16 +9726,16 @@
         <v>127</v>
       </c>
       <c r="C422" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D422" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E422">
         <v>54037</v>
       </c>
       <c r="F422" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -9740,16 +9746,16 @@
         <v>127</v>
       </c>
       <c r="C423" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D423" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E423">
         <v>47908</v>
       </c>
       <c r="F423" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -9760,16 +9766,16 @@
         <v>127</v>
       </c>
       <c r="C424" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D424" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E424">
         <v>39395</v>
       </c>
       <c r="F424" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -9780,16 +9786,16 @@
         <v>128</v>
       </c>
       <c r="C425" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D425" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E425">
         <v>84885</v>
       </c>
       <c r="F425" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -9800,16 +9806,16 @@
         <v>128</v>
       </c>
       <c r="C426" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D426" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E426">
         <v>77334</v>
       </c>
       <c r="F426" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -9820,16 +9826,16 @@
         <v>128</v>
       </c>
       <c r="C427" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D427" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E427">
         <v>67853</v>
       </c>
       <c r="F427" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -9840,16 +9846,16 @@
         <v>128</v>
       </c>
       <c r="C428" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D428" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E428">
         <v>62501</v>
       </c>
       <c r="F428" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9860,16 +9866,16 @@
         <v>128</v>
       </c>
       <c r="C429" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D429" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E429">
         <v>56575</v>
       </c>
       <c r="F429" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9880,16 +9886,16 @@
         <v>128</v>
       </c>
       <c r="C430" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D430" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E430">
         <v>49033</v>
       </c>
       <c r="F430" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9900,16 +9906,16 @@
         <v>128</v>
       </c>
       <c r="C431" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D431" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E431">
         <v>39758</v>
       </c>
       <c r="F431" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9920,16 +9926,16 @@
         <v>129</v>
       </c>
       <c r="C432" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D432" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E432">
         <v>26991</v>
       </c>
       <c r="F432" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9940,16 +9946,16 @@
         <v>129</v>
       </c>
       <c r="C433" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D433" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E433">
         <v>22110</v>
       </c>
       <c r="F433" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9960,16 +9966,16 @@
         <v>129</v>
       </c>
       <c r="C434" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D434" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E434">
         <v>20279</v>
       </c>
       <c r="F434" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9980,16 +9986,16 @@
         <v>129</v>
       </c>
       <c r="C435" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D435" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E435">
         <v>18125</v>
       </c>
       <c r="F435" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -10000,16 +10006,16 @@
         <v>129</v>
       </c>
       <c r="C436" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D436" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E436">
         <v>16814</v>
       </c>
       <c r="F436" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -10020,16 +10026,16 @@
         <v>129</v>
       </c>
       <c r="C437" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D437" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E437">
         <v>14619</v>
       </c>
       <c r="F437" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -10040,16 +10046,16 @@
         <v>129</v>
       </c>
       <c r="C438" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D438" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E438">
         <v>12857</v>
       </c>
       <c r="F438" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -10060,16 +10066,16 @@
         <v>130</v>
       </c>
       <c r="C439" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D439" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E439">
         <v>20093</v>
       </c>
       <c r="F439" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -10080,16 +10086,16 @@
         <v>130</v>
       </c>
       <c r="C440" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D440" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E440">
         <v>18583</v>
       </c>
       <c r="F440" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -10100,16 +10106,16 @@
         <v>130</v>
       </c>
       <c r="C441" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D441" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E441">
         <v>18129</v>
       </c>
       <c r="F441" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -10120,16 +10126,16 @@
         <v>130</v>
       </c>
       <c r="C442" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D442" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E442">
         <v>17686</v>
       </c>
       <c r="F442" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -10140,16 +10146,16 @@
         <v>130</v>
       </c>
       <c r="C443" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D443" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E443">
         <v>15818</v>
       </c>
       <c r="F443" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -10160,16 +10166,16 @@
         <v>130</v>
       </c>
       <c r="C444" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D444" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E444">
         <v>14067</v>
       </c>
       <c r="F444" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -10180,16 +10186,16 @@
         <v>130</v>
       </c>
       <c r="C445" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D445" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E445">
         <v>12714</v>
       </c>
       <c r="F445" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -10200,16 +10206,16 @@
         <v>131</v>
       </c>
       <c r="C446" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D446" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E446">
         <v>21763</v>
       </c>
       <c r="F446" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -10220,16 +10226,16 @@
         <v>131</v>
       </c>
       <c r="C447" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D447" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E447">
         <v>21138</v>
       </c>
       <c r="F447" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -10240,16 +10246,16 @@
         <v>131</v>
       </c>
       <c r="C448" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D448" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E448">
         <v>20456</v>
       </c>
       <c r="F448" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -10260,16 +10266,16 @@
         <v>131</v>
       </c>
       <c r="C449" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D449" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E449">
         <v>17122</v>
       </c>
       <c r="F449" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -10280,16 +10286,16 @@
         <v>131</v>
       </c>
       <c r="C450" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D450" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E450">
         <v>15138</v>
       </c>
       <c r="F450" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -10300,16 +10306,16 @@
         <v>132</v>
       </c>
       <c r="C451" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D451" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E451">
         <v>20847</v>
       </c>
       <c r="F451" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -10320,16 +10326,16 @@
         <v>132</v>
       </c>
       <c r="C452" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D452" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E452">
         <v>20338</v>
       </c>
       <c r="F452" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -10340,16 +10346,16 @@
         <v>132</v>
       </c>
       <c r="C453" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D453" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E453">
         <v>18767</v>
       </c>
       <c r="F453" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -10360,16 +10366,16 @@
         <v>132</v>
       </c>
       <c r="C454" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D454" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E454">
         <v>16709</v>
       </c>
       <c r="F454" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -10380,16 +10386,16 @@
         <v>132</v>
       </c>
       <c r="C455" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D455" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E455">
         <v>16301</v>
       </c>
       <c r="F455" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -10400,16 +10406,16 @@
         <v>132</v>
       </c>
       <c r="C456" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D456" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E456">
         <v>14262</v>
       </c>
       <c r="F456" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -10420,16 +10426,16 @@
         <v>133</v>
       </c>
       <c r="C457" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D457" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E457">
         <v>24432</v>
       </c>
       <c r="F457" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -10440,16 +10446,16 @@
         <v>133</v>
       </c>
       <c r="C458" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D458" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E458">
         <v>21312</v>
       </c>
       <c r="F458" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -10460,16 +10466,16 @@
         <v>133</v>
       </c>
       <c r="C459" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D459" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E459">
         <v>20655</v>
       </c>
       <c r="F459" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -10480,16 +10486,16 @@
         <v>133</v>
       </c>
       <c r="C460" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D460" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E460">
         <v>19107</v>
       </c>
       <c r="F460" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -10500,16 +10506,156 @@
         <v>133</v>
       </c>
       <c r="C461" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D461" t="s">
-        <v>302</v>
-      </c>
-      <c r="E461" t="s">
         <v>303</v>
       </c>
+      <c r="E461">
+        <v>17244</v>
+      </c>
       <c r="F461" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" t="s">
+        <v>10</v>
+      </c>
+      <c r="B462" t="s">
+        <v>133</v>
+      </c>
+      <c r="C462" t="s">
+        <v>138</v>
+      </c>
+      <c r="D462" t="s">
+        <v>303</v>
+      </c>
+      <c r="E462">
+        <v>15853</v>
+      </c>
+      <c r="F462" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" t="s">
+        <v>10</v>
+      </c>
+      <c r="B463" t="s">
+        <v>134</v>
+      </c>
+      <c r="C463" t="s">
+        <v>163</v>
+      </c>
+      <c r="D463" t="s">
         <v>304</v>
+      </c>
+      <c r="E463">
+        <v>92827</v>
+      </c>
+      <c r="F463" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" t="s">
+        <v>10</v>
+      </c>
+      <c r="B464" t="s">
+        <v>134</v>
+      </c>
+      <c r="C464" t="s">
+        <v>170</v>
+      </c>
+      <c r="D464" t="s">
+        <v>304</v>
+      </c>
+      <c r="E464">
+        <v>84744</v>
+      </c>
+      <c r="F464" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" t="s">
+        <v>10</v>
+      </c>
+      <c r="B465" t="s">
+        <v>134</v>
+      </c>
+      <c r="C465" t="s">
+        <v>180</v>
+      </c>
+      <c r="D465" t="s">
+        <v>304</v>
+      </c>
+      <c r="E465">
+        <v>46427</v>
+      </c>
+      <c r="F465" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" t="s">
+        <v>10</v>
+      </c>
+      <c r="B466" t="s">
+        <v>134</v>
+      </c>
+      <c r="C466" t="s">
+        <v>175</v>
+      </c>
+      <c r="D466" t="s">
+        <v>304</v>
+      </c>
+      <c r="E466">
+        <v>44536</v>
+      </c>
+      <c r="F466" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" t="s">
+        <v>10</v>
+      </c>
+      <c r="B467" t="s">
+        <v>134</v>
+      </c>
+      <c r="C467" t="s">
+        <v>174</v>
+      </c>
+      <c r="D467" t="s">
+        <v>304</v>
+      </c>
+      <c r="E467">
+        <v>43449</v>
+      </c>
+      <c r="F467" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" t="s">
+        <v>10</v>
+      </c>
+      <c r="B468" t="s">
+        <v>134</v>
+      </c>
+      <c r="C468" t="s">
+        <v>140</v>
+      </c>
+      <c r="D468" t="s">
+        <v>304</v>
+      </c>
+      <c r="E468" t="s">
+        <v>305</v>
+      </c>
+      <c r="F468" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp.xlsx
+++ b/Fipe_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="427">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -1291,7 +1291,7 @@
     <t>008165-5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 169084.00</t>
+    <t xml:space="preserve"> 164960.00</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -1652,7 +1652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F663"/>
+  <dimension ref="A1:F664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14911,10 +14911,30 @@
       <c r="D663" t="s">
         <v>424</v>
       </c>
-      <c r="E663" t="s">
+      <c r="E663">
+        <v>169084</v>
+      </c>
+      <c r="F663" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6">
+      <c r="A664" t="s">
+        <v>10</v>
+      </c>
+      <c r="B664" t="s">
+        <v>194</v>
+      </c>
+      <c r="C664" t="s">
+        <v>228</v>
+      </c>
+      <c r="D664" t="s">
+        <v>424</v>
+      </c>
+      <c r="E664" t="s">
         <v>425</v>
       </c>
-      <c r="F663" t="s">
+      <c r="F664" t="s">
         <v>426</v>
       </c>
     </row>
